--- a/CCGX-Modbus-TCP-register-list.xlsx
+++ b/CCGX-Modbus-TCP-register-list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Field list" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2419" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2419" uniqueCount="823">
   <si>
     <t xml:space="preserve">modbusTCP</t>
   </si>
@@ -669,7 +669,7 @@
     <t xml:space="preserve">/Hub4/L1/AcPowerSetpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Instructs the multi to charge/discharge with giving power. Negative = discharge. Used by the control loop in grid-parallel systems.</t>
+    <t xml:space="preserve">Instructs the multi to charge/discharge with giving power. Negative = discharge. Used by the control loop in grid-parallel systems. For more information see https://www.victronenergy.com/live/ess:ess_mode_2_and_3</t>
   </si>
   <si>
     <t xml:space="preserve">ESS disable charge flag phase</t>
@@ -681,7 +681,7 @@
     <t xml:space="preserve">0=Charge allowed;1=Charge disabled</t>
   </si>
   <si>
-    <t xml:space="preserve">Enables/Disables charge (0=enabled, 1=disabled). Note that power setpoint will yield to this setting</t>
+    <t xml:space="preserve">Enables/Disables charge (0=enabled, 1=disabled). Note that power setpoint will yield to this setting. For more information see https://www.victronenergy.com/live/ess:ess_mode_2_and_3</t>
   </si>
   <si>
     <t xml:space="preserve">ESS disable feedback flag phase</t>
@@ -693,13 +693,34 @@
     <t xml:space="preserve">0=Feed in allowed;1=Feed in disabled</t>
   </si>
   <si>
-    <t xml:space="preserve">Enables/Disables feedback (0=enabled, 1=disabled). Note that power setpoint will yield to this setting</t>
+    <t xml:space="preserve">Enables/Disables feedback (0=enabled, 1=disabled). Note that power setpoint will yield to this setting. For more information see https://www.victronenergy.com/live/ess:ess_mode_2_and_3</t>
   </si>
   <si>
     <t xml:space="preserve">ESS power setpoint phase 2</t>
   </si>
   <si>
     <t xml:space="preserve">/Hub4/L2/AcPowerSetpoint</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Instructs the multi to charge/discharge with giving power. Negative = discharge. Used by the control loop in grid-parallel systems. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">For more information see https://www.victronenergy.com/live/ess:ess_mode_2_and_3</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">ESS power setpoint phase 3</t>
@@ -2497,7 +2518,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2534,6 +2555,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2830,6 +2857,219 @@
 </styleSheet>
 </file>
 
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" guid="{BCC1EE58-AF63-4E22-9171-A4F2D831AB9B}">
+  <header guid="{F6B8F0B7-BF40-46DD-A813-C3431AF41612}" dateTime="2018-10-25T23:03:00.000000000Z" userName=" " r:id="rId1" minRId="1" maxRId="1" maxSheetId="4">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{53BF990E-6617-4C44-915E-A0420411E75E}" dateTime="2018-10-25T23:04:00.000000000Z" userName=" " r:id="rId2" minRId="2" maxRId="3" maxSheetId="4">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{BCC1EE58-AF63-4E22-9171-A4F2D831AB9B}" dateTime="2018-10-25T23:05:00.000000000Z" userName=" " r:id="rId3" minRId="4" maxRId="5" maxSheetId="4">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+</headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="1" ua="false" sId="1">
+    <oc r="J74" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Instructs the multi to charge/discharge with giving power. Negative = discharge. Used by the control loop in grid-parallel systems.</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="J74" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Instructs the multi to charge/discharge with giving power. Negative = discharge. Used by the control loop in grid-parallel systems. For more information see https://www.victronenergy.com/live/ess:ess_mode_2_and_3</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="2" ua="false" sId="1">
+    <oc r="J75" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Enables/Disables charge (0=enabled, 1=disabled). Note that power setpoint will yield to this setting</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="J75" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Enables/Disables charge (0=enabled, 1=disabled). Note that power setpoint will yield to this setting. For more information see https://www.victronenergy.com/live/ess:ess_mode_2_and_3</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="3" ua="false" sId="1">
+    <oc r="J76" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Enables/Disables feedback (0=enabled, 1=disabled). Note that power setpoint will yield to this setting</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="J76" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Enables/Disables feedback (0=enabled, 1=disabled). Note that power setpoint will yield to this setting. For more information see https://www.victronenergy.com/live/ess:ess_mode_2_and_3</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="4" ua="false" sId="1">
+    <oc r="J77" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Instructs the multi to charge/discharge with giving power. Negative = discharge. Used by the control loop in grid-parallel systems.</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="J77" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Instructs the multi to charge/discharge with giving power. Negative = discharge. Used by the control loop in grid-parallel systems. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">For more information see https://www.victronenergy.com/live/ess:ess_mode_2_and_3</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="5" ua="false" sId="1">
+    <oc r="J78" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Instructs the multi to charge/discharge with giving power. Negative = discharge. Used by the control loop in grid-parallel systems.</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="J78" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Instructs the multi to charge/discharge with giving power. Negative = discharge. Used by the control loop in grid-parallel systems. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">For more information see https://www.victronenergy.com/live/ess:ess_mode_2_and_3</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="0"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -2837,24 +3077,25 @@
   </sheetPr>
   <dimension ref="A1:N321"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A233" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A252" activeCellId="0" sqref="A252"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="G78" activeCellId="0" sqref="G78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="30.1012145748988"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="37.3846153846154"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="33.1012145748988"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="70.5910931174089"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="9.10526315789474"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="37.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="8.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="26.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="33.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="8.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="70.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="171.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="1" width="9.11"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5351,7 +5592,7 @@
       <c r="M73" s="0"/>
       <c r="N73" s="0"/>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
         <v>124</v>
       </c>
@@ -5387,7 +5628,7 @@
       <c r="M74" s="0"/>
       <c r="N74" s="0"/>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
         <v>124</v>
       </c>
@@ -5423,7 +5664,7 @@
       <c r="M75" s="0"/>
       <c r="N75" s="0"/>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
         <v>124</v>
       </c>
@@ -5459,7 +5700,7 @@
       <c r="M76" s="0"/>
       <c r="N76" s="0"/>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
         <v>124</v>
       </c>
@@ -5488,19 +5729,19 @@
         <v>31</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="K77" s="0"/>
       <c r="L77" s="0"/>
       <c r="M77" s="0"/>
       <c r="N77" s="0"/>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C78" s="1" t="n">
         <v>41</v>
@@ -5515,7 +5756,7 @@
         <v>60</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>23</v>
@@ -5524,7 +5765,7 @@
         <v>31</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="K78" s="0"/>
       <c r="L78" s="0"/>
@@ -5536,7 +5777,7 @@
         <v>124</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C79" s="1" t="n">
         <v>42</v>
@@ -5551,7 +5792,7 @@
         <v>29</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>17</v>
@@ -5570,7 +5811,7 @@
         <v>124</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C80" s="1" t="n">
         <v>43</v>
@@ -5585,7 +5826,7 @@
         <v>29</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>17</v>
@@ -5604,7 +5845,7 @@
         <v>124</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C81" s="1" t="n">
         <v>44</v>
@@ -5619,7 +5860,7 @@
         <v>29</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>17</v>
@@ -5638,7 +5879,7 @@
         <v>124</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C82" s="1" t="n">
         <v>45</v>
@@ -5653,7 +5894,7 @@
         <v>29</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>17</v>
@@ -5672,7 +5913,7 @@
         <v>124</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C83" s="1" t="n">
         <v>46</v>
@@ -5687,7 +5928,7 @@
         <v>29</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>17</v>
@@ -5706,7 +5947,7 @@
         <v>124</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C84" s="1" t="n">
         <v>47</v>
@@ -5721,7 +5962,7 @@
         <v>29</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>17</v>
@@ -5740,7 +5981,7 @@
         <v>124</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C85" s="1" t="n">
         <v>48</v>
@@ -5755,7 +5996,7 @@
         <v>29</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>17</v>
@@ -5774,7 +6015,7 @@
         <v>124</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C86" s="1" t="n">
         <v>49</v>
@@ -5789,7 +6030,7 @@
         <v>29</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>17</v>
@@ -5808,7 +6049,7 @@
         <v>124</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C87" s="1" t="n">
         <v>50</v>
@@ -5823,7 +6064,7 @@
         <v>29</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>17</v>
@@ -5842,7 +6083,7 @@
         <v>124</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C88" s="1" t="n">
         <v>51</v>
@@ -5857,7 +6098,7 @@
         <v>29</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>17</v>
@@ -5876,7 +6117,7 @@
         <v>124</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C89" s="1" t="n">
         <v>52</v>
@@ -5891,7 +6132,7 @@
         <v>29</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>17</v>
@@ -5910,7 +6151,7 @@
         <v>124</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C90" s="1" t="n">
         <v>53</v>
@@ -5925,7 +6166,7 @@
         <v>29</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>17</v>
@@ -5944,7 +6185,7 @@
         <v>124</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C91" s="1" t="n">
         <v>54</v>
@@ -5959,7 +6200,7 @@
         <v>29</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>17</v>
@@ -5978,7 +6219,7 @@
         <v>124</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C92" s="1" t="n">
         <v>55</v>
@@ -5993,7 +6234,7 @@
         <v>29</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>17</v>
@@ -6012,7 +6253,7 @@
         <v>124</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C93" s="1" t="n">
         <v>56</v>
@@ -6027,16 +6268,16 @@
         <v>29</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K93" s="0"/>
       <c r="L93" s="0"/>
@@ -6048,7 +6289,7 @@
         <v>124</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C94" s="1" t="n">
         <v>57</v>
@@ -6063,16 +6304,16 @@
         <v>29</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K94" s="0"/>
       <c r="L94" s="0"/>
@@ -6084,7 +6325,7 @@
         <v>124</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C95" s="1" t="n">
         <v>58</v>
@@ -6099,16 +6340,16 @@
         <v>29</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K95" s="0"/>
       <c r="L95" s="0"/>
@@ -6120,7 +6361,7 @@
         <v>124</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C96" s="1" t="n">
         <v>59</v>
@@ -6135,16 +6376,16 @@
         <v>29</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K96" s="0"/>
       <c r="L96" s="0"/>
@@ -6156,7 +6397,7 @@
         <v>124</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C97" s="1" t="n">
         <v>60</v>
@@ -6171,13 +6412,13 @@
         <v>29</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J97" s="0"/>
       <c r="K97" s="0"/>
@@ -6187,7 +6428,7 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>183</v>
@@ -6221,10 +6462,10 @@
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C99" s="1" t="n">
         <v>260</v>
@@ -6239,7 +6480,7 @@
         <v>184</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>17</v>
@@ -6255,10 +6496,10 @@
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C100" s="1" t="n">
         <v>261</v>
@@ -6291,10 +6532,10 @@
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C101" s="1" t="n">
         <v>262</v>
@@ -6309,16 +6550,16 @@
         <v>84</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K101" s="0"/>
       <c r="L101" s="0"/>
@@ -6327,10 +6568,10 @@
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C102" s="1" t="n">
         <v>263</v>
@@ -6345,7 +6586,7 @@
         <v>184</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>17</v>
@@ -6361,10 +6602,10 @@
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C103" s="1" t="n">
         <v>264</v>
@@ -6379,7 +6620,7 @@
         <v>184</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>17</v>
@@ -6395,10 +6636,10 @@
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C104" s="1" t="n">
         <v>265</v>
@@ -6413,7 +6654,7 @@
         <v>99</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>17</v>
@@ -6422,7 +6663,7 @@
         <v>101</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K104" s="0"/>
       <c r="L104" s="0"/>
@@ -6431,10 +6672,10 @@
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C105" s="1" t="n">
         <v>266</v>
@@ -6465,10 +6706,10 @@
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C106" s="1" t="n">
         <v>267</v>
@@ -6483,16 +6724,16 @@
         <v>29</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K106" s="0"/>
       <c r="L106" s="0"/>
@@ -6501,10 +6742,10 @@
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C107" s="1" t="n">
         <v>268</v>
@@ -6519,13 +6760,13 @@
         <v>29</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="J107" s="0"/>
       <c r="K107" s="0"/>
@@ -6535,10 +6776,10 @@
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C108" s="1" t="n">
         <v>269</v>
@@ -6553,13 +6794,13 @@
         <v>29</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="J108" s="0"/>
       <c r="K108" s="0"/>
@@ -6569,10 +6810,10 @@
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C109" s="1" t="n">
         <v>270</v>
@@ -6587,13 +6828,13 @@
         <v>29</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="J109" s="0"/>
       <c r="K109" s="0"/>
@@ -6603,10 +6844,10 @@
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C110" s="1" t="n">
         <v>271</v>
@@ -6621,13 +6862,13 @@
         <v>29</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="J110" s="0"/>
       <c r="K110" s="0"/>
@@ -6637,10 +6878,10 @@
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C111" s="1" t="n">
         <v>272</v>
@@ -6655,13 +6896,13 @@
         <v>29</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="J111" s="0"/>
       <c r="K111" s="0"/>
@@ -6671,10 +6912,10 @@
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C112" s="1" t="n">
         <v>273</v>
@@ -6689,13 +6930,13 @@
         <v>29</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="J112" s="0"/>
       <c r="K112" s="0"/>
@@ -6705,10 +6946,10 @@
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C113" s="1" t="n">
         <v>274</v>
@@ -6729,7 +6970,7 @@
         <v>17</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="J113" s="0"/>
       <c r="K113" s="0"/>
@@ -6739,10 +6980,10 @@
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C114" s="1" t="n">
         <v>275</v>
@@ -6757,13 +6998,13 @@
         <v>29</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="J114" s="0"/>
       <c r="K114" s="0"/>
@@ -6773,10 +7014,10 @@
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C115" s="1" t="n">
         <v>276</v>
@@ -6791,16 +7032,16 @@
         <v>29</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K115" s="0"/>
       <c r="L115" s="0"/>
@@ -6809,10 +7050,10 @@
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C116" s="1" t="n">
         <v>277</v>
@@ -6827,16 +7068,16 @@
         <v>29</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K116" s="0"/>
       <c r="L116" s="0"/>
@@ -6845,10 +7086,10 @@
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C117" s="1" t="n">
         <v>278</v>
@@ -6863,13 +7104,13 @@
         <v>29</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="J117" s="0"/>
       <c r="K117" s="0"/>
@@ -6879,10 +7120,10 @@
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C118" s="1" t="n">
         <v>279</v>
@@ -6897,13 +7138,13 @@
         <v>29</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="J118" s="0"/>
       <c r="K118" s="0"/>
@@ -6913,10 +7154,10 @@
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C119" s="1" t="n">
         <v>280</v>
@@ -6940,7 +7181,7 @@
         <v>24</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K119" s="0"/>
       <c r="L119" s="0"/>
@@ -6949,10 +7190,10 @@
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C120" s="1" t="n">
         <v>281</v>
@@ -6967,7 +7208,7 @@
         <v>99</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>17</v>
@@ -6976,7 +7217,7 @@
         <v>101</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K120" s="0"/>
       <c r="L120" s="0"/>
@@ -6985,10 +7226,10 @@
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C121" s="1" t="n">
         <v>282</v>
@@ -7003,7 +7244,7 @@
         <v>99</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>17</v>
@@ -7012,7 +7253,7 @@
         <v>101</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K121" s="0"/>
       <c r="L121" s="0"/>
@@ -7021,10 +7262,10 @@
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C122" s="1" t="n">
         <v>283</v>
@@ -7039,7 +7280,7 @@
         <v>99</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>17</v>
@@ -7048,7 +7289,7 @@
         <v>101</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K122" s="0"/>
       <c r="L122" s="0"/>
@@ -7057,10 +7298,10 @@
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C123" s="1" t="n">
         <v>284</v>
@@ -7075,7 +7316,7 @@
         <v>29</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>17</v>
@@ -7084,7 +7325,7 @@
         <v>191</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K123" s="0"/>
       <c r="L123" s="0"/>
@@ -7093,10 +7334,10 @@
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C124" s="1" t="n">
         <v>285</v>
@@ -7111,7 +7352,7 @@
         <v>29</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>17</v>
@@ -7120,7 +7361,7 @@
         <v>191</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K124" s="0"/>
       <c r="L124" s="0"/>
@@ -7129,10 +7370,10 @@
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C125" s="1" t="n">
         <v>286</v>
@@ -7147,7 +7388,7 @@
         <v>99</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>17</v>
@@ -7156,7 +7397,7 @@
         <v>101</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K125" s="0"/>
       <c r="L125" s="0"/>
@@ -7165,10 +7406,10 @@
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C126" s="1" t="n">
         <v>287</v>
@@ -7183,7 +7424,7 @@
         <v>184</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>17</v>
@@ -7192,7 +7433,7 @@
         <v>81</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K126" s="0"/>
       <c r="L126" s="0"/>
@@ -7201,10 +7442,10 @@
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C127" s="1" t="n">
         <v>288</v>
@@ -7219,7 +7460,7 @@
         <v>184</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>17</v>
@@ -7228,7 +7469,7 @@
         <v>81</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K127" s="0"/>
       <c r="L127" s="0"/>
@@ -7237,10 +7478,10 @@
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C128" s="1" t="n">
         <v>289</v>
@@ -7255,16 +7496,16 @@
         <v>103</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K128" s="0"/>
       <c r="L128" s="0"/>
@@ -7273,10 +7514,10 @@
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C129" s="1" t="n">
         <v>290</v>
@@ -7291,7 +7532,7 @@
         <v>29</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H129" s="1" t="s">
         <v>17</v>
@@ -7300,7 +7541,7 @@
         <v>191</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K129" s="0"/>
       <c r="L129" s="0"/>
@@ -7309,10 +7550,10 @@
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C130" s="1" t="n">
         <v>291</v>
@@ -7327,7 +7568,7 @@
         <v>29</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>17</v>
@@ -7336,7 +7577,7 @@
         <v>191</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K130" s="0"/>
       <c r="L130" s="0"/>
@@ -7345,10 +7586,10 @@
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C131" s="1" t="n">
         <v>292</v>
@@ -7363,7 +7604,7 @@
         <v>29</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H131" s="1" t="s">
         <v>17</v>
@@ -7372,7 +7613,7 @@
         <v>191</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K131" s="0"/>
       <c r="L131" s="0"/>
@@ -7381,10 +7622,10 @@
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C132" s="1" t="n">
         <v>293</v>
@@ -7399,7 +7640,7 @@
         <v>29</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H132" s="1" t="s">
         <v>17</v>
@@ -7408,7 +7649,7 @@
         <v>191</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K132" s="0"/>
       <c r="L132" s="0"/>
@@ -7417,10 +7658,10 @@
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C133" s="1" t="n">
         <v>294</v>
@@ -7435,7 +7676,7 @@
         <v>29</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>17</v>
@@ -7444,7 +7685,7 @@
         <v>191</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K133" s="0"/>
       <c r="L133" s="0"/>
@@ -7453,10 +7694,10 @@
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C134" s="1" t="n">
         <v>295</v>
@@ -7471,7 +7712,7 @@
         <v>184</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H134" s="1" t="s">
         <v>17</v>
@@ -7480,7 +7721,7 @@
         <v>81</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K134" s="0"/>
       <c r="L134" s="0"/>
@@ -7489,10 +7730,10 @@
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C135" s="1" t="n">
         <v>296</v>
@@ -7507,7 +7748,7 @@
         <v>184</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>17</v>
@@ -7516,7 +7757,7 @@
         <v>81</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K135" s="0"/>
       <c r="L135" s="0"/>
@@ -7525,10 +7766,10 @@
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C136" s="1" t="n">
         <v>297</v>
@@ -7543,7 +7784,7 @@
         <v>29</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>17</v>
@@ -7552,7 +7793,7 @@
         <v>191</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K136" s="0"/>
       <c r="L136" s="0"/>
@@ -7561,10 +7802,10 @@
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C137" s="1" t="n">
         <v>298</v>
@@ -7579,7 +7820,7 @@
         <v>29</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>17</v>
@@ -7588,7 +7829,7 @@
         <v>191</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K137" s="0"/>
       <c r="L137" s="0"/>
@@ -7597,10 +7838,10 @@
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C138" s="1" t="n">
         <v>299</v>
@@ -7615,7 +7856,7 @@
         <v>184</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>17</v>
@@ -7624,7 +7865,7 @@
         <v>81</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K138" s="0"/>
       <c r="L138" s="0"/>
@@ -7633,10 +7874,10 @@
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C139" s="1" t="n">
         <v>300</v>
@@ -7651,7 +7892,7 @@
         <v>184</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H139" s="1" t="s">
         <v>17</v>
@@ -7660,7 +7901,7 @@
         <v>81</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K139" s="0"/>
       <c r="L139" s="0"/>
@@ -7669,10 +7910,10 @@
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C140" s="1" t="n">
         <v>301</v>
@@ -7687,16 +7928,16 @@
         <v>79</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H140" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K140" s="0"/>
       <c r="L140" s="0"/>
@@ -7705,10 +7946,10 @@
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C141" s="1" t="n">
         <v>302</v>
@@ -7723,16 +7964,16 @@
         <v>79</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K141" s="0"/>
       <c r="L141" s="0"/>
@@ -7741,10 +7982,10 @@
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C142" s="1" t="n">
         <v>303</v>
@@ -7759,16 +8000,16 @@
         <v>103</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H142" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K142" s="0"/>
       <c r="L142" s="0"/>
@@ -7777,10 +8018,10 @@
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C143" s="1" t="n">
         <v>304</v>
@@ -7795,7 +8036,7 @@
         <v>79</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>17</v>
@@ -7804,7 +8045,7 @@
         <v>93</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K143" s="0"/>
       <c r="L143" s="0"/>
@@ -7813,10 +8054,10 @@
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C144" s="1" t="n">
         <v>305</v>
@@ -7831,7 +8072,7 @@
         <v>79</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>17</v>
@@ -7840,7 +8081,7 @@
         <v>81</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K144" s="0"/>
       <c r="L144" s="0"/>
@@ -7849,10 +8090,10 @@
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C145" s="1" t="n">
         <v>306</v>
@@ -7867,7 +8108,7 @@
         <v>79</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H145" s="1" t="s">
         <v>17</v>
@@ -7876,7 +8117,7 @@
         <v>81</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K145" s="0"/>
       <c r="L145" s="0"/>
@@ -7885,10 +8126,10 @@
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C146" s="1" t="n">
         <v>307</v>
@@ -7903,7 +8144,7 @@
         <v>79</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>17</v>
@@ -7912,7 +8153,7 @@
         <v>86</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K146" s="0"/>
       <c r="L146" s="0"/>
@@ -7921,10 +8162,10 @@
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C147" s="1" t="n">
         <v>308</v>
@@ -7939,7 +8180,7 @@
         <v>79</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H147" s="1" t="s">
         <v>17</v>
@@ -7948,7 +8189,7 @@
         <v>86</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K147" s="0"/>
       <c r="L147" s="0"/>
@@ -7957,10 +8198,10 @@
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C148" s="1" t="n">
         <v>309</v>
@@ -7975,7 +8216,7 @@
         <v>79</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H148" s="1" t="s">
         <v>17</v>
@@ -7991,25 +8232,25 @@
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C149" s="1" t="n">
         <v>310</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E149" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H149" s="1" t="s">
         <v>17</v>
@@ -8023,25 +8264,25 @@
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C150" s="1" t="n">
         <v>312</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E150" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H150" s="1" t="s">
         <v>17</v>
@@ -8055,25 +8296,25 @@
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C151" s="1" t="n">
         <v>314</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E151" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H151" s="1" t="s">
         <v>17</v>
@@ -8087,25 +8328,25 @@
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C152" s="1" t="n">
         <v>316</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E152" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>17</v>
@@ -8119,10 +8360,10 @@
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C153" s="1" t="n">
         <v>318</v>
@@ -8137,13 +8378,13 @@
         <v>84</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H153" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J153" s="0"/>
       <c r="K153" s="0"/>
@@ -8153,10 +8394,10 @@
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C154" s="1" t="n">
         <v>319</v>
@@ -8171,13 +8412,13 @@
         <v>84</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H154" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J154" s="0"/>
       <c r="K154" s="0"/>
@@ -8187,7 +8428,7 @@
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>183</v>
@@ -8221,7 +8462,7 @@
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>186</v>
@@ -8255,10 +8496,10 @@
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C157" s="1" t="n">
         <v>773</v>
@@ -8273,16 +8514,16 @@
         <v>84</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H157" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J157" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K157" s="0"/>
       <c r="L157" s="0"/>
@@ -8291,10 +8532,10 @@
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C158" s="1" t="n">
         <v>774</v>
@@ -8315,10 +8556,10 @@
         <v>23</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K158" s="0"/>
       <c r="L158" s="0"/>
@@ -8327,10 +8568,10 @@
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C159" s="1" t="n">
         <v>775</v>
@@ -8351,7 +8592,7 @@
         <v>17</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J159" s="0"/>
       <c r="K159" s="0"/>
@@ -8361,10 +8602,10 @@
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C160" s="1" t="n">
         <v>776</v>
@@ -8379,7 +8620,7 @@
         <v>184</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>17</v>
@@ -8388,7 +8629,7 @@
         <v>81</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K160" s="0"/>
       <c r="L160" s="0"/>
@@ -8397,10 +8638,10 @@
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C161" s="1" t="n">
         <v>777</v>
@@ -8415,7 +8656,7 @@
         <v>84</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H161" s="1" t="s">
         <v>17</v>
@@ -8424,7 +8665,7 @@
         <v>86</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K161" s="0"/>
       <c r="L161" s="0"/>
@@ -8433,10 +8674,10 @@
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C162" s="1" t="n">
         <v>778</v>
@@ -8451,13 +8692,13 @@
         <v>29</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H162" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="J162" s="0"/>
       <c r="K162" s="0"/>
@@ -8467,10 +8708,10 @@
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C163" s="1" t="n">
         <v>779</v>
@@ -8485,13 +8726,13 @@
         <v>79</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H163" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J163" s="0"/>
       <c r="K163" s="0"/>
@@ -8501,10 +8742,10 @@
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C164" s="1" t="n">
         <v>780</v>
@@ -8535,7 +8776,7 @@
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B165" s="0"/>
       <c r="C165" s="1" t="n">
@@ -8551,16 +8792,16 @@
         <v>29</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H165" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K165" s="0"/>
       <c r="L165" s="0"/>
@@ -8569,10 +8810,10 @@
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C166" s="1" t="n">
         <v>782</v>
@@ -8587,13 +8828,13 @@
         <v>29</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H166" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="J166" s="0"/>
       <c r="K166" s="0"/>
@@ -8603,10 +8844,10 @@
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C167" s="1" t="n">
         <v>783</v>
@@ -8621,13 +8862,13 @@
         <v>29</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H167" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="J167" s="0"/>
       <c r="K167" s="0"/>
@@ -8637,10 +8878,10 @@
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C168" s="1" t="n">
         <v>784</v>
@@ -8655,16 +8896,16 @@
         <v>79</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H168" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K168" s="0"/>
       <c r="L168" s="0"/>
@@ -8673,10 +8914,10 @@
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C169" s="1" t="n">
         <v>785</v>
@@ -8691,7 +8932,7 @@
         <v>29</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H169" s="1" t="s">
         <v>17</v>
@@ -8700,7 +8941,7 @@
         <v>31</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K169" s="0"/>
       <c r="L169" s="0"/>
@@ -8709,10 +8950,10 @@
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C170" s="1" t="n">
         <v>786</v>
@@ -8727,16 +8968,16 @@
         <v>79</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H170" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="J170" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="K170" s="0"/>
       <c r="L170" s="0"/>
@@ -8745,10 +8986,10 @@
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C171" s="1" t="n">
         <v>787</v>
@@ -8763,7 +9004,7 @@
         <v>29</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H171" s="1" t="s">
         <v>17</v>
@@ -8772,7 +9013,7 @@
         <v>31</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K171" s="0"/>
       <c r="L171" s="0"/>
@@ -8781,10 +9022,10 @@
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C172" s="1" t="n">
         <v>788</v>
@@ -8799,13 +9040,13 @@
         <v>29</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H172" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="J172" s="0"/>
       <c r="K172" s="0"/>
@@ -8815,10 +9056,10 @@
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C173" s="1" t="n">
         <v>789</v>
@@ -8833,7 +9074,7 @@
         <v>79</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H173" s="1" t="s">
         <v>17</v>
@@ -8849,10 +9090,10 @@
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C174" s="1" t="n">
         <v>790</v>
@@ -8867,16 +9108,16 @@
         <v>79</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H174" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="J174" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="K174" s="22"/>
       <c r="L174" s="23"/>
@@ -8885,10 +9126,10 @@
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C175" s="1" t="n">
         <v>1026</v>
@@ -8903,22 +9144,22 @@
         <v>29</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H175" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="J175" s="0"/>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C176" s="1" t="n">
         <v>1027</v>
@@ -8933,7 +9174,7 @@
         <v>79</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H176" s="1" t="s">
         <v>17</v>
@@ -8945,10 +9186,10 @@
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C177" s="1" t="n">
         <v>1028</v>
@@ -8963,7 +9204,7 @@
         <v>84</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H177" s="1" t="s">
         <v>17</v>
@@ -8975,10 +9216,10 @@
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C178" s="1" t="n">
         <v>1029</v>
@@ -8993,7 +9234,7 @@
         <v>29</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H178" s="1" t="s">
         <v>17</v>
@@ -9005,10 +9246,10 @@
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C179" s="1" t="n">
         <v>1030</v>
@@ -9023,22 +9264,22 @@
         <v>184</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H179" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="J179" s="0"/>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C180" s="1" t="n">
         <v>1031</v>
@@ -9053,7 +9294,7 @@
         <v>79</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H180" s="1" t="s">
         <v>17</v>
@@ -9065,10 +9306,10 @@
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C181" s="1" t="n">
         <v>1032</v>
@@ -9083,7 +9324,7 @@
         <v>84</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H181" s="1" t="s">
         <v>17</v>
@@ -9095,10 +9336,10 @@
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C182" s="1" t="n">
         <v>1033</v>
@@ -9113,7 +9354,7 @@
         <v>29</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H182" s="1" t="s">
         <v>17</v>
@@ -9125,10 +9366,10 @@
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C183" s="1" t="n">
         <v>1034</v>
@@ -9143,22 +9384,22 @@
         <v>184</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H183" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="J183" s="0"/>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C184" s="1" t="n">
         <v>1035</v>
@@ -9173,7 +9414,7 @@
         <v>79</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H184" s="1" t="s">
         <v>17</v>
@@ -9185,10 +9426,10 @@
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C185" s="1" t="n">
         <v>1036</v>
@@ -9203,7 +9444,7 @@
         <v>84</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H185" s="1" t="s">
         <v>17</v>
@@ -9215,10 +9456,10 @@
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C186" s="1" t="n">
         <v>1037</v>
@@ -9233,7 +9474,7 @@
         <v>29</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H186" s="1" t="s">
         <v>17</v>
@@ -9245,10 +9486,10 @@
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C187" s="1" t="n">
         <v>1038</v>
@@ -9263,34 +9504,34 @@
         <v>184</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H187" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="J187" s="0"/>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C188" s="1" t="n">
         <v>1039</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E188" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G188" s="1" t="s">
         <v>16</v>
@@ -9300,15 +9541,15 @@
       </c>
       <c r="I188" s="0"/>
       <c r="J188" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C189" s="1" t="n">
         <v>1282</v>
@@ -9329,16 +9570,16 @@
         <v>17</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="J189" s="0"/>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C190" s="1" t="n">
         <v>1283</v>
@@ -9353,22 +9594,22 @@
         <v>29</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H190" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="J190" s="0"/>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C191" s="1" t="n">
         <v>1284</v>
@@ -9383,22 +9624,22 @@
         <v>29</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H191" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="J191" s="0"/>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C192" s="1" t="n">
         <v>1285</v>
@@ -9413,22 +9654,22 @@
         <v>29</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H192" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J192" s="0"/>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C193" s="1" t="n">
         <v>1286</v>
@@ -9443,7 +9684,7 @@
         <v>29</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H193" s="1" t="s">
         <v>17</v>
@@ -9455,10 +9696,10 @@
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C194" s="1" t="n">
         <v>1287</v>
@@ -9473,7 +9714,7 @@
         <v>29</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H194" s="1" t="s">
         <v>17</v>
@@ -9485,10 +9726,10 @@
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C195" s="1" t="n">
         <v>1288</v>
@@ -9503,7 +9744,7 @@
         <v>29</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H195" s="1" t="s">
         <v>17</v>
@@ -9515,10 +9756,10 @@
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C196" s="1" t="n">
         <v>1289</v>
@@ -9533,7 +9774,7 @@
         <v>29</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H196" s="1" t="s">
         <v>17</v>
@@ -9545,10 +9786,10 @@
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C197" s="1" t="n">
         <v>1290</v>
@@ -9563,7 +9804,7 @@
         <v>184</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H197" s="1" t="s">
         <v>17</v>
@@ -9575,10 +9816,10 @@
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C198" s="1" t="n">
         <v>1291</v>
@@ -9593,7 +9834,7 @@
         <v>184</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H198" s="1" t="s">
         <v>17</v>
@@ -9605,10 +9846,10 @@
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C199" s="1" t="n">
         <v>1292</v>
@@ -9623,7 +9864,7 @@
         <v>29</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H199" s="1" t="s">
         <v>17</v>
@@ -9635,10 +9876,10 @@
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C200" s="1" t="n">
         <v>1293</v>
@@ -9653,22 +9894,22 @@
         <v>29</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H200" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I200" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="J200" s="0"/>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C201" s="1" t="n">
         <v>1294</v>
@@ -9683,22 +9924,22 @@
         <v>29</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H201" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I201" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="J201" s="0"/>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C202" s="1" t="n">
         <v>1295</v>
@@ -9713,22 +9954,22 @@
         <v>29</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H202" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I202" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="J202" s="0"/>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C203" s="1" t="n">
         <v>1296</v>
@@ -9743,22 +9984,22 @@
         <v>29</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H203" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I203" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="J203" s="0"/>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C204" s="1" t="n">
         <v>1297</v>
@@ -9773,22 +10014,22 @@
         <v>29</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H204" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I204" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J204" s="0"/>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C205" s="1" t="n">
         <v>1298</v>
@@ -9803,22 +10044,22 @@
         <v>29</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H205" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I205" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J205" s="0"/>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C206" s="1" t="n">
         <v>1299</v>
@@ -9833,22 +10074,22 @@
         <v>29</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H206" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I206" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J206" s="0"/>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C207" s="1" t="n">
         <v>1300</v>
@@ -9863,7 +10104,7 @@
         <v>184</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H207" s="1" t="s">
         <v>17</v>
@@ -9875,10 +10116,10 @@
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C208" s="1" t="n">
         <v>1301</v>
@@ -9893,7 +10134,7 @@
         <v>184</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H208" s="1" t="s">
         <v>17</v>
@@ -9905,10 +10146,10 @@
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C209" s="1" t="n">
         <v>2048</v>
@@ -9923,22 +10164,22 @@
         <v>60</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H209" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I209" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="J209" s="0"/>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C210" s="1" t="n">
         <v>2049</v>
@@ -9953,22 +10194,22 @@
         <v>84</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H210" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J210" s="0"/>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C211" s="1" t="n">
         <v>2050</v>
@@ -9995,10 +10236,10 @@
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C212" s="1" t="n">
         <v>2051</v>
@@ -10025,10 +10266,10 @@
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C213" s="1" t="n">
         <v>2052</v>
@@ -10043,7 +10284,7 @@
         <v>84</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H213" s="1" t="s">
         <v>17</v>
@@ -10052,15 +10293,15 @@
         <v>31</v>
       </c>
       <c r="J213" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C214" s="1" t="n">
         <v>2053</v>
@@ -10075,22 +10316,22 @@
         <v>84</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H214" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I214" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J214" s="0"/>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C215" s="1" t="n">
         <v>2307</v>
@@ -10117,10 +10358,10 @@
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C216" s="1" t="n">
         <v>2308</v>
@@ -10147,10 +10388,10 @@
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C217" s="1" t="n">
         <v>2309</v>
@@ -10165,22 +10406,22 @@
         <v>84</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H217" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I217" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J217" s="0"/>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C218" s="1" t="n">
         <v>2310</v>
@@ -10195,7 +10436,7 @@
         <v>184</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H218" s="1" t="s">
         <v>17</v>
@@ -10207,10 +10448,10 @@
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C219" s="1" t="n">
         <v>2311</v>
@@ -10225,7 +10466,7 @@
         <v>84</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H219" s="1" t="s">
         <v>17</v>
@@ -10237,10 +10478,10 @@
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C220" s="1" t="n">
         <v>2312</v>
@@ -10255,7 +10496,7 @@
         <v>184</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H220" s="1" t="s">
         <v>17</v>
@@ -10267,10 +10508,10 @@
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C221" s="1" t="n">
         <v>2313</v>
@@ -10285,7 +10526,7 @@
         <v>84</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H221" s="1" t="s">
         <v>17</v>
@@ -10297,10 +10538,10 @@
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C222" s="1" t="n">
         <v>2314</v>
@@ -10315,7 +10556,7 @@
         <v>84</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H222" s="1" t="s">
         <v>17</v>
@@ -10327,10 +10568,10 @@
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C223" s="1" t="n">
         <v>2315</v>
@@ -10345,22 +10586,22 @@
         <v>29</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H223" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I223" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="J223" s="0"/>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C224" s="1" t="n">
         <v>2316</v>
@@ -10375,7 +10616,7 @@
         <v>84</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H224" s="1" t="s">
         <v>23</v>
@@ -10387,10 +10628,10 @@
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C225" s="1" t="n">
         <v>2317</v>
@@ -10411,16 +10652,16 @@
         <v>23</v>
       </c>
       <c r="I225" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="J225" s="0"/>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C226" s="1" t="n">
         <v>2318</v>
@@ -10441,16 +10682,16 @@
         <v>17</v>
       </c>
       <c r="I226" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="J226" s="0"/>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C227" s="1" t="n">
         <v>2319</v>
@@ -10465,22 +10706,22 @@
         <v>29</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H227" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I227" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="J227" s="0"/>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C228" s="1" t="n">
         <v>2320</v>
@@ -10507,10 +10748,10 @@
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C229" s="1" t="n">
         <v>2321</v>
@@ -10525,22 +10766,22 @@
         <v>29</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H229" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I229" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="J229" s="0"/>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C230" s="1" t="n">
         <v>2322</v>
@@ -10555,22 +10796,22 @@
         <v>29</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H230" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="J230" s="0"/>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C231" s="1" t="n">
         <v>2600</v>
@@ -10585,7 +10826,7 @@
         <v>60</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H231" s="1" t="s">
         <v>17</v>
@@ -10597,10 +10838,10 @@
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C232" s="1" t="n">
         <v>2601</v>
@@ -10615,7 +10856,7 @@
         <v>60</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H232" s="1" t="s">
         <v>17</v>
@@ -10627,10 +10868,10 @@
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C233" s="1" t="n">
         <v>2602</v>
@@ -10645,7 +10886,7 @@
         <v>60</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H233" s="1" t="s">
         <v>17</v>
@@ -10657,10 +10898,10 @@
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C234" s="1" t="n">
         <v>2603</v>
@@ -10675,22 +10916,22 @@
         <v>184</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H234" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I234" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="J234" s="0"/>
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C235" s="1" t="n">
         <v>2604</v>
@@ -10705,22 +10946,22 @@
         <v>184</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H235" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I235" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="J235" s="0"/>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C236" s="1" t="n">
         <v>2605</v>
@@ -10735,22 +10976,22 @@
         <v>184</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H236" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I236" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="J236" s="0"/>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C237" s="1" t="n">
         <v>2606</v>
@@ -10765,22 +11006,22 @@
         <v>184</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H237" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I237" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="J237" s="0"/>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C238" s="1" t="n">
         <v>2607</v>
@@ -10795,22 +11036,22 @@
         <v>184</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H238" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I238" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="J238" s="0"/>
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C239" s="1" t="n">
         <v>2608</v>
@@ -10825,32 +11066,32 @@
         <v>184</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H239" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I239" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="J239" s="0"/>
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C240" s="1" t="n">
         <v>2609</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E240" s="0"/>
       <c r="F240" s="3" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G240" s="1" t="s">
         <v>16</v>
@@ -10860,15 +11101,15 @@
       </c>
       <c r="I240" s="0"/>
       <c r="J240" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C241" s="1" t="n">
         <v>2616</v>
@@ -10883,7 +11124,7 @@
         <v>79</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H241" s="1" t="s">
         <v>17</v>
@@ -10895,10 +11136,10 @@
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C242" s="1" t="n">
         <v>2617</v>
@@ -10913,7 +11154,7 @@
         <v>84</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H242" s="1" t="s">
         <v>17</v>
@@ -10925,10 +11166,10 @@
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C243" s="1" t="n">
         <v>2618</v>
@@ -10943,7 +11184,7 @@
         <v>79</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H243" s="1" t="s">
         <v>17</v>
@@ -10955,10 +11196,10 @@
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C244" s="1" t="n">
         <v>2619</v>
@@ -10973,7 +11214,7 @@
         <v>84</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H244" s="1" t="s">
         <v>17</v>
@@ -10985,10 +11226,10 @@
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C245" s="1" t="n">
         <v>2620</v>
@@ -11003,7 +11244,7 @@
         <v>79</v>
       </c>
       <c r="G245" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H245" s="1" t="s">
         <v>17</v>
@@ -11015,10 +11256,10 @@
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C246" s="1" t="n">
         <v>2621</v>
@@ -11033,7 +11274,7 @@
         <v>84</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H246" s="1" t="s">
         <v>17</v>
@@ -11045,190 +11286,190 @@
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C247" s="1" t="n">
         <v>2622</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E247" s="1" t="n">
         <v>100</v>
       </c>
       <c r="F247" s="3" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="G247" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H247" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I247" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="J247" s="0"/>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C248" s="1" t="n">
         <v>2624</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E248" s="1" t="n">
         <v>100</v>
       </c>
       <c r="F248" s="3" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="G248" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H248" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I248" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="J248" s="0"/>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C249" s="1" t="n">
         <v>2626</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E249" s="1" t="n">
         <v>100</v>
       </c>
       <c r="F249" s="3" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H249" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I249" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="J249" s="0"/>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C250" s="1" t="n">
         <v>2628</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E250" s="1" t="n">
         <v>100</v>
       </c>
       <c r="F250" s="3" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="G250" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H250" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I250" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="J250" s="0"/>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C251" s="1" t="n">
         <v>2630</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E251" s="1" t="n">
         <v>100</v>
       </c>
       <c r="F251" s="3" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H251" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I251" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="J251" s="0"/>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C252" s="1" t="n">
         <v>2632</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E252" s="1" t="n">
         <v>100</v>
       </c>
       <c r="F252" s="3" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H252" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I252" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="J252" s="0"/>
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C253" s="1" t="n">
         <v>2700</v>
@@ -11243,7 +11484,7 @@
         <v>60</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H253" s="1" t="s">
         <v>23</v>
@@ -11252,15 +11493,15 @@
         <v>31</v>
       </c>
       <c r="J253" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C254" s="1" t="n">
         <v>2701</v>
@@ -11275,7 +11516,7 @@
         <v>91</v>
       </c>
       <c r="G254" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H254" s="1" t="s">
         <v>23</v>
@@ -11284,15 +11525,15 @@
         <v>93</v>
       </c>
       <c r="J254" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C255" s="1" t="n">
         <v>2702</v>
@@ -11307,7 +11548,7 @@
         <v>91</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H255" s="1" t="s">
         <v>23</v>
@@ -11316,15 +11557,15 @@
         <v>93</v>
       </c>
       <c r="J255" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C256" s="1" t="n">
         <v>2703</v>
@@ -11336,10 +11577,10 @@
         <v>0.01</v>
       </c>
       <c r="F256" s="3" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H256" s="1" t="s">
         <v>23</v>
@@ -11351,70 +11592,70 @@
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C257" s="1" t="n">
         <v>2800</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E257" s="1" t="n">
         <v>10000000</v>
       </c>
       <c r="F257" s="3" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H257" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I257" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="J257" s="0"/>
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C258" s="1" t="n">
         <v>2802</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E258" s="1" t="n">
         <v>10000000</v>
       </c>
       <c r="F258" s="3" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H258" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I258" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="J258" s="0"/>
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C259" s="1" t="n">
         <v>2804</v>
@@ -11429,24 +11670,24 @@
         <v>184</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H259" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I259" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="J259" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C260" s="1" t="n">
         <v>2805</v>
@@ -11461,24 +11702,24 @@
         <v>184</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H260" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I260" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="J260" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C261" s="1" t="n">
         <v>2806</v>
@@ -11493,22 +11734,22 @@
         <v>29</v>
       </c>
       <c r="G261" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H261" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I261" s="0"/>
       <c r="J261" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C262" s="1" t="n">
         <v>2807</v>
@@ -11523,7 +11764,7 @@
         <v>29</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H262" s="1" t="s">
         <v>17</v>
@@ -11533,10 +11774,10 @@
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C263" s="1" t="n">
         <v>2900</v>
@@ -11549,24 +11790,24 @@
       </c>
       <c r="F263" s="0"/>
       <c r="G263" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H263" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I263" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="J263" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C264" s="1" t="n">
         <v>2901</v>
@@ -11579,7 +11820,7 @@
       </c>
       <c r="F264" s="0"/>
       <c r="G264" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H264" s="1" t="s">
         <v>23</v>
@@ -11590,10 +11831,10 @@
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C265" s="1" t="n">
         <v>3000</v>
@@ -11608,7 +11849,7 @@
         <v>29</v>
       </c>
       <c r="G265" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H265" s="1" t="s">
         <v>17</v>
@@ -11617,39 +11858,39 @@
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C266" s="1" t="n">
         <v>3001</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E266" s="1" t="n">
         <v>10000</v>
       </c>
       <c r="F266" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="G266" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H266" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I266" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C267" s="1" t="n">
         <v>3003</v>
@@ -11664,21 +11905,21 @@
         <v>29</v>
       </c>
       <c r="G267" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H267" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I267" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C268" s="1" t="n">
         <v>3004</v>
@@ -11693,7 +11934,7 @@
         <v>79</v>
       </c>
       <c r="G268" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H268" s="1" t="s">
         <v>17</v>
@@ -11704,39 +11945,39 @@
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C269" s="1" t="n">
         <v>3005</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E269" s="1" t="n">
         <v>10000</v>
       </c>
       <c r="F269" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="G269" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H269" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I269" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C270" s="1" t="n">
         <v>3007</v>
@@ -11751,21 +11992,21 @@
         <v>29</v>
       </c>
       <c r="G270" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H270" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I270" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C271" s="1" t="n">
         <v>3100</v>
@@ -11777,7 +12018,7 @@
         <v>10</v>
       </c>
       <c r="F271" s="3" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G271" s="1" t="s">
         <v>165</v>
@@ -11791,10 +12032,10 @@
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C272" s="1" t="n">
         <v>3101</v>
@@ -11806,7 +12047,7 @@
         <v>10</v>
       </c>
       <c r="F272" s="3" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="G272" s="1" t="s">
         <v>159</v>
@@ -11820,7 +12061,7 @@
     </row>
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>183</v>
@@ -11835,7 +12076,7 @@
         <v>100</v>
       </c>
       <c r="F273" s="3" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="G273" s="1" t="s">
         <v>185</v>
@@ -11849,10 +12090,10 @@
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C274" s="1" t="n">
         <v>3110</v>
@@ -11864,7 +12105,7 @@
         <v>1</v>
       </c>
       <c r="F274" s="3" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="G274" s="1" t="s">
         <v>207</v>
@@ -11873,15 +12114,15 @@
         <v>17</v>
       </c>
       <c r="I274" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C275" s="1" t="n">
         <v>3111</v>
@@ -11893,24 +12134,24 @@
         <v>1</v>
       </c>
       <c r="F275" s="3" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H275" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I275" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C276" s="1" t="n">
         <v>3112</v>
@@ -11922,24 +12163,24 @@
         <v>1</v>
       </c>
       <c r="F276" s="3" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H276" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I276" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C277" s="1" t="n">
         <v>3113</v>
@@ -11951,24 +12192,24 @@
         <v>1</v>
       </c>
       <c r="F277" s="3" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="G277" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H277" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I277" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C278" s="1" t="n">
         <v>3114</v>
@@ -11980,24 +12221,24 @@
         <v>1</v>
       </c>
       <c r="F278" s="3" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="G278" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H278" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I278" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C279" s="1" t="n">
         <v>3115</v>
@@ -12009,21 +12250,21 @@
         <v>1</v>
       </c>
       <c r="F279" s="3" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="G279" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H279" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I279" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>211</v>
@@ -12038,7 +12279,7 @@
         <v>1</v>
       </c>
       <c r="F280" s="3" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="G280" s="1" t="s">
         <v>212</v>
@@ -12047,15 +12288,15 @@
         <v>17</v>
       </c>
       <c r="I280" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C281" s="1" t="n">
         <v>3117</v>
@@ -12067,24 +12308,24 @@
         <v>1</v>
       </c>
       <c r="F281" s="3" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="G281" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H281" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I281" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C282" s="1" t="n">
         <v>3125</v>
@@ -12096,10 +12337,10 @@
         <v>1</v>
       </c>
       <c r="F282" s="3" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="G282" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H282" s="1" t="s">
         <v>17</v>
@@ -12108,10 +12349,10 @@
     </row>
     <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C283" s="1" t="n">
         <v>3126</v>
@@ -12123,7 +12364,7 @@
         <v>1</v>
       </c>
       <c r="F283" s="3" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="G283" s="1" t="s">
         <v>204</v>
@@ -12132,15 +12373,15 @@
         <v>23</v>
       </c>
       <c r="I283" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C284" s="1" t="n">
         <v>3127</v>
@@ -12152,10 +12393,10 @@
         <v>1</v>
       </c>
       <c r="F284" s="3" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="G284" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H284" s="1" t="s">
         <v>17</v>
@@ -12164,10 +12405,10 @@
     </row>
     <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C285" s="1" t="n">
         <v>3128</v>
@@ -12179,7 +12420,7 @@
         <v>1</v>
       </c>
       <c r="F285" s="3" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="G285" s="1" t="s">
         <v>198</v>
@@ -12188,15 +12429,15 @@
         <v>17</v>
       </c>
       <c r="I285" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C286" s="1" t="n">
         <v>3200</v>
@@ -12208,10 +12449,10 @@
         <v>10</v>
       </c>
       <c r="F286" s="3" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="G286" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H286" s="1" t="s">
         <v>17</v>
@@ -12222,10 +12463,10 @@
     </row>
     <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C287" s="1" t="n">
         <v>3201</v>
@@ -12237,10 +12478,10 @@
         <v>10</v>
       </c>
       <c r="F287" s="3" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="G287" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H287" s="1" t="s">
         <v>17</v>
@@ -12251,10 +12492,10 @@
     </row>
     <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C288" s="1" t="n">
         <v>3202</v>
@@ -12266,10 +12507,10 @@
         <v>10</v>
       </c>
       <c r="F288" s="3" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="G288" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H288" s="1" t="s">
         <v>17</v>
@@ -12280,10 +12521,10 @@
     </row>
     <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C289" s="1" t="n">
         <v>3203</v>
@@ -12295,10 +12536,10 @@
         <v>10</v>
       </c>
       <c r="F289" s="3" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G289" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H289" s="1" t="s">
         <v>17</v>
@@ -12309,10 +12550,10 @@
     </row>
     <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C290" s="1" t="n">
         <v>3204</v>
@@ -12324,10 +12565,10 @@
         <v>10</v>
       </c>
       <c r="F290" s="3" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G290" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H290" s="1" t="s">
         <v>17</v>
@@ -12338,10 +12579,10 @@
     </row>
     <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C291" s="1" t="n">
         <v>3205</v>
@@ -12353,10 +12594,10 @@
         <v>10</v>
       </c>
       <c r="F291" s="3" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G291" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H291" s="1" t="s">
         <v>17</v>
@@ -12367,10 +12608,10 @@
     </row>
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C292" s="1" t="n">
         <v>3206</v>
@@ -12382,10 +12623,10 @@
         <v>1</v>
       </c>
       <c r="F292" s="3" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="G292" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H292" s="1" t="s">
         <v>17</v>
@@ -12396,10 +12637,10 @@
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C293" s="1" t="n">
         <v>3207</v>
@@ -12411,10 +12652,10 @@
         <v>1</v>
       </c>
       <c r="F293" s="3" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="G293" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H293" s="1" t="s">
         <v>17</v>
@@ -12425,10 +12666,10 @@
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C294" s="1" t="n">
         <v>3208</v>
@@ -12440,10 +12681,10 @@
         <v>1</v>
       </c>
       <c r="F294" s="3" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="G294" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H294" s="1" t="s">
         <v>17</v>
@@ -12454,10 +12695,10 @@
     </row>
     <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C295" s="1" t="n">
         <v>3209</v>
@@ -12469,10 +12710,10 @@
         <v>100</v>
       </c>
       <c r="F295" s="3" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="G295" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H295" s="1" t="s">
         <v>17</v>
@@ -12483,10 +12724,10 @@
     </row>
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C296" s="1" t="n">
         <v>3210</v>
@@ -12498,10 +12739,10 @@
         <v>100</v>
       </c>
       <c r="F296" s="3" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="G296" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H296" s="1" t="s">
         <v>17</v>
@@ -12512,10 +12753,10 @@
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C297" s="1" t="n">
         <v>3211</v>
@@ -12527,10 +12768,10 @@
         <v>100</v>
       </c>
       <c r="F297" s="3" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="G297" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H297" s="1" t="s">
         <v>17</v>
@@ -12541,10 +12782,10 @@
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C298" s="1" t="n">
         <v>3212</v>
@@ -12556,10 +12797,10 @@
         <v>1</v>
       </c>
       <c r="F298" s="3" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="G298" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H298" s="1" t="s">
         <v>17</v>
@@ -12568,10 +12809,10 @@
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C299" s="1" t="n">
         <v>3213</v>
@@ -12583,24 +12824,24 @@
         <v>1</v>
       </c>
       <c r="F299" s="3" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="G299" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H299" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I299" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C300" s="1" t="n">
         <v>3214</v>
@@ -12612,24 +12853,24 @@
         <v>1</v>
       </c>
       <c r="F300" s="3" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="G300" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H300" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I300" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C301" s="1" t="n">
         <v>3215</v>
@@ -12641,24 +12882,24 @@
         <v>1</v>
       </c>
       <c r="F301" s="3" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="G301" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H301" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I301" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C302" s="1" t="n">
         <v>3216</v>
@@ -12670,10 +12911,10 @@
         <v>1</v>
       </c>
       <c r="F302" s="3" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="G302" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H302" s="1" t="s">
         <v>17</v>
@@ -12684,10 +12925,10 @@
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C303" s="1" t="n">
         <v>3217</v>
@@ -12699,24 +12940,24 @@
         <v>1</v>
       </c>
       <c r="F303" s="3" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="G303" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H303" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I303" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C304" s="1" t="n">
         <v>3218</v>
@@ -12728,10 +12969,10 @@
         <v>0.01</v>
       </c>
       <c r="F304" s="3" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="G304" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H304" s="1" t="s">
         <v>17</v>
@@ -12742,10 +12983,10 @@
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C305" s="1" t="n">
         <v>3219</v>
@@ -12757,24 +12998,24 @@
         <v>10</v>
       </c>
       <c r="F305" s="3" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G305" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H305" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I305" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C306" s="1" t="n">
         <v>3220</v>
@@ -12786,24 +13027,24 @@
         <v>10</v>
       </c>
       <c r="F306" s="3" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G306" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H306" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I306" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C307" s="1" t="n">
         <v>3221</v>
@@ -12815,24 +13056,24 @@
         <v>10</v>
       </c>
       <c r="F307" s="3" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G307" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H307" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I307" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C308" s="1" t="n">
         <v>3222</v>
@@ -12844,10 +13085,10 @@
         <v>100</v>
       </c>
       <c r="F308" s="3" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="G308" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H308" s="1" t="s">
         <v>17</v>
@@ -12858,10 +13099,10 @@
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C309" s="1" t="n">
         <v>3223</v>
@@ -12873,24 +13114,24 @@
         <v>1</v>
       </c>
       <c r="F309" s="3" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="G309" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H309" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I309" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C310" s="1" t="n">
         <v>3300</v>
@@ -12905,7 +13146,7 @@
         <v>29</v>
       </c>
       <c r="G310" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H310" s="1" t="s">
         <v>17</v>
@@ -12914,10 +13155,10 @@
     </row>
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C311" s="1" t="n">
         <v>3301</v>
@@ -12932,7 +13173,7 @@
         <v>184</v>
       </c>
       <c r="G311" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H311" s="1" t="s">
         <v>17</v>
@@ -12941,10 +13182,10 @@
     </row>
     <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C312" s="1" t="n">
         <v>3302</v>
@@ -12959,7 +13200,7 @@
         <v>141</v>
       </c>
       <c r="G312" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H312" s="1" t="s">
         <v>17</v>
@@ -12968,10 +13209,10 @@
     </row>
     <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C313" s="1" t="n">
         <v>3303</v>
@@ -12986,21 +13227,21 @@
         <v>29</v>
       </c>
       <c r="G313" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H313" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I313" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C314" s="1" t="n">
         <v>3304</v>
@@ -13015,21 +13256,21 @@
         <v>141</v>
       </c>
       <c r="G314" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H314" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I314" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C315" s="1" t="n">
         <v>3305</v>
@@ -13044,65 +13285,65 @@
         <v>29</v>
       </c>
       <c r="G315" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H315" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I315" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C316" s="1" t="n">
         <v>3400</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E316" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F316" s="3" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="G316" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H316" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I316" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C317" s="1" t="n">
         <v>3402</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E317" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F317" s="3" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="G317" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H317" s="1" t="s">
         <v>17</v>
@@ -13111,25 +13352,25 @@
     </row>
     <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C318" s="1" t="n">
         <v>3420</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E318" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F318" s="3" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="G318" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H318" s="1" t="s">
         <v>17</v>
@@ -13138,10 +13379,10 @@
     </row>
     <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C319" s="1" t="n">
         <v>3422</v>
@@ -13162,15 +13403,15 @@
         <v>17</v>
       </c>
       <c r="I319" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C320" s="1" t="n">
         <v>3423</v>
@@ -13182,21 +13423,21 @@
         <v>1</v>
       </c>
       <c r="F320" s="3" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="G320" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H320" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I320" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>4</v>
@@ -13211,25 +13452,32 @@
         <v>1</v>
       </c>
       <c r="F321" s="3" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="G321" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H321" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I321" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:F1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="J74" r:id="rId1" display="https://www.victronenergy.com/live/ess:ess_mode_2_and_3"/>
+    <hyperlink ref="J75" r:id="rId2" display="https://www.victronenergy.com/live/ess:ess_mode_2_and_3"/>
+    <hyperlink ref="J76" r:id="rId3" display="https://www.victronenergy.com/live/ess:ess_mode_2_and_3"/>
+    <hyperlink ref="J77" r:id="rId4" display="https://www.victronenergy.com/live/ess:ess_mode_2_and_3"/>
+    <hyperlink ref="J78" r:id="rId5" display="https://www.victronenergy.com/live/ess:ess_mode_2_and_3"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -13244,27 +13492,27 @@
   </sheetPr>
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.17813765182186"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13275,7 +13523,7 @@
         <v>257</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13286,7 +13534,7 @@
         <v>256</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13297,7 +13545,7 @@
         <v>258</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13308,7 +13556,7 @@
         <v>260</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13319,7 +13567,7 @@
         <v>261</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13330,7 +13578,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13341,7 +13589,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13352,7 +13600,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13363,7 +13611,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13374,7 +13622,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13385,7 +13633,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13396,7 +13644,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13407,7 +13655,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13418,7 +13666,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13429,7 +13677,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13440,7 +13688,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13451,7 +13699,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13462,7 +13710,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13473,7 +13721,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13484,7 +13732,7 @@
         <v>21</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13495,7 +13743,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13506,7 +13754,7 @@
         <v>23</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13517,7 +13765,7 @@
         <v>24</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13528,7 +13776,7 @@
         <v>25</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13539,7 +13787,7 @@
         <v>26</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13550,7 +13798,7 @@
         <v>27</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13561,7 +13809,7 @@
         <v>28</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13572,7 +13820,7 @@
         <v>29</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13583,7 +13831,7 @@
         <v>30</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13594,7 +13842,7 @@
         <v>31</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13605,7 +13853,7 @@
         <v>32</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13616,7 +13864,7 @@
         <v>33</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13627,7 +13875,7 @@
         <v>34</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13638,7 +13886,7 @@
         <v>40</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13649,7 +13897,7 @@
         <v>41</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13660,7 +13908,7 @@
         <v>42</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13671,7 +13919,7 @@
         <v>43</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13682,7 +13930,7 @@
         <v>44</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13693,7 +13941,7 @@
         <v>45</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13704,7 +13952,7 @@
         <v>46</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13715,7 +13963,7 @@
         <v>288</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13726,7 +13974,7 @@
         <v>289</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13737,7 +13985,7 @@
         <v>290</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13748,7 +13996,7 @@
         <v>291</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13759,7 +14007,7 @@
         <v>292</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13770,7 +14018,7 @@
         <v>293</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13781,12 +14029,12 @@
         <v>512</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="26" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B50" s="26"/>
       <c r="C50" s="26"/>
@@ -13796,7 +14044,7 @@
     </row>
     <row r="51" customFormat="false" ht="92.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="27" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B51" s="27"/>
       <c r="C51" s="27"/>
@@ -13811,7 +14059,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -13826,302 +14074,302 @@
   </sheetPr>
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B48" activeCellId="0" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.42914979757085"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="67.5910931174089"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="67.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="28" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="28" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="28" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="29" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/CCGX-Modbus-TCP-register-list.xlsx
+++ b/CCGX-Modbus-TCP-register-list.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2481" uniqueCount="842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2488" uniqueCount="845">
   <si>
     <t xml:space="preserve">NOTE: Use unit-id 100 for the com.victronenergy.system data, for more information see FAQ.</t>
   </si>
@@ -850,6 +850,15 @@
   </si>
   <si>
     <t xml:space="preserve">Degrees celsius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VE.Bus Reset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/SystemReset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0=No action; 1=VE.Bus reset</t>
   </si>
   <si>
     <t xml:space="preserve">com.victronenergy.battery</t>
@@ -2887,24 +2896,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N327"/>
+  <dimension ref="A1:N328"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A160" activeCellId="0" sqref="A160"/>
+      <selection pane="bottomLeft" activeCell="A97" activeCellId="0" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="37.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="8.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="8.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="26.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="26.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="8.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="8.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="70.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="1" width="9"/>
   </cols>
@@ -5859,44 +5868,44 @@
         <v>275</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B97" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="C97" s="1" t="n">
-        <v>259</v>
+        <v>62</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E97" s="1" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>185</v>
+        <v>29</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>186</v>
+        <v>277</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>81</v>
+        <v>278</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>277</v>
+        <v>184</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>20</v>
@@ -5908,7 +5917,7 @@
         <v>185</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>278</v>
+        <v>186</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>17</v>
@@ -5919,45 +5928,42 @@
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E99" s="1" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>84</v>
+        <v>185</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>188</v>
+        <v>281</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J99" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>59</v>
@@ -5969,56 +5975,59 @@
         <v>84</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>274</v>
+        <v>188</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>275</v>
+        <v>86</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>280</v>
+        <v>87</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E101" s="1" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>185</v>
+        <v>84</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>81</v>
+        <v>275</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>20</v>
@@ -6030,117 +6039,114 @@
         <v>185</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E103" s="1" t="n">
-        <v>-10</v>
+        <v>100</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>99</v>
+        <v>185</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="J103" s="1" t="s">
-        <v>287</v>
+        <v>93</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>288</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E104" s="1" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>197</v>
+        <v>289</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E105" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>290</v>
+        <v>197</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="J105" s="1" t="s">
-        <v>292</v>
+        <v>93</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>20</v>
@@ -6152,24 +6158,27 @@
         <v>29</v>
       </c>
       <c r="G106" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I106" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="H106" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>291</v>
+      <c r="J106" s="1" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>20</v>
@@ -6181,24 +6190,24 @@
         <v>29</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>20</v>
@@ -6210,24 +6219,24 @@
         <v>29</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>20</v>
@@ -6239,24 +6248,24 @@
         <v>29</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>20</v>
@@ -6268,24 +6277,24 @@
         <v>29</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>20</v>
@@ -6297,24 +6306,24 @@
         <v>29</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>20</v>
@@ -6326,24 +6335,24 @@
         <v>29</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>20</v>
@@ -6355,24 +6364,24 @@
         <v>29</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>307</v>
+        <v>208</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>20</v>
@@ -6384,27 +6393,24 @@
         <v>29</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="J114" s="1" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>311</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>20</v>
@@ -6422,21 +6428,21 @@
         <v>17</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>20</v>
@@ -6448,24 +6454,27 @@
         <v>29</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>20</v>
@@ -6477,24 +6486,24 @@
         <v>29</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>20</v>
@@ -6506,59 +6515,56 @@
         <v>29</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>22</v>
+        <v>319</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J118" s="1" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E119" s="1" t="n">
-        <v>-10</v>
+        <v>1</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>320</v>
+        <v>22</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>20</v>
@@ -6570,7 +6576,7 @@
         <v>99</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>17</v>
@@ -6579,18 +6585,18 @@
         <v>101</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>20</v>
@@ -6602,7 +6608,7 @@
         <v>99</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>17</v>
@@ -6611,50 +6617,50 @@
         <v>101</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E122" s="1" t="n">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>192</v>
+        <v>101</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>20</v>
@@ -6666,7 +6672,7 @@
         <v>29</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>17</v>
@@ -6675,82 +6681,82 @@
         <v>192</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E124" s="1" t="n">
-        <v>-10</v>
+        <v>1</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>101</v>
+        <v>192</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E125" s="1" t="n">
-        <v>100</v>
+        <v>-10</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>185</v>
+        <v>99</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>20</v>
@@ -6762,7 +6768,7 @@
         <v>185</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>17</v>
@@ -6771,59 +6777,59 @@
         <v>81</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E127" s="1" t="n">
-        <v>0.01</v>
+        <v>100</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>103</v>
+        <v>185</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>337</v>
+        <v>81</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>338</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E128" s="1" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>339</v>
@@ -6832,21 +6838,21 @@
         <v>17</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>192</v>
+        <v>340</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>20</v>
@@ -6858,7 +6864,7 @@
         <v>29</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H129" s="1" t="s">
         <v>17</v>
@@ -6867,18 +6873,18 @@
         <v>192</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>20</v>
@@ -6890,7 +6896,7 @@
         <v>29</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>17</v>
@@ -6899,18 +6905,18 @@
         <v>192</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>20</v>
@@ -6922,7 +6928,7 @@
         <v>29</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H131" s="1" t="s">
         <v>17</v>
@@ -6931,18 +6937,18 @@
         <v>192</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>20</v>
@@ -6954,7 +6960,7 @@
         <v>29</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H132" s="1" t="s">
         <v>17</v>
@@ -6963,50 +6969,50 @@
         <v>192</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E133" s="1" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>185</v>
+        <v>29</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>81</v>
+        <v>192</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>20</v>
@@ -7018,7 +7024,7 @@
         <v>185</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H134" s="1" t="s">
         <v>17</v>
@@ -7027,50 +7033,50 @@
         <v>81</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E135" s="1" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>29</v>
+        <v>185</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>20</v>
@@ -7082,7 +7088,7 @@
         <v>29</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>17</v>
@@ -7091,50 +7097,50 @@
         <v>192</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E137" s="1" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>185</v>
+        <v>29</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>81</v>
+        <v>192</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>20</v>
@@ -7146,7 +7152,7 @@
         <v>185</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>17</v>
@@ -7155,50 +7161,50 @@
         <v>81</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E139" s="1" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>79</v>
+        <v>185</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H139" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>362</v>
+        <v>81</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>363</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>20</v>
@@ -7216,62 +7222,62 @@
         <v>17</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B141" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C141" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E141" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I141" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C141" s="1" t="n">
-        <v>303</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E141" s="1" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F141" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G141" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="H141" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I141" s="1" t="s">
-        <v>337</v>
-      </c>
       <c r="J141" s="1" t="s">
-        <v>367</v>
+        <v>321</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>368</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E142" s="1" t="n">
-        <v>10</v>
+        <v>0.01</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="G142" s="1" t="s">
         <v>369</v>
@@ -7280,7 +7286,7 @@
         <v>17</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>93</v>
+        <v>340</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>370</v>
@@ -7288,13 +7294,13 @@
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>371</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>20</v>
@@ -7312,21 +7318,21 @@
         <v>17</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>20</v>
@@ -7338,7 +7344,7 @@
         <v>79</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>17</v>
@@ -7347,18 +7353,18 @@
         <v>81</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>20</v>
@@ -7370,27 +7376,27 @@
         <v>79</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H145" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>20</v>
@@ -7402,7 +7408,7 @@
         <v>79</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>17</v>
@@ -7411,18 +7417,18 @@
         <v>86</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>20</v>
@@ -7434,62 +7440,68 @@
         <v>79</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H147" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>101</v>
+        <v>86</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>382</v>
+        <v>20</v>
       </c>
       <c r="E148" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F148" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G148" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="G148" s="1" t="s">
-        <v>384</v>
-      </c>
       <c r="H148" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B149" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C149" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="D149" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="C149" s="1" t="n">
-        <v>312</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>382</v>
-      </c>
       <c r="E149" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H149" s="1" t="s">
         <v>17</v>
@@ -7497,25 +7509,25 @@
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E150" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H150" s="1" t="s">
         <v>17</v>
@@ -7523,25 +7535,25 @@
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E151" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H151" s="1" t="s">
         <v>17</v>
@@ -7549,42 +7561,39 @@
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>59</v>
+        <v>385</v>
       </c>
       <c r="E152" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>84</v>
+        <v>386</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="I152" s="1" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>59</v>
@@ -7596,7 +7605,7 @@
         <v>84</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H153" s="1" t="s">
         <v>17</v>
@@ -7607,42 +7616,42 @@
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E154" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H154" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>20</v>
@@ -7654,24 +7663,24 @@
         <v>29</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H155" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>20</v>
@@ -7683,24 +7692,24 @@
         <v>29</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>20</v>
@@ -7712,24 +7721,24 @@
         <v>29</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H157" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>20</v>
@@ -7741,24 +7750,24 @@
         <v>29</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H158" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>20</v>
@@ -7770,24 +7779,24 @@
         <v>29</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H159" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>20</v>
@@ -7799,82 +7808,82 @@
         <v>29</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B161" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B161" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="C161" s="1" t="n">
-        <v>771</v>
+        <v>326</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E161" s="1" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>185</v>
+        <v>29</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>186</v>
+        <v>411</v>
       </c>
       <c r="H161" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>81</v>
+        <v>412</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E162" s="1" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>84</v>
+        <v>185</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H162" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>273</v>
+        <v>187</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>59</v>
@@ -7886,59 +7895,56 @@
         <v>84</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>274</v>
+        <v>188</v>
       </c>
       <c r="H163" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="J163" s="1" t="s">
-        <v>411</v>
+        <v>86</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>412</v>
+        <v>273</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E164" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>205</v>
+        <v>274</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>413</v>
+        <v>275</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>20</v>
@@ -7950,65 +7956,65 @@
         <v>29</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
+      </c>
+      <c r="J165" s="1" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E166" s="1" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>185</v>
+        <v>29</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>417</v>
+        <v>199</v>
       </c>
       <c r="H166" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J166" s="1" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>419</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E167" s="1" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>84</v>
+        <v>185</v>
       </c>
       <c r="G167" s="1" t="s">
         <v>420</v>
@@ -8017,59 +8023,62 @@
         <v>17</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B168" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C168" s="1" t="n">
+        <v>777</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E168" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I168" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J168" s="1" t="s">
         <v>421</v>
-      </c>
-      <c r="C168" s="1" t="n">
-        <v>778</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E168" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F168" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G168" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="H168" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I168" s="1" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>424</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E169" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="G169" s="1" t="s">
         <v>425</v>
@@ -8078,44 +8087,47 @@
         <v>17</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>337</v>
+        <v>426</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E170" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>22</v>
+        <v>428</v>
       </c>
       <c r="H170" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>24</v>
+        <v>340</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>410</v>
+        <v>413</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>429</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>20</v>
@@ -8127,27 +8139,21 @@
         <v>29</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>290</v>
+        <v>22</v>
       </c>
       <c r="H171" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="J171" s="1" t="s">
-        <v>427</v>
+        <v>24</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>20</v>
@@ -8159,24 +8165,27 @@
         <v>29</v>
       </c>
       <c r="G172" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I172" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="H172" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I172" s="1" t="s">
-        <v>291</v>
+      <c r="J172" s="1" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>20</v>
@@ -8188,65 +8197,62 @@
         <v>29</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H173" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E174" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>431</v>
+        <v>299</v>
       </c>
       <c r="H174" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="J174" s="1" t="s">
-        <v>432</v>
+        <v>294</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>433</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E175" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="G175" s="1" t="s">
         <v>434</v>
@@ -8255,7 +8261,7 @@
         <v>17</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>31</v>
+        <v>365</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>435</v>
@@ -8263,22 +8269,22 @@
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>436</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E176" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="G176" s="1" t="s">
         <v>437</v>
@@ -8287,7 +8293,7 @@
         <v>17</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>362</v>
+        <v>31</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>438</v>
@@ -8295,22 +8301,22 @@
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>439</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E177" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="G177" s="1" t="s">
         <v>440</v>
@@ -8319,7 +8325,7 @@
         <v>17</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>31</v>
+        <v>365</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>441</v>
@@ -8327,13 +8333,13 @@
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>442</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>20</v>
@@ -8351,27 +8357,30 @@
         <v>17</v>
       </c>
       <c r="I178" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J178" s="1" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>445</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E179" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="G179" s="1" t="s">
         <v>446</v>
@@ -8380,22 +8389,18 @@
         <v>17</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K179" s="19"/>
-      <c r="L179" s="20"/>
-      <c r="M179" s="20"/>
-      <c r="N179" s="20"/>
+        <v>447</v>
+      </c>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>20</v>
@@ -8407,16 +8412,13 @@
         <v>79</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H180" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="J180" s="1" t="s">
-        <v>449</v>
+        <v>31</v>
       </c>
       <c r="K180" s="19"/>
       <c r="L180" s="20"/>
@@ -8425,51 +8427,58 @@
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B181" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="C181" s="1" t="n">
+        <v>790</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E181" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G181" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="C181" s="1" t="n">
-        <v>1026</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E181" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F181" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G181" s="1" t="s">
+      <c r="H181" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I181" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="J181" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="H181" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I181" s="1" t="s">
-        <v>453</v>
-      </c>
+      <c r="K181" s="19"/>
+      <c r="L181" s="20"/>
+      <c r="M181" s="20"/>
+      <c r="N181" s="20"/>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>454</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E182" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="G182" s="1" t="s">
         <v>455</v>
@@ -8478,395 +8487,395 @@
         <v>17</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>127</v>
+        <v>456</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E183" s="1" t="n">
         <v>10</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H183" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E184" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H184" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>31</v>
+        <v>134</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E185" s="1" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>185</v>
+        <v>29</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H185" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>362</v>
+        <v>31</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E186" s="1" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>79</v>
+        <v>185</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H186" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I186" s="1" t="s">
-        <v>127</v>
+        <v>365</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E187" s="1" t="n">
         <v>10</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H187" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E188" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H188" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>31</v>
+        <v>134</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E189" s="1" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>185</v>
+        <v>29</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H189" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>362</v>
+        <v>31</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E190" s="1" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>79</v>
+        <v>185</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H190" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>127</v>
+        <v>365</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E191" s="1" t="n">
         <v>10</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H191" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E192" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H192" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>31</v>
+        <v>134</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E193" s="1" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>185</v>
+        <v>29</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H193" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I193" s="1" t="s">
-        <v>362</v>
+        <v>31</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="E194" s="1" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F194" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G194" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="G194" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="H194" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J194" s="1" t="s">
-        <v>481</v>
+      <c r="I194" s="1" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>276</v>
+        <v>453</v>
       </c>
       <c r="B195" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C195" s="1" t="n">
+        <v>1039</v>
+      </c>
+      <c r="D195" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="C195" s="1" t="n">
-        <v>1282</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E195" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>29</v>
+        <v>483</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>199</v>
+        <v>16</v>
       </c>
       <c r="H195" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I195" s="1" t="s">
-        <v>483</v>
+      <c r="J195" s="1" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>20</v>
@@ -8878,24 +8887,24 @@
         <v>29</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>443</v>
+        <v>199</v>
       </c>
       <c r="H196" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I196" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>20</v>
@@ -8907,7 +8916,7 @@
         <v>29</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>487</v>
+        <v>446</v>
       </c>
       <c r="H197" s="1" t="s">
         <v>17</v>
@@ -8918,13 +8927,13 @@
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>489</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>20</v>
@@ -8947,13 +8956,13 @@
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>492</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>20</v>
@@ -8971,18 +8980,18 @@
         <v>17</v>
       </c>
       <c r="I199" s="1" t="s">
-        <v>192</v>
+        <v>494</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>20</v>
@@ -8994,7 +9003,7 @@
         <v>29</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H200" s="1" t="s">
         <v>17</v>
@@ -9005,13 +9014,13 @@
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>20</v>
@@ -9023,7 +9032,7 @@
         <v>29</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H201" s="1" t="s">
         <v>17</v>
@@ -9034,13 +9043,13 @@
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>20</v>
@@ -9052,7 +9061,7 @@
         <v>29</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H202" s="1" t="s">
         <v>17</v>
@@ -9063,42 +9072,42 @@
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E203" s="1" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>185</v>
+        <v>29</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H203" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I203" s="1" t="s">
-        <v>81</v>
+        <v>192</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>20</v>
@@ -9110,7 +9119,7 @@
         <v>185</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H204" s="1" t="s">
         <v>17</v>
@@ -9121,42 +9130,42 @@
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E205" s="1" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>29</v>
+        <v>185</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H205" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I205" s="1" t="s">
-        <v>192</v>
+        <v>81</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>20</v>
@@ -9168,24 +9177,24 @@
         <v>29</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H206" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I206" s="1" t="s">
-        <v>485</v>
+        <v>192</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>20</v>
@@ -9197,24 +9206,24 @@
         <v>29</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H207" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I207" s="1" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>20</v>
@@ -9226,24 +9235,24 @@
         <v>29</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H208" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>20</v>
@@ -9255,24 +9264,24 @@
         <v>29</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H209" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I209" s="1" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>20</v>
@@ -9284,24 +9293,24 @@
         <v>29</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H210" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>263</v>
+        <v>488</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>20</v>
@@ -9313,7 +9322,7 @@
         <v>29</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H211" s="1" t="s">
         <v>17</v>
@@ -9324,13 +9333,13 @@
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>20</v>
@@ -9342,53 +9351,53 @@
         <v>29</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H212" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>491</v>
+        <v>263</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E213" s="1" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>185</v>
+        <v>29</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H213" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I213" s="1" t="s">
-        <v>81</v>
+        <v>494</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>20</v>
@@ -9400,7 +9409,7 @@
         <v>185</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H214" s="1" t="s">
         <v>17</v>
@@ -9411,22 +9420,22 @@
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>524</v>
+        <v>279</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>525</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>2048</v>
+        <v>1301</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E215" s="1" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>60</v>
+        <v>185</v>
       </c>
       <c r="G215" s="1" t="s">
         <v>526</v>
@@ -9435,27 +9444,27 @@
         <v>17</v>
       </c>
       <c r="I215" s="1" t="s">
-        <v>527</v>
+        <v>81</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>528</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E216" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="G216" s="1" t="s">
         <v>529</v>
@@ -9464,76 +9473,76 @@
         <v>17</v>
       </c>
       <c r="I216" s="1" t="s">
-        <v>275</v>
+        <v>530</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E217" s="1" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>185</v>
+        <v>84</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>186</v>
+        <v>532</v>
       </c>
       <c r="H217" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I217" s="1" t="s">
-        <v>81</v>
+        <v>275</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E218" s="1" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>84</v>
+        <v>185</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H218" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I218" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>59</v>
@@ -9545,27 +9554,24 @@
         <v>84</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>533</v>
+        <v>188</v>
       </c>
       <c r="H219" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I219" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J219" s="1" t="s">
-        <v>534</v>
+        <v>86</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>535</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>59</v>
@@ -9583,76 +9589,79 @@
         <v>17</v>
       </c>
       <c r="I220" s="1" t="s">
-        <v>275</v>
+        <v>31</v>
+      </c>
+      <c r="J220" s="1" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>538</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>2307</v>
+        <v>2053</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E221" s="1" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>185</v>
+        <v>84</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>186</v>
+        <v>539</v>
       </c>
       <c r="H221" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I221" s="1" t="s">
-        <v>81</v>
+        <v>275</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E222" s="1" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>84</v>
+        <v>185</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H222" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I222" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>59</v>
@@ -9664,140 +9673,140 @@
         <v>84</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>274</v>
+        <v>188</v>
       </c>
       <c r="H223" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I223" s="1" t="s">
-        <v>275</v>
+        <v>86</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E224" s="1" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>185</v>
+        <v>84</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H224" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I224" s="1" t="s">
-        <v>81</v>
+        <v>275</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E225" s="1" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>84</v>
+        <v>185</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>543</v>
+        <v>281</v>
       </c>
       <c r="H225" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I225" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E226" s="1" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>185</v>
+        <v>84</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H226" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I226" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E227" s="1" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>84</v>
+        <v>185</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H227" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I227" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>59</v>
@@ -9809,111 +9818,111 @@
         <v>84</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H228" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E229" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H229" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I229" s="1" t="s">
-        <v>552</v>
+        <v>134</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>553</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E230" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="G230" s="1" t="s">
         <v>554</v>
       </c>
       <c r="H230" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>134</v>
+        <v>555</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>412</v>
+        <v>556</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E231" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>205</v>
+        <v>557</v>
       </c>
       <c r="H231" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I231" s="1" t="s">
-        <v>555</v>
+        <v>134</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>20</v>
@@ -9925,24 +9934,24 @@
         <v>29</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="H232" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>442</v>
+        <v>417</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>20</v>
@@ -9954,24 +9963,24 @@
         <v>29</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>443</v>
+        <v>199</v>
       </c>
       <c r="H233" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>444</v>
+        <v>559</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>20</v>
@@ -9983,24 +9992,24 @@
         <v>29</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>22</v>
+        <v>446</v>
       </c>
       <c r="H234" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I234" s="1" t="s">
-        <v>24</v>
+        <v>447</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>293</v>
+        <v>429</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>20</v>
@@ -10012,24 +10021,24 @@
         <v>29</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>294</v>
+        <v>22</v>
       </c>
       <c r="H235" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I235" s="1" t="s">
-        <v>291</v>
+        <v>24</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>20</v>
@@ -10041,53 +10050,53 @@
         <v>29</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H236" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I236" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="s">
-        <v>557</v>
+        <v>540</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>558</v>
+        <v>298</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>2600</v>
+        <v>2322</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E237" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>459</v>
+        <v>299</v>
       </c>
       <c r="H237" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I237" s="1" t="s">
-        <v>31</v>
+        <v>294</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>59</v>
@@ -10099,7 +10108,7 @@
         <v>60</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="H238" s="1" t="s">
         <v>17</v>
@@ -10110,13 +10119,13 @@
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>59</v>
@@ -10128,7 +10137,7 @@
         <v>60</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="H239" s="1" t="s">
         <v>17</v>
@@ -10139,42 +10148,42 @@
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E240" s="1" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>185</v>
+        <v>60</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
       <c r="H240" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I240" s="1" t="s">
-        <v>362</v>
+        <v>31</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>20</v>
@@ -10186,24 +10195,24 @@
         <v>185</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="H241" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I241" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>20</v>
@@ -10215,24 +10224,24 @@
         <v>185</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="H242" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I242" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>20</v>
@@ -10244,24 +10253,24 @@
         <v>185</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>565</v>
+        <v>480</v>
       </c>
       <c r="H243" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I243" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="D244" s="2" t="s">
         <v>20</v>
@@ -10273,24 +10282,24 @@
         <v>185</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H244" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I244" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="D245" s="2" t="s">
         <v>20</v>
@@ -10302,439 +10311,436 @@
         <v>185</v>
       </c>
       <c r="G245" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H245" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I245" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>478</v>
+        <v>571</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>479</v>
+        <v>20</v>
+      </c>
+      <c r="E246" s="1" t="n">
+        <v>100</v>
       </c>
       <c r="F246" s="3" t="s">
-        <v>570</v>
+        <v>185</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>16</v>
+        <v>572</v>
       </c>
       <c r="H246" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J246" s="1" t="s">
-        <v>571</v>
+      <c r="I246" s="1" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>572</v>
+        <v>481</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>2616</v>
+        <v>2609</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E247" s="1" t="n">
-        <v>10</v>
+        <v>482</v>
       </c>
       <c r="F247" s="3" t="s">
-        <v>79</v>
+        <v>573</v>
       </c>
       <c r="G247" s="1" t="s">
-        <v>455</v>
+        <v>16</v>
       </c>
       <c r="H247" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I247" s="1" t="s">
-        <v>127</v>
+      <c r="J247" s="1" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E248" s="1" t="n">
         <v>10</v>
       </c>
       <c r="F248" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G248" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H248" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I248" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E249" s="1" t="n">
         <v>10</v>
       </c>
       <c r="F249" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="H249" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I249" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E250" s="1" t="n">
         <v>10</v>
       </c>
       <c r="F250" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G250" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H250" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I250" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E251" s="1" t="n">
         <v>10</v>
       </c>
       <c r="F251" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H251" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I251" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E252" s="1" t="n">
         <v>10</v>
       </c>
       <c r="F252" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H252" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I252" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>561</v>
+        <v>580</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>578</v>
+        <v>59</v>
       </c>
       <c r="E253" s="1" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F253" s="3" t="s">
-        <v>579</v>
+        <v>84</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="H253" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I253" s="1" t="s">
-        <v>362</v>
+        <v>134</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>2624</v>
+        <v>2622</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="E254" s="1" t="n">
         <v>100</v>
       </c>
       <c r="F254" s="3" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="G254" s="1" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="H254" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I254" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>2626</v>
+        <v>2624</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="E255" s="1" t="n">
         <v>100</v>
       </c>
       <c r="F255" s="3" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="H255" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I255" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>2628</v>
+        <v>2626</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="E256" s="1" t="n">
         <v>100</v>
       </c>
       <c r="F256" s="3" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>565</v>
+        <v>480</v>
       </c>
       <c r="H256" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I256" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>2630</v>
+        <v>2628</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="E257" s="1" t="n">
         <v>100</v>
       </c>
       <c r="F257" s="3" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H257" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I257" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>2632</v>
+        <v>2630</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="E258" s="1" t="n">
         <v>100</v>
       </c>
       <c r="F258" s="3" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H258" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I258" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="s">
-        <v>580</v>
+        <v>560</v>
       </c>
       <c r="B259" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C259" s="1" t="n">
+        <v>2632</v>
+      </c>
+      <c r="D259" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="C259" s="1" t="n">
-        <v>2700</v>
-      </c>
-      <c r="D259" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="E259" s="1" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F259" s="3" t="s">
-        <v>60</v>
+        <v>582</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="H259" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I259" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J259" s="1" t="s">
-        <v>583</v>
+        <v>365</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>584</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E260" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F260" s="3" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="G260" s="1" t="s">
         <v>585</v>
@@ -10743,7 +10749,7 @@
         <v>23</v>
       </c>
       <c r="I260" s="1" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>586</v>
@@ -10751,13 +10757,13 @@
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>587</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="D261" s="2" t="s">
         <v>20</v>
@@ -10783,80 +10789,83 @@
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E262" s="1" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="F262" s="3" t="s">
-        <v>590</v>
+        <v>91</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="H262" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I262" s="1" t="s">
-        <v>31</v>
+        <v>93</v>
+      </c>
+      <c r="J262" s="1" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>2800</v>
+        <v>2703</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>382</v>
+        <v>59</v>
       </c>
       <c r="E263" s="1" t="n">
-        <v>10000000</v>
+        <v>0.01</v>
       </c>
       <c r="F263" s="3" t="s">
         <v>593</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="H263" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I263" s="1" t="s">
-        <v>595</v>
+        <v>31</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>2802</v>
+        <v>2800</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E264" s="1" t="n">
         <v>10000000</v>
       </c>
       <c r="F264" s="3" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="G264" s="1" t="s">
         <v>597</v>
@@ -10865,50 +10874,47 @@
         <v>17</v>
       </c>
       <c r="I264" s="1" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="B265" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C265" s="1" t="n">
+        <v>2802</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E265" s="1" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="F265" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="G265" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="H265" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I265" s="1" t="s">
         <v>598</v>
-      </c>
-      <c r="C265" s="1" t="n">
-        <v>2804</v>
-      </c>
-      <c r="D265" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E265" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="F265" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="G265" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="H265" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I265" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="J265" s="1" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="D266" s="2" t="s">
         <v>20</v>
@@ -10920,42 +10926,45 @@
         <v>185</v>
       </c>
       <c r="G266" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="H266" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I266" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="H266" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I266" s="1" t="s">
+      <c r="J266" s="1" t="s">
         <v>604</v>
-      </c>
-      <c r="J266" s="1" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="B267" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C267" s="1" t="n">
+        <v>2805</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E267" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F267" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G267" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="C267" s="1" t="n">
-        <v>2806</v>
-      </c>
-      <c r="D267" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E267" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F267" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G267" s="1" t="s">
+      <c r="H267" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I267" s="1" t="s">
         <v>607</v>
-      </c>
-      <c r="H267" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>608</v>
@@ -10963,13 +10972,13 @@
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>609</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="D268" s="2" t="s">
         <v>20</v>
@@ -10986,141 +10995,141 @@
       <c r="H268" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="J268" s="1" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="s">
-        <v>611</v>
+        <v>594</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>612</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>2900</v>
+        <v>2807</v>
       </c>
       <c r="D269" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E269" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="F269" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="G269" s="1" t="s">
         <v>613</v>
       </c>
       <c r="H269" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I269" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="J269" s="1" t="s">
-        <v>615</v>
+        <v>17</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="B270" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="C270" s="1" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E270" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G270" s="1" t="s">
         <v>616</v>
-      </c>
-      <c r="C270" s="1" t="n">
-        <v>2901</v>
-      </c>
-      <c r="D270" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E270" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="G270" s="1" t="s">
-        <v>617</v>
       </c>
       <c r="H270" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I270" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J270" s="21" t="s">
+        <v>617</v>
+      </c>
+      <c r="J270" s="1" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="B271" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="B271" s="1" t="s">
+      <c r="C271" s="1" t="n">
+        <v>2901</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E271" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G271" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="C271" s="1" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D271" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E271" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F271" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G271" s="1" t="s">
+      <c r="H271" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I271" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J271" s="21" t="s">
         <v>621</v>
-      </c>
-      <c r="H271" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>578</v>
+        <v>20</v>
       </c>
       <c r="E272" s="1" t="n">
-        <v>10000</v>
+        <v>1</v>
       </c>
       <c r="F272" s="3" t="s">
-        <v>623</v>
+        <v>29</v>
       </c>
       <c r="G272" s="1" t="s">
-        <v>380</v>
+        <v>624</v>
       </c>
       <c r="H272" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="I272" s="1" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>625</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>3003</v>
+        <v>3001</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>20</v>
+        <v>581</v>
       </c>
       <c r="E273" s="1" t="n">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="F273" s="3" t="s">
-        <v>29</v>
+        <v>626</v>
       </c>
       <c r="G273" s="1" t="s">
-        <v>626</v>
+        <v>383</v>
       </c>
       <c r="H273" s="1" t="s">
         <v>17</v>
@@ -11131,22 +11140,22 @@
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>628</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="D274" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E274" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F274" s="3" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="G274" s="1" t="s">
         <v>629</v>
@@ -11155,192 +11164,192 @@
         <v>17</v>
       </c>
       <c r="I274" s="1" t="s">
-        <v>93</v>
+        <v>630</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>578</v>
+        <v>20</v>
       </c>
       <c r="E275" s="1" t="n">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="F275" s="3" t="s">
-        <v>623</v>
+        <v>79</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H275" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I275" s="1" t="s">
-        <v>624</v>
+        <v>93</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>3007</v>
+        <v>3005</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>20</v>
+        <v>581</v>
       </c>
       <c r="E276" s="1" t="n">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="F276" s="3" t="s">
-        <v>29</v>
+        <v>626</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H276" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I276" s="1" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B277" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="B277" s="1" t="s">
+      <c r="C277" s="1" t="n">
+        <v>3007</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E277" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F277" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G277" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="C277" s="1" t="n">
-        <v>3100</v>
-      </c>
-      <c r="D277" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E277" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="F277" s="3" t="s">
+      <c r="H277" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I277" s="1" t="s">
         <v>637</v>
-      </c>
-      <c r="G277" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="H277" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I277" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>3101</v>
+        <v>3100</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E278" s="1" t="n">
         <v>10</v>
       </c>
       <c r="F278" s="3" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="G278" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="H278" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I278" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>184</v>
+        <v>641</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>3105</v>
+        <v>3101</v>
       </c>
       <c r="D279" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E279" s="1" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F279" s="3" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="G279" s="1" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="H279" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I279" s="1" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>305</v>
+        <v>184</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>3110</v>
+        <v>3105</v>
       </c>
       <c r="D280" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E280" s="1" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F280" s="3" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="G280" s="1" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="H280" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I280" s="1" t="s">
-        <v>642</v>
+        <v>81</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>643</v>
+        <v>308</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="D281" s="2" t="s">
         <v>20</v>
@@ -11349,56 +11358,56 @@
         <v>1</v>
       </c>
       <c r="F281" s="3" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="G281" s="1" t="s">
-        <v>296</v>
+        <v>208</v>
       </c>
       <c r="H281" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I281" s="1" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="B282" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="C282" s="1" t="n">
+        <v>3111</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E282" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F282" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="C282" s="1" t="n">
-        <v>3112</v>
-      </c>
-      <c r="D282" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E282" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F282" s="3" t="s">
-        <v>641</v>
-      </c>
       <c r="G282" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="H282" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I282" s="1" t="s">
         <v>645</v>
-      </c>
-      <c r="H282" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I282" s="1" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>303</v>
+        <v>647</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>3113</v>
+        <v>3112</v>
       </c>
       <c r="D283" s="2" t="s">
         <v>20</v>
@@ -11407,27 +11416,27 @@
         <v>1</v>
       </c>
       <c r="F283" s="3" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="G283" s="1" t="s">
-        <v>304</v>
+        <v>648</v>
       </c>
       <c r="H283" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I283" s="1" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>646</v>
+        <v>306</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>3114</v>
+        <v>3113</v>
       </c>
       <c r="D284" s="2" t="s">
         <v>20</v>
@@ -11436,27 +11445,27 @@
         <v>1</v>
       </c>
       <c r="F284" s="3" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="G284" s="1" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="H284" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I284" s="1" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>3115</v>
+        <v>3114</v>
       </c>
       <c r="D285" s="2" t="s">
         <v>20</v>
@@ -11465,27 +11474,27 @@
         <v>1</v>
       </c>
       <c r="F285" s="3" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="G285" s="1" t="s">
-        <v>648</v>
+        <v>297</v>
       </c>
       <c r="H285" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I285" s="1" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>212</v>
+        <v>650</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>3116</v>
+        <v>3115</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>20</v>
@@ -11494,27 +11503,27 @@
         <v>1</v>
       </c>
       <c r="F286" s="3" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="G286" s="1" t="s">
-        <v>213</v>
+        <v>651</v>
       </c>
       <c r="H286" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I286" s="1" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>649</v>
+        <v>212</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>3117</v>
+        <v>3116</v>
       </c>
       <c r="D287" s="2" t="s">
         <v>20</v>
@@ -11523,27 +11532,27 @@
         <v>1</v>
       </c>
       <c r="F287" s="3" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="G287" s="1" t="s">
-        <v>650</v>
+        <v>213</v>
       </c>
       <c r="H287" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I287" s="1" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>3125</v>
+        <v>3117</v>
       </c>
       <c r="D288" s="2" t="s">
         <v>20</v>
@@ -11552,24 +11561,27 @@
         <v>1</v>
       </c>
       <c r="F288" s="3" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="G288" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H288" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="I288" s="1" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>3126</v>
+        <v>3125</v>
       </c>
       <c r="D289" s="2" t="s">
         <v>20</v>
@@ -11578,27 +11590,24 @@
         <v>1</v>
       </c>
       <c r="F289" s="3" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="G289" s="1" t="s">
-        <v>205</v>
+        <v>655</v>
       </c>
       <c r="H289" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I289" s="1" t="s">
-        <v>654</v>
+        <v>17</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>3127</v>
+        <v>3126</v>
       </c>
       <c r="D290" s="2" t="s">
         <v>20</v>
@@ -11607,24 +11616,27 @@
         <v>1</v>
       </c>
       <c r="F290" s="3" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="G290" s="1" t="s">
-        <v>621</v>
+        <v>205</v>
       </c>
       <c r="H290" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="I290" s="1" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>3128</v>
+        <v>3127</v>
       </c>
       <c r="D291" s="2" t="s">
         <v>20</v>
@@ -11633,56 +11645,53 @@
         <v>1</v>
       </c>
       <c r="F291" s="3" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="G291" s="1" t="s">
-        <v>199</v>
+        <v>624</v>
       </c>
       <c r="H291" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="I291" s="1" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="1" t="s">
-        <v>658</v>
+        <v>638</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>659</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>3200</v>
+        <v>3128</v>
       </c>
       <c r="D292" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E292" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F292" s="3" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="G292" s="1" t="s">
-        <v>455</v>
+        <v>199</v>
       </c>
       <c r="H292" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I292" s="1" t="s">
-        <v>127</v>
+        <v>660</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>3201</v>
+        <v>3200</v>
       </c>
       <c r="D293" s="2" t="s">
         <v>20</v>
@@ -11691,10 +11700,10 @@
         <v>10</v>
       </c>
       <c r="F293" s="3" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="G293" s="1" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="H293" s="1" t="s">
         <v>17</v>
@@ -11705,13 +11714,13 @@
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>3202</v>
+        <v>3201</v>
       </c>
       <c r="D294" s="2" t="s">
         <v>20</v>
@@ -11720,10 +11729,10 @@
         <v>10</v>
       </c>
       <c r="F294" s="3" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="G294" s="1" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="H294" s="1" t="s">
         <v>17</v>
@@ -11734,42 +11743,42 @@
     </row>
     <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>3203</v>
+        <v>3202</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E295" s="1" t="n">
         <v>10</v>
       </c>
       <c r="F295" s="3" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="G295" s="1" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
       <c r="H295" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I295" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>3204</v>
+        <v>3203</v>
       </c>
       <c r="D296" s="2" t="s">
         <v>59</v>
@@ -11778,10 +11787,10 @@
         <v>10</v>
       </c>
       <c r="F296" s="3" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="G296" s="1" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="H296" s="1" t="s">
         <v>17</v>
@@ -11792,13 +11801,13 @@
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="1" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>3205</v>
+        <v>3204</v>
       </c>
       <c r="D297" s="2" t="s">
         <v>59</v>
@@ -11807,10 +11816,10 @@
         <v>10</v>
       </c>
       <c r="F297" s="3" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="G297" s="1" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="H297" s="1" t="s">
         <v>17</v>
@@ -11821,42 +11830,42 @@
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>3206</v>
+        <v>3205</v>
       </c>
       <c r="D298" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E298" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F298" s="3" t="s">
-        <v>666</v>
+        <v>640</v>
       </c>
       <c r="G298" s="1" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="H298" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I298" s="1" t="s">
-        <v>31</v>
+        <v>134</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>3207</v>
+        <v>3206</v>
       </c>
       <c r="D299" s="2" t="s">
         <v>59</v>
@@ -11865,10 +11874,10 @@
         <v>1</v>
       </c>
       <c r="F299" s="3" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="G299" s="1" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="H299" s="1" t="s">
         <v>17</v>
@@ -11879,13 +11888,13 @@
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>3208</v>
+        <v>3207</v>
       </c>
       <c r="D300" s="2" t="s">
         <v>59</v>
@@ -11894,10 +11903,10 @@
         <v>1</v>
       </c>
       <c r="F300" s="3" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="G300" s="1" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="H300" s="1" t="s">
         <v>17</v>
@@ -11908,42 +11917,42 @@
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="B301" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="C301" s="1" t="n">
+        <v>3208</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E301" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F301" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="C301" s="1" t="n">
-        <v>3209</v>
-      </c>
-      <c r="D301" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E301" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="F301" s="3" t="s">
-        <v>640</v>
-      </c>
       <c r="G301" s="1" t="s">
-        <v>670</v>
+        <v>478</v>
       </c>
       <c r="H301" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I301" s="1" t="s">
-        <v>143</v>
+        <v>31</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>3210</v>
+        <v>3209</v>
       </c>
       <c r="D302" s="2" t="s">
         <v>20</v>
@@ -11952,10 +11961,10 @@
         <v>100</v>
       </c>
       <c r="F302" s="3" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="G302" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H302" s="1" t="s">
         <v>17</v>
@@ -11966,13 +11975,13 @@
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>3211</v>
+        <v>3210</v>
       </c>
       <c r="D303" s="2" t="s">
         <v>20</v>
@@ -11981,10 +11990,10 @@
         <v>100</v>
       </c>
       <c r="F303" s="3" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="G303" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H303" s="1" t="s">
         <v>17</v>
@@ -11995,39 +12004,42 @@
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>3212</v>
+        <v>3211</v>
       </c>
       <c r="D304" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E304" s="1" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F304" s="3" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="G304" s="1" t="s">
-        <v>621</v>
+        <v>677</v>
       </c>
       <c r="H304" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="I304" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="1" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>3213</v>
+        <v>3212</v>
       </c>
       <c r="D305" s="2" t="s">
         <v>20</v>
@@ -12036,27 +12048,24 @@
         <v>1</v>
       </c>
       <c r="F305" s="3" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="G305" s="1" t="s">
-        <v>677</v>
+        <v>624</v>
       </c>
       <c r="H305" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="I305" s="1" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="1" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>484</v>
+        <v>679</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>3214</v>
+        <v>3213</v>
       </c>
       <c r="D306" s="2" t="s">
         <v>20</v>
@@ -12065,27 +12074,27 @@
         <v>1</v>
       </c>
       <c r="F306" s="3" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="G306" s="1" t="s">
-        <v>443</v>
+        <v>680</v>
       </c>
       <c r="H306" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I306" s="1" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="1" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>680</v>
+        <v>487</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>3215</v>
+        <v>3214</v>
       </c>
       <c r="D307" s="2" t="s">
         <v>20</v>
@@ -12094,27 +12103,27 @@
         <v>1</v>
       </c>
       <c r="F307" s="3" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="G307" s="1" t="s">
-        <v>681</v>
+        <v>446</v>
       </c>
       <c r="H307" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I307" s="1" t="s">
-        <v>488</v>
+        <v>682</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>3216</v>
+        <v>3215</v>
       </c>
       <c r="D308" s="2" t="s">
         <v>20</v>
@@ -12123,27 +12132,27 @@
         <v>1</v>
       </c>
       <c r="F308" s="3" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="G308" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H308" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I308" s="1" t="s">
-        <v>93</v>
+        <v>491</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="1" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>3217</v>
+        <v>3216</v>
       </c>
       <c r="D309" s="2" t="s">
         <v>20</v>
@@ -12152,36 +12161,36 @@
         <v>1</v>
       </c>
       <c r="F309" s="3" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="G309" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H309" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I309" s="1" t="s">
-        <v>527</v>
+        <v>93</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="1" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>3218</v>
+        <v>3217</v>
       </c>
       <c r="D310" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E310" s="1" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="F310" s="3" t="s">
-        <v>687</v>
+        <v>644</v>
       </c>
       <c r="G310" s="1" t="s">
         <v>688</v>
@@ -12190,47 +12199,47 @@
         <v>17</v>
       </c>
       <c r="I310" s="1" t="s">
-        <v>105</v>
+        <v>530</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>689</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>3219</v>
+        <v>3218</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E311" s="1" t="n">
-        <v>10</v>
+        <v>0.01</v>
       </c>
       <c r="F311" s="3" t="s">
-        <v>637</v>
+        <v>690</v>
       </c>
       <c r="G311" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H311" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I311" s="1" t="s">
-        <v>275</v>
+        <v>105</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="1" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>3220</v>
+        <v>3219</v>
       </c>
       <c r="D312" s="2" t="s">
         <v>59</v>
@@ -12239,10 +12248,10 @@
         <v>10</v>
       </c>
       <c r="F312" s="3" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="G312" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H312" s="1" t="s">
         <v>17</v>
@@ -12253,13 +12262,13 @@
     </row>
     <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="1" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>3221</v>
+        <v>3220</v>
       </c>
       <c r="D313" s="2" t="s">
         <v>59</v>
@@ -12268,10 +12277,10 @@
         <v>10</v>
       </c>
       <c r="F313" s="3" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="G313" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H313" s="1" t="s">
         <v>17</v>
@@ -12282,71 +12291,71 @@
     </row>
     <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>3222</v>
+        <v>3221</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E314" s="1" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F314" s="3" t="s">
         <v>640</v>
       </c>
       <c r="G314" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H314" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I314" s="1" t="s">
-        <v>81</v>
+        <v>275</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="1" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>3223</v>
+        <v>3222</v>
       </c>
       <c r="D315" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E315" s="1" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F315" s="3" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="G315" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H315" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I315" s="1" t="s">
-        <v>699</v>
+        <v>81</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B316" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="B316" s="1" t="s">
-        <v>620</v>
-      </c>
       <c r="C316" s="1" t="n">
-        <v>3300</v>
+        <v>3223</v>
       </c>
       <c r="D316" s="2" t="s">
         <v>20</v>
@@ -12355,36 +12364,39 @@
         <v>1</v>
       </c>
       <c r="F316" s="3" t="s">
-        <v>29</v>
+        <v>644</v>
       </c>
       <c r="G316" s="1" t="s">
-        <v>621</v>
+        <v>701</v>
       </c>
       <c r="H316" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="I316" s="1" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="1" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>701</v>
+        <v>623</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="D317" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E317" s="1" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F317" s="3" t="s">
-        <v>185</v>
+        <v>29</v>
       </c>
       <c r="G317" s="1" t="s">
-        <v>702</v>
+        <v>624</v>
       </c>
       <c r="H317" s="1" t="s">
         <v>17</v>
@@ -12392,25 +12404,25 @@
     </row>
     <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>3302</v>
+        <v>3301</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E318" s="1" t="n">
         <v>100</v>
       </c>
       <c r="F318" s="3" t="s">
-        <v>141</v>
+        <v>185</v>
       </c>
       <c r="G318" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H318" s="1" t="s">
         <v>17</v>
@@ -12418,51 +12430,48 @@
     </row>
     <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E319" s="1" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F319" s="3" t="s">
-        <v>29</v>
+        <v>141</v>
       </c>
       <c r="G319" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H319" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="I319" s="1" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>708</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>3304</v>
+        <v>3303</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E320" s="1" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F320" s="3" t="s">
-        <v>141</v>
+        <v>29</v>
       </c>
       <c r="G320" s="1" t="s">
         <v>709</v>
@@ -12471,114 +12480,117 @@
         <v>17</v>
       </c>
       <c r="I320" s="1" t="s">
-        <v>275</v>
+        <v>710</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E321" s="1" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F321" s="3" t="s">
-        <v>29</v>
+        <v>141</v>
       </c>
       <c r="G321" s="1" t="s">
-        <v>633</v>
+        <v>712</v>
       </c>
       <c r="H321" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I321" s="1" t="s">
-        <v>634</v>
+        <v>275</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>3400</v>
+        <v>3305</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>578</v>
+        <v>20</v>
       </c>
       <c r="E322" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F322" s="3" t="s">
-        <v>713</v>
+        <v>29</v>
       </c>
       <c r="G322" s="1" t="s">
-        <v>714</v>
+        <v>636</v>
       </c>
       <c r="H322" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I322" s="1" t="s">
-        <v>624</v>
+        <v>637</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>715</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>3402</v>
+        <v>3400</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="E323" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F323" s="3" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="G323" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H323" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="I323" s="1" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B324" s="1" t="s">
         <v>718</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>3420</v>
+        <v>3402</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="E324" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F324" s="3" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="G324" s="1" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="H324" s="1" t="s">
         <v>17</v>
@@ -12586,42 +12598,39 @@
     </row>
     <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>482</v>
+        <v>721</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>3422</v>
+        <v>3420</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>20</v>
+        <v>581</v>
       </c>
       <c r="E325" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F325" s="3" t="s">
-        <v>21</v>
+        <v>716</v>
       </c>
       <c r="G325" s="1" t="s">
-        <v>199</v>
+        <v>719</v>
       </c>
       <c r="H325" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="I325" s="1" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="1" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>289</v>
+        <v>485</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>3423</v>
+        <v>3422</v>
       </c>
       <c r="D326" s="2" t="s">
         <v>20</v>
@@ -12630,45 +12639,74 @@
         <v>1</v>
       </c>
       <c r="F326" s="3" t="s">
-        <v>720</v>
+        <v>21</v>
       </c>
       <c r="G326" s="1" t="s">
-        <v>721</v>
+        <v>199</v>
       </c>
       <c r="H326" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I326" s="1" t="s">
-        <v>291</v>
+        <v>722</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="B327" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C327" s="1" t="n">
+        <v>3423</v>
+      </c>
+      <c r="D327" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E327" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F327" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="G327" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="H327" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I327" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="B328" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C327" s="1" t="n">
+      <c r="C328" s="1" t="n">
         <v>3424</v>
       </c>
-      <c r="D327" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E327" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F327" s="3" t="s">
-        <v>722</v>
-      </c>
-      <c r="G327" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="H327" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I327" s="1" t="s">
-        <v>724</v>
+      <c r="D328" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E328" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F328" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="G328" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="H328" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I328" s="1" t="s">
+        <v>727</v>
       </c>
     </row>
   </sheetData>
@@ -12706,13 +12744,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="22" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12723,7 +12761,7 @@
         <v>257</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12734,7 +12772,7 @@
         <v>256</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12745,7 +12783,7 @@
         <v>258</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12756,7 +12794,7 @@
         <v>260</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12767,7 +12805,7 @@
         <v>261</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12778,7 +12816,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12789,7 +12827,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12800,7 +12838,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12811,7 +12849,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12822,7 +12860,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12833,7 +12871,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12844,7 +12882,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12855,7 +12893,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12866,7 +12904,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12877,7 +12915,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12888,7 +12926,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12899,7 +12937,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12910,7 +12948,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12921,7 +12959,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12932,7 +12970,7 @@
         <v>21</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12943,7 +12981,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12954,7 +12992,7 @@
         <v>23</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12965,7 +13003,7 @@
         <v>24</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12976,7 +13014,7 @@
         <v>25</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12987,7 +13025,7 @@
         <v>26</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12998,7 +13036,7 @@
         <v>27</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13009,7 +13047,7 @@
         <v>28</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13020,7 +13058,7 @@
         <v>29</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13031,7 +13069,7 @@
         <v>30</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13042,7 +13080,7 @@
         <v>31</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13053,7 +13091,7 @@
         <v>32</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13064,7 +13102,7 @@
         <v>33</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13075,7 +13113,7 @@
         <v>34</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13086,7 +13124,7 @@
         <v>40</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13097,7 +13135,7 @@
         <v>41</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13108,7 +13146,7 @@
         <v>42</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13119,7 +13157,7 @@
         <v>43</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13130,7 +13168,7 @@
         <v>44</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13141,7 +13179,7 @@
         <v>45</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13152,7 +13190,7 @@
         <v>46</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13163,7 +13201,7 @@
         <v>288</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13174,7 +13212,7 @@
         <v>289</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13185,7 +13223,7 @@
         <v>290</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13196,7 +13234,7 @@
         <v>291</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13207,7 +13245,7 @@
         <v>292</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13218,7 +13256,7 @@
         <v>293</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13229,12 +13267,12 @@
         <v>512</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="24" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="B50" s="24"/>
       <c r="C50" s="24"/>
@@ -13244,7 +13282,7 @@
     </row>
     <row r="51" customFormat="false" ht="92.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="25" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="B51" s="25"/>
       <c r="C51" s="25"/>
@@ -13288,295 +13326,295 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="26" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="26" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="26" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="27" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="0" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
     </row>
   </sheetData>

--- a/CCGX-Modbus-TCP-register-list.xlsx
+++ b/CCGX-Modbus-TCP-register-list.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2488" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2494" uniqueCount="851">
   <si>
     <t xml:space="preserve">NOTE: Use unit-id 100 for the com.victronenergy.system data, for more information see FAQ.</t>
   </si>
@@ -2557,6 +2557,24 @@
   </si>
   <si>
     <t xml:space="preserve">Some other small textual improvements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rev 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added registers for battery alarms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changed battery relay to be writeable (only works with some batteries).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added LowCellVoltage alarm for Lynx batteries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added VE.Bus temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added VE.Bus reset</t>
   </si>
 </sst>
 </file>
@@ -2794,6 +2812,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2808,10 +2830,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -2899,9 +2917,9 @@
   <dimension ref="A1:N328"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A97" activeCellId="0" sqref="A97"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2909,11 +2927,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="37.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="8.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="8.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="26.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="8.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="8.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="70.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="1" width="9"/>
   </cols>
@@ -5872,7 +5890,7 @@
       <c r="A97" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B97" s="0" t="s">
+      <c r="B97" s="22" t="s">
         <v>276</v>
       </c>
       <c r="C97" s="1" t="n">
@@ -12736,559 +12754,559 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="22" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="22" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="22" width="23.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="22" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>728</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>729</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="22" t="n">
         <v>246</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="22" t="n">
         <v>257</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="22" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="22" t="n">
         <v>247</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="22" t="n">
         <v>256</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="22" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="22" t="n">
         <v>245</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="22" t="n">
         <v>258</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="24" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="23" t="n">
+      <c r="A5" s="24" t="n">
         <v>243</v>
       </c>
-      <c r="B5" s="23" t="n">
+      <c r="B5" s="24" t="n">
         <v>260</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="24" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="23" t="n">
+      <c r="A6" s="24" t="n">
         <v>242</v>
       </c>
-      <c r="B6" s="23" t="n">
+      <c r="B6" s="24" t="n">
         <v>261</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="24" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="22" t="n">
         <v>100</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="22" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="0" t="s">
+      <c r="A8" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="22" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="22" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="22" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="22" t="n">
         <v>4</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="22" t="n">
         <v>4</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="22" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="22" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="22" t="n">
         <v>6</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="22" t="n">
         <v>6</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="22" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="22" t="n">
         <v>7</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="22" t="n">
         <v>7</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="22" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="22" t="n">
         <v>8</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="22" t="n">
         <v>8</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="22" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="22" t="n">
         <v>9</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="22" t="n">
         <v>9</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="22" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="22" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="22" t="n">
         <v>11</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="22" t="n">
         <v>11</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="22" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="22" t="n">
         <v>12</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="22" t="n">
         <v>12</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="22" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="C20" s="0" t="s">
+      <c r="A20" s="22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B20" s="22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C20" s="22" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="22" t="n">
         <v>21</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="22" t="n">
         <v>21</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="22" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="22" t="n">
         <v>22</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="22" t="n">
         <v>22</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="22" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="A23" s="22" t="n">
         <v>23</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23" s="22" t="n">
         <v>23</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="22" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="A24" s="22" t="n">
         <v>24</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24" s="22" t="n">
         <v>24</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="22" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="A25" s="22" t="n">
         <v>25</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25" s="22" t="n">
         <v>25</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="22" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="A26" s="22" t="n">
         <v>26</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26" s="22" t="n">
         <v>26</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="22" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="A27" s="22" t="n">
         <v>27</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27" s="22" t="n">
         <v>27</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="22" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="A28" s="22" t="n">
         <v>28</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28" s="22" t="n">
         <v>28</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="22" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="A29" s="22" t="n">
         <v>29</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29" s="22" t="n">
         <v>29</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="22" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="A30" s="22" t="n">
         <v>30</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30" s="22" t="n">
         <v>30</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="22" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+      <c r="A31" s="22" t="n">
         <v>31</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31" s="22" t="n">
         <v>31</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="22" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+      <c r="A32" s="22" t="n">
         <v>32</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32" s="22" t="n">
         <v>32</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" s="22" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+      <c r="A33" s="22" t="n">
         <v>33</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33" s="22" t="n">
         <v>33</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" s="22" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+      <c r="A34" s="22" t="n">
         <v>34</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34" s="22" t="n">
         <v>34</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" s="22" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+      <c r="A35" s="22" t="n">
         <v>40</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35" s="22" t="n">
         <v>40</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" s="22" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+      <c r="A36" s="22" t="n">
         <v>41</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B36" s="22" t="n">
         <v>41</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" s="22" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+      <c r="A37" s="22" t="n">
         <v>42</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B37" s="22" t="n">
         <v>42</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" s="22" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+      <c r="A38" s="22" t="n">
         <v>43</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B38" s="22" t="n">
         <v>43</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" s="22" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+      <c r="A39" s="22" t="n">
         <v>44</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B39" s="22" t="n">
         <v>44</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" s="22" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
+      <c r="A40" s="22" t="n">
         <v>45</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B40" s="22" t="n">
         <v>45</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" s="22" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
+      <c r="A41" s="22" t="n">
         <v>46</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B41" s="22" t="n">
         <v>46</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" s="22" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
+      <c r="A42" s="22" t="n">
         <v>239</v>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B42" s="22" t="n">
         <v>288</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" s="22" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
+      <c r="A43" s="22" t="n">
         <v>238</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B43" s="22" t="n">
         <v>289</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" s="22" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
+      <c r="A44" s="22" t="n">
         <v>237</v>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B44" s="22" t="n">
         <v>290</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" s="22" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
+      <c r="A45" s="22" t="n">
         <v>236</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B45" s="22" t="n">
         <v>291</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" s="22" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
+      <c r="A46" s="22" t="n">
         <v>235</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B46" s="22" t="n">
         <v>292</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" s="22" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
+      <c r="A47" s="22" t="n">
         <v>233</v>
       </c>
-      <c r="B47" s="0" t="n">
+      <c r="B47" s="22" t="n">
         <v>293</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" s="22" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
+      <c r="A48" s="22" t="n">
         <v>225</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B48" s="22" t="n">
         <v>512</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" s="22" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="24" t="s">
+      <c r="A50" s="25" t="s">
         <v>778</v>
       </c>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
     </row>
     <row r="51" customFormat="false" ht="92.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="26" t="s">
         <v>779</v>
       </c>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -13310,240 +13328,240 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B49" activeCellId="0" sqref="B49"/>
+      <selection pane="topLeft" activeCell="B54" activeCellId="0" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="67.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="22" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="22" width="3.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="22" width="67.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="22" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="22" t="s">
         <v>780</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="22" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="22" t="s">
         <v>782</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="22" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="22" t="s">
         <v>784</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="22" t="s">
         <v>785</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="22" t="s">
         <v>786</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="22" t="s">
         <v>787</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="22" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="22" t="s">
         <v>789</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="22" t="s">
         <v>790</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="22" t="s">
         <v>791</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="22" t="s">
         <v>792</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="22" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="22" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="22" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="22" t="s">
         <v>796</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="22" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="22" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="22" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="22" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="22" t="s">
         <v>801</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="22" t="s">
         <v>802</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="22" t="s">
         <v>803</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="22" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="22" t="s">
         <v>805</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="22" t="s">
         <v>806</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="22" t="s">
         <v>807</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="22" t="s">
         <v>808</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="22" t="s">
         <v>809</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="22" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="22" t="s">
         <v>811</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="22" t="s">
         <v>812</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="22" t="s">
         <v>813</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="22" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="22" t="s">
         <v>815</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="22" t="s">
         <v>816</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="22" t="s">
         <v>817</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="22" t="s">
         <v>818</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="22" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="22" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="22" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="22" t="s">
         <v>822</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="22" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="22" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="22" t="s">
         <v>825</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="22" t="s">
         <v>826</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="22" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="22" t="s">
         <v>828</v>
       </c>
     </row>
@@ -13553,68 +13571,96 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="22" t="s">
         <v>830</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="22" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="22" t="s">
         <v>832</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="22" t="s">
         <v>833</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="22" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="22" t="s">
         <v>835</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="22" t="s">
         <v>836</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="22" t="s">
         <v>837</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0" t="s">
+      <c r="B45" s="22" t="s">
         <v>838</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="0" t="s">
+      <c r="B46" s="22" t="s">
         <v>839</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="22" t="s">
         <v>840</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" s="22" t="s">
         <v>841</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="22" t="s">
         <v>842</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" s="22" t="s">
         <v>843</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="0" t="s">
+      <c r="B49" s="22" t="s">
         <v>844</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="22" t="s">
+        <v>845</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="22" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="22" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="22" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="22" t="s">
+        <v>850</v>
       </c>
     </row>
   </sheetData>

--- a/CCGX-Modbus-TCP-register-list.xlsx
+++ b/CCGX-Modbus-TCP-register-list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Field list" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2494" uniqueCount="851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2517" uniqueCount="861">
   <si>
     <t xml:space="preserve">NOTE: Use unit-id 100 for the com.victronenergy.system data, for more information see FAQ.</t>
   </si>
@@ -2208,6 +2208,30 @@
     <t xml:space="preserve">2=Door;3=Bilge pump;4=Bilge alarm;5=Burglar alarm;6=Smoke alarm;7=Fire alarm;8=CO2 alarm</t>
   </si>
   <si>
+    <t xml:space="preserve">com.victronenergy.generator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manual Start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Generator0/Runtime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0=Stop generator; 1=Start generator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Condition that started the generator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Generator0/RunningByConditionCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0=Stopped;1=Manual;2=TestRun;3=LossOfComms;4=Soc;5=AcLoad;6=BatteryCurrent;7=BatteryVoltage;8=InverterTemperatur;9=InverterOverload;10=StopOnAc1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Runtime in seconds</t>
+  </si>
+  <si>
     <t xml:space="preserve">Unit ID</t>
   </si>
   <si>
@@ -2575,6 +2599,12 @@
   </si>
   <si>
     <t xml:space="preserve">Added VE.Bus reset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rev 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added registers for generator start/stop</t>
   </si>
 </sst>
 </file>
@@ -2914,12 +2944,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N328"/>
+  <dimension ref="A1:N331"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A316" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A331" activeCellId="0" sqref="A331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12725,6 +12755,93 @@
       </c>
       <c r="I328" s="1" t="s">
         <v>727</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="C329" s="1" t="n">
+        <v>3500</v>
+      </c>
+      <c r="D329" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E329" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F329" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G329" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="H329" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I329" s="1" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="C330" s="1" t="n">
+        <v>3501</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E330" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F330" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="G330" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="H330" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I330" s="1" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C331" s="1" t="n">
+        <v>3502</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E331" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F331" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="G331" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="H331" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I331" s="1" t="s">
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -12762,13 +12879,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="23" t="s">
-        <v>728</v>
+        <v>736</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>729</v>
+        <v>737</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12779,7 +12896,7 @@
         <v>257</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>731</v>
+        <v>739</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12790,7 +12907,7 @@
         <v>256</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>732</v>
+        <v>740</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12801,7 +12918,7 @@
         <v>258</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12812,7 +12929,7 @@
         <v>260</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>734</v>
+        <v>742</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12823,7 +12940,7 @@
         <v>261</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>735</v>
+        <v>743</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12834,7 +12951,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12845,7 +12962,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12856,7 +12973,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>738</v>
+        <v>746</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12867,7 +12984,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12878,7 +12995,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12889,7 +13006,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12900,7 +13017,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>742</v>
+        <v>750</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12911,7 +13028,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>743</v>
+        <v>751</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12922,7 +13039,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12933,7 +13050,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>745</v>
+        <v>753</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12944,7 +13061,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>746</v>
+        <v>754</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12955,7 +13072,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>747</v>
+        <v>755</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12966,7 +13083,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>748</v>
+        <v>756</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12977,7 +13094,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>749</v>
+        <v>757</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12988,7 +13105,7 @@
         <v>21</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>750</v>
+        <v>758</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12999,7 +13116,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>751</v>
+        <v>759</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13010,7 +13127,7 @@
         <v>23</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>752</v>
+        <v>760</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13021,7 +13138,7 @@
         <v>24</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>753</v>
+        <v>761</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13032,7 +13149,7 @@
         <v>25</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>754</v>
+        <v>762</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13043,7 +13160,7 @@
         <v>26</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>755</v>
+        <v>763</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13054,7 +13171,7 @@
         <v>27</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>756</v>
+        <v>764</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13065,7 +13182,7 @@
         <v>28</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>757</v>
+        <v>765</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13076,7 +13193,7 @@
         <v>29</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>758</v>
+        <v>766</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13087,7 +13204,7 @@
         <v>30</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>759</v>
+        <v>767</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13098,7 +13215,7 @@
         <v>31</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>760</v>
+        <v>768</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13109,7 +13226,7 @@
         <v>32</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>761</v>
+        <v>769</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13120,7 +13237,7 @@
         <v>33</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>762</v>
+        <v>770</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13131,7 +13248,7 @@
         <v>34</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>763</v>
+        <v>771</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13142,7 +13259,7 @@
         <v>40</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>764</v>
+        <v>772</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13153,7 +13270,7 @@
         <v>41</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>765</v>
+        <v>773</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13164,7 +13281,7 @@
         <v>42</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>766</v>
+        <v>774</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13175,7 +13292,7 @@
         <v>43</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>767</v>
+        <v>775</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13186,7 +13303,7 @@
         <v>44</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>768</v>
+        <v>776</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13197,7 +13314,7 @@
         <v>45</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>769</v>
+        <v>777</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13208,7 +13325,7 @@
         <v>46</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>770</v>
+        <v>778</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13219,7 +13336,7 @@
         <v>288</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>771</v>
+        <v>779</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13230,7 +13347,7 @@
         <v>289</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>772</v>
+        <v>780</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13241,7 +13358,7 @@
         <v>290</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>773</v>
+        <v>781</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13252,7 +13369,7 @@
         <v>291</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>774</v>
+        <v>782</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13263,7 +13380,7 @@
         <v>292</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>775</v>
+        <v>783</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13274,7 +13391,7 @@
         <v>293</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>776</v>
+        <v>784</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13285,12 +13402,12 @@
         <v>512</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>777</v>
+        <v>785</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="25" t="s">
-        <v>778</v>
+        <v>786</v>
       </c>
       <c r="B50" s="25"/>
       <c r="C50" s="25"/>
@@ -13300,7 +13417,7 @@
     </row>
     <row r="51" customFormat="false" ht="92.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="26" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
       <c r="B51" s="26"/>
       <c r="C51" s="26"/>
@@ -13328,10 +13445,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B54" activeCellId="0" sqref="B54"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C55" activeCellId="0" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13344,323 +13461,331 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="22" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>781</v>
+        <v>789</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="22" t="s">
-        <v>782</v>
+        <v>790</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="22" t="s">
-        <v>786</v>
+        <v>794</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>787</v>
+        <v>795</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="22" t="s">
-        <v>788</v>
+        <v>796</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="22" t="s">
-        <v>789</v>
+        <v>797</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="22" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="22" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="22" t="s">
-        <v>792</v>
+        <v>800</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>793</v>
+        <v>801</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="22" t="s">
-        <v>794</v>
+        <v>802</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="22" t="s">
-        <v>795</v>
+        <v>803</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="22" t="s">
-        <v>796</v>
+        <v>804</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>797</v>
+        <v>805</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="22" t="s">
-        <v>798</v>
+        <v>806</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="22" t="s">
-        <v>799</v>
+        <v>807</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="22" t="s">
-        <v>800</v>
+        <v>808</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="22" t="s">
-        <v>801</v>
+        <v>809</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="22" t="s">
-        <v>802</v>
+        <v>810</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="22" t="s">
-        <v>803</v>
+        <v>811</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>804</v>
+        <v>812</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="22" t="s">
-        <v>805</v>
+        <v>813</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>806</v>
+        <v>814</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="22" t="s">
-        <v>807</v>
+        <v>815</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="22" t="s">
-        <v>808</v>
+        <v>816</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="22" t="s">
-        <v>809</v>
+        <v>817</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>810</v>
+        <v>818</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="22" t="s">
-        <v>811</v>
+        <v>819</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="22" t="s">
-        <v>812</v>
+        <v>820</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="22" t="s">
-        <v>813</v>
+        <v>821</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="22" t="s">
-        <v>814</v>
+        <v>822</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="22" t="s">
-        <v>815</v>
+        <v>823</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="22" t="s">
-        <v>816</v>
+        <v>824</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="22" t="s">
-        <v>817</v>
+        <v>825</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="22" t="s">
-        <v>818</v>
+        <v>826</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>819</v>
+        <v>827</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="22" t="s">
-        <v>820</v>
+        <v>828</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="22" t="s">
-        <v>821</v>
+        <v>829</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="22" t="s">
-        <v>822</v>
+        <v>830</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>823</v>
+        <v>831</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="22" t="s">
-        <v>824</v>
+        <v>832</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="22" t="s">
-        <v>825</v>
+        <v>833</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="22" t="s">
-        <v>826</v>
+        <v>834</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="22" t="s">
-        <v>827</v>
+        <v>835</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="22" t="s">
-        <v>828</v>
+        <v>836</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="27" t="s">
-        <v>829</v>
+        <v>837</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="22" t="s">
-        <v>830</v>
+        <v>838</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="22" t="s">
-        <v>832</v>
+        <v>840</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>833</v>
+        <v>841</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="22" t="s">
-        <v>834</v>
+        <v>842</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="22" t="s">
-        <v>835</v>
+        <v>843</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="22" t="s">
-        <v>836</v>
+        <v>844</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>837</v>
+        <v>845</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="22" t="s">
-        <v>838</v>
+        <v>846</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="22" t="s">
-        <v>839</v>
+        <v>847</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="22" t="s">
-        <v>840</v>
+        <v>848</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>841</v>
+        <v>849</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="22" t="s">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="22" t="s">
-        <v>844</v>
+        <v>852</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="22" t="s">
-        <v>845</v>
+        <v>853</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>846</v>
+        <v>854</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="22" t="s">
-        <v>847</v>
+        <v>855</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="22" t="s">
-        <v>848</v>
+        <v>856</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="22" t="s">
-        <v>849</v>
+        <v>857</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="22" t="s">
-        <v>850</v>
+        <v>858</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="22" t="s">
+        <v>859</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>860</v>
       </c>
     </row>
   </sheetData>

--- a/CCGX-Modbus-TCP-register-list.xlsx
+++ b/CCGX-Modbus-TCP-register-list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Field list" sheetId="1" state="visible" r:id="rId2"/>
@@ -1278,7 +1278,7 @@
     <t xml:space="preserve">Charge state</t>
   </si>
   <si>
-    <t xml:space="preserve">0=Off;2=Fault;3=Bulk;4=Absorption;5=Float;6=Storage;7=Equalize;11=Other (Hub-1);252=Hub-1</t>
+    <t xml:space="preserve">0=Off;2=Fault;3=Bulk;4=Absorption;5=Float;6=Storage;7=Equalize;11=Other (Hub-1);252=External control</t>
   </si>
   <si>
     <t xml:space="preserve">PV voltage</t>
@@ -2946,10 +2946,10 @@
   </sheetPr>
   <dimension ref="A1:N331"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A316" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A331" activeCellId="0" sqref="A331"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A246" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="B260" activeCellId="0" sqref="B260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13447,7 +13447,7 @@
   </sheetPr>
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C55" activeCellId="0" sqref="C55"/>
     </sheetView>
   </sheetViews>

--- a/CCGX-Modbus-TCP-register-list.xlsx
+++ b/CCGX-Modbus-TCP-register-list.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2517" uniqueCount="861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2527" uniqueCount="867">
   <si>
     <t xml:space="preserve">NOTE: Use unit-id 100 for the com.victronenergy.system data, for more information see FAQ.</t>
   </si>
@@ -1875,7 +1875,7 @@
     <t xml:space="preserve">/Settings/CGwacs/BatteryLife/State</t>
   </si>
   <si>
-    <t xml:space="preserve">0=External control or BL disabled;1=Restarting;2=Self-consumption;3=Self-consumption;4=Self-consumption;5=Discharge disabled;6=Force charge;7=Sustain;9=Keep batteries charged;10=BL Disabled;11=BL Disabled (Low SoC)</t>
+    <t xml:space="preserve">0=Unused, BL disabled;1=Restarting;2=Self-consumption;3=Self-consumption;4=Self-consumption;5=Discharge disabled;6=Force charge;7=Sustain;9=Keep batteries charged;10=BL Disabled;11=BL Disabled (Low SoC)</t>
   </si>
   <si>
     <t xml:space="preserve">Use value 0 (disable) and 1(enable) for writing only</t>
@@ -1890,6 +1890,15 @@
     <t xml:space="preserve">Same as the setting in the GUI</t>
   </si>
   <si>
+    <t xml:space="preserve">ESS Mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Settings/Cgwacs/Hub4Mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1=ESS with Phase Compensation;2=ESS without phase compensation;3=Disabled/External Control</t>
+  </si>
+  <si>
     <t xml:space="preserve">com.victronenergy.tank</t>
   </si>
   <si>
@@ -1899,6 +1908,9 @@
     <t xml:space="preserve">/ProductId</t>
   </si>
   <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
     <t xml:space="preserve">Tank capacity</t>
   </si>
   <si>
@@ -2605,6 +2617,12 @@
   </si>
   <si>
     <t xml:space="preserve">Added registers for generator start/stop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rev 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added register for ESS mode</t>
   </si>
 </sst>
 </file>
@@ -2614,7 +2632,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2651,6 +2669,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6.4"/>
+      <color rgb="FF4C4C4C"/>
+      <name val="Ubuntu"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2753,7 +2783,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2846,6 +2876,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2933,7 +2971,7 @@
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="FF4C4C4C"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -2944,12 +2982,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N331"/>
+  <dimension ref="A1:N332"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A246" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B260" activeCellId="0" sqref="B260"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A272" activeCellId="0" sqref="A272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11131,15 +11169,15 @@
         <v>621</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="1" t="s">
+    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="23" t="s">
+        <v>614</v>
+      </c>
+      <c r="B272" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="B272" s="1" t="s">
-        <v>623</v>
-      </c>
       <c r="C272" s="1" t="n">
-        <v>3000</v>
+        <v>2902</v>
       </c>
       <c r="D272" s="2" t="s">
         <v>20</v>
@@ -11151,282 +11189,286 @@
         <v>29</v>
       </c>
       <c r="G272" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="H272" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I272" s="0" t="s">
         <v>624</v>
       </c>
-      <c r="H272" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J272" s="21"/>
+    </row>
+    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>581</v>
+        <v>20</v>
       </c>
       <c r="E273" s="1" t="n">
-        <v>10000</v>
+        <v>1</v>
       </c>
       <c r="F273" s="3" t="s">
-        <v>626</v>
+        <v>29</v>
       </c>
       <c r="G273" s="1" t="s">
-        <v>383</v>
+        <v>627</v>
       </c>
       <c r="H273" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I273" s="1" t="s">
-        <v>627</v>
+      <c r="I273" s="24" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>3003</v>
+        <v>3001</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>20</v>
+        <v>581</v>
       </c>
       <c r="E274" s="1" t="n">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="F274" s="3" t="s">
-        <v>29</v>
+        <v>630</v>
       </c>
       <c r="G274" s="1" t="s">
-        <v>629</v>
+        <v>383</v>
       </c>
       <c r="H274" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I274" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="D275" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E275" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F275" s="3" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H275" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I275" s="1" t="s">
-        <v>93</v>
+        <v>634</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>581</v>
+        <v>20</v>
       </c>
       <c r="E276" s="1" t="n">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="F276" s="3" t="s">
-        <v>626</v>
+        <v>79</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="H276" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I276" s="1" t="s">
-        <v>627</v>
+        <v>93</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>3007</v>
+        <v>3005</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>20</v>
+        <v>581</v>
       </c>
       <c r="E277" s="1" t="n">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="F277" s="3" t="s">
-        <v>29</v>
+        <v>630</v>
       </c>
       <c r="G277" s="1" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="H277" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I277" s="1" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>639</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>3100</v>
+        <v>3007</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E278" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F278" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G278" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="G278" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="H278" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I278" s="1" t="s">
-        <v>134</v>
+        <v>641</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>3101</v>
+        <v>3100</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E279" s="1" t="n">
         <v>10</v>
       </c>
       <c r="F279" s="3" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="G279" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="H279" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I279" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>184</v>
+        <v>645</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>3105</v>
+        <v>3101</v>
       </c>
       <c r="D280" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E280" s="1" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F280" s="3" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="G280" s="1" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="H280" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I280" s="1" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>308</v>
+        <v>184</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>3110</v>
+        <v>3105</v>
       </c>
       <c r="D281" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E281" s="1" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F281" s="3" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="G281" s="1" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="H281" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I281" s="1" t="s">
-        <v>645</v>
+        <v>81</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>646</v>
+        <v>308</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="D282" s="2" t="s">
         <v>20</v>
@@ -11435,27 +11477,27 @@
         <v>1</v>
       </c>
       <c r="F282" s="3" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="G282" s="1" t="s">
-        <v>299</v>
+        <v>208</v>
       </c>
       <c r="H282" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I282" s="1" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>3112</v>
+        <v>3111</v>
       </c>
       <c r="D283" s="2" t="s">
         <v>20</v>
@@ -11464,27 +11506,27 @@
         <v>1</v>
       </c>
       <c r="F283" s="3" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="G283" s="1" t="s">
-        <v>648</v>
+        <v>299</v>
       </c>
       <c r="H283" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I283" s="1" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>306</v>
+        <v>651</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>3113</v>
+        <v>3112</v>
       </c>
       <c r="D284" s="2" t="s">
         <v>20</v>
@@ -11493,56 +11535,56 @@
         <v>1</v>
       </c>
       <c r="F284" s="3" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="G284" s="1" t="s">
-        <v>307</v>
+        <v>652</v>
       </c>
       <c r="H284" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I284" s="1" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="B285" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C285" s="1" t="n">
+        <v>3113</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E285" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F285" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="G285" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="H285" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I285" s="1" t="s">
         <v>649</v>
-      </c>
-      <c r="C285" s="1" t="n">
-        <v>3114</v>
-      </c>
-      <c r="D285" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E285" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F285" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="G285" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="H285" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I285" s="1" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>3115</v>
+        <v>3114</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>20</v>
@@ -11551,27 +11593,27 @@
         <v>1</v>
       </c>
       <c r="F286" s="3" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="G286" s="1" t="s">
-        <v>651</v>
+        <v>297</v>
       </c>
       <c r="H286" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I286" s="1" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>212</v>
+        <v>654</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>3116</v>
+        <v>3115</v>
       </c>
       <c r="D287" s="2" t="s">
         <v>20</v>
@@ -11580,27 +11622,27 @@
         <v>1</v>
       </c>
       <c r="F287" s="3" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="G287" s="1" t="s">
-        <v>213</v>
+        <v>655</v>
       </c>
       <c r="H287" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I287" s="1" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>652</v>
+        <v>212</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>3117</v>
+        <v>3116</v>
       </c>
       <c r="D288" s="2" t="s">
         <v>20</v>
@@ -11609,27 +11651,27 @@
         <v>1</v>
       </c>
       <c r="F288" s="3" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="G288" s="1" t="s">
-        <v>653</v>
+        <v>213</v>
       </c>
       <c r="H288" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I288" s="1" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>3125</v>
+        <v>3117</v>
       </c>
       <c r="D289" s="2" t="s">
         <v>20</v>
@@ -11638,24 +11680,27 @@
         <v>1</v>
       </c>
       <c r="F289" s="3" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="G289" s="1" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="H289" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="I289" s="1" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>3126</v>
+        <v>3125</v>
       </c>
       <c r="D290" s="2" t="s">
         <v>20</v>
@@ -11664,27 +11709,24 @@
         <v>1</v>
       </c>
       <c r="F290" s="3" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="G290" s="1" t="s">
-        <v>205</v>
+        <v>659</v>
       </c>
       <c r="H290" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I290" s="1" t="s">
-        <v>657</v>
+        <v>17</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>3127</v>
+        <v>3126</v>
       </c>
       <c r="D291" s="2" t="s">
         <v>20</v>
@@ -11693,24 +11735,27 @@
         <v>1</v>
       </c>
       <c r="F291" s="3" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="G291" s="1" t="s">
-        <v>624</v>
+        <v>205</v>
       </c>
       <c r="H291" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="I291" s="1" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="1" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>3128</v>
+        <v>3127</v>
       </c>
       <c r="D292" s="2" t="s">
         <v>20</v>
@@ -11719,56 +11764,53 @@
         <v>1</v>
       </c>
       <c r="F292" s="3" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="G292" s="1" t="s">
-        <v>199</v>
+        <v>627</v>
       </c>
       <c r="H292" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="I292" s="1" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="s">
-        <v>661</v>
+        <v>642</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>3200</v>
+        <v>3128</v>
       </c>
       <c r="D293" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E293" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F293" s="3" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="G293" s="1" t="s">
-        <v>458</v>
+        <v>199</v>
       </c>
       <c r="H293" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I293" s="1" t="s">
-        <v>127</v>
+        <v>664</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>3201</v>
+        <v>3200</v>
       </c>
       <c r="D294" s="2" t="s">
         <v>20</v>
@@ -11777,10 +11819,10 @@
         <v>10</v>
       </c>
       <c r="F294" s="3" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="G294" s="1" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="H294" s="1" t="s">
         <v>17</v>
@@ -11791,13 +11833,13 @@
     </row>
     <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>3202</v>
+        <v>3201</v>
       </c>
       <c r="D295" s="2" t="s">
         <v>20</v>
@@ -11806,10 +11848,10 @@
         <v>10</v>
       </c>
       <c r="F295" s="3" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="G295" s="1" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="H295" s="1" t="s">
         <v>17</v>
@@ -11820,42 +11862,42 @@
     </row>
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>3203</v>
+        <v>3202</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E296" s="1" t="n">
         <v>10</v>
       </c>
       <c r="F296" s="3" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="G296" s="1" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="H296" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I296" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="1" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>3204</v>
+        <v>3203</v>
       </c>
       <c r="D297" s="2" t="s">
         <v>59</v>
@@ -11864,10 +11906,10 @@
         <v>10</v>
       </c>
       <c r="F297" s="3" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="G297" s="1" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="H297" s="1" t="s">
         <v>17</v>
@@ -11878,13 +11920,13 @@
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>3205</v>
+        <v>3204</v>
       </c>
       <c r="D298" s="2" t="s">
         <v>59</v>
@@ -11893,10 +11935,10 @@
         <v>10</v>
       </c>
       <c r="F298" s="3" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="G298" s="1" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="H298" s="1" t="s">
         <v>17</v>
@@ -11907,42 +11949,42 @@
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>3206</v>
+        <v>3205</v>
       </c>
       <c r="D299" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E299" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F299" s="3" t="s">
-        <v>669</v>
+        <v>644</v>
       </c>
       <c r="G299" s="1" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="H299" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I299" s="1" t="s">
-        <v>31</v>
+        <v>134</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>3207</v>
+        <v>3206</v>
       </c>
       <c r="D300" s="2" t="s">
         <v>59</v>
@@ -11951,10 +11993,10 @@
         <v>1</v>
       </c>
       <c r="F300" s="3" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="G300" s="1" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="H300" s="1" t="s">
         <v>17</v>
@@ -11965,13 +12007,13 @@
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>3208</v>
+        <v>3207</v>
       </c>
       <c r="D301" s="2" t="s">
         <v>59</v>
@@ -11980,10 +12022,10 @@
         <v>1</v>
       </c>
       <c r="F301" s="3" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="G301" s="1" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H301" s="1" t="s">
         <v>17</v>
@@ -11994,42 +12036,42 @@
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>3209</v>
+        <v>3208</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E302" s="1" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F302" s="3" t="s">
-        <v>643</v>
+        <v>673</v>
       </c>
       <c r="G302" s="1" t="s">
-        <v>673</v>
+        <v>478</v>
       </c>
       <c r="H302" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I302" s="1" t="s">
-        <v>143</v>
+        <v>31</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>3210</v>
+        <v>3209</v>
       </c>
       <c r="D303" s="2" t="s">
         <v>20</v>
@@ -12038,10 +12080,10 @@
         <v>100</v>
       </c>
       <c r="F303" s="3" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="G303" s="1" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="H303" s="1" t="s">
         <v>17</v>
@@ -12052,13 +12094,13 @@
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>3211</v>
+        <v>3210</v>
       </c>
       <c r="D304" s="2" t="s">
         <v>20</v>
@@ -12067,10 +12109,10 @@
         <v>100</v>
       </c>
       <c r="F304" s="3" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="G304" s="1" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="H304" s="1" t="s">
         <v>17</v>
@@ -12081,39 +12123,42 @@
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="1" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>3212</v>
+        <v>3211</v>
       </c>
       <c r="D305" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E305" s="1" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F305" s="3" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="G305" s="1" t="s">
-        <v>624</v>
+        <v>681</v>
       </c>
       <c r="H305" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="I305" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="1" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>3213</v>
+        <v>3212</v>
       </c>
       <c r="D306" s="2" t="s">
         <v>20</v>
@@ -12122,27 +12167,24 @@
         <v>1</v>
       </c>
       <c r="F306" s="3" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="G306" s="1" t="s">
-        <v>680</v>
+        <v>627</v>
       </c>
       <c r="H306" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="I306" s="1" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="1" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>487</v>
+        <v>683</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>3214</v>
+        <v>3213</v>
       </c>
       <c r="D307" s="2" t="s">
         <v>20</v>
@@ -12151,27 +12193,27 @@
         <v>1</v>
       </c>
       <c r="F307" s="3" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="G307" s="1" t="s">
-        <v>446</v>
+        <v>684</v>
       </c>
       <c r="H307" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I307" s="1" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>683</v>
+        <v>487</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>3215</v>
+        <v>3214</v>
       </c>
       <c r="D308" s="2" t="s">
         <v>20</v>
@@ -12180,27 +12222,27 @@
         <v>1</v>
       </c>
       <c r="F308" s="3" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="G308" s="1" t="s">
-        <v>684</v>
+        <v>446</v>
       </c>
       <c r="H308" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I308" s="1" t="s">
-        <v>491</v>
+        <v>686</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="1" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>3216</v>
+        <v>3215</v>
       </c>
       <c r="D309" s="2" t="s">
         <v>20</v>
@@ -12209,27 +12251,27 @@
         <v>1</v>
       </c>
       <c r="F309" s="3" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="G309" s="1" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="H309" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I309" s="1" t="s">
-        <v>93</v>
+        <v>491</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="1" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>3217</v>
+        <v>3216</v>
       </c>
       <c r="D310" s="2" t="s">
         <v>20</v>
@@ -12238,85 +12280,85 @@
         <v>1</v>
       </c>
       <c r="F310" s="3" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="G310" s="1" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="H310" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I310" s="1" t="s">
-        <v>530</v>
+        <v>93</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>3218</v>
+        <v>3217</v>
       </c>
       <c r="D311" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E311" s="1" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="F311" s="3" t="s">
-        <v>690</v>
+        <v>648</v>
       </c>
       <c r="G311" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H311" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I311" s="1" t="s">
-        <v>105</v>
+        <v>530</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="1" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>3219</v>
+        <v>3218</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E312" s="1" t="n">
-        <v>10</v>
+        <v>0.01</v>
       </c>
       <c r="F312" s="3" t="s">
-        <v>640</v>
+        <v>694</v>
       </c>
       <c r="G312" s="1" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="H312" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I312" s="1" t="s">
-        <v>275</v>
+        <v>105</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="1" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>3220</v>
+        <v>3219</v>
       </c>
       <c r="D313" s="2" t="s">
         <v>59</v>
@@ -12325,10 +12367,10 @@
         <v>10</v>
       </c>
       <c r="F313" s="3" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="G313" s="1" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="H313" s="1" t="s">
         <v>17</v>
@@ -12339,13 +12381,13 @@
     </row>
     <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>3221</v>
+        <v>3220</v>
       </c>
       <c r="D314" s="2" t="s">
         <v>59</v>
@@ -12354,10 +12396,10 @@
         <v>10</v>
       </c>
       <c r="F314" s="3" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="G314" s="1" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="H314" s="1" t="s">
         <v>17</v>
@@ -12368,71 +12410,71 @@
     </row>
     <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="1" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>3222</v>
+        <v>3221</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E315" s="1" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F315" s="3" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="G315" s="1" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="H315" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I315" s="1" t="s">
-        <v>81</v>
+        <v>275</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="1" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>3223</v>
+        <v>3222</v>
       </c>
       <c r="D316" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E316" s="1" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F316" s="3" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="G316" s="1" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="H316" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I316" s="1" t="s">
-        <v>702</v>
+        <v>81</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="1" t="s">
-        <v>703</v>
+        <v>665</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>623</v>
+        <v>704</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>3300</v>
+        <v>3223</v>
       </c>
       <c r="D317" s="2" t="s">
         <v>20</v>
@@ -12441,36 +12483,39 @@
         <v>1</v>
       </c>
       <c r="F317" s="3" t="s">
-        <v>29</v>
+        <v>648</v>
       </c>
       <c r="G317" s="1" t="s">
-        <v>624</v>
+        <v>705</v>
       </c>
       <c r="H317" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="I317" s="1" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>704</v>
+        <v>626</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="D318" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E318" s="1" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F318" s="3" t="s">
-        <v>185</v>
+        <v>29</v>
       </c>
       <c r="G318" s="1" t="s">
-        <v>705</v>
+        <v>627</v>
       </c>
       <c r="H318" s="1" t="s">
         <v>17</v>
@@ -12478,25 +12523,25 @@
     </row>
     <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>3302</v>
+        <v>3301</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E319" s="1" t="n">
         <v>100</v>
       </c>
       <c r="F319" s="3" t="s">
-        <v>141</v>
+        <v>185</v>
       </c>
       <c r="G319" s="1" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="H319" s="1" t="s">
         <v>17</v>
@@ -12504,129 +12549,126 @@
     </row>
     <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E320" s="1" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F320" s="3" t="s">
-        <v>29</v>
+        <v>141</v>
       </c>
       <c r="G320" s="1" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="H320" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="I320" s="1" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>3304</v>
+        <v>3303</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E321" s="1" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F321" s="3" t="s">
-        <v>141</v>
+        <v>29</v>
       </c>
       <c r="G321" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H321" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I321" s="1" t="s">
-        <v>275</v>
+        <v>714</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E322" s="1" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F322" s="3" t="s">
-        <v>29</v>
+        <v>141</v>
       </c>
       <c r="G322" s="1" t="s">
-        <v>636</v>
+        <v>716</v>
       </c>
       <c r="H322" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I322" s="1" t="s">
-        <v>637</v>
+        <v>275</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>3400</v>
+        <v>3305</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>581</v>
+        <v>20</v>
       </c>
       <c r="E323" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F323" s="3" t="s">
-        <v>716</v>
+        <v>29</v>
       </c>
       <c r="G323" s="1" t="s">
-        <v>717</v>
+        <v>640</v>
       </c>
       <c r="H323" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I323" s="1" t="s">
-        <v>627</v>
+        <v>641</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>3402</v>
+        <v>3400</v>
       </c>
       <c r="D324" s="2" t="s">
         <v>581</v>
@@ -12635,24 +12677,27 @@
         <v>1</v>
       </c>
       <c r="F324" s="3" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="G324" s="1" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="H324" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="I324" s="1" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>3420</v>
+        <v>3402</v>
       </c>
       <c r="D325" s="2" t="s">
         <v>581</v>
@@ -12661,10 +12706,10 @@
         <v>1</v>
       </c>
       <c r="F325" s="3" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="G325" s="1" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="H325" s="1" t="s">
         <v>17</v>
@@ -12672,42 +12717,39 @@
     </row>
     <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="C326" s="1" t="n">
+        <v>3420</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="E326" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F326" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="B326" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="C326" s="1" t="n">
-        <v>3422</v>
-      </c>
-      <c r="D326" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E326" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F326" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="G326" s="1" t="s">
-        <v>199</v>
+        <v>723</v>
       </c>
       <c r="H326" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="I326" s="1" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>292</v>
+        <v>485</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>3423</v>
+        <v>3422</v>
       </c>
       <c r="D327" s="2" t="s">
         <v>20</v>
@@ -12716,71 +12758,71 @@
         <v>1</v>
       </c>
       <c r="F327" s="3" t="s">
-        <v>723</v>
+        <v>21</v>
       </c>
       <c r="G327" s="1" t="s">
-        <v>724</v>
+        <v>199</v>
       </c>
       <c r="H327" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I327" s="1" t="s">
-        <v>294</v>
+        <v>726</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="B328" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C328" s="1" t="n">
+        <v>3423</v>
+      </c>
+      <c r="D328" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E328" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F328" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="G328" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="H328" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I328" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B329" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C328" s="1" t="n">
+      <c r="C329" s="1" t="n">
         <v>3424</v>
       </c>
-      <c r="D328" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E328" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F328" s="3" t="s">
-        <v>725</v>
-      </c>
-      <c r="G328" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="H328" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I328" s="1" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="B329" s="1" t="s">
+      <c r="D329" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E329" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F329" s="3" t="s">
         <v>729</v>
-      </c>
-      <c r="C329" s="1" t="n">
-        <v>3500</v>
-      </c>
-      <c r="D329" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E329" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F329" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="G329" s="1" t="s">
         <v>730</v>
       </c>
       <c r="H329" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I329" s="1" t="s">
         <v>731</v>
@@ -12788,13 +12830,13 @@
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>3501</v>
+        <v>3500</v>
       </c>
       <c r="D330" s="2" t="s">
         <v>20</v>
@@ -12803,44 +12845,73 @@
         <v>1</v>
       </c>
       <c r="F330" s="3" t="s">
-        <v>725</v>
+        <v>21</v>
       </c>
       <c r="G330" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H330" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I330" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C331" s="1" t="n">
+        <v>3501</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E331" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F331" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="G331" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="H331" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I331" s="1" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="C332" s="1" t="n">
         <v>3502</v>
       </c>
-      <c r="D331" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E331" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F331" s="3" t="s">
-        <v>725</v>
-      </c>
-      <c r="G331" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="H331" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I331" s="1" t="s">
+      <c r="D332" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E332" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F332" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="G332" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="H332" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I332" s="1" t="s">
         <v>340</v>
       </c>
     </row>
@@ -12878,14 +12949,14 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="23" t="s">
-        <v>736</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>737</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>738</v>
+      <c r="A1" s="25" t="s">
+        <v>740</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>741</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12896,7 +12967,7 @@
         <v>257</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12907,7 +12978,7 @@
         <v>256</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12917,30 +12988,30 @@
       <c r="B4" s="22" t="n">
         <v>258</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>741</v>
+      <c r="C4" s="26" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="24" t="n">
+      <c r="A5" s="26" t="n">
         <v>243</v>
       </c>
-      <c r="B5" s="24" t="n">
+      <c r="B5" s="26" t="n">
         <v>260</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>742</v>
+      <c r="C5" s="26" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="24" t="n">
+      <c r="A6" s="26" t="n">
         <v>242</v>
       </c>
-      <c r="B6" s="24" t="n">
+      <c r="B6" s="26" t="n">
         <v>261</v>
       </c>
-      <c r="C6" s="24" t="s">
-        <v>743</v>
+      <c r="C6" s="26" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12951,7 +13022,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12962,7 +13033,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12973,7 +13044,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12984,7 +13055,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12995,7 +13066,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13006,7 +13077,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13017,7 +13088,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13028,7 +13099,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13039,7 +13110,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13050,7 +13121,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13061,7 +13132,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13072,7 +13143,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13083,7 +13154,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13094,7 +13165,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13105,7 +13176,7 @@
         <v>21</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13116,7 +13187,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13127,7 +13198,7 @@
         <v>23</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13138,7 +13209,7 @@
         <v>24</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13149,7 +13220,7 @@
         <v>25</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13160,7 +13231,7 @@
         <v>26</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13171,7 +13242,7 @@
         <v>27</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13182,7 +13253,7 @@
         <v>28</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13193,7 +13264,7 @@
         <v>29</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13204,7 +13275,7 @@
         <v>30</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13215,7 +13286,7 @@
         <v>31</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13226,7 +13297,7 @@
         <v>32</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13237,7 +13308,7 @@
         <v>33</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13248,7 +13319,7 @@
         <v>34</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13259,7 +13330,7 @@
         <v>40</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13270,7 +13341,7 @@
         <v>41</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13281,7 +13352,7 @@
         <v>42</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13292,7 +13363,7 @@
         <v>43</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13303,7 +13374,7 @@
         <v>44</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13314,7 +13385,7 @@
         <v>45</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13325,7 +13396,7 @@
         <v>46</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13336,7 +13407,7 @@
         <v>288</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13347,7 +13418,7 @@
         <v>289</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13358,7 +13429,7 @@
         <v>290</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13369,7 +13440,7 @@
         <v>291</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13380,7 +13451,7 @@
         <v>292</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13391,7 +13462,7 @@
         <v>293</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13402,28 +13473,28 @@
         <v>512</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="25" t="s">
-        <v>786</v>
-      </c>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
+      <c r="A50" s="27" t="s">
+        <v>790</v>
+      </c>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
     </row>
     <row r="51" customFormat="false" ht="92.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="26" t="s">
-        <v>787</v>
-      </c>
-      <c r="B51" s="26"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
+      <c r="A51" s="28" t="s">
+        <v>791</v>
+      </c>
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -13445,10 +13516,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C55" activeCellId="0" sqref="C55"/>
+      <selection pane="topLeft" activeCell="A57" activeCellId="0" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13461,331 +13532,339 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="22" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="22" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="22" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="22" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="22" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="22" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="22" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="22" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="22" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="22" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="22" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="22" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="22" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="22" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="22" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="22" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="22" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="22" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="22" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="22" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="22" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="22" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="22" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="22" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="22" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="22" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="22" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="22" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="22" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="22" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="22" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="22" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="22" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="22" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="22" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="22" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="22" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="27" t="s">
-        <v>837</v>
+      <c r="C39" s="29" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="22" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="22" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="22" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="22" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="22" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="22" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="22" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="22" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="22" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="22" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="22" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="22" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="22" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="22" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="22" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="22" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>860</v>
+        <v>864</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="22" t="s">
+        <v>865</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>866</v>
       </c>
     </row>
   </sheetData>

--- a/CCGX-Modbus-TCP-register-list.xlsx
+++ b/CCGX-Modbus-TCP-register-list.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2527" uniqueCount="867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2542" uniqueCount="874">
   <si>
     <t xml:space="preserve">NOTE: Use unit-id 100 for the com.victronenergy.system data, for more information see FAQ.</t>
   </si>
@@ -861,6 +861,15 @@
     <t xml:space="preserve">0=No action; 1=VE.Bus reset</t>
   </si>
   <si>
+    <t xml:space="preserve">Phase rotation warning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Alarms/PhaseRotation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0=Ok;1=Warning</t>
+  </si>
+  <si>
     <t xml:space="preserve">com.victronenergy.battery</t>
   </si>
   <si>
@@ -1383,6 +1392,15 @@
     <t xml:space="preserve">Energy generated by the solarcharger since last user reset</t>
   </si>
   <si>
+    <t xml:space="preserve">MPP operation mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/MppOperationMode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0=Off;1=Voltage/current limited;2=MPPT active;255=Not available</t>
+  </si>
+  <si>
     <t xml:space="preserve">com.victronenergy.pvinverter</t>
   </si>
   <si>
@@ -1908,9 +1926,6 @@
     <t xml:space="preserve">/ProductId</t>
   </si>
   <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
     <t xml:space="preserve">Tank capacity</t>
   </si>
   <si>
@@ -2623,6 +2638,12 @@
   </si>
   <si>
     <t xml:space="preserve">Added register for ESS mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added register for vebus phase rotation warning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added register for solar charger’s MPP operation mode</t>
   </si>
 </sst>
 </file>
@@ -2632,7 +2653,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2671,16 +2692,11 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="6.4"/>
       <color rgb="FF4C4C4C"/>
       <name val="Ubuntu"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2783,7 +2799,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2877,10 +2893,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2982,12 +2994,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N332"/>
+  <dimension ref="A1:N334"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A246" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A272" activeCellId="0" sqref="A272"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5983,44 +5995,44 @@
         <v>278</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B98" s="22" t="s">
         <v>279</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="C98" s="1" t="n">
-        <v>259</v>
+        <v>63</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E98" s="1" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>185</v>
+        <v>29</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>186</v>
+        <v>280</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>81</v>
+        <v>281</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>280</v>
+        <v>184</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>20</v>
@@ -6032,7 +6044,7 @@
         <v>185</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>281</v>
+        <v>186</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>17</v>
@@ -6043,45 +6055,42 @@
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E100" s="1" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>84</v>
+        <v>185</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>188</v>
+        <v>284</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>59</v>
@@ -6093,56 +6102,59 @@
         <v>84</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>274</v>
+        <v>188</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>275</v>
+        <v>86</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>283</v>
+        <v>87</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E102" s="1" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>185</v>
+        <v>84</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>81</v>
+        <v>275</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>20</v>
@@ -6154,117 +6166,114 @@
         <v>185</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E104" s="1" t="n">
-        <v>-10</v>
+        <v>100</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>99</v>
+        <v>185</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="J104" s="1" t="s">
-        <v>290</v>
+        <v>93</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>291</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E105" s="1" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>197</v>
+        <v>292</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E106" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>293</v>
+        <v>197</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="J106" s="1" t="s">
-        <v>295</v>
+        <v>93</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>20</v>
@@ -6276,24 +6285,27 @@
         <v>29</v>
       </c>
       <c r="G107" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I107" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="H107" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I107" s="1" t="s">
-        <v>294</v>
+      <c r="J107" s="1" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>20</v>
@@ -6305,24 +6317,24 @@
         <v>29</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>20</v>
@@ -6334,24 +6346,24 @@
         <v>29</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>20</v>
@@ -6363,24 +6375,24 @@
         <v>29</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>20</v>
@@ -6392,24 +6404,24 @@
         <v>29</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>20</v>
@@ -6421,24 +6433,24 @@
         <v>29</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>20</v>
@@ -6450,24 +6462,24 @@
         <v>29</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>208</v>
+        <v>310</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>20</v>
@@ -6479,24 +6491,24 @@
         <v>29</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>310</v>
+        <v>208</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>20</v>
@@ -6508,27 +6520,24 @@
         <v>29</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="J115" s="1" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>314</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>20</v>
@@ -6546,21 +6555,21 @@
         <v>17</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>20</v>
@@ -6572,24 +6581,27 @@
         <v>29</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>20</v>
@@ -6601,24 +6613,24 @@
         <v>29</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C119" s="1" t="n">
         <v>279</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C119" s="1" t="n">
-        <v>280</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>20</v>
@@ -6630,59 +6642,56 @@
         <v>29</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>22</v>
+        <v>322</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J119" s="1" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E120" s="1" t="n">
-        <v>-10</v>
+        <v>1</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>323</v>
+        <v>22</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>20</v>
@@ -6694,7 +6703,7 @@
         <v>99</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>17</v>
@@ -6703,18 +6712,18 @@
         <v>101</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>20</v>
@@ -6726,7 +6735,7 @@
         <v>99</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>17</v>
@@ -6735,50 +6744,50 @@
         <v>101</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E123" s="1" t="n">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>192</v>
+        <v>101</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>20</v>
@@ -6790,7 +6799,7 @@
         <v>29</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>17</v>
@@ -6799,82 +6808,82 @@
         <v>192</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E125" s="1" t="n">
-        <v>-10</v>
+        <v>1</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>101</v>
+        <v>192</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E126" s="1" t="n">
-        <v>100</v>
+        <v>-10</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>185</v>
+        <v>99</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>20</v>
@@ -6886,7 +6895,7 @@
         <v>185</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>17</v>
@@ -6895,59 +6904,59 @@
         <v>81</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E128" s="1" t="n">
-        <v>0.01</v>
+        <v>100</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>103</v>
+        <v>185</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>340</v>
+        <v>81</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>341</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E129" s="1" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>342</v>
@@ -6956,21 +6965,21 @@
         <v>17</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>192</v>
+        <v>343</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>20</v>
@@ -6982,7 +6991,7 @@
         <v>29</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>17</v>
@@ -6991,18 +7000,18 @@
         <v>192</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>20</v>
@@ -7014,7 +7023,7 @@
         <v>29</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H131" s="1" t="s">
         <v>17</v>
@@ -7023,18 +7032,18 @@
         <v>192</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>20</v>
@@ -7046,7 +7055,7 @@
         <v>29</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H132" s="1" t="s">
         <v>17</v>
@@ -7055,18 +7064,18 @@
         <v>192</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>20</v>
@@ -7078,7 +7087,7 @@
         <v>29</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>17</v>
@@ -7087,50 +7096,50 @@
         <v>192</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E134" s="1" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>185</v>
+        <v>29</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H134" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>81</v>
+        <v>192</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>20</v>
@@ -7142,7 +7151,7 @@
         <v>185</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>17</v>
@@ -7151,50 +7160,50 @@
         <v>81</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E136" s="1" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>29</v>
+        <v>185</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>20</v>
@@ -7206,7 +7215,7 @@
         <v>29</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>17</v>
@@ -7215,50 +7224,50 @@
         <v>192</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E138" s="1" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>185</v>
+        <v>29</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>81</v>
+        <v>192</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>20</v>
@@ -7270,7 +7279,7 @@
         <v>185</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H139" s="1" t="s">
         <v>17</v>
@@ -7279,50 +7288,50 @@
         <v>81</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E140" s="1" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>79</v>
+        <v>185</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H140" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>365</v>
+        <v>81</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>366</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>20</v>
@@ -7340,62 +7349,62 @@
         <v>17</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B142" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C142" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E142" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I142" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C142" s="1" t="n">
-        <v>303</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E142" s="1" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F142" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G142" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="H142" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I142" s="1" t="s">
-        <v>340</v>
-      </c>
       <c r="J142" s="1" t="s">
-        <v>370</v>
+        <v>324</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>371</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E143" s="1" t="n">
-        <v>10</v>
+        <v>0.01</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>372</v>
@@ -7404,7 +7413,7 @@
         <v>17</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>93</v>
+        <v>343</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>373</v>
@@ -7412,13 +7421,13 @@
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>374</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>20</v>
@@ -7436,21 +7445,21 @@
         <v>17</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>20</v>
@@ -7462,7 +7471,7 @@
         <v>79</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H145" s="1" t="s">
         <v>17</v>
@@ -7471,18 +7480,18 @@
         <v>81</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>20</v>
@@ -7494,27 +7503,27 @@
         <v>79</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>20</v>
@@ -7526,7 +7535,7 @@
         <v>79</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H147" s="1" t="s">
         <v>17</v>
@@ -7535,18 +7544,18 @@
         <v>86</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>20</v>
@@ -7558,62 +7567,68 @@
         <v>79</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H148" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>101</v>
+        <v>86</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>385</v>
+        <v>20</v>
       </c>
       <c r="E149" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F149" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G149" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="G149" s="1" t="s">
-        <v>387</v>
-      </c>
       <c r="H149" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B150" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C150" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="C150" s="1" t="n">
-        <v>312</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>385</v>
-      </c>
       <c r="E150" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H150" s="1" t="s">
         <v>17</v>
@@ -7621,25 +7636,25 @@
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E151" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H151" s="1" t="s">
         <v>17</v>
@@ -7647,25 +7662,25 @@
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E152" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>17</v>
@@ -7673,42 +7688,39 @@
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>59</v>
+        <v>388</v>
       </c>
       <c r="E153" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>84</v>
+        <v>389</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H153" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="I153" s="1" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>59</v>
@@ -7720,7 +7732,7 @@
         <v>84</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H154" s="1" t="s">
         <v>17</v>
@@ -7731,42 +7743,42 @@
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E155" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H155" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>20</v>
@@ -7778,24 +7790,24 @@
         <v>29</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>20</v>
@@ -7807,24 +7819,24 @@
         <v>29</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H157" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>20</v>
@@ -7836,24 +7848,24 @@
         <v>29</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H158" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>20</v>
@@ -7865,24 +7877,24 @@
         <v>29</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H159" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>20</v>
@@ -7894,24 +7906,24 @@
         <v>29</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>20</v>
@@ -7923,82 +7935,82 @@
         <v>29</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H161" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B162" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="B162" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="C162" s="1" t="n">
-        <v>771</v>
+        <v>326</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E162" s="1" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>185</v>
+        <v>29</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>186</v>
+        <v>414</v>
       </c>
       <c r="H162" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>81</v>
+        <v>415</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E163" s="1" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>84</v>
+        <v>185</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H163" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>273</v>
+        <v>187</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>59</v>
@@ -8010,59 +8022,56 @@
         <v>84</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>274</v>
+        <v>188</v>
       </c>
       <c r="H164" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="J164" s="1" t="s">
-        <v>414</v>
+        <v>86</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>415</v>
+        <v>273</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E165" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>205</v>
+        <v>274</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>416</v>
+        <v>275</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>20</v>
@@ -8074,65 +8083,65 @@
         <v>29</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
+      </c>
+      <c r="J166" s="1" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E167" s="1" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>185</v>
+        <v>29</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>420</v>
+        <v>199</v>
       </c>
       <c r="H167" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J167" s="1" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>422</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E168" s="1" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>84</v>
+        <v>185</v>
       </c>
       <c r="G168" s="1" t="s">
         <v>423</v>
@@ -8141,59 +8150,62 @@
         <v>17</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B169" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C169" s="1" t="n">
+        <v>777</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E169" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I169" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J169" s="1" t="s">
         <v>424</v>
-      </c>
-      <c r="C169" s="1" t="n">
-        <v>778</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E169" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F169" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G169" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="H169" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I169" s="1" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>427</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E170" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="G170" s="1" t="s">
         <v>428</v>
@@ -8202,44 +8214,47 @@
         <v>17</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>340</v>
+        <v>429</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E171" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>22</v>
+        <v>431</v>
       </c>
       <c r="H171" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>24</v>
+        <v>343</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>413</v>
+        <v>416</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>432</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>20</v>
@@ -8251,27 +8266,21 @@
         <v>29</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>293</v>
+        <v>22</v>
       </c>
       <c r="H172" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="J172" s="1" t="s">
-        <v>430</v>
+        <v>24</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>20</v>
@@ -8283,24 +8292,27 @@
         <v>29</v>
       </c>
       <c r="G173" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I173" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="H173" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I173" s="1" t="s">
-        <v>294</v>
+      <c r="J173" s="1" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>20</v>
@@ -8312,65 +8324,62 @@
         <v>29</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H174" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E175" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>434</v>
+        <v>302</v>
       </c>
       <c r="H175" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="J175" s="1" t="s">
-        <v>435</v>
+        <v>297</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>436</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E176" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="G176" s="1" t="s">
         <v>437</v>
@@ -8379,7 +8388,7 @@
         <v>17</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>31</v>
+        <v>368</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>438</v>
@@ -8387,22 +8396,22 @@
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>439</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E177" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="G177" s="1" t="s">
         <v>440</v>
@@ -8411,7 +8420,7 @@
         <v>17</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>365</v>
+        <v>31</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>441</v>
@@ -8419,22 +8428,22 @@
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>442</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E178" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="G178" s="1" t="s">
         <v>443</v>
@@ -8443,7 +8452,7 @@
         <v>17</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>31</v>
+        <v>368</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>444</v>
@@ -8451,13 +8460,13 @@
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>445</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>20</v>
@@ -8475,27 +8484,30 @@
         <v>17</v>
       </c>
       <c r="I179" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J179" s="1" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>448</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E180" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="G180" s="1" t="s">
         <v>449</v>
@@ -8504,22 +8516,18 @@
         <v>17</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K180" s="19"/>
-      <c r="L180" s="20"/>
-      <c r="M180" s="20"/>
-      <c r="N180" s="20"/>
+        <v>450</v>
+      </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>20</v>
@@ -8531,16 +8539,13 @@
         <v>79</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H181" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="J181" s="1" t="s">
-        <v>452</v>
+        <v>31</v>
       </c>
       <c r="K181" s="19"/>
       <c r="L181" s="20"/>
@@ -8549,477 +8554,488 @@
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B182" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="C182" s="1" t="n">
+        <v>790</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E182" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G182" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="C182" s="1" t="n">
-        <v>1026</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E182" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F182" s="3" t="s">
+      <c r="H182" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I182" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="J182" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="K182" s="19"/>
+      <c r="L182" s="20"/>
+      <c r="M182" s="20"/>
+      <c r="N182" s="20"/>
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C183" s="1" t="n">
+        <v>791</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E183" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F183" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G182" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="H182" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I182" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="B183" s="1" t="s">
+      <c r="G183" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="C183" s="1" t="n">
-        <v>1027</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E183" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="F183" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G183" s="1" t="s">
+      <c r="H183" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I183" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="H183" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I183" s="1" t="s">
-        <v>127</v>
-      </c>
+      <c r="K183" s="19"/>
+      <c r="L183" s="20"/>
+      <c r="M183" s="20"/>
+      <c r="N183" s="20"/>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E184" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H184" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>134</v>
+        <v>462</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E185" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="H185" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>31</v>
+        <v>127</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E186" s="1" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>185</v>
+        <v>84</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="H186" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I186" s="1" t="s">
-        <v>365</v>
+        <v>134</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E187" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="H187" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>127</v>
+        <v>31</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E188" s="1" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>84</v>
+        <v>185</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="H188" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>134</v>
+        <v>368</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E189" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="H189" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>31</v>
+        <v>127</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E190" s="1" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>185</v>
+        <v>84</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="H190" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>365</v>
+        <v>134</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E191" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="H191" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>127</v>
+        <v>31</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E192" s="1" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>84</v>
+        <v>185</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="H192" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>134</v>
+        <v>368</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E193" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="H193" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I193" s="1" t="s">
-        <v>31</v>
+        <v>127</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E194" s="1" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>185</v>
+        <v>84</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="H194" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I194" s="1" t="s">
-        <v>365</v>
+        <v>134</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>482</v>
+        <v>20</v>
       </c>
       <c r="E195" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>483</v>
+        <v>29</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>16</v>
+        <v>484</v>
       </c>
       <c r="H195" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J195" s="1" t="s">
-        <v>484</v>
+      <c r="I195" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>279</v>
+        <v>459</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>485</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>1282</v>
+        <v>1038</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E196" s="1" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>29</v>
+        <v>185</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>199</v>
+        <v>486</v>
       </c>
       <c r="H196" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I196" s="1" t="s">
-        <v>486</v>
+        <v>368</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>279</v>
+        <v>459</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>487</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>1283</v>
+        <v>1039</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>20</v>
+        <v>488</v>
       </c>
       <c r="E197" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>29</v>
+        <v>489</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>446</v>
+        <v>16</v>
       </c>
       <c r="H197" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I197" s="1" t="s">
-        <v>488</v>
+      <c r="J197" s="1" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>20</v>
@@ -9031,24 +9047,24 @@
         <v>29</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>490</v>
+        <v>199</v>
       </c>
       <c r="H198" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>20</v>
@@ -9060,7 +9076,7 @@
         <v>29</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>493</v>
+        <v>449</v>
       </c>
       <c r="H199" s="1" t="s">
         <v>17</v>
@@ -9071,13 +9087,13 @@
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>495</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>20</v>
@@ -9095,18 +9111,18 @@
         <v>17</v>
       </c>
       <c r="I200" s="1" t="s">
-        <v>192</v>
+        <v>497</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>20</v>
@@ -9118,24 +9134,24 @@
         <v>29</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H201" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I201" s="1" t="s">
-        <v>192</v>
+        <v>500</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>20</v>
@@ -9147,7 +9163,7 @@
         <v>29</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H202" s="1" t="s">
         <v>17</v>
@@ -9158,13 +9174,13 @@
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>20</v>
@@ -9176,7 +9192,7 @@
         <v>29</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="H203" s="1" t="s">
         <v>17</v>
@@ -9187,129 +9203,129 @@
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E204" s="1" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>185</v>
+        <v>29</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="H204" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I204" s="1" t="s">
-        <v>81</v>
+        <v>192</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E205" s="1" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>185</v>
+        <v>29</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="H205" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I205" s="1" t="s">
-        <v>81</v>
+        <v>192</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E206" s="1" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>29</v>
+        <v>185</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="H206" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I206" s="1" t="s">
-        <v>192</v>
+        <v>81</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E207" s="1" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>29</v>
+        <v>185</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="H207" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I207" s="1" t="s">
-        <v>488</v>
+        <v>81</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>20</v>
@@ -9321,24 +9337,24 @@
         <v>29</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="H208" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>488</v>
+        <v>192</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>20</v>
@@ -9350,24 +9366,24 @@
         <v>29</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="H209" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I209" s="1" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>20</v>
@@ -9379,24 +9395,24 @@
         <v>29</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="H210" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>20</v>
@@ -9408,24 +9424,24 @@
         <v>29</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="H211" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I211" s="1" t="s">
-        <v>263</v>
+        <v>494</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>20</v>
@@ -9437,24 +9453,24 @@
         <v>29</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="H212" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>263</v>
+        <v>494</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>20</v>
@@ -9466,120 +9482,120 @@
         <v>29</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="H213" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I213" s="1" t="s">
-        <v>494</v>
+        <v>263</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E214" s="1" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>185</v>
+        <v>29</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="H214" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I214" s="1" t="s">
-        <v>81</v>
+        <v>263</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E215" s="1" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>185</v>
+        <v>29</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="H215" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I215" s="1" t="s">
-        <v>81</v>
+        <v>500</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>527</v>
+        <v>282</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>2048</v>
+        <v>1300</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E216" s="1" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>60</v>
+        <v>185</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H216" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I216" s="1" t="s">
-        <v>530</v>
+        <v>81</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>527</v>
+        <v>282</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>531</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>2049</v>
+        <v>1301</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E217" s="1" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>84</v>
+        <v>185</v>
       </c>
       <c r="G217" s="1" t="s">
         <v>532</v>
@@ -9588,47 +9604,47 @@
         <v>17</v>
       </c>
       <c r="I217" s="1" t="s">
-        <v>275</v>
+        <v>81</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>2050</v>
+        <v>2048</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E218" s="1" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>185</v>
+        <v>60</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>186</v>
+        <v>535</v>
       </c>
       <c r="H218" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I218" s="1" t="s">
-        <v>81</v>
+        <v>536</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>2051</v>
+        <v>2049</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>59</v>
@@ -9640,56 +9656,53 @@
         <v>84</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>188</v>
+        <v>538</v>
       </c>
       <c r="H219" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I219" s="1" t="s">
-        <v>86</v>
+        <v>275</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>2052</v>
+        <v>2050</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E220" s="1" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>84</v>
+        <v>185</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>536</v>
+        <v>186</v>
       </c>
       <c r="H220" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I220" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J220" s="1" t="s">
-        <v>537</v>
+        <v>81</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>2053</v>
+        <v>2051</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>59</v>
@@ -9701,53 +9714,56 @@
         <v>84</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>539</v>
+        <v>188</v>
       </c>
       <c r="H221" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I221" s="1" t="s">
-        <v>275</v>
+        <v>86</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>541</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>2307</v>
+        <v>2052</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E222" s="1" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>185</v>
+        <v>84</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>186</v>
+        <v>542</v>
       </c>
       <c r="H222" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I222" s="1" t="s">
-        <v>81</v>
+        <v>31</v>
+      </c>
+      <c r="J222" s="1" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>2308</v>
+        <v>2053</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>59</v>
@@ -9759,82 +9775,82 @@
         <v>84</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>188</v>
+        <v>545</v>
       </c>
       <c r="H223" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I223" s="1" t="s">
-        <v>86</v>
+        <v>275</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E224" s="1" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>84</v>
+        <v>185</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>274</v>
+        <v>186</v>
       </c>
       <c r="H224" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I224" s="1" t="s">
-        <v>275</v>
+        <v>81</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>2310</v>
+        <v>2308</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E225" s="1" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>185</v>
+        <v>84</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>281</v>
+        <v>188</v>
       </c>
       <c r="H225" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I225" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>2311</v>
+        <v>2309</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>59</v>
@@ -9846,24 +9862,24 @@
         <v>84</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>546</v>
+        <v>274</v>
       </c>
       <c r="H226" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I226" s="1" t="s">
-        <v>86</v>
+        <v>275</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>2312</v>
+        <v>2310</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>20</v>
@@ -9875,7 +9891,7 @@
         <v>185</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>548</v>
+        <v>284</v>
       </c>
       <c r="H227" s="1" t="s">
         <v>17</v>
@@ -9886,13 +9902,13 @@
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>2313</v>
+        <v>2311</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>59</v>
@@ -9904,7 +9920,7 @@
         <v>84</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="H228" s="1" t="s">
         <v>17</v>
@@ -9915,71 +9931,71 @@
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>2314</v>
+        <v>2312</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E229" s="1" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>84</v>
+        <v>185</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="H229" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I229" s="1" t="s">
-        <v>134</v>
+        <v>81</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>2315</v>
+        <v>2313</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E230" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="H230" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>555</v>
+        <v>86</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>2316</v>
+        <v>2314</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>59</v>
@@ -9991,10 +10007,10 @@
         <v>84</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H231" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I231" s="1" t="s">
         <v>134</v>
@@ -10002,13 +10018,13 @@
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>415</v>
+        <v>559</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>2317</v>
+        <v>2315</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>20</v>
@@ -10020,53 +10036,53 @@
         <v>29</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>205</v>
+        <v>560</v>
       </c>
       <c r="H232" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>417</v>
+        <v>562</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>2318</v>
+        <v>2316</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E233" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>199</v>
+        <v>563</v>
       </c>
       <c r="H233" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>559</v>
+        <v>134</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>445</v>
+        <v>418</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>2319</v>
+        <v>2317</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>20</v>
@@ -10078,24 +10094,24 @@
         <v>29</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>446</v>
+        <v>205</v>
       </c>
       <c r="H234" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I234" s="1" t="s">
-        <v>447</v>
+        <v>564</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>2320</v>
+        <v>2318</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>20</v>
@@ -10107,24 +10123,24 @@
         <v>29</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>22</v>
+        <v>199</v>
       </c>
       <c r="H235" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I235" s="1" t="s">
-        <v>24</v>
+        <v>565</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>296</v>
+        <v>448</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>2321</v>
+        <v>2319</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>20</v>
@@ -10136,24 +10152,24 @@
         <v>29</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>297</v>
+        <v>449</v>
       </c>
       <c r="H236" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I236" s="1" t="s">
-        <v>294</v>
+        <v>450</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>298</v>
+        <v>432</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>2322</v>
+        <v>2320</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>20</v>
@@ -10165,82 +10181,82 @@
         <v>29</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>299</v>
+        <v>22</v>
       </c>
       <c r="H237" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I237" s="1" t="s">
-        <v>294</v>
+        <v>24</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>561</v>
+        <v>299</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>2600</v>
+        <v>2321</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E238" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>462</v>
+        <v>300</v>
       </c>
       <c r="H238" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I238" s="1" t="s">
-        <v>31</v>
+        <v>297</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>562</v>
+        <v>301</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>2601</v>
+        <v>2322</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E239" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>470</v>
+        <v>302</v>
       </c>
       <c r="H239" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I239" s="1" t="s">
-        <v>31</v>
+        <v>297</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>2602</v>
+        <v>2600</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>59</v>
@@ -10252,7 +10268,7 @@
         <v>60</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="H240" s="1" t="s">
         <v>17</v>
@@ -10263,71 +10279,71 @@
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>2603</v>
+        <v>2601</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E241" s="1" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>185</v>
+        <v>60</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="H241" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I241" s="1" t="s">
-        <v>365</v>
+        <v>31</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>2604</v>
+        <v>2602</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E242" s="1" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>185</v>
+        <v>60</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="H242" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I242" s="1" t="s">
-        <v>365</v>
+        <v>31</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>2605</v>
+        <v>2603</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>20</v>
@@ -10339,24 +10355,24 @@
         <v>185</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="H243" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I243" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>2606</v>
+        <v>2604</v>
       </c>
       <c r="D244" s="2" t="s">
         <v>20</v>
@@ -10368,24 +10384,24 @@
         <v>185</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>568</v>
+        <v>478</v>
       </c>
       <c r="H244" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I244" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>2607</v>
+        <v>2605</v>
       </c>
       <c r="D245" s="2" t="s">
         <v>20</v>
@@ -10397,24 +10413,24 @@
         <v>185</v>
       </c>
       <c r="G245" s="1" t="s">
-        <v>570</v>
+        <v>486</v>
       </c>
       <c r="H245" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I245" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>2608</v>
+        <v>2606</v>
       </c>
       <c r="D246" s="2" t="s">
         <v>20</v>
@@ -10426,108 +10442,108 @@
         <v>185</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="H246" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I246" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>481</v>
+        <v>575</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>2609</v>
+        <v>2607</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>482</v>
+        <v>20</v>
+      </c>
+      <c r="E247" s="1" t="n">
+        <v>100</v>
       </c>
       <c r="F247" s="3" t="s">
-        <v>573</v>
+        <v>185</v>
       </c>
       <c r="G247" s="1" t="s">
-        <v>16</v>
+        <v>576</v>
       </c>
       <c r="H247" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J247" s="1" t="s">
-        <v>574</v>
+      <c r="I247" s="1" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>2616</v>
+        <v>2608</v>
       </c>
       <c r="D248" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E248" s="1" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F248" s="3" t="s">
-        <v>79</v>
+        <v>185</v>
       </c>
       <c r="G248" s="1" t="s">
-        <v>458</v>
+        <v>578</v>
       </c>
       <c r="H248" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I248" s="1" t="s">
-        <v>127</v>
+        <v>368</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>576</v>
+        <v>487</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>2617</v>
+        <v>2609</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E249" s="1" t="n">
-        <v>10</v>
+        <v>488</v>
       </c>
       <c r="F249" s="3" t="s">
-        <v>84</v>
+        <v>579</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>460</v>
+        <v>16</v>
       </c>
       <c r="H249" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I249" s="1" t="s">
-        <v>134</v>
+      <c r="J249" s="1" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>2618</v>
+        <v>2616</v>
       </c>
       <c r="D250" s="2" t="s">
         <v>20</v>
@@ -10539,7 +10555,7 @@
         <v>79</v>
       </c>
       <c r="G250" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H250" s="1" t="s">
         <v>17</v>
@@ -10550,13 +10566,13 @@
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>2619</v>
+        <v>2617</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>59</v>
@@ -10568,7 +10584,7 @@
         <v>84</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H251" s="1" t="s">
         <v>17</v>
@@ -10579,13 +10595,13 @@
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>2620</v>
+        <v>2618</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>20</v>
@@ -10597,7 +10613,7 @@
         <v>79</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H252" s="1" t="s">
         <v>17</v>
@@ -10608,13 +10624,13 @@
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>2621</v>
+        <v>2619</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>59</v>
@@ -10626,7 +10642,7 @@
         <v>84</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="H253" s="1" t="s">
         <v>17</v>
@@ -10637,260 +10653,254 @@
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>564</v>
+        <v>585</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>2622</v>
+        <v>2620</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>581</v>
+        <v>20</v>
       </c>
       <c r="E254" s="1" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F254" s="3" t="s">
-        <v>582</v>
+        <v>79</v>
       </c>
       <c r="G254" s="1" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="H254" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I254" s="1" t="s">
-        <v>365</v>
+        <v>127</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>565</v>
+        <v>586</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>2624</v>
+        <v>2621</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>581</v>
+        <v>59</v>
       </c>
       <c r="E255" s="1" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F255" s="3" t="s">
-        <v>582</v>
+        <v>84</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="H255" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I255" s="1" t="s">
-        <v>365</v>
+        <v>134</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>2626</v>
+        <v>2622</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="E256" s="1" t="n">
         <v>100</v>
       </c>
       <c r="F256" s="3" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="H256" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I256" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>2628</v>
+        <v>2624</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="E257" s="1" t="n">
         <v>100</v>
       </c>
       <c r="F257" s="3" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>568</v>
+        <v>478</v>
       </c>
       <c r="H257" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I257" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>2630</v>
+        <v>2626</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="E258" s="1" t="n">
         <v>100</v>
       </c>
       <c r="F258" s="3" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>570</v>
+        <v>486</v>
       </c>
       <c r="H258" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I258" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>2632</v>
+        <v>2628</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="E259" s="1" t="n">
         <v>100</v>
       </c>
       <c r="F259" s="3" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="H259" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I259" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="s">
-        <v>583</v>
+        <v>566</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>2700</v>
+        <v>2630</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>59</v>
+        <v>587</v>
       </c>
       <c r="E260" s="1" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F260" s="3" t="s">
-        <v>60</v>
+        <v>588</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="H260" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I260" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J260" s="1" t="s">
-        <v>586</v>
+        <v>368</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="s">
-        <v>583</v>
+        <v>566</v>
       </c>
       <c r="B261" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C261" s="1" t="n">
+        <v>2632</v>
+      </c>
+      <c r="D261" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="C261" s="1" t="n">
-        <v>2701</v>
-      </c>
-      <c r="D261" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E261" s="1" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F261" s="3" t="s">
-        <v>91</v>
+        <v>588</v>
       </c>
       <c r="G261" s="1" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="H261" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I261" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J261" s="1" t="s">
-        <v>589</v>
+        <v>368</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>590</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>2702</v>
+        <v>2700</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E262" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F262" s="3" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="G262" s="1" t="s">
         <v>591</v>
@@ -10899,7 +10909,7 @@
         <v>23</v>
       </c>
       <c r="I262" s="1" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>592</v>
@@ -10907,141 +10917,144 @@
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>2703</v>
+        <v>2701</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E263" s="1" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="F263" s="3" t="s">
-        <v>593</v>
+        <v>91</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="H263" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I263" s="1" t="s">
-        <v>31</v>
+        <v>93</v>
+      </c>
+      <c r="J263" s="1" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>2800</v>
+        <v>2702</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>385</v>
+        <v>20</v>
       </c>
       <c r="E264" s="1" t="n">
-        <v>10000000</v>
+        <v>1</v>
       </c>
       <c r="F264" s="3" t="s">
-        <v>596</v>
+        <v>91</v>
       </c>
       <c r="G264" s="1" t="s">
         <v>597</v>
       </c>
       <c r="H264" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I264" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J264" s="1" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="B265" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C265" s="1" t="n">
+        <v>2703</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E265" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F265" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="C265" s="1" t="n">
-        <v>2802</v>
-      </c>
-      <c r="D265" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="E265" s="1" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="F265" s="3" t="s">
-        <v>596</v>
-      </c>
       <c r="G265" s="1" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="H265" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I265" s="1" t="s">
-        <v>598</v>
+        <v>31</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>601</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>2804</v>
+        <v>2800</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>20</v>
+        <v>388</v>
       </c>
       <c r="E266" s="1" t="n">
-        <v>100</v>
+        <v>10000000</v>
       </c>
       <c r="F266" s="3" t="s">
-        <v>185</v>
+        <v>602</v>
       </c>
       <c r="G266" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H266" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I266" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="J266" s="1" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>605</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>2805</v>
+        <v>2802</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>20</v>
+        <v>388</v>
       </c>
       <c r="E267" s="1" t="n">
-        <v>100</v>
+        <v>10000000</v>
       </c>
       <c r="F267" s="3" t="s">
-        <v>185</v>
+        <v>602</v>
       </c>
       <c r="G267" s="1" t="s">
         <v>606</v>
@@ -11050,222 +11063,225 @@
         <v>17</v>
       </c>
       <c r="I267" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="J267" s="1" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="B268" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="C268" s="1" t="n">
+        <v>2804</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E268" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F268" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G268" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="H268" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I268" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="C268" s="1" t="n">
-        <v>2806</v>
-      </c>
-      <c r="D268" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E268" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F268" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G268" s="1" t="s">
+      <c r="J268" s="1" t="s">
         <v>610</v>
-      </c>
-      <c r="H268" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J268" s="1" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="B269" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="C269" s="1" t="n">
+        <v>2805</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E269" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F269" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G269" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="C269" s="1" t="n">
-        <v>2807</v>
-      </c>
-      <c r="D269" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E269" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F269" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G269" s="1" t="s">
+      <c r="H269" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I269" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="H269" s="1" t="s">
-        <v>17</v>
+      <c r="J269" s="1" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>615</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>2900</v>
+        <v>2806</v>
       </c>
       <c r="D270" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E270" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="F270" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="G270" s="1" t="s">
         <v>616</v>
       </c>
       <c r="H270" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I270" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J270" s="1" t="s">
         <v>617</v>
-      </c>
-      <c r="J270" s="1" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
       <c r="B271" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="C271" s="1" t="n">
+        <v>2807</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E271" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F271" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G271" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="C271" s="1" t="n">
-        <v>2901</v>
-      </c>
-      <c r="D271" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E271" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="G271" s="1" t="s">
+      <c r="H271" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="H271" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I271" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J271" s="21" t="s">
+      <c r="B272" s="1" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="23" t="s">
-        <v>614</v>
-      </c>
-      <c r="B272" s="1" t="s">
+      <c r="C272" s="1" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E272" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G272" s="1" t="s">
         <v>622</v>
-      </c>
-      <c r="C272" s="1" t="n">
-        <v>2902</v>
-      </c>
-      <c r="D272" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E272" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F272" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G272" s="1" t="s">
-        <v>623</v>
       </c>
       <c r="H272" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I272" s="0" t="s">
+      <c r="I272" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="J272" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="J272" s="21"/>
-    </row>
-    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B273" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="B273" s="1" t="s">
+      <c r="C273" s="1" t="n">
+        <v>2901</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E273" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G273" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="C273" s="1" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D273" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E273" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F273" s="3" t="s">
+      <c r="H273" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I273" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J273" s="21" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="21" t="s">
+        <v>620</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="C274" s="1" t="n">
+        <v>2902</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E274" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F274" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G273" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="H273" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I273" s="24" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="B274" s="1" t="s">
+      <c r="G274" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="C274" s="1" t="n">
-        <v>3001</v>
-      </c>
-      <c r="D274" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="E274" s="1" t="n">
-        <v>10000</v>
-      </c>
-      <c r="F274" s="3" t="s">
+      <c r="H274" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I274" s="22" t="s">
         <v>630</v>
       </c>
-      <c r="G274" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="H274" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I274" s="1" t="s">
+      <c r="J274" s="21"/>
+    </row>
+    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="1" t="s">
         <v>631</v>
-      </c>
-    </row>
-    <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="1" t="s">
-        <v>625</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>632</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="D275" s="2" t="s">
         <v>20</v>
@@ -11282,57 +11298,55 @@
       <c r="H275" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I275" s="1" t="s">
-        <v>634</v>
-      </c>
+      <c r="I275" s="23"/>
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="B276" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="C276" s="1" t="n">
+        <v>3001</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="E276" s="1" t="n">
+        <v>10000</v>
+      </c>
+      <c r="F276" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="C276" s="1" t="n">
-        <v>3004</v>
-      </c>
-      <c r="D276" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E276" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="F276" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="G276" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="H276" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I276" s="1" t="s">
         <v>636</v>
-      </c>
-      <c r="H276" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I276" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>637</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>3005</v>
+        <v>3003</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>581</v>
+        <v>20</v>
       </c>
       <c r="E277" s="1" t="n">
-        <v>10000</v>
+        <v>1</v>
       </c>
       <c r="F277" s="3" t="s">
-        <v>630</v>
+        <v>29</v>
       </c>
       <c r="G277" s="1" t="s">
         <v>638</v>
@@ -11341,192 +11355,192 @@
         <v>17</v>
       </c>
       <c r="I277" s="1" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>3007</v>
+        <v>3004</v>
       </c>
       <c r="D278" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E278" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F278" s="3" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="G278" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H278" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I278" s="1" t="s">
-        <v>641</v>
+        <v>93</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B279" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="B279" s="1" t="s">
+      <c r="C279" s="1" t="n">
+        <v>3005</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="E279" s="1" t="n">
+        <v>10000</v>
+      </c>
+      <c r="F279" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="G279" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="C279" s="1" t="n">
-        <v>3100</v>
-      </c>
-      <c r="D279" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E279" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="F279" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="G279" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="H279" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I279" s="1" t="s">
-        <v>134</v>
+        <v>636</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="B280" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="C280" s="1" t="n">
+        <v>3007</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E280" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F280" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G280" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="C280" s="1" t="n">
-        <v>3101</v>
-      </c>
-      <c r="D280" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E280" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="F280" s="3" t="s">
+      <c r="H280" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I280" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="G280" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H280" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I280" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>184</v>
+        <v>648</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>3105</v>
+        <v>3100</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E281" s="1" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F281" s="3" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="G281" s="1" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="H281" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I281" s="1" t="s">
-        <v>81</v>
+        <v>134</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>308</v>
+        <v>650</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>3110</v>
+        <v>3101</v>
       </c>
       <c r="D282" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E282" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F282" s="3" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="G282" s="1" t="s">
-        <v>208</v>
+        <v>159</v>
       </c>
       <c r="H282" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I282" s="1" t="s">
-        <v>649</v>
+        <v>127</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>650</v>
+        <v>184</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>3111</v>
+        <v>3105</v>
       </c>
       <c r="D283" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E283" s="1" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F283" s="3" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="G283" s="1" t="s">
-        <v>299</v>
+        <v>186</v>
       </c>
       <c r="H283" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I283" s="1" t="s">
-        <v>649</v>
+        <v>81</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>651</v>
+        <v>311</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>3112</v>
+        <v>3110</v>
       </c>
       <c r="D284" s="2" t="s">
         <v>20</v>
@@ -11535,27 +11549,27 @@
         <v>1</v>
       </c>
       <c r="F284" s="3" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="G284" s="1" t="s">
-        <v>652</v>
+        <v>208</v>
       </c>
       <c r="H284" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I284" s="1" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>306</v>
+        <v>655</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>3113</v>
+        <v>3111</v>
       </c>
       <c r="D285" s="2" t="s">
         <v>20</v>
@@ -11564,85 +11578,85 @@
         <v>1</v>
       </c>
       <c r="F285" s="3" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="G285" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H285" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I285" s="1" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="B286" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="C286" s="1" t="n">
+        <v>3112</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E286" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F286" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="C286" s="1" t="n">
-        <v>3114</v>
-      </c>
-      <c r="D286" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E286" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F286" s="3" t="s">
-        <v>648</v>
-      </c>
       <c r="G286" s="1" t="s">
-        <v>297</v>
+        <v>657</v>
       </c>
       <c r="H286" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I286" s="1" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="B287" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C287" s="1" t="n">
+        <v>3113</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E287" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F287" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="G287" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="H287" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I287" s="1" t="s">
         <v>654</v>
-      </c>
-      <c r="C287" s="1" t="n">
-        <v>3115</v>
-      </c>
-      <c r="D287" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E287" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F287" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="G287" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="H287" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I287" s="1" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>212</v>
+        <v>658</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>3116</v>
+        <v>3114</v>
       </c>
       <c r="D288" s="2" t="s">
         <v>20</v>
@@ -11651,27 +11665,27 @@
         <v>1</v>
       </c>
       <c r="F288" s="3" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="G288" s="1" t="s">
-        <v>213</v>
+        <v>300</v>
       </c>
       <c r="H288" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I288" s="1" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>3117</v>
+        <v>3115</v>
       </c>
       <c r="D289" s="2" t="s">
         <v>20</v>
@@ -11680,27 +11694,27 @@
         <v>1</v>
       </c>
       <c r="F289" s="3" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="G289" s="1" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="H289" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I289" s="1" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>658</v>
+        <v>212</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>3125</v>
+        <v>3116</v>
       </c>
       <c r="D290" s="2" t="s">
         <v>20</v>
@@ -11709,24 +11723,27 @@
         <v>1</v>
       </c>
       <c r="F290" s="3" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="G290" s="1" t="s">
-        <v>659</v>
+        <v>213</v>
       </c>
       <c r="H290" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="I290" s="1" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>3126</v>
+        <v>3117</v>
       </c>
       <c r="D291" s="2" t="s">
         <v>20</v>
@@ -11735,27 +11752,27 @@
         <v>1</v>
       </c>
       <c r="F291" s="3" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="G291" s="1" t="s">
-        <v>205</v>
+        <v>662</v>
       </c>
       <c r="H291" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I291" s="1" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="1" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>3127</v>
+        <v>3125</v>
       </c>
       <c r="D292" s="2" t="s">
         <v>20</v>
@@ -11764,10 +11781,10 @@
         <v>1</v>
       </c>
       <c r="F292" s="3" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="G292" s="1" t="s">
-        <v>627</v>
+        <v>664</v>
       </c>
       <c r="H292" s="1" t="s">
         <v>17</v>
@@ -11775,13 +11792,13 @@
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>3128</v>
+        <v>3126</v>
       </c>
       <c r="D293" s="2" t="s">
         <v>20</v>
@@ -11790,85 +11807,82 @@
         <v>1</v>
       </c>
       <c r="F293" s="3" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="G293" s="1" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="H293" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I293" s="1" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="s">
-        <v>665</v>
+        <v>647</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>3200</v>
+        <v>3127</v>
       </c>
       <c r="D294" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E294" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F294" s="3" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="G294" s="1" t="s">
-        <v>458</v>
+        <v>633</v>
       </c>
       <c r="H294" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="I294" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="s">
-        <v>665</v>
+        <v>647</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>3201</v>
+        <v>3128</v>
       </c>
       <c r="D295" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E295" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F295" s="3" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="G295" s="1" t="s">
-        <v>466</v>
+        <v>199</v>
       </c>
       <c r="H295" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I295" s="1" t="s">
-        <v>127</v>
+        <v>669</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>3202</v>
+        <v>3200</v>
       </c>
       <c r="D296" s="2" t="s">
         <v>20</v>
@@ -11877,10 +11891,10 @@
         <v>10</v>
       </c>
       <c r="F296" s="3" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="G296" s="1" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="H296" s="1" t="s">
         <v>17</v>
@@ -11891,71 +11905,71 @@
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="1" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>3203</v>
+        <v>3201</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E297" s="1" t="n">
         <v>10</v>
       </c>
       <c r="F297" s="3" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="G297" s="1" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="H297" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I297" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>3204</v>
+        <v>3202</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E298" s="1" t="n">
         <v>10</v>
       </c>
       <c r="F298" s="3" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="G298" s="1" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="H298" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I298" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>3205</v>
+        <v>3203</v>
       </c>
       <c r="D299" s="2" t="s">
         <v>59</v>
@@ -11964,10 +11978,10 @@
         <v>10</v>
       </c>
       <c r="F299" s="3" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="G299" s="1" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="H299" s="1" t="s">
         <v>17</v>
@@ -11978,71 +11992,71 @@
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>3206</v>
+        <v>3204</v>
       </c>
       <c r="D300" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E300" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F300" s="3" t="s">
-        <v>673</v>
+        <v>649</v>
       </c>
       <c r="G300" s="1" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="H300" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I300" s="1" t="s">
-        <v>31</v>
+        <v>134</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>3207</v>
+        <v>3205</v>
       </c>
       <c r="D301" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E301" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F301" s="3" t="s">
-        <v>673</v>
+        <v>649</v>
       </c>
       <c r="G301" s="1" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="H301" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I301" s="1" t="s">
-        <v>31</v>
+        <v>134</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>3208</v>
+        <v>3206</v>
       </c>
       <c r="D302" s="2" t="s">
         <v>59</v>
@@ -12051,10 +12065,10 @@
         <v>1</v>
       </c>
       <c r="F302" s="3" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="G302" s="1" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="H302" s="1" t="s">
         <v>17</v>
@@ -12065,71 +12079,71 @@
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>3209</v>
+        <v>3207</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E303" s="1" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F303" s="3" t="s">
-        <v>647</v>
+        <v>678</v>
       </c>
       <c r="G303" s="1" t="s">
-        <v>677</v>
+        <v>476</v>
       </c>
       <c r="H303" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I303" s="1" t="s">
-        <v>143</v>
+        <v>31</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="B304" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="C304" s="1" t="n">
+        <v>3208</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E304" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F304" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="C304" s="1" t="n">
-        <v>3210</v>
-      </c>
-      <c r="D304" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E304" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="F304" s="3" t="s">
-        <v>647</v>
-      </c>
       <c r="G304" s="1" t="s">
-        <v>679</v>
+        <v>484</v>
       </c>
       <c r="H304" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I304" s="1" t="s">
-        <v>143</v>
+        <v>31</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="1" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>3211</v>
+        <v>3209</v>
       </c>
       <c r="D305" s="2" t="s">
         <v>20</v>
@@ -12138,10 +12152,10 @@
         <v>100</v>
       </c>
       <c r="F305" s="3" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="G305" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H305" s="1" t="s">
         <v>17</v>
@@ -12152,68 +12166,71 @@
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="1" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>3212</v>
+        <v>3210</v>
       </c>
       <c r="D306" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E306" s="1" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F306" s="3" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="G306" s="1" t="s">
-        <v>627</v>
+        <v>684</v>
       </c>
       <c r="H306" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="I306" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="1" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>3213</v>
+        <v>3211</v>
       </c>
       <c r="D307" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E307" s="1" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F307" s="3" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="G307" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="H307" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I307" s="1" t="s">
-        <v>685</v>
+        <v>143</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>487</v>
+        <v>687</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>3214</v>
+        <v>3212</v>
       </c>
       <c r="D308" s="2" t="s">
         <v>20</v>
@@ -12222,27 +12239,24 @@
         <v>1</v>
       </c>
       <c r="F308" s="3" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="G308" s="1" t="s">
-        <v>446</v>
+        <v>633</v>
       </c>
       <c r="H308" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="I308" s="1" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="1" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>3215</v>
+        <v>3213</v>
       </c>
       <c r="D309" s="2" t="s">
         <v>20</v>
@@ -12251,27 +12265,27 @@
         <v>1</v>
       </c>
       <c r="F309" s="3" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="G309" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H309" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I309" s="1" t="s">
-        <v>491</v>
+        <v>690</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="1" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>689</v>
+        <v>493</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>3216</v>
+        <v>3214</v>
       </c>
       <c r="D310" s="2" t="s">
         <v>20</v>
@@ -12280,27 +12294,27 @@
         <v>1</v>
       </c>
       <c r="F310" s="3" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="G310" s="1" t="s">
-        <v>690</v>
+        <v>449</v>
       </c>
       <c r="H310" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I310" s="1" t="s">
-        <v>93</v>
+        <v>691</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>3217</v>
+        <v>3215</v>
       </c>
       <c r="D311" s="2" t="s">
         <v>20</v>
@@ -12309,36 +12323,36 @@
         <v>1</v>
       </c>
       <c r="F311" s="3" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="G311" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H311" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I311" s="1" t="s">
-        <v>530</v>
+        <v>497</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="1" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>3218</v>
+        <v>3216</v>
       </c>
       <c r="D312" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E312" s="1" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="F312" s="3" t="s">
-        <v>694</v>
+        <v>653</v>
       </c>
       <c r="G312" s="1" t="s">
         <v>695</v>
@@ -12347,27 +12361,27 @@
         <v>17</v>
       </c>
       <c r="I312" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="1" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>696</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>3219</v>
+        <v>3217</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E313" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F313" s="3" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
       <c r="G313" s="1" t="s">
         <v>697</v>
@@ -12376,47 +12390,47 @@
         <v>17</v>
       </c>
       <c r="I313" s="1" t="s">
-        <v>275</v>
+        <v>536</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>698</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>3220</v>
+        <v>3218</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E314" s="1" t="n">
-        <v>10</v>
+        <v>0.01</v>
       </c>
       <c r="F314" s="3" t="s">
-        <v>644</v>
+        <v>699</v>
       </c>
       <c r="G314" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H314" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I314" s="1" t="s">
-        <v>275</v>
+        <v>105</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="1" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>3221</v>
+        <v>3219</v>
       </c>
       <c r="D315" s="2" t="s">
         <v>59</v>
@@ -12425,10 +12439,10 @@
         <v>10</v>
       </c>
       <c r="F315" s="3" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="G315" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H315" s="1" t="s">
         <v>17</v>
@@ -12439,135 +12453,141 @@
     </row>
     <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="1" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>3222</v>
+        <v>3220</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E316" s="1" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F316" s="3" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="G316" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H316" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I316" s="1" t="s">
-        <v>81</v>
+        <v>275</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="1" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>3223</v>
+        <v>3221</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E317" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F317" s="3" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="G317" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H317" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I317" s="1" t="s">
-        <v>706</v>
+        <v>275</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B318" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="B318" s="1" t="s">
-        <v>626</v>
-      </c>
       <c r="C318" s="1" t="n">
-        <v>3300</v>
+        <v>3222</v>
       </c>
       <c r="D318" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E318" s="1" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F318" s="3" t="s">
-        <v>29</v>
+        <v>652</v>
       </c>
       <c r="G318" s="1" t="s">
-        <v>627</v>
+        <v>708</v>
       </c>
       <c r="H318" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="I318" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="s">
-        <v>707</v>
+        <v>670</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>3301</v>
+        <v>3223</v>
       </c>
       <c r="D319" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E319" s="1" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F319" s="3" t="s">
-        <v>185</v>
+        <v>653</v>
       </c>
       <c r="G319" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H319" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="I319" s="1" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>710</v>
+        <v>632</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>3302</v>
+        <v>3300</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E320" s="1" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F320" s="3" t="s">
-        <v>141</v>
+        <v>29</v>
       </c>
       <c r="G320" s="1" t="s">
-        <v>711</v>
+        <v>633</v>
       </c>
       <c r="H320" s="1" t="s">
         <v>17</v>
@@ -12575,42 +12595,39 @@
     </row>
     <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>3303</v>
+        <v>3301</v>
       </c>
       <c r="D321" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E321" s="1" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F321" s="3" t="s">
-        <v>29</v>
+        <v>185</v>
       </c>
       <c r="G321" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H321" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="I321" s="1" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>715</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="D322" s="2" t="s">
         <v>59</v>
@@ -12627,19 +12644,16 @@
       <c r="H322" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I322" s="1" t="s">
-        <v>275</v>
-      </c>
     </row>
     <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>717</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>3305</v>
+        <v>3303</v>
       </c>
       <c r="D323" s="2" t="s">
         <v>20</v>
@@ -12651,33 +12665,33 @@
         <v>29</v>
       </c>
       <c r="G323" s="1" t="s">
-        <v>640</v>
+        <v>718</v>
       </c>
       <c r="H323" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I323" s="1" t="s">
-        <v>641</v>
+        <v>719</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>3400</v>
+        <v>3304</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>581</v>
+        <v>59</v>
       </c>
       <c r="E324" s="1" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F324" s="3" t="s">
-        <v>720</v>
+        <v>141</v>
       </c>
       <c r="G324" s="1" t="s">
         <v>721</v>
@@ -12686,108 +12700,111 @@
         <v>17</v>
       </c>
       <c r="I324" s="1" t="s">
-        <v>631</v>
+        <v>275</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="B325" s="1" t="s">
         <v>722</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>3402</v>
+        <v>3305</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>581</v>
+        <v>20</v>
       </c>
       <c r="E325" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F325" s="3" t="s">
-        <v>720</v>
+        <v>29</v>
       </c>
       <c r="G325" s="1" t="s">
-        <v>723</v>
+        <v>645</v>
       </c>
       <c r="H325" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="I325" s="1" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="B326" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="B326" s="1" t="s">
+      <c r="C326" s="1" t="n">
+        <v>3400</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="E326" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F326" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="C326" s="1" t="n">
-        <v>3420</v>
-      </c>
-      <c r="D326" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="E326" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F326" s="3" t="s">
-        <v>720</v>
-      </c>
       <c r="G326" s="1" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="H326" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="I326" s="1" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>485</v>
+        <v>727</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>3422</v>
+        <v>3402</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>20</v>
+        <v>587</v>
       </c>
       <c r="E327" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F327" s="3" t="s">
-        <v>21</v>
+        <v>725</v>
       </c>
       <c r="G327" s="1" t="s">
-        <v>199</v>
+        <v>728</v>
       </c>
       <c r="H327" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="I327" s="1" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>292</v>
+        <v>730</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>3423</v>
+        <v>3420</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>20</v>
+        <v>587</v>
       </c>
       <c r="E328" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F328" s="3" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="G328" s="1" t="s">
         <v>728</v>
@@ -12795,19 +12812,16 @@
       <c r="H328" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I328" s="1" t="s">
-        <v>294</v>
-      </c>
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>5</v>
+        <v>491</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>3424</v>
+        <v>3422</v>
       </c>
       <c r="D329" s="2" t="s">
         <v>20</v>
@@ -12816,10 +12830,10 @@
         <v>1</v>
       </c>
       <c r="F329" s="3" t="s">
-        <v>729</v>
+        <v>21</v>
       </c>
       <c r="G329" s="1" t="s">
-        <v>730</v>
+        <v>199</v>
       </c>
       <c r="H329" s="1" t="s">
         <v>17</v>
@@ -12828,91 +12842,149 @@
         <v>731</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C330" s="1" t="n">
+        <v>3423</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E330" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F330" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="B330" s="1" t="s">
+      <c r="G330" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="C330" s="1" t="n">
-        <v>3500</v>
-      </c>
-      <c r="D330" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E330" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F330" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G330" s="1" t="s">
+      <c r="H330" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I330" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C331" s="1" t="n">
+        <v>3424</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E331" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F331" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="H330" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I330" s="1" t="s">
+      <c r="G331" s="1" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="B331" s="1" t="s">
+      <c r="H331" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I331" s="1" t="s">
         <v>736</v>
-      </c>
-      <c r="C331" s="1" t="n">
-        <v>3501</v>
-      </c>
-      <c r="D331" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E331" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F331" s="3" t="s">
-        <v>729</v>
-      </c>
-      <c r="G331" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="H331" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I331" s="1" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="B332" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="C332" s="1" t="n">
+        <v>3500</v>
+      </c>
+      <c r="D332" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E332" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F332" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G332" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="C332" s="1" t="n">
+      <c r="H332" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I332" s="1" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="C333" s="1" t="n">
+        <v>3501</v>
+      </c>
+      <c r="D333" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E333" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F333" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="G333" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="H333" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I333" s="1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="C334" s="1" t="n">
         <v>3502</v>
       </c>
-      <c r="D332" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E332" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F332" s="3" t="s">
-        <v>729</v>
-      </c>
-      <c r="G332" s="1" t="s">
+      <c r="D334" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E334" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F334" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="H332" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I332" s="1" t="s">
-        <v>340</v>
+      <c r="G334" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="H334" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I334" s="1" t="s">
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -12936,8 +13008,8 @@
   </sheetPr>
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B43" activeCellId="0" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12949,14 +13021,14 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
-        <v>740</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>741</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>742</v>
+      <c r="A1" s="24" t="s">
+        <v>745</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>746</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12967,7 +13039,7 @@
         <v>257</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12978,7 +13050,7 @@
         <v>256</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12988,30 +13060,30 @@
       <c r="B4" s="22" t="n">
         <v>258</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>745</v>
+      <c r="C4" s="25" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="26" t="n">
+      <c r="A5" s="25" t="n">
         <v>243</v>
       </c>
-      <c r="B5" s="26" t="n">
+      <c r="B5" s="25" t="n">
         <v>260</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>746</v>
+      <c r="C5" s="25" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="26" t="n">
+      <c r="A6" s="25" t="n">
         <v>242</v>
       </c>
-      <c r="B6" s="26" t="n">
+      <c r="B6" s="25" t="n">
         <v>261</v>
       </c>
-      <c r="C6" s="26" t="s">
-        <v>747</v>
+      <c r="C6" s="25" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13022,7 +13094,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13033,7 +13105,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13044,7 +13116,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13055,7 +13127,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13066,7 +13138,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13077,7 +13149,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13088,7 +13160,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13099,7 +13171,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13110,7 +13182,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13121,7 +13193,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13132,7 +13204,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13143,7 +13215,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13154,7 +13226,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13165,7 +13237,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13176,7 +13248,7 @@
         <v>21</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13187,7 +13259,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13198,7 +13270,7 @@
         <v>23</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13209,7 +13281,7 @@
         <v>24</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13220,7 +13292,7 @@
         <v>25</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13231,7 +13303,7 @@
         <v>26</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13242,7 +13314,7 @@
         <v>27</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13253,7 +13325,7 @@
         <v>28</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13264,7 +13336,7 @@
         <v>29</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13275,7 +13347,7 @@
         <v>30</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13286,7 +13358,7 @@
         <v>31</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13297,7 +13369,7 @@
         <v>32</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13308,7 +13380,7 @@
         <v>33</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13319,7 +13391,7 @@
         <v>34</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13330,7 +13402,7 @@
         <v>40</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13341,7 +13413,7 @@
         <v>41</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13352,7 +13424,7 @@
         <v>42</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13363,7 +13435,7 @@
         <v>43</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13374,7 +13446,7 @@
         <v>44</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13385,7 +13457,7 @@
         <v>45</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13396,7 +13468,7 @@
         <v>46</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13407,7 +13479,7 @@
         <v>288</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13418,7 +13490,7 @@
         <v>289</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13429,7 +13501,7 @@
         <v>290</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13440,7 +13512,7 @@
         <v>291</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13451,7 +13523,7 @@
         <v>292</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13462,7 +13534,7 @@
         <v>293</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13473,28 +13545,28 @@
         <v>512</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="27" t="s">
-        <v>790</v>
-      </c>
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
+      <c r="A50" s="26" t="s">
+        <v>795</v>
+      </c>
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
     </row>
     <row r="51" customFormat="false" ht="92.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="28" t="s">
-        <v>791</v>
-      </c>
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
+      <c r="A51" s="27" t="s">
+        <v>796</v>
+      </c>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -13516,10 +13588,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A57" activeCellId="0" sqref="A57"/>
+      <selection pane="topLeft" activeCell="B57" activeCellId="0" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13532,339 +13604,349 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="22" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="22" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="22" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="22" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="22" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="22" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="22" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="22" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="22" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="22" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="22" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="22" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="22" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="22" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="22" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="22" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="22" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="22" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="22" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="22" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="22" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="22" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="22" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="22" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="22" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="22" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="22" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="22" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="22" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="22" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="22" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="22" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="22" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="22" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="22" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="22" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="22" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="29" t="s">
-        <v>841</v>
+      <c r="C39" s="28" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="22" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="22" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="22" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="22" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="22" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="22" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="22" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="22" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="22" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="22" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="22" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>858</v>
+        <v>863</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="22" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="22" t="s">
-        <v>860</v>
+        <v>865</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="22" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="22" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="22" t="s">
-        <v>863</v>
+        <v>868</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="22" t="s">
-        <v>865</v>
+        <v>870</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>866</v>
+        <v>871</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="22" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="22" t="s">
+        <v>873</v>
       </c>
     </row>
   </sheetData>

--- a/CCGX-Modbus-TCP-register-list.xlsx
+++ b/CCGX-Modbus-TCP-register-list.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2542" uniqueCount="874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2562" uniqueCount="884">
   <si>
     <t xml:space="preserve">NOTE: Use unit-id 100 for the com.victronenergy.system data, for more information see FAQ.</t>
   </si>
@@ -1791,13 +1791,13 @@
     <t xml:space="preserve">0 to 42949672.96</t>
   </si>
   <si>
-    <t xml:space="preserve">com.victronenergy.hub4</t>
+    <t xml:space="preserve">com.victronenergy.settings</t>
   </si>
   <si>
     <t xml:space="preserve">ESS control loop setpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">/AcPowerSetpoint</t>
+    <t xml:space="preserve">/Settings/Cgwacs/AcPowerSetPoint</t>
   </si>
   <si>
     <t xml:space="preserve">ESS Mode 2 - Setpoint for the ESS control-loop in the CCGX. The control-loop will increase/decrease the Multi charge/discharge power to get the grid L1 reading at J224this setpoint</t>
@@ -1806,24 +1806,48 @@
     <t xml:space="preserve">ESS max charge current (fractional)</t>
   </si>
   <si>
-    <t xml:space="preserve">/MaxChargePercentage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESS Mode 2 - Max charge current for ESS control-loop. The control-loop will use this value to limit the multi power setpoint.</t>
+    <t xml:space="preserve">/Settings/Cgwacs/MaxChargePercentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESS Mode 2 - Max charge current for ESS control-loop. The control-loop will use this value to limit the multi power setpoint. For DVCC, use 2705 instead.</t>
   </si>
   <si>
     <t xml:space="preserve">ESS max discharge current (fractional)</t>
   </si>
   <si>
-    <t xml:space="preserve">/MaxDischargePercentage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESS Mode 2 - Max discharge current for ESS control-loop. The control-loop will use this value to limit the multi power setpoint. Currently a value &lt; 50% will disable discharge completely. &gt;=50% allows maximum discharge</t>
+    <t xml:space="preserve">/Settings/Cgwacs/MaxDischargePercentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESS Mode 2 - Max discharge current for ESS control-loop. The control-loop will use this value to limit the multi power setpoint. Currently a value &lt; 50% will disable discharge completely. &gt;=50% allows. Consider using 2704 instead.</t>
   </si>
   <si>
     <t xml:space="preserve">-3266800 to 3266800</t>
   </si>
   <si>
+    <t xml:space="preserve">ESS Mode 2 – Same as 2700, but with a different scale factor. Meant for values larger than 65kW.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESS max discharge current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 to 655360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Settings/Cgwacs/MaxDischargePower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESS Mode 2 – similar to 2702, but as an absolute value instead of a percentage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DVCC system max charge current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Settings/SystemSetup/MaxChargeCurrent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESS Mode 2 with DVCC – Maximum system charge current. -1 Disables.</t>
+  </si>
+  <si>
     <t xml:space="preserve">com.victronenergy.gps</t>
   </si>
   <si>
@@ -1884,9 +1908,6 @@
     <t xml:space="preserve">/NrOfSatellites</t>
   </si>
   <si>
-    <t xml:space="preserve">com.victronenergy.settings</t>
-  </si>
-  <si>
     <t xml:space="preserve">ESS BatteryLife state</t>
   </si>
   <si>
@@ -2644,6 +2665,15 @@
   </si>
   <si>
     <t xml:space="preserve">Added register for solar charger’s MPP operation mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rev 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added register for ESS mode 2 maximum discharge current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added register for DVCC maximum system charge current</t>
   </si>
 </sst>
 </file>
@@ -2994,10 +3024,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N334"/>
+  <dimension ref="A1:N336"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
@@ -10883,7 +10913,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="s">
         <v>589</v>
       </c>
@@ -10915,7 +10945,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="s">
         <v>589</v>
       </c>
@@ -10947,7 +10977,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="s">
         <v>589</v>
       </c>
@@ -10979,7 +11009,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="s">
         <v>589</v>
       </c>
@@ -11007,22 +11037,25 @@
       <c r="I265" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J265" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>601</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>2800</v>
+        <v>2704</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>388</v>
+        <v>20</v>
       </c>
       <c r="E266" s="1" t="n">
-        <v>10000000</v>
+        <v>0.1</v>
       </c>
       <c r="F266" s="3" t="s">
         <v>602</v>
@@ -11031,123 +11064,123 @@
         <v>603</v>
       </c>
       <c r="H266" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I266" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J266" s="1" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>605</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>2802</v>
+        <v>2705</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>388</v>
+        <v>59</v>
       </c>
       <c r="E267" s="1" t="n">
-        <v>10000000</v>
+        <v>1</v>
       </c>
       <c r="F267" s="3" t="s">
-        <v>602</v>
+        <v>60</v>
       </c>
       <c r="G267" s="1" t="s">
         <v>606</v>
       </c>
       <c r="H267" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I267" s="1" t="s">
-        <v>604</v>
+        <v>86</v>
+      </c>
+      <c r="J267" s="1" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>2804</v>
+        <v>2800</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>20</v>
+        <v>388</v>
       </c>
       <c r="E268" s="1" t="n">
-        <v>100</v>
+        <v>10000000</v>
       </c>
       <c r="F268" s="3" t="s">
-        <v>185</v>
+        <v>610</v>
       </c>
       <c r="G268" s="1" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="H268" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I268" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="J268" s="1" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>2805</v>
+        <v>2802</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>20</v>
+        <v>388</v>
       </c>
       <c r="E269" s="1" t="n">
-        <v>100</v>
+        <v>10000000</v>
       </c>
       <c r="F269" s="3" t="s">
-        <v>185</v>
+        <v>610</v>
       </c>
       <c r="G269" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="H269" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I269" s="1" t="s">
         <v>612</v>
-      </c>
-      <c r="H269" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I269" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="J269" s="1" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>615</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>2806</v>
+        <v>2804</v>
       </c>
       <c r="D270" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E270" s="1" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F270" s="3" t="s">
-        <v>29</v>
+        <v>185</v>
       </c>
       <c r="G270" s="1" t="s">
         <v>616</v>
@@ -11155,45 +11188,54 @@
       <c r="H270" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="I270" s="1" t="s">
+        <v>617</v>
+      </c>
       <c r="J270" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>2807</v>
+        <v>2805</v>
       </c>
       <c r="D271" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E271" s="1" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F271" s="3" t="s">
-        <v>29</v>
+        <v>185</v>
       </c>
       <c r="G271" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H271" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="I271" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="J271" s="1" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>2900</v>
+        <v>2806</v>
       </c>
       <c r="D272" s="2" t="s">
         <v>20</v>
@@ -11201,66 +11243,60 @@
       <c r="E272" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="F272" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="G272" s="1" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="H272" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I272" s="1" t="s">
-        <v>623</v>
+        <v>17</v>
       </c>
       <c r="J272" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>2901</v>
+        <v>2807</v>
       </c>
       <c r="D273" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E273" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="F273" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="G273" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H273" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I273" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J273" s="21" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="21" t="s">
-        <v>620</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="1" t="s">
+        <v>589</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>628</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>2902</v>
+        <v>2900</v>
       </c>
       <c r="D274" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E274" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="F274" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="G274" s="1" t="s">
         <v>629</v>
@@ -11268,76 +11304,81 @@
       <c r="H274" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I274" s="22" t="s">
+      <c r="I274" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="J274" s="21"/>
-    </row>
-    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J274" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="s">
-        <v>631</v>
+        <v>589</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>632</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>3000</v>
+        <v>2901</v>
       </c>
       <c r="D275" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E275" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F275" s="3" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G275" s="1" t="s">
         <v>633</v>
       </c>
       <c r="H275" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I275" s="23"/>
-    </row>
-    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="1" t="s">
-        <v>631</v>
+        <v>23</v>
+      </c>
+      <c r="I275" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J275" s="21" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="21" t="s">
+        <v>589</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>3001</v>
+        <v>2902</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>587</v>
+        <v>20</v>
       </c>
       <c r="E276" s="1" t="n">
-        <v>10000</v>
+        <v>1</v>
       </c>
       <c r="F276" s="3" t="s">
-        <v>635</v>
+        <v>29</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>386</v>
+        <v>636</v>
       </c>
       <c r="H276" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I276" s="1" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+      <c r="I276" s="22" t="s">
+        <v>637</v>
+      </c>
+      <c r="J276" s="21"/>
+    </row>
+    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="D277" s="2" t="s">
         <v>20</v>
@@ -11349,256 +11390,254 @@
         <v>29</v>
       </c>
       <c r="G277" s="1" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="H277" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I277" s="1" t="s">
-        <v>639</v>
-      </c>
+      <c r="I277" s="23"/>
     </row>
     <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>20</v>
+        <v>587</v>
       </c>
       <c r="E278" s="1" t="n">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="F278" s="3" t="s">
-        <v>79</v>
+        <v>642</v>
       </c>
       <c r="G278" s="1" t="s">
-        <v>641</v>
+        <v>386</v>
       </c>
       <c r="H278" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I278" s="1" t="s">
-        <v>93</v>
+        <v>643</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>3005</v>
+        <v>3003</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>587</v>
+        <v>20</v>
       </c>
       <c r="E279" s="1" t="n">
-        <v>10000</v>
+        <v>1</v>
       </c>
       <c r="F279" s="3" t="s">
-        <v>635</v>
+        <v>29</v>
       </c>
       <c r="G279" s="1" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="H279" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I279" s="1" t="s">
-        <v>636</v>
+        <v>646</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>3007</v>
+        <v>3004</v>
       </c>
       <c r="D280" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E280" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F280" s="3" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="G280" s="1" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="H280" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I280" s="1" t="s">
-        <v>646</v>
+        <v>93</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>3100</v>
+        <v>3005</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>59</v>
+        <v>587</v>
       </c>
       <c r="E281" s="1" t="n">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="F281" s="3" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="G281" s="1" t="s">
-        <v>165</v>
+        <v>650</v>
       </c>
       <c r="H281" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I281" s="1" t="s">
-        <v>134</v>
+        <v>643</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>3101</v>
+        <v>3007</v>
       </c>
       <c r="D282" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E282" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F282" s="3" t="s">
-        <v>651</v>
+        <v>29</v>
       </c>
       <c r="G282" s="1" t="s">
-        <v>159</v>
+        <v>652</v>
       </c>
       <c r="H282" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I282" s="1" t="s">
-        <v>127</v>
+        <v>653</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>184</v>
+        <v>655</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>3105</v>
+        <v>3100</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E283" s="1" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F283" s="3" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="G283" s="1" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="H283" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I283" s="1" t="s">
-        <v>81</v>
+        <v>134</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>311</v>
+        <v>657</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>3110</v>
+        <v>3101</v>
       </c>
       <c r="D284" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E284" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F284" s="3" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="G284" s="1" t="s">
-        <v>208</v>
+        <v>159</v>
       </c>
       <c r="H284" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I284" s="1" t="s">
-        <v>654</v>
+        <v>127</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>655</v>
+        <v>184</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>3111</v>
+        <v>3105</v>
       </c>
       <c r="D285" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E285" s="1" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F285" s="3" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="G285" s="1" t="s">
-        <v>302</v>
+        <v>186</v>
       </c>
       <c r="H285" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I285" s="1" t="s">
-        <v>654</v>
+        <v>81</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>656</v>
+        <v>311</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>3112</v>
+        <v>3110</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>20</v>
@@ -11607,27 +11646,27 @@
         <v>1</v>
       </c>
       <c r="F286" s="3" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="G286" s="1" t="s">
-        <v>657</v>
+        <v>208</v>
       </c>
       <c r="H286" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I286" s="1" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>309</v>
+        <v>662</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>3113</v>
+        <v>3111</v>
       </c>
       <c r="D287" s="2" t="s">
         <v>20</v>
@@ -11636,27 +11675,27 @@
         <v>1</v>
       </c>
       <c r="F287" s="3" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="G287" s="1" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="H287" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I287" s="1" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>3114</v>
+        <v>3112</v>
       </c>
       <c r="D288" s="2" t="s">
         <v>20</v>
@@ -11665,27 +11704,27 @@
         <v>1</v>
       </c>
       <c r="F288" s="3" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="G288" s="1" t="s">
-        <v>300</v>
+        <v>664</v>
       </c>
       <c r="H288" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I288" s="1" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>659</v>
+        <v>309</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>3115</v>
+        <v>3113</v>
       </c>
       <c r="D289" s="2" t="s">
         <v>20</v>
@@ -11694,27 +11733,27 @@
         <v>1</v>
       </c>
       <c r="F289" s="3" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="G289" s="1" t="s">
-        <v>660</v>
+        <v>310</v>
       </c>
       <c r="H289" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I289" s="1" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>212</v>
+        <v>665</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>3116</v>
+        <v>3114</v>
       </c>
       <c r="D290" s="2" t="s">
         <v>20</v>
@@ -11723,56 +11762,56 @@
         <v>1</v>
       </c>
       <c r="F290" s="3" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="G290" s="1" t="s">
-        <v>213</v>
+        <v>300</v>
       </c>
       <c r="H290" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I290" s="1" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="B291" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="C291" s="1" t="n">
+        <v>3115</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E291" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F291" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="G291" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="H291" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I291" s="1" t="s">
         <v>661</v>
-      </c>
-      <c r="C291" s="1" t="n">
-        <v>3117</v>
-      </c>
-      <c r="D291" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E291" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F291" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="G291" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="H291" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I291" s="1" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="1" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>663</v>
+        <v>212</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>3125</v>
+        <v>3116</v>
       </c>
       <c r="D292" s="2" t="s">
         <v>20</v>
@@ -11781,24 +11820,27 @@
         <v>1</v>
       </c>
       <c r="F292" s="3" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="G292" s="1" t="s">
-        <v>664</v>
+        <v>213</v>
       </c>
       <c r="H292" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="I292" s="1" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>3126</v>
+        <v>3117</v>
       </c>
       <c r="D293" s="2" t="s">
         <v>20</v>
@@ -11807,27 +11849,27 @@
         <v>1</v>
       </c>
       <c r="F293" s="3" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="G293" s="1" t="s">
-        <v>205</v>
+        <v>669</v>
       </c>
       <c r="H293" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I293" s="1" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>3127</v>
+        <v>3125</v>
       </c>
       <c r="D294" s="2" t="s">
         <v>20</v>
@@ -11836,10 +11878,10 @@
         <v>1</v>
       </c>
       <c r="F294" s="3" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="G294" s="1" t="s">
-        <v>633</v>
+        <v>671</v>
       </c>
       <c r="H294" s="1" t="s">
         <v>17</v>
@@ -11847,13 +11889,13 @@
     </row>
     <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>3128</v>
+        <v>3126</v>
       </c>
       <c r="D295" s="2" t="s">
         <v>20</v>
@@ -11862,85 +11904,82 @@
         <v>1</v>
       </c>
       <c r="F295" s="3" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="G295" s="1" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="H295" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I295" s="1" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="s">
-        <v>670</v>
+        <v>654</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>3200</v>
+        <v>3127</v>
       </c>
       <c r="D296" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E296" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F296" s="3" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
       <c r="G296" s="1" t="s">
-        <v>464</v>
+        <v>640</v>
       </c>
       <c r="H296" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="I296" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="1" t="s">
-        <v>670</v>
+        <v>654</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>3201</v>
+        <v>3128</v>
       </c>
       <c r="D297" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E297" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F297" s="3" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
       <c r="G297" s="1" t="s">
-        <v>472</v>
+        <v>199</v>
       </c>
       <c r="H297" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I297" s="1" t="s">
-        <v>127</v>
+        <v>676</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>3202</v>
+        <v>3200</v>
       </c>
       <c r="D298" s="2" t="s">
         <v>20</v>
@@ -11949,10 +11988,10 @@
         <v>10</v>
       </c>
       <c r="F298" s="3" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="G298" s="1" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="H298" s="1" t="s">
         <v>17</v>
@@ -11963,71 +12002,71 @@
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>3203</v>
+        <v>3201</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E299" s="1" t="n">
         <v>10</v>
       </c>
       <c r="F299" s="3" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
       <c r="G299" s="1" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="H299" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I299" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>3204</v>
+        <v>3202</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E300" s="1" t="n">
         <v>10</v>
       </c>
       <c r="F300" s="3" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
       <c r="G300" s="1" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="H300" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I300" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>3205</v>
+        <v>3203</v>
       </c>
       <c r="D301" s="2" t="s">
         <v>59</v>
@@ -12036,10 +12075,10 @@
         <v>10</v>
       </c>
       <c r="F301" s="3" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="G301" s="1" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="H301" s="1" t="s">
         <v>17</v>
@@ -12050,71 +12089,71 @@
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>3206</v>
+        <v>3204</v>
       </c>
       <c r="D302" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E302" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F302" s="3" t="s">
-        <v>678</v>
+        <v>656</v>
       </c>
       <c r="G302" s="1" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="H302" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I302" s="1" t="s">
-        <v>31</v>
+        <v>134</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>3207</v>
+        <v>3205</v>
       </c>
       <c r="D303" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E303" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F303" s="3" t="s">
-        <v>678</v>
+        <v>656</v>
       </c>
       <c r="G303" s="1" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="H303" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I303" s="1" t="s">
-        <v>31</v>
+        <v>134</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>3208</v>
+        <v>3206</v>
       </c>
       <c r="D304" s="2" t="s">
         <v>59</v>
@@ -12123,10 +12162,10 @@
         <v>1</v>
       </c>
       <c r="F304" s="3" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="G304" s="1" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="H304" s="1" t="s">
         <v>17</v>
@@ -12137,71 +12176,71 @@
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="1" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>3209</v>
+        <v>3207</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E305" s="1" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F305" s="3" t="s">
-        <v>652</v>
+        <v>685</v>
       </c>
       <c r="G305" s="1" t="s">
-        <v>682</v>
+        <v>476</v>
       </c>
       <c r="H305" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I305" s="1" t="s">
-        <v>143</v>
+        <v>31</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="1" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>3210</v>
+        <v>3208</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E306" s="1" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F306" s="3" t="s">
-        <v>652</v>
+        <v>685</v>
       </c>
       <c r="G306" s="1" t="s">
-        <v>684</v>
+        <v>484</v>
       </c>
       <c r="H306" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I306" s="1" t="s">
-        <v>143</v>
+        <v>31</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="1" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>3211</v>
+        <v>3209</v>
       </c>
       <c r="D307" s="2" t="s">
         <v>20</v>
@@ -12210,10 +12249,10 @@
         <v>100</v>
       </c>
       <c r="F307" s="3" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
       <c r="G307" s="1" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="H307" s="1" t="s">
         <v>17</v>
@@ -12224,68 +12263,71 @@
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>3212</v>
+        <v>3210</v>
       </c>
       <c r="D308" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E308" s="1" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F308" s="3" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="G308" s="1" t="s">
-        <v>633</v>
+        <v>691</v>
       </c>
       <c r="H308" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="I308" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="1" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>3213</v>
+        <v>3211</v>
       </c>
       <c r="D309" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E309" s="1" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F309" s="3" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="G309" s="1" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="H309" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I309" s="1" t="s">
-        <v>690</v>
+        <v>143</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="1" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>493</v>
+        <v>694</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>3214</v>
+        <v>3212</v>
       </c>
       <c r="D310" s="2" t="s">
         <v>20</v>
@@ -12294,27 +12336,24 @@
         <v>1</v>
       </c>
       <c r="F310" s="3" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="G310" s="1" t="s">
-        <v>449</v>
+        <v>640</v>
       </c>
       <c r="H310" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="I310" s="1" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>3215</v>
+        <v>3213</v>
       </c>
       <c r="D311" s="2" t="s">
         <v>20</v>
@@ -12323,27 +12362,27 @@
         <v>1</v>
       </c>
       <c r="F311" s="3" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="G311" s="1" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="H311" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I311" s="1" t="s">
-        <v>497</v>
+        <v>697</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="1" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>694</v>
+        <v>493</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>3216</v>
+        <v>3214</v>
       </c>
       <c r="D312" s="2" t="s">
         <v>20</v>
@@ -12352,27 +12391,27 @@
         <v>1</v>
       </c>
       <c r="F312" s="3" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="G312" s="1" t="s">
-        <v>695</v>
+        <v>449</v>
       </c>
       <c r="H312" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I312" s="1" t="s">
-        <v>93</v>
+        <v>698</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="1" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>3217</v>
+        <v>3215</v>
       </c>
       <c r="D313" s="2" t="s">
         <v>20</v>
@@ -12381,114 +12420,114 @@
         <v>1</v>
       </c>
       <c r="F313" s="3" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="G313" s="1" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="H313" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I313" s="1" t="s">
-        <v>536</v>
+        <v>497</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>3218</v>
+        <v>3216</v>
       </c>
       <c r="D314" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E314" s="1" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="F314" s="3" t="s">
-        <v>699</v>
+        <v>660</v>
       </c>
       <c r="G314" s="1" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="H314" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I314" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="1" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>3219</v>
+        <v>3217</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E315" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F315" s="3" t="s">
-        <v>649</v>
+        <v>660</v>
       </c>
       <c r="G315" s="1" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="H315" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I315" s="1" t="s">
-        <v>275</v>
+        <v>536</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="1" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>3220</v>
+        <v>3218</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E316" s="1" t="n">
-        <v>10</v>
+        <v>0.01</v>
       </c>
       <c r="F316" s="3" t="s">
-        <v>649</v>
+        <v>706</v>
       </c>
       <c r="G316" s="1" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="H316" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I316" s="1" t="s">
-        <v>275</v>
+        <v>105</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="1" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>3221</v>
+        <v>3219</v>
       </c>
       <c r="D317" s="2" t="s">
         <v>59</v>
@@ -12497,10 +12536,10 @@
         <v>10</v>
       </c>
       <c r="F317" s="3" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="G317" s="1" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="H317" s="1" t="s">
         <v>17</v>
@@ -12511,135 +12550,141 @@
     </row>
     <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>3222</v>
+        <v>3220</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E318" s="1" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F318" s="3" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="G318" s="1" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="H318" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I318" s="1" t="s">
-        <v>81</v>
+        <v>275</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>3223</v>
+        <v>3221</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E319" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F319" s="3" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="G319" s="1" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="H319" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I319" s="1" t="s">
-        <v>711</v>
+        <v>275</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="s">
-        <v>712</v>
+        <v>677</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>632</v>
+        <v>714</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>3300</v>
+        <v>3222</v>
       </c>
       <c r="D320" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E320" s="1" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F320" s="3" t="s">
-        <v>29</v>
+        <v>659</v>
       </c>
       <c r="G320" s="1" t="s">
-        <v>633</v>
+        <v>715</v>
       </c>
       <c r="H320" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="I320" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="s">
-        <v>712</v>
+        <v>677</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>3301</v>
+        <v>3223</v>
       </c>
       <c r="D321" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E321" s="1" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F321" s="3" t="s">
-        <v>185</v>
+        <v>660</v>
       </c>
       <c r="G321" s="1" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="H321" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="I321" s="1" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>715</v>
+        <v>639</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>3302</v>
+        <v>3300</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E322" s="1" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F322" s="3" t="s">
-        <v>141</v>
+        <v>29</v>
       </c>
       <c r="G322" s="1" t="s">
-        <v>716</v>
+        <v>640</v>
       </c>
       <c r="H322" s="1" t="s">
         <v>17</v>
@@ -12647,42 +12692,39 @@
     </row>
     <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>3303</v>
+        <v>3301</v>
       </c>
       <c r="D323" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E323" s="1" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F323" s="3" t="s">
-        <v>29</v>
+        <v>185</v>
       </c>
       <c r="G323" s="1" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="H323" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="I323" s="1" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="D324" s="2" t="s">
         <v>59</v>
@@ -12694,24 +12736,21 @@
         <v>141</v>
       </c>
       <c r="G324" s="1" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="H324" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="I324" s="1" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>3305</v>
+        <v>3303</v>
       </c>
       <c r="D325" s="2" t="s">
         <v>20</v>
@@ -12723,79 +12762,82 @@
         <v>29</v>
       </c>
       <c r="G325" s="1" t="s">
-        <v>645</v>
+        <v>725</v>
       </c>
       <c r="H325" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I325" s="1" t="s">
-        <v>646</v>
+        <v>726</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="1" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>3400</v>
+        <v>3304</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>587</v>
+        <v>59</v>
       </c>
       <c r="E326" s="1" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F326" s="3" t="s">
-        <v>725</v>
+        <v>141</v>
       </c>
       <c r="G326" s="1" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="H326" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I326" s="1" t="s">
-        <v>636</v>
+        <v>275</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>3402</v>
+        <v>3305</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>587</v>
+        <v>20</v>
       </c>
       <c r="E327" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F327" s="3" t="s">
-        <v>725</v>
+        <v>29</v>
       </c>
       <c r="G327" s="1" t="s">
-        <v>728</v>
+        <v>652</v>
       </c>
       <c r="H327" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="I327" s="1" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>3420</v>
+        <v>3400</v>
       </c>
       <c r="D328" s="2" t="s">
         <v>587</v>
@@ -12804,56 +12846,56 @@
         <v>1</v>
       </c>
       <c r="F328" s="3" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="G328" s="1" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="H328" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="I328" s="1" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>491</v>
+        <v>734</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>3422</v>
+        <v>3402</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>20</v>
+        <v>587</v>
       </c>
       <c r="E329" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F329" s="3" t="s">
-        <v>21</v>
+        <v>732</v>
       </c>
       <c r="G329" s="1" t="s">
-        <v>199</v>
+        <v>735</v>
       </c>
       <c r="H329" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="I329" s="1" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="s">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>295</v>
+        <v>737</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>3423</v>
+        <v>3420</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>20</v>
+        <v>587</v>
       </c>
       <c r="E330" s="1" t="n">
         <v>1</v>
@@ -12862,91 +12904,88 @@
         <v>732</v>
       </c>
       <c r="G330" s="1" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="H330" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="I330" s="1" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="s">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="B331" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C331" s="1" t="n">
+        <v>3422</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E331" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F331" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G331" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H331" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I331" s="1" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C332" s="1" t="n">
+        <v>3423</v>
+      </c>
+      <c r="D332" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E332" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F332" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="G332" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="H332" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I332" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B333" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C331" s="1" t="n">
+      <c r="C333" s="1" t="n">
         <v>3424</v>
       </c>
-      <c r="D331" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E331" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F331" s="3" t="s">
-        <v>734</v>
-      </c>
-      <c r="G331" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="H331" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I331" s="1" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="B332" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="C332" s="1" t="n">
-        <v>3500</v>
-      </c>
-      <c r="D332" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E332" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F332" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G332" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="H332" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I332" s="1" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="B333" s="1" t="s">
+      <c r="D333" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E333" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F333" s="3" t="s">
         <v>741</v>
-      </c>
-      <c r="C333" s="1" t="n">
-        <v>3501</v>
-      </c>
-      <c r="D333" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E333" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F333" s="3" t="s">
-        <v>734</v>
       </c>
       <c r="G333" s="1" t="s">
         <v>742</v>
@@ -12960,30 +12999,88 @@
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="s">
-        <v>737</v>
+        <v>744</v>
       </c>
       <c r="B334" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="C334" s="1" t="n">
+        <v>3500</v>
+      </c>
+      <c r="D334" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E334" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F334" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G334" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="H334" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I334" s="1" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="C334" s="1" t="n">
+      <c r="B335" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="C335" s="1" t="n">
+        <v>3501</v>
+      </c>
+      <c r="D335" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E335" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F335" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="G335" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="H335" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I335" s="1" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="C336" s="1" t="n">
         <v>3502</v>
       </c>
-      <c r="D334" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E334" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F334" s="3" t="s">
-        <v>734</v>
-      </c>
-      <c r="G334" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="H334" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I334" s="1" t="s">
+      <c r="D336" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E336" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F336" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="G336" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="H336" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I336" s="1" t="s">
         <v>343</v>
       </c>
     </row>
@@ -13008,8 +13105,8 @@
   </sheetPr>
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B43" activeCellId="0" sqref="B43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13022,13 +13119,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="24" t="s">
-        <v>745</v>
+        <v>752</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>746</v>
+        <v>753</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>747</v>
+        <v>754</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13039,7 +13136,7 @@
         <v>257</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>748</v>
+        <v>755</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13050,7 +13147,7 @@
         <v>256</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13061,7 +13158,7 @@
         <v>258</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13072,7 +13169,7 @@
         <v>260</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13083,7 +13180,7 @@
         <v>261</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13094,7 +13191,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13105,7 +13202,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>754</v>
+        <v>761</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13116,7 +13213,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>755</v>
+        <v>762</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13127,7 +13224,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>756</v>
+        <v>763</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13138,7 +13235,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>757</v>
+        <v>764</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13149,7 +13246,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>758</v>
+        <v>765</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13160,7 +13257,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>759</v>
+        <v>766</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13171,7 +13268,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>760</v>
+        <v>767</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13182,7 +13279,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>761</v>
+        <v>768</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13193,7 +13290,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>762</v>
+        <v>769</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13204,7 +13301,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13215,7 +13312,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>764</v>
+        <v>771</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13226,7 +13323,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>765</v>
+        <v>772</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13237,7 +13334,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>766</v>
+        <v>773</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13248,7 +13345,7 @@
         <v>21</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>767</v>
+        <v>774</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13259,7 +13356,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>768</v>
+        <v>775</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13270,7 +13367,7 @@
         <v>23</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>769</v>
+        <v>776</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13281,7 +13378,7 @@
         <v>24</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>770</v>
+        <v>777</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13292,7 +13389,7 @@
         <v>25</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>771</v>
+        <v>778</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13303,7 +13400,7 @@
         <v>26</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>772</v>
+        <v>779</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13314,7 +13411,7 @@
         <v>27</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>773</v>
+        <v>780</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13325,7 +13422,7 @@
         <v>28</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>774</v>
+        <v>781</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13336,7 +13433,7 @@
         <v>29</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>775</v>
+        <v>782</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13347,7 +13444,7 @@
         <v>30</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>776</v>
+        <v>783</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13358,7 +13455,7 @@
         <v>31</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>777</v>
+        <v>784</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13369,7 +13466,7 @@
         <v>32</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>778</v>
+        <v>785</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13380,7 +13477,7 @@
         <v>33</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>779</v>
+        <v>786</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13391,7 +13488,7 @@
         <v>34</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>780</v>
+        <v>787</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13402,7 +13499,7 @@
         <v>40</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>781</v>
+        <v>788</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13413,7 +13510,7 @@
         <v>41</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>782</v>
+        <v>789</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13424,7 +13521,7 @@
         <v>42</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>783</v>
+        <v>790</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13435,7 +13532,7 @@
         <v>43</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>784</v>
+        <v>791</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13446,7 +13543,7 @@
         <v>44</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>785</v>
+        <v>792</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13457,7 +13554,7 @@
         <v>45</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>786</v>
+        <v>793</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13468,7 +13565,7 @@
         <v>46</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>787</v>
+        <v>794</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13479,7 +13576,7 @@
         <v>288</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>788</v>
+        <v>795</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13490,7 +13587,7 @@
         <v>289</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>789</v>
+        <v>796</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13501,7 +13598,7 @@
         <v>290</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>790</v>
+        <v>797</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13512,7 +13609,7 @@
         <v>291</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>791</v>
+        <v>798</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13523,7 +13620,7 @@
         <v>292</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>792</v>
+        <v>799</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13534,7 +13631,7 @@
         <v>293</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>793</v>
+        <v>800</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13545,12 +13642,12 @@
         <v>512</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>794</v>
+        <v>801</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="26" t="s">
-        <v>795</v>
+        <v>802</v>
       </c>
       <c r="B50" s="26"/>
       <c r="C50" s="26"/>
@@ -13560,7 +13657,7 @@
     </row>
     <row r="51" customFormat="false" ht="92.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="27" t="s">
-        <v>796</v>
+        <v>803</v>
       </c>
       <c r="B51" s="27"/>
       <c r="C51" s="27"/>
@@ -13588,10 +13685,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B57" activeCellId="0" sqref="B57"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13604,349 +13701,362 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="22" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="22" t="s">
-        <v>799</v>
+        <v>806</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>800</v>
+        <v>807</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="s">
-        <v>801</v>
+        <v>808</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>802</v>
+        <v>809</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="22" t="s">
-        <v>803</v>
+        <v>810</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>804</v>
+        <v>811</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="22" t="s">
-        <v>805</v>
+        <v>812</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="22" t="s">
-        <v>806</v>
+        <v>813</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="22" t="s">
-        <v>807</v>
+        <v>814</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="22" t="s">
-        <v>808</v>
+        <v>815</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="22" t="s">
-        <v>809</v>
+        <v>816</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>810</v>
+        <v>817</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="22" t="s">
-        <v>811</v>
+        <v>818</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="22" t="s">
-        <v>812</v>
+        <v>819</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="22" t="s">
-        <v>813</v>
+        <v>820</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>814</v>
+        <v>821</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="22" t="s">
-        <v>815</v>
+        <v>822</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="22" t="s">
-        <v>816</v>
+        <v>823</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="22" t="s">
-        <v>817</v>
+        <v>824</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="22" t="s">
-        <v>818</v>
+        <v>825</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="22" t="s">
-        <v>819</v>
+        <v>826</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="22" t="s">
-        <v>820</v>
+        <v>827</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>821</v>
+        <v>828</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="22" t="s">
-        <v>822</v>
+        <v>829</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>823</v>
+        <v>830</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="22" t="s">
-        <v>824</v>
+        <v>831</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="22" t="s">
-        <v>825</v>
+        <v>832</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="22" t="s">
-        <v>826</v>
+        <v>833</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>827</v>
+        <v>834</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="22" t="s">
-        <v>828</v>
+        <v>835</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="22" t="s">
-        <v>829</v>
+        <v>836</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="22" t="s">
-        <v>830</v>
+        <v>837</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="22" t="s">
-        <v>831</v>
+        <v>838</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="22" t="s">
-        <v>832</v>
+        <v>839</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="22" t="s">
-        <v>833</v>
+        <v>840</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="22" t="s">
-        <v>834</v>
+        <v>841</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="22" t="s">
-        <v>835</v>
+        <v>842</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>836</v>
+        <v>843</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="22" t="s">
-        <v>837</v>
+        <v>844</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="22" t="s">
-        <v>838</v>
+        <v>845</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="22" t="s">
-        <v>839</v>
+        <v>846</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>840</v>
+        <v>847</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="22" t="s">
-        <v>841</v>
+        <v>848</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="22" t="s">
-        <v>842</v>
+        <v>849</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="22" t="s">
-        <v>843</v>
+        <v>850</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="22" t="s">
-        <v>844</v>
+        <v>851</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="22" t="s">
-        <v>845</v>
+        <v>852</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="28" t="s">
-        <v>846</v>
+        <v>853</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="22" t="s">
-        <v>847</v>
+        <v>854</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>848</v>
+        <v>855</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="22" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>850</v>
+        <v>857</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="22" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="22" t="s">
-        <v>852</v>
+        <v>859</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="22" t="s">
-        <v>853</v>
+        <v>860</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>854</v>
+        <v>861</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="22" t="s">
-        <v>855</v>
+        <v>862</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="22" t="s">
-        <v>856</v>
+        <v>863</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="22" t="s">
-        <v>857</v>
+        <v>864</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>858</v>
+        <v>865</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="22" t="s">
-        <v>859</v>
+        <v>866</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>860</v>
+        <v>867</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="22" t="s">
-        <v>861</v>
+        <v>868</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="22" t="s">
-        <v>862</v>
+        <v>869</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>863</v>
+        <v>870</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="22" t="s">
-        <v>864</v>
+        <v>871</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="22" t="s">
-        <v>865</v>
+        <v>872</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="22" t="s">
-        <v>866</v>
+        <v>873</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="22" t="s">
-        <v>867</v>
+        <v>874</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="22" t="s">
-        <v>868</v>
+        <v>875</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>869</v>
+        <v>876</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="22" t="s">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>871</v>
+        <v>878</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="22" t="s">
-        <v>872</v>
+        <v>879</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="22" t="s">
-        <v>873</v>
+        <v>880</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="22" t="s">
+        <v>881</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="22" t="s">
+        <v>883</v>
       </c>
     </row>
   </sheetData>

--- a/CCGX-Modbus-TCP-register-list.xlsx
+++ b/CCGX-Modbus-TCP-register-list.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2562" uniqueCount="884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2586" uniqueCount="887">
   <si>
     <t xml:space="preserve">NOTE: Use unit-id 100 for the com.victronenergy.system data, for more information see FAQ.</t>
   </si>
@@ -1437,6 +1437,9 @@
     <t xml:space="preserve">/Ac/L1/Energy/Forward</t>
   </si>
   <si>
+    <t xml:space="preserve">Deprecated. Use 1040 instead.</t>
+  </si>
+  <si>
     <t xml:space="preserve">L2 Voltage</t>
   </si>
   <si>
@@ -1461,6 +1464,9 @@
     <t xml:space="preserve">/Ac/L2/Energy/Forward</t>
   </si>
   <si>
+    <t xml:space="preserve">Deprecated. Use 1042 instead.</t>
+  </si>
+  <si>
     <t xml:space="preserve">L3 Voltage</t>
   </si>
   <si>
@@ -1485,6 +1491,9 @@
     <t xml:space="preserve">/Ac/L3/Energy/Forward</t>
   </si>
   <si>
+    <t xml:space="preserve">Deprecated. Use 1044 instead.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Serial</t>
   </si>
   <si>
@@ -1497,6 +1506,12 @@
     <t xml:space="preserve">The system serial as string (MSB of first register: first character, LSB of last register: last character).</t>
   </si>
   <si>
+    <t xml:space="preserve">uint32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 to 42949672.96</t>
+  </si>
+  <si>
     <t xml:space="preserve">State</t>
   </si>
   <si>
@@ -1783,12 +1798,6 @@
   </si>
   <si>
     <t xml:space="preserve">Grid L3 – Current</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uint32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 to 42949672.96</t>
   </si>
   <si>
     <t xml:space="preserve">com.victronenergy.settings</t>
@@ -3024,12 +3033,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N336"/>
+  <dimension ref="A1:N339"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="F200" activeCellId="0" sqref="F200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8795,13 +8804,16 @@
       <c r="I188" s="1" t="s">
         <v>368</v>
       </c>
+      <c r="J188" s="1" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
         <v>459</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C189" s="1" t="n">
         <v>1031</v>
@@ -8816,7 +8828,7 @@
         <v>79</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H189" s="1" t="s">
         <v>17</v>
@@ -8830,7 +8842,7 @@
         <v>459</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C190" s="1" t="n">
         <v>1032</v>
@@ -8845,7 +8857,7 @@
         <v>84</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H190" s="1" t="s">
         <v>17</v>
@@ -8859,7 +8871,7 @@
         <v>459</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C191" s="1" t="n">
         <v>1033</v>
@@ -8874,7 +8886,7 @@
         <v>29</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H191" s="1" t="s">
         <v>17</v>
@@ -8883,12 +8895,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
         <v>459</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C192" s="1" t="n">
         <v>1034</v>
@@ -8903,13 +8915,16 @@
         <v>185</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H192" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I192" s="1" t="s">
         <v>368</v>
+      </c>
+      <c r="J192" s="1" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8917,7 +8932,7 @@
         <v>459</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C193" s="1" t="n">
         <v>1035</v>
@@ -8932,7 +8947,7 @@
         <v>79</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="H193" s="1" t="s">
         <v>17</v>
@@ -8946,7 +8961,7 @@
         <v>459</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C194" s="1" t="n">
         <v>1036</v>
@@ -8961,7 +8976,7 @@
         <v>84</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="H194" s="1" t="s">
         <v>17</v>
@@ -8975,7 +8990,7 @@
         <v>459</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C195" s="1" t="n">
         <v>1037</v>
@@ -8990,7 +9005,7 @@
         <v>29</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="H195" s="1" t="s">
         <v>17</v>
@@ -8999,12 +9014,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
         <v>459</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C196" s="1" t="n">
         <v>1038</v>
@@ -9019,7 +9034,7 @@
         <v>185</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="H196" s="1" t="s">
         <v>17</v>
@@ -9027,25 +9042,28 @@
       <c r="I196" s="1" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J196" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
         <v>459</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="C197" s="1" t="n">
         <v>1039</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="E197" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="G197" s="1" t="s">
         <v>16</v>
@@ -9054,94 +9072,94 @@
         <v>17</v>
       </c>
       <c r="J197" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>282</v>
+        <v>459</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>491</v>
+        <v>469</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>1282</v>
+        <v>1040</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>20</v>
+        <v>494</v>
       </c>
       <c r="E198" s="1" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>29</v>
+        <v>495</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>199</v>
+        <v>470</v>
       </c>
       <c r="H198" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>282</v>
+        <v>459</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>1283</v>
+        <v>1042</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>20</v>
+        <v>494</v>
       </c>
       <c r="E199" s="1" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>29</v>
+        <v>495</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>449</v>
+        <v>479</v>
       </c>
       <c r="H199" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I199" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C200" s="1" t="n">
+        <v>1044</v>
+      </c>
+      <c r="D200" s="2" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B200" s="1" t="s">
+      <c r="E200" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F200" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="C200" s="1" t="n">
-        <v>1284</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E200" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F200" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="G200" s="1" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="H200" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I200" s="1" t="s">
-        <v>497</v>
+        <v>368</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9149,10 +9167,10 @@
         <v>282</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>20</v>
@@ -9164,13 +9182,13 @@
         <v>29</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>499</v>
+        <v>199</v>
       </c>
       <c r="H201" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I201" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9178,10 +9196,10 @@
         <v>282</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>20</v>
@@ -9193,13 +9211,13 @@
         <v>29</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>502</v>
+        <v>449</v>
       </c>
       <c r="H202" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I202" s="1" t="s">
-        <v>192</v>
+        <v>499</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9207,10 +9225,10 @@
         <v>282</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>20</v>
@@ -9222,13 +9240,13 @@
         <v>29</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H203" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I203" s="1" t="s">
-        <v>192</v>
+        <v>502</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9236,10 +9254,10 @@
         <v>282</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>20</v>
@@ -9251,13 +9269,13 @@
         <v>29</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="H204" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I204" s="1" t="s">
-        <v>192</v>
+        <v>505</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9265,10 +9283,10 @@
         <v>282</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>20</v>
@@ -9280,7 +9298,7 @@
         <v>29</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H205" s="1" t="s">
         <v>17</v>
@@ -9294,28 +9312,28 @@
         <v>282</v>
       </c>
       <c r="B206" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C206" s="1" t="n">
+        <v>1287</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E206" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F206" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G206" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="C206" s="1" t="n">
-        <v>1290</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E206" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="F206" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="G206" s="1" t="s">
-        <v>510</v>
-      </c>
       <c r="H206" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I206" s="1" t="s">
-        <v>81</v>
+        <v>192</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9323,28 +9341,28 @@
         <v>282</v>
       </c>
       <c r="B207" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C207" s="1" t="n">
+        <v>1288</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E207" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F207" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G207" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="C207" s="1" t="n">
-        <v>1291</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E207" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="F207" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="G207" s="1" t="s">
-        <v>512</v>
-      </c>
       <c r="H207" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I207" s="1" t="s">
-        <v>81</v>
+        <v>192</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9352,10 +9370,10 @@
         <v>282</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>20</v>
@@ -9367,7 +9385,7 @@
         <v>29</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H208" s="1" t="s">
         <v>17</v>
@@ -9381,28 +9399,28 @@
         <v>282</v>
       </c>
       <c r="B209" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C209" s="1" t="n">
+        <v>1290</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E209" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F209" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G209" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="C209" s="1" t="n">
-        <v>1293</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E209" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F209" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G209" s="1" t="s">
-        <v>516</v>
-      </c>
       <c r="H209" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I209" s="1" t="s">
-        <v>494</v>
+        <v>81</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9410,28 +9428,28 @@
         <v>282</v>
       </c>
       <c r="B210" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C210" s="1" t="n">
+        <v>1291</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E210" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F210" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G210" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="C210" s="1" t="n">
-        <v>1294</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E210" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F210" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G210" s="1" t="s">
-        <v>518</v>
-      </c>
       <c r="H210" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>494</v>
+        <v>81</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9439,10 +9457,10 @@
         <v>282</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>20</v>
@@ -9454,13 +9472,13 @@
         <v>29</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H211" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I211" s="1" t="s">
-        <v>494</v>
+        <v>192</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9468,10 +9486,10 @@
         <v>282</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>20</v>
@@ -9483,13 +9501,13 @@
         <v>29</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H212" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9497,10 +9515,10 @@
         <v>282</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>20</v>
@@ -9512,13 +9530,13 @@
         <v>29</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H213" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I213" s="1" t="s">
-        <v>263</v>
+        <v>499</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9526,10 +9544,10 @@
         <v>282</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>20</v>
@@ -9541,13 +9559,13 @@
         <v>29</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H214" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I214" s="1" t="s">
-        <v>263</v>
+        <v>499</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9555,10 +9573,10 @@
         <v>282</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>20</v>
@@ -9570,13 +9588,13 @@
         <v>29</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H215" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I215" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9584,28 +9602,28 @@
         <v>282</v>
       </c>
       <c r="B216" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C216" s="1" t="n">
+        <v>1297</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E216" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F216" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G216" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="C216" s="1" t="n">
-        <v>1300</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E216" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="F216" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="G216" s="1" t="s">
-        <v>530</v>
-      </c>
       <c r="H216" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I216" s="1" t="s">
-        <v>81</v>
+        <v>263</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9613,97 +9631,97 @@
         <v>282</v>
       </c>
       <c r="B217" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C217" s="1" t="n">
+        <v>1298</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E217" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F217" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G217" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="C217" s="1" t="n">
-        <v>1301</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E217" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="F217" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="G217" s="1" t="s">
-        <v>532</v>
-      </c>
       <c r="H217" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I217" s="1" t="s">
-        <v>81</v>
+        <v>263</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C218" s="1" t="n">
+        <v>1299</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E218" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F218" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G218" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="B218" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="C218" s="1" t="n">
-        <v>2048</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E218" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F218" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G218" s="1" t="s">
-        <v>535</v>
-      </c>
       <c r="H218" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I218" s="1" t="s">
-        <v>536</v>
+        <v>505</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
-        <v>533</v>
+        <v>282</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>2049</v>
+        <v>1300</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E219" s="1" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>84</v>
+        <v>185</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="H219" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I219" s="1" t="s">
-        <v>275</v>
+        <v>81</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>533</v>
+        <v>282</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>2050</v>
+        <v>1301</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>20</v>
@@ -9715,7 +9733,7 @@
         <v>185</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>186</v>
+        <v>537</v>
       </c>
       <c r="H220" s="1" t="s">
         <v>17</v>
@@ -9726,42 +9744,42 @@
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>2051</v>
+        <v>2048</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E221" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>188</v>
+        <v>540</v>
       </c>
       <c r="H221" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I221" s="1" t="s">
-        <v>86</v>
+        <v>541</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>2052</v>
+        <v>2049</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>59</v>
@@ -9773,85 +9791,82 @@
         <v>84</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H222" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I222" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J222" s="1" t="s">
-        <v>543</v>
+        <v>275</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>544</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>2053</v>
+        <v>2050</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E223" s="1" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>84</v>
+        <v>185</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>545</v>
+        <v>186</v>
       </c>
       <c r="H223" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I223" s="1" t="s">
-        <v>275</v>
+        <v>81</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>2307</v>
+        <v>2051</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E224" s="1" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>185</v>
+        <v>84</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H224" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I224" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B225" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="B225" s="1" t="s">
-        <v>548</v>
-      </c>
       <c r="C225" s="1" t="n">
-        <v>2308</v>
+        <v>2052</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>59</v>
@@ -9863,24 +9878,27 @@
         <v>84</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>188</v>
+        <v>547</v>
       </c>
       <c r="H225" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I225" s="1" t="s">
-        <v>86</v>
+        <v>31</v>
+      </c>
+      <c r="J225" s="1" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>549</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>2309</v>
+        <v>2053</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>59</v>
@@ -9892,7 +9910,7 @@
         <v>84</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>274</v>
+        <v>550</v>
       </c>
       <c r="H226" s="1" t="s">
         <v>17</v>
@@ -9903,13 +9921,13 @@
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>2310</v>
+        <v>2307</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>20</v>
@@ -9921,7 +9939,7 @@
         <v>185</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>284</v>
+        <v>186</v>
       </c>
       <c r="H227" s="1" t="s">
         <v>17</v>
@@ -9932,13 +9950,13 @@
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>2311</v>
+        <v>2308</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>59</v>
@@ -9950,7 +9968,7 @@
         <v>84</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>552</v>
+        <v>188</v>
       </c>
       <c r="H228" s="1" t="s">
         <v>17</v>
@@ -9961,71 +9979,71 @@
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>2312</v>
+        <v>2309</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E229" s="1" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>185</v>
+        <v>84</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>554</v>
+        <v>274</v>
       </c>
       <c r="H229" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I229" s="1" t="s">
-        <v>81</v>
+        <v>275</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>555</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>2313</v>
+        <v>2310</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E230" s="1" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>84</v>
+        <v>185</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>556</v>
+        <v>284</v>
       </c>
       <c r="H230" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>2314</v>
+        <v>2311</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>59</v>
@@ -10037,53 +10055,53 @@
         <v>84</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H231" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I231" s="1" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="B232" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="C232" s="1" t="n">
+        <v>2312</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E232" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F232" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G232" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="C232" s="1" t="n">
-        <v>2315</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E232" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F232" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G232" s="1" t="s">
-        <v>560</v>
-      </c>
       <c r="H232" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>561</v>
+        <v>81</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>2316</v>
+        <v>2313</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>59</v>
@@ -10095,53 +10113,53 @@
         <v>84</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="H233" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>418</v>
+        <v>562</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>2317</v>
+        <v>2314</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E234" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>205</v>
+        <v>563</v>
       </c>
       <c r="H234" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I234" s="1" t="s">
-        <v>564</v>
+        <v>134</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>420</v>
+        <v>564</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>2318</v>
+        <v>2315</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>20</v>
@@ -10153,53 +10171,53 @@
         <v>29</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>199</v>
+        <v>565</v>
       </c>
       <c r="H235" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I235" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>448</v>
+        <v>567</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>2319</v>
+        <v>2316</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E236" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>449</v>
+        <v>568</v>
       </c>
       <c r="H236" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I236" s="1" t="s">
-        <v>450</v>
+        <v>134</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>2320</v>
+        <v>2317</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>20</v>
@@ -10211,24 +10229,24 @@
         <v>29</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>22</v>
+        <v>205</v>
       </c>
       <c r="H237" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I237" s="1" t="s">
-        <v>24</v>
+        <v>569</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>299</v>
+        <v>420</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>2321</v>
+        <v>2318</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>20</v>
@@ -10240,24 +10258,24 @@
         <v>29</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>300</v>
+        <v>199</v>
       </c>
       <c r="H238" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I238" s="1" t="s">
-        <v>297</v>
+        <v>570</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>301</v>
+        <v>448</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>2322</v>
+        <v>2319</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>20</v>
@@ -10269,178 +10287,178 @@
         <v>29</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>302</v>
+        <v>449</v>
       </c>
       <c r="H239" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I239" s="1" t="s">
-        <v>297</v>
+        <v>450</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>567</v>
+        <v>432</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>2600</v>
+        <v>2320</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E240" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>468</v>
+        <v>22</v>
       </c>
       <c r="H240" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I240" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>568</v>
+        <v>299</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>2601</v>
+        <v>2321</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E241" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>476</v>
+        <v>300</v>
       </c>
       <c r="H241" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I241" s="1" t="s">
-        <v>31</v>
+        <v>297</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>569</v>
+        <v>301</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>2602</v>
+        <v>2322</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E242" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>484</v>
+        <v>302</v>
       </c>
       <c r="H242" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I242" s="1" t="s">
-        <v>31</v>
+        <v>297</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>2603</v>
+        <v>2600</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E243" s="1" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>185</v>
+        <v>60</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="H243" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I243" s="1" t="s">
-        <v>368</v>
+        <v>31</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>2604</v>
+        <v>2601</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E244" s="1" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>185</v>
+        <v>60</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H244" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I244" s="1" t="s">
-        <v>368</v>
+        <v>31</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>2605</v>
+        <v>2602</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E245" s="1" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F245" s="3" t="s">
-        <v>185</v>
+        <v>60</v>
       </c>
       <c r="G245" s="1" t="s">
         <v>486</v>
@@ -10449,18 +10467,18 @@
         <v>17</v>
       </c>
       <c r="I245" s="1" t="s">
-        <v>368</v>
+        <v>31</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>2606</v>
+        <v>2603</v>
       </c>
       <c r="D246" s="2" t="s">
         <v>20</v>
@@ -10472,7 +10490,7 @@
         <v>185</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>574</v>
+        <v>470</v>
       </c>
       <c r="H246" s="1" t="s">
         <v>17</v>
@@ -10483,13 +10501,13 @@
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>2607</v>
+        <v>2604</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>20</v>
@@ -10501,7 +10519,7 @@
         <v>185</v>
       </c>
       <c r="G247" s="1" t="s">
-        <v>576</v>
+        <v>479</v>
       </c>
       <c r="H247" s="1" t="s">
         <v>17</v>
@@ -10512,13 +10530,13 @@
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>577</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="D248" s="2" t="s">
         <v>20</v>
@@ -10530,7 +10548,7 @@
         <v>185</v>
       </c>
       <c r="G248" s="1" t="s">
-        <v>578</v>
+        <v>488</v>
       </c>
       <c r="H248" s="1" t="s">
         <v>17</v>
@@ -10541,312 +10559,312 @@
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>487</v>
+        <v>578</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>2609</v>
+        <v>2606</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>488</v>
+        <v>20</v>
+      </c>
+      <c r="E249" s="1" t="n">
+        <v>100</v>
       </c>
       <c r="F249" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G249" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="G249" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="H249" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J249" s="1" t="s">
-        <v>580</v>
+      <c r="I249" s="1" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="B250" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C250" s="1" t="n">
+        <v>2607</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E250" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F250" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G250" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="C250" s="1" t="n">
-        <v>2616</v>
-      </c>
-      <c r="D250" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E250" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="F250" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G250" s="1" t="s">
-        <v>464</v>
-      </c>
       <c r="H250" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I250" s="1" t="s">
-        <v>127</v>
+        <v>368</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>582</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>2617</v>
+        <v>2608</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E251" s="1" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F251" s="3" t="s">
-        <v>84</v>
+        <v>185</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>466</v>
+        <v>583</v>
       </c>
       <c r="H251" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I251" s="1" t="s">
-        <v>134</v>
+        <v>368</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>583</v>
+        <v>490</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>2618</v>
+        <v>2609</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E252" s="1" t="n">
-        <v>10</v>
+        <v>491</v>
       </c>
       <c r="F252" s="3" t="s">
-        <v>79</v>
+        <v>584</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>472</v>
+        <v>16</v>
       </c>
       <c r="H252" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I252" s="1" t="s">
-        <v>127</v>
+      <c r="J252" s="1" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>2619</v>
+        <v>2616</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E253" s="1" t="n">
         <v>10</v>
       </c>
       <c r="F253" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="H253" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I253" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>2620</v>
+        <v>2617</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E254" s="1" t="n">
         <v>10</v>
       </c>
       <c r="F254" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G254" s="1" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="H254" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I254" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>2621</v>
+        <v>2618</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E255" s="1" t="n">
         <v>10</v>
       </c>
       <c r="F255" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="H255" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I255" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>570</v>
+        <v>589</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>2622</v>
+        <v>2619</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>587</v>
+        <v>59</v>
       </c>
       <c r="E256" s="1" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F256" s="3" t="s">
-        <v>588</v>
+        <v>84</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="H256" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I256" s="1" t="s">
-        <v>368</v>
+        <v>134</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>571</v>
+        <v>590</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>2624</v>
+        <v>2620</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>587</v>
+        <v>20</v>
       </c>
       <c r="E257" s="1" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F257" s="3" t="s">
-        <v>588</v>
+        <v>79</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="H257" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I257" s="1" t="s">
-        <v>368</v>
+        <v>127</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>572</v>
+        <v>591</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>2626</v>
+        <v>2621</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>587</v>
+        <v>59</v>
       </c>
       <c r="E258" s="1" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F258" s="3" t="s">
-        <v>588</v>
+        <v>84</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H258" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I258" s="1" t="s">
-        <v>368</v>
+        <v>134</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>2628</v>
+        <v>2622</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>587</v>
+        <v>494</v>
       </c>
       <c r="E259" s="1" t="n">
         <v>100</v>
       </c>
       <c r="F259" s="3" t="s">
-        <v>588</v>
+        <v>495</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>574</v>
+        <v>470</v>
       </c>
       <c r="H259" s="1" t="s">
         <v>17</v>
@@ -10857,25 +10875,25 @@
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>2630</v>
+        <v>2624</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>587</v>
+        <v>494</v>
       </c>
       <c r="E260" s="1" t="n">
         <v>100</v>
       </c>
       <c r="F260" s="3" t="s">
-        <v>588</v>
+        <v>495</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>576</v>
+        <v>479</v>
       </c>
       <c r="H260" s="1" t="s">
         <v>17</v>
@@ -10886,25 +10904,25 @@
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>577</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>2632</v>
+        <v>2626</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>587</v>
+        <v>494</v>
       </c>
       <c r="E261" s="1" t="n">
         <v>100</v>
       </c>
       <c r="F261" s="3" t="s">
-        <v>588</v>
+        <v>495</v>
       </c>
       <c r="G261" s="1" t="s">
-        <v>578</v>
+        <v>488</v>
       </c>
       <c r="H261" s="1" t="s">
         <v>17</v>
@@ -10913,123 +10931,114 @@
         <v>368</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="s">
-        <v>589</v>
+        <v>571</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>2700</v>
+        <v>2628</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>59</v>
+        <v>494</v>
       </c>
       <c r="E262" s="1" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F262" s="3" t="s">
-        <v>60</v>
+        <v>495</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="H262" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I262" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J262" s="1" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="s">
-        <v>589</v>
+        <v>571</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>2701</v>
+        <v>2630</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>20</v>
+        <v>494</v>
       </c>
       <c r="E263" s="1" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F263" s="3" t="s">
-        <v>91</v>
+        <v>495</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="H263" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I263" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J263" s="1" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="s">
-        <v>589</v>
+        <v>571</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>2702</v>
+        <v>2632</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>20</v>
+        <v>494</v>
       </c>
       <c r="E264" s="1" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F264" s="3" t="s">
-        <v>91</v>
+        <v>495</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="H264" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I264" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J264" s="1" t="s">
-        <v>598</v>
+        <v>368</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>2703</v>
+        <v>2700</v>
       </c>
       <c r="D265" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E265" s="1" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="F265" s="3" t="s">
-        <v>599</v>
+        <v>60</v>
       </c>
       <c r="G265" s="1" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="H265" s="1" t="s">
         <v>23</v>
@@ -11038,317 +11047,329 @@
         <v>31</v>
       </c>
       <c r="J265" s="1" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>2704</v>
+        <v>2701</v>
       </c>
       <c r="D266" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E266" s="1" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F266" s="3" t="s">
-        <v>602</v>
+        <v>91</v>
       </c>
       <c r="G266" s="1" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="H266" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I266" s="1" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="J266" s="1" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>2705</v>
+        <v>2702</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E267" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F267" s="3" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="G267" s="1" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H267" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I267" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J267" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C268" s="1" t="n">
+        <v>2703</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E268" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F268" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="G268" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="H268" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I268" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J268" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C269" s="1" t="n">
+        <v>2704</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E269" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F269" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="G269" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="H269" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I269" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J269" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="C270" s="1" t="n">
+        <v>2705</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E270" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F270" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G270" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="H270" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I270" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="J267" s="1" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="B268" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="C268" s="1" t="n">
-        <v>2800</v>
-      </c>
-      <c r="D268" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="E268" s="1" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="F268" s="3" t="s">
+      <c r="J270" s="1" t="s">
         <v>610</v>
-      </c>
-      <c r="G268" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="H268" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I268" s="1" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="B269" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="C269" s="1" t="n">
-        <v>2802</v>
-      </c>
-      <c r="D269" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="E269" s="1" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="F269" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="G269" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="H269" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I269" s="1" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="B270" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="C270" s="1" t="n">
-        <v>2804</v>
-      </c>
-      <c r="D270" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E270" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="F270" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="G270" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="H270" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I270" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="J270" s="1" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>2805</v>
+        <v>2800</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>20</v>
+        <v>388</v>
       </c>
       <c r="E271" s="1" t="n">
-        <v>100</v>
+        <v>10000000</v>
       </c>
       <c r="F271" s="3" t="s">
-        <v>185</v>
+        <v>613</v>
       </c>
       <c r="G271" s="1" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="H271" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I271" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="J271" s="1" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>2806</v>
+        <v>2802</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>20</v>
+        <v>388</v>
       </c>
       <c r="E272" s="1" t="n">
-        <v>1</v>
+        <v>10000000</v>
       </c>
       <c r="F272" s="3" t="s">
-        <v>29</v>
+        <v>613</v>
       </c>
       <c r="G272" s="1" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="H272" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J272" s="1" t="s">
-        <v>625</v>
+      <c r="I272" s="1" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>2807</v>
+        <v>2804</v>
       </c>
       <c r="D273" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E273" s="1" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F273" s="3" t="s">
-        <v>29</v>
+        <v>185</v>
       </c>
       <c r="G273" s="1" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="H273" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="I273" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="J273" s="1" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="s">
-        <v>589</v>
+        <v>611</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>2900</v>
+        <v>2805</v>
       </c>
       <c r="D274" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E274" s="1" t="n">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="F274" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="G274" s="1" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="H274" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I274" s="1" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="J274" s="1" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="s">
-        <v>589</v>
+        <v>611</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>2901</v>
+        <v>2806</v>
       </c>
       <c r="D275" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E275" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="F275" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="H275" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I275" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J275" s="21" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="21" t="s">
-        <v>589</v>
+        <v>17</v>
+      </c>
+      <c r="J275" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="1" t="s">
+        <v>611</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>2902</v>
+        <v>2807</v>
       </c>
       <c r="D276" s="2" t="s">
         <v>20</v>
@@ -11360,81 +11381,79 @@
         <v>29</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="H276" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="C277" s="1" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E277" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G277" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="H277" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I276" s="22" t="s">
-        <v>637</v>
-      </c>
-      <c r="J276" s="21"/>
-    </row>
-    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="B277" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="C277" s="1" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D277" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E277" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F277" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G277" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="H277" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I277" s="23"/>
+      <c r="I277" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="J277" s="1" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="C278" s="1" t="n">
+        <v>2901</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E278" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G278" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="H278" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I278" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J278" s="21" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="21" t="s">
+        <v>592</v>
+      </c>
+      <c r="B279" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="B278" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="C278" s="1" t="n">
-        <v>3001</v>
-      </c>
-      <c r="D278" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="E278" s="1" t="n">
-        <v>10000</v>
-      </c>
-      <c r="F278" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="G278" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="H278" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I278" s="1" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="B279" s="1" t="s">
-        <v>644</v>
-      </c>
       <c r="C279" s="1" t="n">
-        <v>3003</v>
+        <v>2902</v>
       </c>
       <c r="D279" s="2" t="s">
         <v>20</v>
@@ -11446,82 +11465,81 @@
         <v>29</v>
       </c>
       <c r="G279" s="1" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H279" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I279" s="1" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+      <c r="I279" s="22" t="s">
+        <v>640</v>
+      </c>
+      <c r="J279" s="21"/>
+    </row>
+    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>3004</v>
+        <v>3000</v>
       </c>
       <c r="D280" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E280" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F280" s="3" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="G280" s="1" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="H280" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I280" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="I280" s="23"/>
     </row>
     <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>3005</v>
+        <v>3001</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>587</v>
+        <v>494</v>
       </c>
       <c r="E281" s="1" t="n">
         <v>10000</v>
       </c>
       <c r="F281" s="3" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="G281" s="1" t="s">
-        <v>650</v>
+        <v>386</v>
       </c>
       <c r="H281" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I281" s="1" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>3007</v>
+        <v>3003</v>
       </c>
       <c r="D282" s="2" t="s">
         <v>20</v>
@@ -11533,198 +11551,198 @@
         <v>29</v>
       </c>
       <c r="G282" s="1" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="H282" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I282" s="1" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>3100</v>
+        <v>3004</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E283" s="1" t="n">
         <v>10</v>
       </c>
       <c r="F283" s="3" t="s">
-        <v>656</v>
+        <v>79</v>
       </c>
       <c r="G283" s="1" t="s">
-        <v>165</v>
+        <v>651</v>
       </c>
       <c r="H283" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I283" s="1" t="s">
-        <v>134</v>
+        <v>93</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>3101</v>
+        <v>3005</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>20</v>
+        <v>494</v>
       </c>
       <c r="E284" s="1" t="n">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="F284" s="3" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="G284" s="1" t="s">
-        <v>159</v>
+        <v>653</v>
       </c>
       <c r="H284" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I284" s="1" t="s">
-        <v>127</v>
+        <v>646</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B285" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="B285" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="C285" s="1" t="n">
-        <v>3105</v>
+        <v>3007</v>
       </c>
       <c r="D285" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E285" s="1" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F285" s="3" t="s">
-        <v>659</v>
+        <v>29</v>
       </c>
       <c r="G285" s="1" t="s">
-        <v>186</v>
+        <v>655</v>
       </c>
       <c r="H285" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I285" s="1" t="s">
-        <v>81</v>
+        <v>656</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>311</v>
+        <v>658</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>3110</v>
+        <v>3100</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E286" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F286" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G286" s="1" t="s">
-        <v>208</v>
+        <v>165</v>
       </c>
       <c r="H286" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I286" s="1" t="s">
-        <v>661</v>
+        <v>134</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>3111</v>
+        <v>3101</v>
       </c>
       <c r="D287" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E287" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F287" s="3" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="G287" s="1" t="s">
-        <v>302</v>
+        <v>159</v>
       </c>
       <c r="H287" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I287" s="1" t="s">
-        <v>661</v>
+        <v>127</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>663</v>
+        <v>184</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>3112</v>
+        <v>3105</v>
       </c>
       <c r="D288" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E288" s="1" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F288" s="3" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="G288" s="1" t="s">
-        <v>664</v>
+        <v>186</v>
       </c>
       <c r="H288" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I288" s="1" t="s">
-        <v>661</v>
+        <v>81</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>3113</v>
+        <v>3110</v>
       </c>
       <c r="D289" s="2" t="s">
         <v>20</v>
@@ -11733,27 +11751,27 @@
         <v>1</v>
       </c>
       <c r="F289" s="3" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="G289" s="1" t="s">
-        <v>310</v>
+        <v>208</v>
       </c>
       <c r="H289" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I289" s="1" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>665</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>3114</v>
+        <v>3111</v>
       </c>
       <c r="D290" s="2" t="s">
         <v>20</v>
@@ -11762,27 +11780,27 @@
         <v>1</v>
       </c>
       <c r="F290" s="3" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="G290" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H290" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I290" s="1" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>666</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>3115</v>
+        <v>3112</v>
       </c>
       <c r="D291" s="2" t="s">
         <v>20</v>
@@ -11791,7 +11809,7 @@
         <v>1</v>
       </c>
       <c r="F291" s="3" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="G291" s="1" t="s">
         <v>667</v>
@@ -11800,18 +11818,18 @@
         <v>17</v>
       </c>
       <c r="I291" s="1" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="1" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>212</v>
+        <v>309</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>3116</v>
+        <v>3113</v>
       </c>
       <c r="D292" s="2" t="s">
         <v>20</v>
@@ -11820,27 +11838,27 @@
         <v>1</v>
       </c>
       <c r="F292" s="3" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="G292" s="1" t="s">
-        <v>213</v>
+        <v>310</v>
       </c>
       <c r="H292" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I292" s="1" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>668</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>3117</v>
+        <v>3114</v>
       </c>
       <c r="D293" s="2" t="s">
         <v>20</v>
@@ -11849,53 +11867,56 @@
         <v>1</v>
       </c>
       <c r="F293" s="3" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="G293" s="1" t="s">
-        <v>669</v>
+        <v>300</v>
       </c>
       <c r="H293" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I293" s="1" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="B294" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="C294" s="1" t="n">
+        <v>3115</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E294" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F294" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="G294" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="C294" s="1" t="n">
-        <v>3125</v>
-      </c>
-      <c r="D294" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E294" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F294" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="G294" s="1" t="s">
-        <v>671</v>
-      </c>
       <c r="H294" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="I294" s="1" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>672</v>
+        <v>212</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>3126</v>
+        <v>3116</v>
       </c>
       <c r="D295" s="2" t="s">
         <v>20</v>
@@ -11904,27 +11925,27 @@
         <v>1</v>
       </c>
       <c r="F295" s="3" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="G295" s="1" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="H295" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I295" s="1" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>3127</v>
+        <v>3117</v>
       </c>
       <c r="D296" s="2" t="s">
         <v>20</v>
@@ -11933,24 +11954,27 @@
         <v>1</v>
       </c>
       <c r="F296" s="3" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="G296" s="1" t="s">
-        <v>640</v>
+        <v>672</v>
       </c>
       <c r="H296" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="I296" s="1" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="1" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>3128</v>
+        <v>3125</v>
       </c>
       <c r="D297" s="2" t="s">
         <v>20</v>
@@ -11959,181 +11983,175 @@
         <v>1</v>
       </c>
       <c r="F297" s="3" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="G297" s="1" t="s">
-        <v>199</v>
+        <v>674</v>
       </c>
       <c r="H297" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="I297" s="1" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="s">
-        <v>677</v>
+        <v>657</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>3200</v>
+        <v>3126</v>
       </c>
       <c r="D298" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E298" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F298" s="3" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="G298" s="1" t="s">
-        <v>464</v>
+        <v>205</v>
       </c>
       <c r="H298" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I298" s="1" t="s">
-        <v>127</v>
+        <v>676</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="B299" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="B299" s="1" t="s">
-        <v>679</v>
-      </c>
       <c r="C299" s="1" t="n">
-        <v>3201</v>
+        <v>3127</v>
       </c>
       <c r="D299" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E299" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F299" s="3" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="G299" s="1" t="s">
-        <v>472</v>
+        <v>643</v>
       </c>
       <c r="H299" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="I299" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="s">
-        <v>677</v>
+        <v>657</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>3202</v>
+        <v>3128</v>
       </c>
       <c r="D300" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E300" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F300" s="3" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="G300" s="1" t="s">
-        <v>480</v>
+        <v>199</v>
       </c>
       <c r="H300" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I300" s="1" t="s">
-        <v>127</v>
+        <v>679</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>681</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>3203</v>
+        <v>3200</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E301" s="1" t="n">
         <v>10</v>
       </c>
       <c r="F301" s="3" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="G301" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H301" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I301" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>682</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>3204</v>
+        <v>3201</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E302" s="1" t="n">
         <v>10</v>
       </c>
       <c r="F302" s="3" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="G302" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H302" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I302" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>683</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>3205</v>
+        <v>3202</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E303" s="1" t="n">
         <v>10</v>
       </c>
       <c r="F303" s="3" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="G303" s="1" t="s">
         <v>482</v>
@@ -12142,85 +12160,85 @@
         <v>17</v>
       </c>
       <c r="I303" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>684</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>3206</v>
+        <v>3203</v>
       </c>
       <c r="D304" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E304" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F304" s="3" t="s">
-        <v>685</v>
+        <v>659</v>
       </c>
       <c r="G304" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H304" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I304" s="1" t="s">
-        <v>31</v>
+        <v>134</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="1" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>3207</v>
+        <v>3204</v>
       </c>
       <c r="D305" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E305" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F305" s="3" t="s">
-        <v>685</v>
+        <v>659</v>
       </c>
       <c r="G305" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H305" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I305" s="1" t="s">
-        <v>31</v>
+        <v>134</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="1" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>3208</v>
+        <v>3205</v>
       </c>
       <c r="D306" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E306" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F306" s="3" t="s">
-        <v>685</v>
+        <v>659</v>
       </c>
       <c r="G306" s="1" t="s">
         <v>484</v>
@@ -12229,189 +12247,192 @@
         <v>17</v>
       </c>
       <c r="I306" s="1" t="s">
-        <v>31</v>
+        <v>134</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="1" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="B307" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="C307" s="1" t="n">
+        <v>3206</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E307" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F307" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="C307" s="1" t="n">
-        <v>3209</v>
-      </c>
-      <c r="D307" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E307" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="F307" s="3" t="s">
-        <v>659</v>
-      </c>
       <c r="G307" s="1" t="s">
-        <v>689</v>
+        <v>468</v>
       </c>
       <c r="H307" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I307" s="1" t="s">
-        <v>143</v>
+        <v>31</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>3210</v>
+        <v>3207</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E308" s="1" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F308" s="3" t="s">
-        <v>659</v>
+        <v>688</v>
       </c>
       <c r="G308" s="1" t="s">
-        <v>691</v>
+        <v>477</v>
       </c>
       <c r="H308" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I308" s="1" t="s">
-        <v>143</v>
+        <v>31</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="1" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>3211</v>
+        <v>3208</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E309" s="1" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F309" s="3" t="s">
-        <v>659</v>
+        <v>688</v>
       </c>
       <c r="G309" s="1" t="s">
-        <v>693</v>
+        <v>486</v>
       </c>
       <c r="H309" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I309" s="1" t="s">
-        <v>143</v>
+        <v>31</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="1" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>3212</v>
+        <v>3209</v>
       </c>
       <c r="D310" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E310" s="1" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F310" s="3" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="G310" s="1" t="s">
-        <v>640</v>
+        <v>692</v>
       </c>
       <c r="H310" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="I310" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>3213</v>
+        <v>3210</v>
       </c>
       <c r="D311" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E311" s="1" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F311" s="3" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="G311" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="H311" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I311" s="1" t="s">
-        <v>697</v>
+        <v>143</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="1" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>493</v>
+        <v>695</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>3214</v>
+        <v>3211</v>
       </c>
       <c r="D312" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E312" s="1" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F312" s="3" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="G312" s="1" t="s">
-        <v>449</v>
+        <v>696</v>
       </c>
       <c r="H312" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I312" s="1" t="s">
-        <v>698</v>
+        <v>143</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="1" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>3215</v>
+        <v>3212</v>
       </c>
       <c r="D313" s="2" t="s">
         <v>20</v>
@@ -12420,27 +12441,24 @@
         <v>1</v>
       </c>
       <c r="F313" s="3" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="G313" s="1" t="s">
-        <v>700</v>
+        <v>643</v>
       </c>
       <c r="H313" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="I313" s="1" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>3216</v>
+        <v>3213</v>
       </c>
       <c r="D314" s="2" t="s">
         <v>20</v>
@@ -12449,27 +12467,27 @@
         <v>1</v>
       </c>
       <c r="F314" s="3" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="G314" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="H314" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I314" s="1" t="s">
-        <v>93</v>
+        <v>700</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="1" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>703</v>
+        <v>498</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>3217</v>
+        <v>3214</v>
       </c>
       <c r="D315" s="2" t="s">
         <v>20</v>
@@ -12478,227 +12496,230 @@
         <v>1</v>
       </c>
       <c r="F315" s="3" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="G315" s="1" t="s">
-        <v>704</v>
+        <v>449</v>
       </c>
       <c r="H315" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I315" s="1" t="s">
-        <v>536</v>
+        <v>701</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="1" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>3218</v>
+        <v>3215</v>
       </c>
       <c r="D316" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E316" s="1" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="F316" s="3" t="s">
-        <v>706</v>
+        <v>663</v>
       </c>
       <c r="G316" s="1" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="H316" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I316" s="1" t="s">
-        <v>105</v>
+        <v>502</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="1" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>3219</v>
+        <v>3216</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E317" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F317" s="3" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="G317" s="1" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="H317" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I317" s="1" t="s">
-        <v>275</v>
+        <v>93</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>3220</v>
+        <v>3217</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E318" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F318" s="3" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="G318" s="1" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="H318" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I318" s="1" t="s">
-        <v>275</v>
+        <v>541</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>3221</v>
+        <v>3218</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E319" s="1" t="n">
-        <v>10</v>
+        <v>0.01</v>
       </c>
       <c r="F319" s="3" t="s">
-        <v>656</v>
+        <v>709</v>
       </c>
       <c r="G319" s="1" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="H319" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I319" s="1" t="s">
-        <v>275</v>
+        <v>105</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E320" s="1" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F320" s="3" t="s">
         <v>659</v>
       </c>
       <c r="G320" s="1" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="H320" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I320" s="1" t="s">
-        <v>81</v>
+        <v>275</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>3223</v>
+        <v>3220</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E321" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F321" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G321" s="1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="H321" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I321" s="1" t="s">
-        <v>718</v>
+        <v>275</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="s">
-        <v>719</v>
+        <v>680</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>639</v>
+        <v>715</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>3300</v>
+        <v>3221</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E322" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F322" s="3" t="s">
-        <v>29</v>
+        <v>659</v>
       </c>
       <c r="G322" s="1" t="s">
-        <v>640</v>
+        <v>716</v>
       </c>
       <c r="H322" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="I322" s="1" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="s">
-        <v>719</v>
+        <v>680</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>3301</v>
+        <v>3222</v>
       </c>
       <c r="D323" s="2" t="s">
         <v>20</v>
@@ -12707,50 +12728,56 @@
         <v>100</v>
       </c>
       <c r="F323" s="3" t="s">
-        <v>185</v>
+        <v>662</v>
       </c>
       <c r="G323" s="1" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="H323" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="I323" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B324" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="B324" s="1" t="s">
-        <v>722</v>
-      </c>
       <c r="C324" s="1" t="n">
-        <v>3302</v>
+        <v>3223</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E324" s="1" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F324" s="3" t="s">
-        <v>141</v>
+        <v>663</v>
       </c>
       <c r="G324" s="1" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="H324" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="I324" s="1" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>724</v>
+        <v>642</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>3303</v>
+        <v>3300</v>
       </c>
       <c r="D325" s="2" t="s">
         <v>20</v>
@@ -12762,250 +12789,241 @@
         <v>29</v>
       </c>
       <c r="G325" s="1" t="s">
-        <v>725</v>
+        <v>643</v>
       </c>
       <c r="H325" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="I325" s="1" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="1" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>3304</v>
+        <v>3301</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E326" s="1" t="n">
         <v>100</v>
       </c>
       <c r="F326" s="3" t="s">
-        <v>141</v>
+        <v>185</v>
       </c>
       <c r="G326" s="1" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="H326" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="I326" s="1" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>3305</v>
+        <v>3302</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E327" s="1" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F327" s="3" t="s">
-        <v>29</v>
+        <v>141</v>
       </c>
       <c r="G327" s="1" t="s">
-        <v>652</v>
+        <v>726</v>
       </c>
       <c r="H327" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="I327" s="1" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>3400</v>
+        <v>3303</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>587</v>
+        <v>20</v>
       </c>
       <c r="E328" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F328" s="3" t="s">
-        <v>732</v>
+        <v>29</v>
       </c>
       <c r="G328" s="1" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="H328" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I328" s="1" t="s">
-        <v>643</v>
+        <v>729</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="B329" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="B329" s="1" t="s">
-        <v>734</v>
-      </c>
       <c r="C329" s="1" t="n">
-        <v>3402</v>
+        <v>3304</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>587</v>
+        <v>59</v>
       </c>
       <c r="E329" s="1" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F329" s="3" t="s">
-        <v>732</v>
+        <v>141</v>
       </c>
       <c r="G329" s="1" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="H329" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="I329" s="1" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="s">
-        <v>736</v>
+        <v>722</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>3420</v>
+        <v>3305</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>587</v>
+        <v>20</v>
       </c>
       <c r="E330" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F330" s="3" t="s">
-        <v>732</v>
+        <v>29</v>
       </c>
       <c r="G330" s="1" t="s">
-        <v>735</v>
+        <v>655</v>
       </c>
       <c r="H330" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="I330" s="1" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="C331" s="1" t="n">
+        <v>3400</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="E331" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F331" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="G331" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="B331" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="C331" s="1" t="n">
-        <v>3422</v>
-      </c>
-      <c r="D331" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E331" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F331" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G331" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="H331" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I331" s="1" t="s">
-        <v>738</v>
+        <v>646</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>295</v>
+        <v>737</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>3423</v>
+        <v>3402</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>20</v>
+        <v>494</v>
       </c>
       <c r="E332" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F332" s="3" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="G332" s="1" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="H332" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="I332" s="1" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>5</v>
+        <v>740</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>3424</v>
+        <v>3420</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>20</v>
+        <v>494</v>
       </c>
       <c r="E333" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F333" s="3" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="G333" s="1" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="H333" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I333" s="1" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>745</v>
+        <v>496</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>3500</v>
+        <v>3422</v>
       </c>
       <c r="D334" s="2" t="s">
         <v>20</v>
@@ -13017,70 +13035,157 @@
         <v>21</v>
       </c>
       <c r="G334" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H334" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I334" s="1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C335" s="1" t="n">
+        <v>3423</v>
+      </c>
+      <c r="D335" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E335" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F335" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="G335" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="H335" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I335" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C336" s="1" t="n">
+        <v>3424</v>
+      </c>
+      <c r="D336" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E336" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F336" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="G336" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="H336" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I336" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="H334" s="1" t="s">
+    </row>
+    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="C337" s="1" t="n">
+        <v>3500</v>
+      </c>
+      <c r="D337" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E337" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F337" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G337" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="H337" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I334" s="1" t="s">
+      <c r="I337" s="1" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="1" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="1" t="s">
+      <c r="B338" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="C338" s="1" t="n">
+        <v>3501</v>
+      </c>
+      <c r="D338" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E338" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F338" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="B335" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="C335" s="1" t="n">
-        <v>3501</v>
-      </c>
-      <c r="D335" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E335" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F335" s="3" t="s">
-        <v>741</v>
-      </c>
-      <c r="G335" s="1" t="s">
+      <c r="G338" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="H338" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I338" s="1" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="C339" s="1" t="n">
+        <v>3502</v>
+      </c>
+      <c r="D339" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E339" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F339" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="G339" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="H335" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I335" s="1" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="B336" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="C336" s="1" t="n">
-        <v>3502</v>
-      </c>
-      <c r="D336" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E336" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F336" s="3" t="s">
-        <v>741</v>
-      </c>
-      <c r="G336" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="H336" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I336" s="1" t="s">
+      <c r="H339" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I339" s="1" t="s">
         <v>343</v>
       </c>
     </row>
@@ -13119,13 +13224,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="24" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13136,7 +13241,7 @@
         <v>257</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13147,7 +13252,7 @@
         <v>256</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13158,7 +13263,7 @@
         <v>258</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13169,7 +13274,7 @@
         <v>260</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13180,7 +13285,7 @@
         <v>261</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13191,7 +13296,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13202,7 +13307,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13213,7 +13318,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13224,7 +13329,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13235,7 +13340,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13246,7 +13351,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13257,7 +13362,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13268,7 +13373,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13279,7 +13384,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13290,7 +13395,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13301,7 +13406,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13312,7 +13417,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13323,7 +13428,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13334,7 +13439,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13345,7 +13450,7 @@
         <v>21</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13356,7 +13461,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13367,7 +13472,7 @@
         <v>23</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13378,7 +13483,7 @@
         <v>24</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13389,7 +13494,7 @@
         <v>25</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13400,7 +13505,7 @@
         <v>26</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13411,7 +13516,7 @@
         <v>27</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13422,7 +13527,7 @@
         <v>28</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13433,7 +13538,7 @@
         <v>29</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13444,7 +13549,7 @@
         <v>30</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13455,7 +13560,7 @@
         <v>31</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13466,7 +13571,7 @@
         <v>32</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13477,7 +13582,7 @@
         <v>33</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13488,7 +13593,7 @@
         <v>34</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13499,7 +13604,7 @@
         <v>40</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13510,7 +13615,7 @@
         <v>41</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13521,7 +13626,7 @@
         <v>42</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13532,7 +13637,7 @@
         <v>43</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13543,7 +13648,7 @@
         <v>44</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13554,7 +13659,7 @@
         <v>45</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13565,7 +13670,7 @@
         <v>46</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13576,7 +13681,7 @@
         <v>288</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13587,7 +13692,7 @@
         <v>289</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13598,7 +13703,7 @@
         <v>290</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13609,7 +13714,7 @@
         <v>291</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13620,7 +13725,7 @@
         <v>292</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13631,7 +13736,7 @@
         <v>293</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13642,12 +13747,12 @@
         <v>512</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="26" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="B50" s="26"/>
       <c r="C50" s="26"/>
@@ -13657,7 +13762,7 @@
     </row>
     <row r="51" customFormat="false" ht="92.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="27" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="B51" s="27"/>
       <c r="C51" s="27"/>
@@ -13701,362 +13806,362 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="22" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="22" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="22" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="22" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="22" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="22" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="22" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="22" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="22" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="22" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="22" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="22" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="22" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="22" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="22" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="22" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="22" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="22" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="22" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="22" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="22" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="22" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="22" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="22" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="22" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="22" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="22" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="22" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="22" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="22" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="22" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="22" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="22" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="22" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="22" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="22" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="22" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="28" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="22" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="22" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="22" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="22" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="22" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="22" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="22" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="22" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="22" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="22" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="22" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="22" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="22" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="22" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="22" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="22" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="22" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="22" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="22" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="22" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="22" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
     </row>
   </sheetData>

--- a/CCGX-Modbus-TCP-register-list.xlsx
+++ b/CCGX-Modbus-TCP-register-list.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2586" uniqueCount="887">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2588" uniqueCount="889">
   <si>
     <t xml:space="preserve">NOTE: Use unit-id 100 for the com.victronenergy.system data, for more information see FAQ.</t>
   </si>
@@ -2683,6 +2683,12 @@
   </si>
   <si>
     <t xml:space="preserve">Added register for DVCC maximum system charge current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rev 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added 32-bit registers for PV-inverters</t>
   </si>
 </sst>
 </file>
@@ -3035,10 +3041,10 @@
   </sheetPr>
   <dimension ref="A1:N339"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F200" activeCellId="0" sqref="F200"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13790,7 +13796,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -14164,6 +14170,14 @@
         <v>886</v>
       </c>
     </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="22" t="s">
+        <v>887</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>888</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/CCGX-Modbus-TCP-register-list.xlsx
+++ b/CCGX-Modbus-TCP-register-list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Field list" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2588" uniqueCount="889">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2614" uniqueCount="903">
   <si>
     <t xml:space="preserve">NOTE: Use unit-id 100 for the com.victronenergy.system data, for more information see FAQ.</t>
   </si>
@@ -2289,6 +2289,42 @@
     <t xml:space="preserve">Runtime in seconds</t>
   </si>
   <si>
+    <t xml:space="preserve">com.victronenergy.meteo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solar irradiance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 to 6553.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Irradiance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W/m^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wind speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/WindSpeed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cell temperature of sensor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3276.8 to 3276.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/CellTemperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">External temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/ExternalTemperature</t>
+  </si>
+  <si>
     <t xml:space="preserve">Unit ID</t>
   </si>
   <si>
@@ -2689,6 +2725,12 @@
   </si>
   <si>
     <t xml:space="preserve">Added 32-bit registers for PV-inverters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rev 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added registers for IMT solar irradiation sensors</t>
   </si>
 </sst>
 </file>
@@ -3039,12 +3081,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N339"/>
+  <dimension ref="A1:N343"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A324" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A343" activeCellId="0" sqref="A343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13193,6 +13235,110 @@
       </c>
       <c r="I339" s="1" t="s">
         <v>343</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="B340" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="C340" s="1" t="n">
+        <v>3600</v>
+      </c>
+      <c r="D340" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E340" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F340" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="G340" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="I340" s="1" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="B341" s="0" t="s">
+        <v>760</v>
+      </c>
+      <c r="C341" s="1" t="n">
+        <v>3601</v>
+      </c>
+      <c r="D341" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E341" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F341" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="G341" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="I341" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="B342" s="0" t="s">
+        <v>762</v>
+      </c>
+      <c r="C342" s="1" t="n">
+        <v>3602</v>
+      </c>
+      <c r="D342" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E342" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F342" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="G342" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="I342" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="B343" s="0" t="s">
+        <v>765</v>
+      </c>
+      <c r="C343" s="1" t="n">
+        <v>3603</v>
+      </c>
+      <c r="D343" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E343" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F343" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="G343" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="I343" s="1" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -13230,13 +13376,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="24" t="s">
-        <v>755</v>
+        <v>767</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>756</v>
+        <v>768</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>757</v>
+        <v>769</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13247,7 +13393,7 @@
         <v>257</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>758</v>
+        <v>770</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13258,7 +13404,7 @@
         <v>256</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>759</v>
+        <v>771</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13269,7 +13415,7 @@
         <v>258</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>760</v>
+        <v>772</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13280,7 +13426,7 @@
         <v>260</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>761</v>
+        <v>773</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13291,7 +13437,7 @@
         <v>261</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>762</v>
+        <v>774</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13302,7 +13448,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>763</v>
+        <v>775</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13313,7 +13459,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>764</v>
+        <v>776</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13324,7 +13470,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>765</v>
+        <v>777</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13335,7 +13481,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>766</v>
+        <v>778</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13346,7 +13492,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>767</v>
+        <v>779</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13357,7 +13503,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>768</v>
+        <v>780</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13368,7 +13514,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>769</v>
+        <v>781</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13379,7 +13525,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>770</v>
+        <v>782</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13390,7 +13536,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>771</v>
+        <v>783</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13401,7 +13547,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>772</v>
+        <v>784</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13412,7 +13558,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>773</v>
+        <v>785</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13423,7 +13569,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>774</v>
+        <v>786</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13434,7 +13580,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>775</v>
+        <v>787</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13445,7 +13591,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>776</v>
+        <v>788</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13456,7 +13602,7 @@
         <v>21</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>777</v>
+        <v>789</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13467,7 +13613,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>778</v>
+        <v>790</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13478,7 +13624,7 @@
         <v>23</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>779</v>
+        <v>791</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13489,7 +13635,7 @@
         <v>24</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>780</v>
+        <v>792</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13500,7 +13646,7 @@
         <v>25</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>781</v>
+        <v>793</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13511,7 +13657,7 @@
         <v>26</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13522,7 +13668,7 @@
         <v>27</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>783</v>
+        <v>795</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13533,7 +13679,7 @@
         <v>28</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>784</v>
+        <v>796</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13544,7 +13690,7 @@
         <v>29</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>785</v>
+        <v>797</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13555,7 +13701,7 @@
         <v>30</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>786</v>
+        <v>798</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13566,7 +13712,7 @@
         <v>31</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>787</v>
+        <v>799</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13577,7 +13723,7 @@
         <v>32</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>788</v>
+        <v>800</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13588,7 +13734,7 @@
         <v>33</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>789</v>
+        <v>801</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13599,7 +13745,7 @@
         <v>34</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>790</v>
+        <v>802</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13610,7 +13756,7 @@
         <v>40</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>791</v>
+        <v>803</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13621,7 +13767,7 @@
         <v>41</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>792</v>
+        <v>804</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13632,7 +13778,7 @@
         <v>42</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>793</v>
+        <v>805</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13643,7 +13789,7 @@
         <v>43</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>794</v>
+        <v>806</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13654,7 +13800,7 @@
         <v>44</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>795</v>
+        <v>807</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13665,7 +13811,7 @@
         <v>45</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>796</v>
+        <v>808</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13676,7 +13822,7 @@
         <v>46</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>797</v>
+        <v>809</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13687,7 +13833,7 @@
         <v>288</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>798</v>
+        <v>810</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13698,7 +13844,7 @@
         <v>289</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>799</v>
+        <v>811</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13709,7 +13855,7 @@
         <v>290</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>800</v>
+        <v>812</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13720,7 +13866,7 @@
         <v>291</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>801</v>
+        <v>813</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13731,7 +13877,7 @@
         <v>292</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>802</v>
+        <v>814</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13742,7 +13888,7 @@
         <v>293</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>803</v>
+        <v>815</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13753,12 +13899,12 @@
         <v>512</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>804</v>
+        <v>816</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="26" t="s">
-        <v>805</v>
+        <v>817</v>
       </c>
       <c r="B50" s="26"/>
       <c r="C50" s="26"/>
@@ -13768,7 +13914,7 @@
     </row>
     <row r="51" customFormat="false" ht="92.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="27" t="s">
-        <v>806</v>
+        <v>818</v>
       </c>
       <c r="B51" s="27"/>
       <c r="C51" s="27"/>
@@ -13796,9 +13942,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -13812,370 +13958,378 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="22" t="s">
-        <v>807</v>
+        <v>819</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>808</v>
+        <v>820</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="22" t="s">
-        <v>809</v>
+        <v>821</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>810</v>
+        <v>822</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="s">
-        <v>811</v>
+        <v>823</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>812</v>
+        <v>824</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="22" t="s">
-        <v>813</v>
+        <v>825</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>814</v>
+        <v>826</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="22" t="s">
-        <v>815</v>
+        <v>827</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="22" t="s">
-        <v>816</v>
+        <v>828</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="22" t="s">
-        <v>817</v>
+        <v>829</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="22" t="s">
-        <v>818</v>
+        <v>830</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="22" t="s">
-        <v>819</v>
+        <v>831</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>820</v>
+        <v>832</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="22" t="s">
-        <v>821</v>
+        <v>833</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="22" t="s">
-        <v>822</v>
+        <v>834</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="22" t="s">
-        <v>823</v>
+        <v>835</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>824</v>
+        <v>836</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="22" t="s">
-        <v>825</v>
+        <v>837</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="22" t="s">
-        <v>826</v>
+        <v>838</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="22" t="s">
-        <v>827</v>
+        <v>839</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="22" t="s">
-        <v>828</v>
+        <v>840</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="22" t="s">
-        <v>829</v>
+        <v>841</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="22" t="s">
-        <v>830</v>
+        <v>842</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>831</v>
+        <v>843</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="22" t="s">
-        <v>832</v>
+        <v>844</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>833</v>
+        <v>845</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="22" t="s">
-        <v>834</v>
+        <v>846</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="22" t="s">
-        <v>835</v>
+        <v>847</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="22" t="s">
-        <v>836</v>
+        <v>848</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>837</v>
+        <v>849</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="22" t="s">
-        <v>838</v>
+        <v>850</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="22" t="s">
-        <v>839</v>
+        <v>851</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="22" t="s">
-        <v>840</v>
+        <v>852</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="22" t="s">
-        <v>841</v>
+        <v>853</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="22" t="s">
-        <v>842</v>
+        <v>854</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="22" t="s">
-        <v>843</v>
+        <v>855</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="22" t="s">
-        <v>844</v>
+        <v>856</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="22" t="s">
-        <v>845</v>
+        <v>857</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>846</v>
+        <v>858</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="22" t="s">
-        <v>847</v>
+        <v>859</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="22" t="s">
-        <v>848</v>
+        <v>860</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="22" t="s">
-        <v>849</v>
+        <v>861</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>850</v>
+        <v>862</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="22" t="s">
-        <v>851</v>
+        <v>863</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="22" t="s">
-        <v>852</v>
+        <v>864</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="22" t="s">
-        <v>853</v>
+        <v>865</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="22" t="s">
-        <v>854</v>
+        <v>866</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="22" t="s">
-        <v>855</v>
+        <v>867</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="28" t="s">
-        <v>856</v>
+        <v>868</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="22" t="s">
-        <v>857</v>
+        <v>869</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>858</v>
+        <v>870</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="22" t="s">
-        <v>859</v>
+        <v>871</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>860</v>
+        <v>872</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="22" t="s">
-        <v>861</v>
+        <v>873</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="22" t="s">
-        <v>862</v>
+        <v>874</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="22" t="s">
-        <v>863</v>
+        <v>875</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>864</v>
+        <v>876</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="22" t="s">
-        <v>865</v>
+        <v>877</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="22" t="s">
-        <v>866</v>
+        <v>878</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="22" t="s">
-        <v>867</v>
+        <v>879</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>868</v>
+        <v>880</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="22" t="s">
-        <v>869</v>
+        <v>881</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>870</v>
+        <v>882</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="22" t="s">
-        <v>871</v>
+        <v>883</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="22" t="s">
-        <v>872</v>
+        <v>884</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>873</v>
+        <v>885</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="22" t="s">
-        <v>874</v>
+        <v>886</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="22" t="s">
-        <v>875</v>
+        <v>887</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="22" t="s">
-        <v>876</v>
+        <v>888</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="22" t="s">
-        <v>877</v>
+        <v>889</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="22" t="s">
-        <v>878</v>
+        <v>890</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>879</v>
+        <v>891</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="22" t="s">
-        <v>880</v>
+        <v>892</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>881</v>
+        <v>893</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="22" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="22" t="s">
-        <v>883</v>
+        <v>895</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="22" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>885</v>
+        <v>897</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="22" t="s">
-        <v>886</v>
+        <v>898</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="22" t="s">
-        <v>887</v>
+        <v>899</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>888</v>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="22" t="s">
+        <v>901</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>902</v>
       </c>
     </row>
   </sheetData>

--- a/CCGX-Modbus-TCP-register-list.xlsx
+++ b/CCGX-Modbus-TCP-register-list.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2614" uniqueCount="903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2616" uniqueCount="905">
   <si>
     <t xml:space="preserve">NOTE: Use unit-id 100 for the com.victronenergy.system data, for more information see FAQ.</t>
   </si>
@@ -1437,7 +1437,7 @@
     <t xml:space="preserve">/Ac/L1/Energy/Forward</t>
   </si>
   <si>
-    <t xml:space="preserve">Deprecated. Use 1040 instead.</t>
+    <t xml:space="preserve">Deprecated. Use 1046 instead.</t>
   </si>
   <si>
     <t xml:space="preserve">L2 Voltage</t>
@@ -1464,7 +1464,7 @@
     <t xml:space="preserve">/Ac/L2/Energy/Forward</t>
   </si>
   <si>
-    <t xml:space="preserve">Deprecated. Use 1042 instead.</t>
+    <t xml:space="preserve">Deprecated. Use 1048 instead.</t>
   </si>
   <si>
     <t xml:space="preserve">L3 Voltage</t>
@@ -1491,7 +1491,7 @@
     <t xml:space="preserve">/Ac/L3/Energy/Forward</t>
   </si>
   <si>
-    <t xml:space="preserve">Deprecated. Use 1044 instead.</t>
+    <t xml:space="preserve">Deprecated. Use 1050 instead.</t>
   </si>
   <si>
     <t xml:space="preserve">Serial</t>
@@ -2724,13 +2724,19 @@
     <t xml:space="preserve">Rev 20</t>
   </si>
   <si>
-    <t xml:space="preserve">Added 32-bit registers for PV-inverters</t>
+    <t xml:space="preserve">Added 32-bit energy registers for PV-inverters</t>
   </si>
   <si>
     <t xml:space="preserve">Rev 21</t>
   </si>
   <si>
     <t xml:space="preserve">Added registers for IMT solar irradiation sensors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rev 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moved 32-bit energy registers added in Rev-20 because they overlapped with the serial number</t>
   </si>
 </sst>
 </file>
@@ -3084,9 +3090,9 @@
   <dimension ref="A1:N343"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A324" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A343" activeCellId="0" sqref="A343"/>
+      <selection pane="bottomLeft" activeCell="C200" activeCellId="0" sqref="C200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9131,7 +9137,7 @@
         <v>469</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>1040</v>
+        <v>1046</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>494</v>
@@ -9160,7 +9166,7 @@
         <v>478</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>1042</v>
+        <v>1048</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>494</v>
@@ -9189,7 +9195,7 @@
         <v>487</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>1044</v>
+        <v>1050</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>494</v>
@@ -13241,7 +13247,7 @@
       <c r="A340" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="B340" s="0" t="s">
+      <c r="B340" s="22" t="s">
         <v>756</v>
       </c>
       <c r="C340" s="1" t="n">
@@ -13267,7 +13273,7 @@
       <c r="A341" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="B341" s="0" t="s">
+      <c r="B341" s="22" t="s">
         <v>760</v>
       </c>
       <c r="C341" s="1" t="n">
@@ -13293,7 +13299,7 @@
       <c r="A342" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="B342" s="0" t="s">
+      <c r="B342" s="22" t="s">
         <v>762</v>
       </c>
       <c r="C342" s="1" t="n">
@@ -13319,7 +13325,7 @@
       <c r="A343" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="B343" s="0" t="s">
+      <c r="B343" s="22" t="s">
         <v>765</v>
       </c>
       <c r="C343" s="1" t="n">
@@ -13942,7 +13948,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -14332,6 +14338,14 @@
         <v>902</v>
       </c>
     </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="22" t="s">
+        <v>903</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>904</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/CCGX-Modbus-TCP-register-list.xlsx
+++ b/CCGX-Modbus-TCP-register-list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Field list" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2625" uniqueCount="910">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2628" uniqueCount="913">
   <si>
     <t xml:space="preserve">NOTE: Use unit-id 100 for the com.victronenergy.system data, for more information see FAQ.</t>
   </si>
@@ -2358,6 +2358,9 @@
     <t xml:space="preserve">Venus GX VE.Bus port (ttyO5)</t>
   </si>
   <si>
+    <t xml:space="preserve">EasySolar-II/Multiplus-II GX VE.Bus port (ttyS3)</t>
+  </si>
+  <si>
     <t xml:space="preserve">VE.Can device instance 0 and all registers listed as com.victronenergy.system</t>
   </si>
   <si>
@@ -2752,6 +2755,12 @@
   </si>
   <si>
     <t xml:space="preserve">Added register for GridLost alarm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rev 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added mapping for EasySolar-II/Multiplus-II GX VE.Bus port</t>
   </si>
 </sst>
 </file>
@@ -3104,10 +3113,10 @@
   </sheetPr>
   <dimension ref="A1:N344"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13410,10 +13419,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C49" activeCellId="0" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13490,23 +13499,23 @@
         <v>777</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="22" t="n">
-        <v>100</v>
-      </c>
-      <c r="B7" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="22" t="s">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="25" t="n">
+        <v>228</v>
+      </c>
+      <c r="B7" s="25" t="n">
+        <v>275</v>
+      </c>
+      <c r="C7" s="25" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="22" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="B8" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>779</v>
@@ -13514,10 +13523,10 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>780</v>
@@ -13525,10 +13534,10 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" s="22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>781</v>
@@ -13536,10 +13545,10 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" s="22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>782</v>
@@ -13547,10 +13556,10 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" s="22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>783</v>
@@ -13558,10 +13567,10 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>784</v>
@@ -13569,10 +13578,10 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" s="22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>785</v>
@@ -13580,10 +13589,10 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" s="22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>786</v>
@@ -13591,10 +13600,10 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" s="22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>787</v>
@@ -13602,10 +13611,10 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" s="22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>788</v>
@@ -13613,10 +13622,10 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18" s="22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>789</v>
@@ -13624,10 +13633,10 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" s="22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>790</v>
@@ -13635,10 +13644,10 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="22" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B20" s="22" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>791</v>
@@ -13646,10 +13655,10 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>792</v>
@@ -13657,10 +13666,10 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="22" t="s">
         <v>793</v>
@@ -13668,10 +13677,10 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="22" t="s">
         <v>794</v>
@@ -13679,10 +13688,10 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="22" t="s">
         <v>795</v>
@@ -13690,10 +13699,10 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="22" t="s">
         <v>796</v>
@@ -13701,10 +13710,10 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="22" t="s">
         <v>797</v>
@@ -13712,10 +13721,10 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="22" t="s">
         <v>798</v>
@@ -13723,10 +13732,10 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" s="22" t="s">
         <v>799</v>
@@ -13734,10 +13743,10 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="22" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="22" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" s="22" t="s">
         <v>800</v>
@@ -13745,10 +13754,10 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="22" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="22" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="22" t="s">
         <v>801</v>
@@ -13756,10 +13765,10 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="22" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="22" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="22" t="s">
         <v>802</v>
@@ -13767,10 +13776,10 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="22" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="22" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" s="22" t="s">
         <v>803</v>
@@ -13778,10 +13787,10 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="22" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" s="22" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33" s="22" t="s">
         <v>804</v>
@@ -13789,10 +13798,10 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="22" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" s="22" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" s="22" t="s">
         <v>805</v>
@@ -13800,10 +13809,10 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="22" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B35" s="22" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C35" s="22" t="s">
         <v>806</v>
@@ -13811,10 +13820,10 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="22" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" s="22" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C36" s="22" t="s">
         <v>807</v>
@@ -13822,10 +13831,10 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="22" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" s="22" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C37" s="22" t="s">
         <v>808</v>
@@ -13833,10 +13842,10 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="22" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38" s="22" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C38" s="22" t="s">
         <v>809</v>
@@ -13844,10 +13853,10 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="22" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" s="22" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C39" s="22" t="s">
         <v>810</v>
@@ -13855,10 +13864,10 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="22" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40" s="22" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C40" s="22" t="s">
         <v>811</v>
@@ -13866,10 +13875,10 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="22" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B41" s="22" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C41" s="22" t="s">
         <v>812</v>
@@ -13877,10 +13886,10 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="22" t="n">
-        <v>239</v>
+        <v>46</v>
       </c>
       <c r="B42" s="22" t="n">
-        <v>288</v>
+        <v>46</v>
       </c>
       <c r="C42" s="22" t="s">
         <v>813</v>
@@ -13888,10 +13897,10 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="22" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B43" s="22" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C43" s="22" t="s">
         <v>814</v>
@@ -13899,10 +13908,10 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="22" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B44" s="22" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C44" s="22" t="s">
         <v>815</v>
@@ -13910,10 +13919,10 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="22" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B45" s="22" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C45" s="22" t="s">
         <v>816</v>
@@ -13921,10 +13930,10 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="22" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B46" s="22" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C46" s="22" t="s">
         <v>817</v>
@@ -13932,10 +13941,10 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="22" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B47" s="22" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C47" s="22" t="s">
         <v>818</v>
@@ -13943,39 +13952,50 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="22" t="n">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B48" s="22" t="n">
-        <v>512</v>
+        <v>293</v>
       </c>
       <c r="C48" s="22" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="26" t="s">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="22" t="n">
+        <v>225</v>
+      </c>
+      <c r="B49" s="22" t="n">
+        <v>512</v>
+      </c>
+      <c r="C49" s="22" t="s">
         <v>820</v>
       </c>
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-    </row>
-    <row r="51" customFormat="false" ht="92.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="27" t="s">
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="26" t="s">
         <v>821</v>
       </c>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+    </row>
+    <row r="52" customFormat="false" ht="92.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="27" t="s">
+        <v>822</v>
+      </c>
+      <c r="B52" s="27"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A50:F50"/>
     <mergeCell ref="A51:F51"/>
+    <mergeCell ref="A52:F52"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -13992,10 +14012,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B65" activeCellId="0" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14008,394 +14028,402 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="22" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="22" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="22" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="22" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="22" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="22" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="22" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="22" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="22" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="22" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="22" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="22" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="22" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="22" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="22" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="22" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="22" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="22" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="22" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="22" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="22" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="22" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="22" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="22" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="22" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="22" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="22" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="22" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="22" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="22" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="22" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="22" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="22" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="22" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="22" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="22" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="22" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="28" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="22" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="22" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="22" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="22" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="22" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="22" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="22" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="22" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="22" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="22" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="22" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="22" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="22" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="22" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="22" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="22" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="22" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="22" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="22" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="22" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="22" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="22" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="22" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="22" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="22" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>909</v>
+        <v>910</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="22" t="s">
+        <v>911</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>912</v>
       </c>
     </row>
   </sheetData>

--- a/CCGX-Modbus-TCP-register-list.xlsx
+++ b/CCGX-Modbus-TCP-register-list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Field list" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2628" uniqueCount="913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2637" uniqueCount="918">
   <si>
     <t xml:space="preserve">NOTE: Use unit-id 100 for the com.victronenergy.system data, for more information see FAQ.</t>
   </si>
@@ -1926,6 +1926,15 @@
     <t xml:space="preserve">/NrOfSatellites</t>
   </si>
   <si>
+    <t xml:space="preserve">Altitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-214748364.8 to 214748364.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Altitude</t>
+  </si>
+  <si>
     <t xml:space="preserve">ESS BatteryLife state</t>
   </si>
   <si>
@@ -2761,6 +2770,12 @@
   </si>
   <si>
     <t xml:space="preserve">Added mapping for EasySolar-II/Multiplus-II GX VE.Bus port</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rev 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added GPS Altitude</t>
   </si>
 </sst>
 </file>
@@ -3111,9 +3126,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N344"/>
+  <dimension ref="A1:N345"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
@@ -11494,33 +11509,33 @@
         <v>17</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="s">
-        <v>595</v>
+        <v>614</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>634</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>2900</v>
+        <v>2808</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>20</v>
+        <v>391</v>
       </c>
       <c r="E278" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="F278" s="3" t="s">
+        <v>635</v>
       </c>
       <c r="G278" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H278" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I278" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="J278" s="1" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11528,48 +11543,45 @@
         <v>595</v>
       </c>
       <c r="B279" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C279" s="1" t="n">
+        <v>2900</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E279" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G279" s="1" t="s">
         <v>638</v>
-      </c>
-      <c r="C279" s="1" t="n">
-        <v>2901</v>
-      </c>
-      <c r="D279" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E279" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="G279" s="1" t="s">
-        <v>639</v>
       </c>
       <c r="H279" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I279" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J279" s="21" t="s">
+        <v>639</v>
+      </c>
+      <c r="J279" s="1" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="21" t="s">
+    <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="1" t="s">
         <v>595</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>641</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="D280" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E280" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F280" s="3" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G280" s="1" t="s">
         <v>642</v>
@@ -11577,20 +11589,22 @@
       <c r="H280" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I280" s="22" t="s">
+      <c r="I280" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J280" s="21" t="s">
         <v>643</v>
       </c>
-      <c r="J280" s="21"/>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="1" t="s">
+      <c r="A281" s="21" t="s">
+        <v>595</v>
+      </c>
+      <c r="B281" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="B281" s="1" t="s">
-        <v>645</v>
-      </c>
       <c r="C281" s="1" t="n">
-        <v>3000</v>
+        <v>2902</v>
       </c>
       <c r="D281" s="2" t="s">
         <v>20</v>
@@ -11602,63 +11616,64 @@
         <v>29</v>
       </c>
       <c r="G281" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="H281" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I281" s="22" t="s">
         <v>646</v>
       </c>
-      <c r="H281" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I281" s="23"/>
-    </row>
-    <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J281" s="21"/>
+    </row>
+    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>497</v>
+        <v>20</v>
       </c>
       <c r="E282" s="1" t="n">
-        <v>10000</v>
+        <v>1</v>
       </c>
       <c r="F282" s="3" t="s">
-        <v>648</v>
+        <v>29</v>
       </c>
       <c r="G282" s="1" t="s">
-        <v>389</v>
+        <v>649</v>
       </c>
       <c r="H282" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I282" s="1" t="s">
-        <v>649</v>
-      </c>
+      <c r="I282" s="23"/>
     </row>
     <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>650</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>3003</v>
+        <v>3001</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>20</v>
+        <v>497</v>
       </c>
       <c r="E283" s="1" t="n">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="F283" s="3" t="s">
-        <v>29</v>
+        <v>651</v>
       </c>
       <c r="G283" s="1" t="s">
-        <v>651</v>
+        <v>389</v>
       </c>
       <c r="H283" s="1" t="s">
         <v>17</v>
@@ -11669,22 +11684,22 @@
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>653</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="D284" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E284" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F284" s="3" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="G284" s="1" t="s">
         <v>654</v>
@@ -11693,192 +11708,192 @@
         <v>17</v>
       </c>
       <c r="I284" s="1" t="s">
-        <v>93</v>
+        <v>655</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>497</v>
+        <v>20</v>
       </c>
       <c r="E285" s="1" t="n">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="F285" s="3" t="s">
-        <v>648</v>
+        <v>79</v>
       </c>
       <c r="G285" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H285" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I285" s="1" t="s">
-        <v>649</v>
+        <v>93</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>3007</v>
+        <v>3005</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>20</v>
+        <v>497</v>
       </c>
       <c r="E286" s="1" t="n">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="F286" s="3" t="s">
-        <v>29</v>
+        <v>651</v>
       </c>
       <c r="G286" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H286" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I286" s="1" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B287" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="B287" s="1" t="s">
+      <c r="C287" s="1" t="n">
+        <v>3007</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E287" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F287" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G287" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="C287" s="1" t="n">
-        <v>3100</v>
-      </c>
-      <c r="D287" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E287" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="F287" s="3" t="s">
+      <c r="H287" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I287" s="1" t="s">
         <v>662</v>
-      </c>
-      <c r="G287" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H287" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I287" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>3101</v>
+        <v>3100</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E288" s="1" t="n">
         <v>10</v>
       </c>
       <c r="F288" s="3" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="G288" s="1" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="H288" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I288" s="1" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>187</v>
+        <v>666</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>3105</v>
+        <v>3101</v>
       </c>
       <c r="D289" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E289" s="1" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F289" s="3" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="G289" s="1" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="H289" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I289" s="1" t="s">
-        <v>81</v>
+        <v>130</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>314</v>
+        <v>187</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>3110</v>
+        <v>3105</v>
       </c>
       <c r="D290" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E290" s="1" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F290" s="3" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="G290" s="1" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="H290" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I290" s="1" t="s">
-        <v>667</v>
+        <v>81</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>668</v>
+        <v>314</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="D291" s="2" t="s">
         <v>20</v>
@@ -11887,56 +11902,56 @@
         <v>1</v>
       </c>
       <c r="F291" s="3" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="G291" s="1" t="s">
-        <v>305</v>
+        <v>211</v>
       </c>
       <c r="H291" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I291" s="1" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="1" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="B292" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="C292" s="1" t="n">
+        <v>3111</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E292" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F292" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="C292" s="1" t="n">
-        <v>3112</v>
-      </c>
-      <c r="D292" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E292" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F292" s="3" t="s">
-        <v>666</v>
-      </c>
       <c r="G292" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="H292" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I292" s="1" t="s">
         <v>670</v>
-      </c>
-      <c r="H292" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I292" s="1" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>312</v>
+        <v>672</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>3113</v>
+        <v>3112</v>
       </c>
       <c r="D293" s="2" t="s">
         <v>20</v>
@@ -11945,27 +11960,27 @@
         <v>1</v>
       </c>
       <c r="F293" s="3" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="G293" s="1" t="s">
-        <v>313</v>
+        <v>673</v>
       </c>
       <c r="H293" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I293" s="1" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>671</v>
+        <v>312</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>3114</v>
+        <v>3113</v>
       </c>
       <c r="D294" s="2" t="s">
         <v>20</v>
@@ -11974,27 +11989,27 @@
         <v>1</v>
       </c>
       <c r="F294" s="3" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="G294" s="1" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="H294" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I294" s="1" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>3115</v>
+        <v>3114</v>
       </c>
       <c r="D295" s="2" t="s">
         <v>20</v>
@@ -12003,27 +12018,27 @@
         <v>1</v>
       </c>
       <c r="F295" s="3" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="G295" s="1" t="s">
-        <v>673</v>
+        <v>303</v>
       </c>
       <c r="H295" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I295" s="1" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>215</v>
+        <v>675</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>3116</v>
+        <v>3115</v>
       </c>
       <c r="D296" s="2" t="s">
         <v>20</v>
@@ -12032,27 +12047,27 @@
         <v>1</v>
       </c>
       <c r="F296" s="3" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="G296" s="1" t="s">
-        <v>216</v>
+        <v>676</v>
       </c>
       <c r="H296" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I296" s="1" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="1" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>674</v>
+        <v>215</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>3117</v>
+        <v>3116</v>
       </c>
       <c r="D297" s="2" t="s">
         <v>20</v>
@@ -12061,27 +12076,27 @@
         <v>1</v>
       </c>
       <c r="F297" s="3" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="G297" s="1" t="s">
-        <v>675</v>
+        <v>216</v>
       </c>
       <c r="H297" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I297" s="1" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>3125</v>
+        <v>3117</v>
       </c>
       <c r="D298" s="2" t="s">
         <v>20</v>
@@ -12090,24 +12105,27 @@
         <v>1</v>
       </c>
       <c r="F298" s="3" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="G298" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H298" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="I298" s="1" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>3126</v>
+        <v>3125</v>
       </c>
       <c r="D299" s="2" t="s">
         <v>20</v>
@@ -12116,27 +12134,24 @@
         <v>1</v>
       </c>
       <c r="F299" s="3" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="G299" s="1" t="s">
-        <v>208</v>
+        <v>680</v>
       </c>
       <c r="H299" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I299" s="1" t="s">
-        <v>679</v>
+        <v>17</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>3127</v>
+        <v>3126</v>
       </c>
       <c r="D300" s="2" t="s">
         <v>20</v>
@@ -12145,24 +12160,27 @@
         <v>1</v>
       </c>
       <c r="F300" s="3" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="G300" s="1" t="s">
-        <v>646</v>
+        <v>208</v>
       </c>
       <c r="H300" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="I300" s="1" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>3128</v>
+        <v>3127</v>
       </c>
       <c r="D301" s="2" t="s">
         <v>20</v>
@@ -12171,56 +12189,53 @@
         <v>1</v>
       </c>
       <c r="F301" s="3" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="G301" s="1" t="s">
-        <v>202</v>
+        <v>649</v>
       </c>
       <c r="H301" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="I301" s="1" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="s">
-        <v>683</v>
+        <v>663</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>684</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>3200</v>
+        <v>3128</v>
       </c>
       <c r="D302" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E302" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F302" s="3" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="G302" s="1" t="s">
-        <v>467</v>
+        <v>202</v>
       </c>
       <c r="H302" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I302" s="1" t="s">
-        <v>130</v>
+        <v>685</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>3201</v>
+        <v>3200</v>
       </c>
       <c r="D303" s="2" t="s">
         <v>20</v>
@@ -12229,10 +12244,10 @@
         <v>10</v>
       </c>
       <c r="F303" s="3" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="G303" s="1" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="H303" s="1" t="s">
         <v>17</v>
@@ -12243,13 +12258,13 @@
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>3202</v>
+        <v>3201</v>
       </c>
       <c r="D304" s="2" t="s">
         <v>20</v>
@@ -12258,10 +12273,10 @@
         <v>10</v>
       </c>
       <c r="F304" s="3" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="G304" s="1" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="H304" s="1" t="s">
         <v>17</v>
@@ -12272,42 +12287,42 @@
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="1" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>3203</v>
+        <v>3202</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E305" s="1" t="n">
         <v>10</v>
       </c>
       <c r="F305" s="3" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="G305" s="1" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
       <c r="H305" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I305" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="1" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>3204</v>
+        <v>3203</v>
       </c>
       <c r="D306" s="2" t="s">
         <v>59</v>
@@ -12316,10 +12331,10 @@
         <v>10</v>
       </c>
       <c r="F306" s="3" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="G306" s="1" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="H306" s="1" t="s">
         <v>17</v>
@@ -12330,13 +12345,13 @@
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="1" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>3205</v>
+        <v>3204</v>
       </c>
       <c r="D307" s="2" t="s">
         <v>59</v>
@@ -12345,10 +12360,10 @@
         <v>10</v>
       </c>
       <c r="F307" s="3" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="G307" s="1" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="H307" s="1" t="s">
         <v>17</v>
@@ -12359,42 +12374,42 @@
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>3206</v>
+        <v>3205</v>
       </c>
       <c r="D308" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E308" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F308" s="3" t="s">
-        <v>691</v>
+        <v>665</v>
       </c>
       <c r="G308" s="1" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="H308" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I308" s="1" t="s">
-        <v>31</v>
+        <v>137</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="1" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>3207</v>
+        <v>3206</v>
       </c>
       <c r="D309" s="2" t="s">
         <v>59</v>
@@ -12403,10 +12418,10 @@
         <v>1</v>
       </c>
       <c r="F309" s="3" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="G309" s="1" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H309" s="1" t="s">
         <v>17</v>
@@ -12417,13 +12432,13 @@
     </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="1" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>3208</v>
+        <v>3207</v>
       </c>
       <c r="D310" s="2" t="s">
         <v>59</v>
@@ -12432,10 +12447,10 @@
         <v>1</v>
       </c>
       <c r="F310" s="3" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="G310" s="1" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="H310" s="1" t="s">
         <v>17</v>
@@ -12446,42 +12461,42 @@
     </row>
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="B311" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="C311" s="1" t="n">
+        <v>3208</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E311" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F311" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="C311" s="1" t="n">
-        <v>3209</v>
-      </c>
-      <c r="D311" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E311" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="F311" s="3" t="s">
-        <v>665</v>
-      </c>
       <c r="G311" s="1" t="s">
-        <v>695</v>
+        <v>489</v>
       </c>
       <c r="H311" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I311" s="1" t="s">
-        <v>146</v>
+        <v>31</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="1" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>3210</v>
+        <v>3209</v>
       </c>
       <c r="D312" s="2" t="s">
         <v>20</v>
@@ -12490,10 +12505,10 @@
         <v>100</v>
       </c>
       <c r="F312" s="3" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="G312" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H312" s="1" t="s">
         <v>17</v>
@@ -12504,13 +12519,13 @@
     </row>
     <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="1" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>3211</v>
+        <v>3210</v>
       </c>
       <c r="D313" s="2" t="s">
         <v>20</v>
@@ -12519,10 +12534,10 @@
         <v>100</v>
       </c>
       <c r="F313" s="3" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="G313" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H313" s="1" t="s">
         <v>17</v>
@@ -12533,39 +12548,42 @@
     </row>
     <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>3212</v>
+        <v>3211</v>
       </c>
       <c r="D314" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E314" s="1" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F314" s="3" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="G314" s="1" t="s">
-        <v>646</v>
+        <v>702</v>
       </c>
       <c r="H314" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="I314" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="1" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>3213</v>
+        <v>3212</v>
       </c>
       <c r="D315" s="2" t="s">
         <v>20</v>
@@ -12574,27 +12592,24 @@
         <v>1</v>
       </c>
       <c r="F315" s="3" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="G315" s="1" t="s">
-        <v>702</v>
+        <v>649</v>
       </c>
       <c r="H315" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="I315" s="1" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="1" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>501</v>
+        <v>704</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>3214</v>
+        <v>3213</v>
       </c>
       <c r="D316" s="2" t="s">
         <v>20</v>
@@ -12603,27 +12618,27 @@
         <v>1</v>
       </c>
       <c r="F316" s="3" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="G316" s="1" t="s">
-        <v>452</v>
+        <v>705</v>
       </c>
       <c r="H316" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I316" s="1" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="1" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>705</v>
+        <v>501</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>3215</v>
+        <v>3214</v>
       </c>
       <c r="D317" s="2" t="s">
         <v>20</v>
@@ -12632,27 +12647,27 @@
         <v>1</v>
       </c>
       <c r="F317" s="3" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="G317" s="1" t="s">
-        <v>706</v>
+        <v>452</v>
       </c>
       <c r="H317" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I317" s="1" t="s">
-        <v>505</v>
+        <v>707</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>3216</v>
+        <v>3215</v>
       </c>
       <c r="D318" s="2" t="s">
         <v>20</v>
@@ -12661,27 +12676,27 @@
         <v>1</v>
       </c>
       <c r="F318" s="3" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="G318" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H318" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I318" s="1" t="s">
-        <v>93</v>
+        <v>505</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>3217</v>
+        <v>3216</v>
       </c>
       <c r="D319" s="2" t="s">
         <v>20</v>
@@ -12690,36 +12705,36 @@
         <v>1</v>
       </c>
       <c r="F319" s="3" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="G319" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H319" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I319" s="1" t="s">
-        <v>544</v>
+        <v>93</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>3218</v>
+        <v>3217</v>
       </c>
       <c r="D320" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E320" s="1" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="F320" s="3" t="s">
-        <v>712</v>
+        <v>669</v>
       </c>
       <c r="G320" s="1" t="s">
         <v>713</v>
@@ -12728,47 +12743,47 @@
         <v>17</v>
       </c>
       <c r="I320" s="1" t="s">
-        <v>105</v>
+        <v>544</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>714</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>3219</v>
+        <v>3218</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E321" s="1" t="n">
-        <v>10</v>
+        <v>0.01</v>
       </c>
       <c r="F321" s="3" t="s">
-        <v>662</v>
+        <v>715</v>
       </c>
       <c r="G321" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H321" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I321" s="1" t="s">
-        <v>278</v>
+        <v>105</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>3220</v>
+        <v>3219</v>
       </c>
       <c r="D322" s="2" t="s">
         <v>59</v>
@@ -12777,10 +12792,10 @@
         <v>10</v>
       </c>
       <c r="F322" s="3" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="G322" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H322" s="1" t="s">
         <v>17</v>
@@ -12791,13 +12806,13 @@
     </row>
     <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>3221</v>
+        <v>3220</v>
       </c>
       <c r="D323" s="2" t="s">
         <v>59</v>
@@ -12806,10 +12821,10 @@
         <v>10</v>
       </c>
       <c r="F323" s="3" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="G323" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H323" s="1" t="s">
         <v>17</v>
@@ -12820,71 +12835,71 @@
     </row>
     <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>3222</v>
+        <v>3221</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E324" s="1" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F324" s="3" t="s">
         <v>665</v>
       </c>
       <c r="G324" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H324" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I324" s="1" t="s">
-        <v>81</v>
+        <v>278</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>3223</v>
+        <v>3222</v>
       </c>
       <c r="D325" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E325" s="1" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F325" s="3" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="G325" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H325" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I325" s="1" t="s">
-        <v>724</v>
+        <v>81</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="B326" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="B326" s="1" t="s">
-        <v>645</v>
-      </c>
       <c r="C326" s="1" t="n">
-        <v>3300</v>
+        <v>3223</v>
       </c>
       <c r="D326" s="2" t="s">
         <v>20</v>
@@ -12893,36 +12908,39 @@
         <v>1</v>
       </c>
       <c r="F326" s="3" t="s">
-        <v>29</v>
+        <v>669</v>
       </c>
       <c r="G326" s="1" t="s">
-        <v>646</v>
+        <v>726</v>
       </c>
       <c r="H326" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="I326" s="1" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>726</v>
+        <v>648</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="D327" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E327" s="1" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F327" s="3" t="s">
-        <v>188</v>
+        <v>29</v>
       </c>
       <c r="G327" s="1" t="s">
-        <v>727</v>
+        <v>649</v>
       </c>
       <c r="H327" s="1" t="s">
         <v>17</v>
@@ -12930,25 +12948,25 @@
     </row>
     <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>3302</v>
+        <v>3301</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E328" s="1" t="n">
         <v>100</v>
       </c>
       <c r="F328" s="3" t="s">
-        <v>144</v>
+        <v>188</v>
       </c>
       <c r="G328" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H328" s="1" t="s">
         <v>17</v>
@@ -12956,51 +12974,48 @@
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E329" s="1" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F329" s="3" t="s">
-        <v>29</v>
+        <v>144</v>
       </c>
       <c r="G329" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H329" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="I329" s="1" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="B330" s="1" t="s">
         <v>733</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>3304</v>
+        <v>3303</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E330" s="1" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F330" s="3" t="s">
-        <v>144</v>
+        <v>29</v>
       </c>
       <c r="G330" s="1" t="s">
         <v>734</v>
@@ -13009,76 +13024,76 @@
         <v>17</v>
       </c>
       <c r="I330" s="1" t="s">
-        <v>278</v>
+        <v>735</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E331" s="1" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F331" s="3" t="s">
-        <v>29</v>
+        <v>144</v>
       </c>
       <c r="G331" s="1" t="s">
-        <v>658</v>
+        <v>737</v>
       </c>
       <c r="H331" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I331" s="1" t="s">
-        <v>659</v>
+        <v>278</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>3400</v>
+        <v>3305</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>497</v>
+        <v>20</v>
       </c>
       <c r="E332" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F332" s="3" t="s">
-        <v>738</v>
+        <v>29</v>
       </c>
       <c r="G332" s="1" t="s">
-        <v>739</v>
+        <v>661</v>
       </c>
       <c r="H332" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I332" s="1" t="s">
-        <v>649</v>
+        <v>662</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="B333" s="1" t="s">
         <v>740</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>3402</v>
+        <v>3400</v>
       </c>
       <c r="D333" s="2" t="s">
         <v>497</v>
@@ -13087,24 +13102,27 @@
         <v>1</v>
       </c>
       <c r="F333" s="3" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="G333" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H333" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="I333" s="1" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="B334" s="1" t="s">
         <v>743</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>3420</v>
+        <v>3402</v>
       </c>
       <c r="D334" s="2" t="s">
         <v>497</v>
@@ -13113,10 +13131,10 @@
         <v>1</v>
       </c>
       <c r="F334" s="3" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="G334" s="1" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="H334" s="1" t="s">
         <v>17</v>
@@ -13124,42 +13142,39 @@
     </row>
     <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>499</v>
+        <v>746</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>3422</v>
+        <v>3420</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>20</v>
+        <v>497</v>
       </c>
       <c r="E335" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F335" s="3" t="s">
-        <v>21</v>
+        <v>741</v>
       </c>
       <c r="G335" s="1" t="s">
-        <v>202</v>
+        <v>744</v>
       </c>
       <c r="H335" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="I335" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>298</v>
+        <v>499</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>3423</v>
+        <v>3422</v>
       </c>
       <c r="D336" s="2" t="s">
         <v>20</v>
@@ -13168,85 +13183,85 @@
         <v>1</v>
       </c>
       <c r="F336" s="3" t="s">
-        <v>745</v>
+        <v>21</v>
       </c>
       <c r="G336" s="1" t="s">
-        <v>746</v>
+        <v>202</v>
       </c>
       <c r="H336" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I336" s="1" t="s">
-        <v>300</v>
+        <v>747</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="B337" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C337" s="1" t="n">
+        <v>3423</v>
+      </c>
+      <c r="D337" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E337" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F337" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="G337" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="H337" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I337" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="B338" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C337" s="1" t="n">
+      <c r="C338" s="1" t="n">
         <v>3424</v>
       </c>
-      <c r="D337" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E337" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F337" s="3" t="s">
-        <v>747</v>
-      </c>
-      <c r="G337" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="H337" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I337" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="1" t="s">
+      <c r="D338" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E338" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F338" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="B338" s="1" t="s">
+      <c r="G338" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="C338" s="1" t="n">
-        <v>3500</v>
-      </c>
-      <c r="D338" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E338" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F338" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G338" s="1" t="s">
+      <c r="H338" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I338" s="1" t="s">
         <v>752</v>
-      </c>
-      <c r="H338" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I338" s="1" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="B339" s="1" t="s">
         <v>754</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>3501</v>
+        <v>3500</v>
       </c>
       <c r="D339" s="2" t="s">
         <v>20</v>
@@ -13255,13 +13270,13 @@
         <v>1</v>
       </c>
       <c r="F339" s="3" t="s">
-        <v>747</v>
+        <v>21</v>
       </c>
       <c r="G339" s="1" t="s">
         <v>755</v>
       </c>
       <c r="H339" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I339" s="1" t="s">
         <v>756</v>
@@ -13269,13 +13284,13 @@
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="B340" s="1" t="s">
         <v>757</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>3502</v>
+        <v>3501</v>
       </c>
       <c r="D340" s="2" t="s">
         <v>20</v>
@@ -13284,53 +13299,56 @@
         <v>1</v>
       </c>
       <c r="F340" s="3" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="G340" s="1" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="H340" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I340" s="1" t="s">
-        <v>346</v>
+        <v>759</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="B341" s="22" t="s">
-        <v>759</v>
+        <v>753</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>760</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>3600</v>
+        <v>3502</v>
       </c>
       <c r="D341" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E341" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F341" s="3" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="G341" s="1" t="s">
-        <v>761</v>
+        <v>755</v>
+      </c>
+      <c r="H341" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="I341" s="1" t="s">
-        <v>762</v>
+        <v>346</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="B342" s="22" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>3601</v>
+        <v>3600</v>
       </c>
       <c r="D342" s="2" t="s">
         <v>20</v>
@@ -13339,50 +13357,50 @@
         <v>10</v>
       </c>
       <c r="F342" s="3" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="G342" s="1" t="s">
         <v>764</v>
       </c>
       <c r="I342" s="1" t="s">
-        <v>627</v>
+        <v>765</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="B343" s="22" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>3602</v>
+        <v>3601</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E343" s="1" t="n">
         <v>10</v>
       </c>
       <c r="F343" s="3" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="G343" s="1" t="s">
         <v>767</v>
       </c>
       <c r="I343" s="1" t="s">
-        <v>278</v>
+        <v>627</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="B344" s="22" t="s">
         <v>768</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>3603</v>
+        <v>3602</v>
       </c>
       <c r="D344" s="2" t="s">
         <v>59</v>
@@ -13391,12 +13409,38 @@
         <v>10</v>
       </c>
       <c r="F344" s="3" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="G344" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="I344" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B345" s="22" t="s">
+        <v>771</v>
+      </c>
+      <c r="C345" s="1" t="n">
+        <v>3603</v>
+      </c>
+      <c r="D345" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E345" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F345" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="I344" s="1" t="s">
+      <c r="G345" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="I345" s="1" t="s">
         <v>278</v>
       </c>
     </row>
@@ -13435,13 +13479,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="24" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13452,7 +13496,7 @@
         <v>257</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13463,7 +13507,7 @@
         <v>256</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13474,7 +13518,7 @@
         <v>258</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13485,7 +13529,7 @@
         <v>260</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13496,7 +13540,7 @@
         <v>261</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13507,7 +13551,7 @@
         <v>275</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13518,7 +13562,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13529,7 +13573,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13540,7 +13584,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13551,7 +13595,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13562,7 +13606,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13573,7 +13617,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13584,7 +13628,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13595,7 +13639,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13606,7 +13650,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13617,7 +13661,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13628,7 +13672,7 @@
         <v>10</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13639,7 +13683,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13650,7 +13694,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13661,7 +13705,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13672,7 +13716,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13683,7 +13727,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13694,7 +13738,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13705,7 +13749,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13716,7 +13760,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13727,7 +13771,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13738,7 +13782,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13749,7 +13793,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13760,7 +13804,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13771,7 +13815,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13782,7 +13826,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13793,7 +13837,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13804,7 +13848,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13815,7 +13859,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13826,7 +13870,7 @@
         <v>40</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13837,7 +13881,7 @@
         <v>41</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13848,7 +13892,7 @@
         <v>42</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13859,7 +13903,7 @@
         <v>43</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13870,7 +13914,7 @@
         <v>44</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13881,7 +13925,7 @@
         <v>45</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13892,7 +13936,7 @@
         <v>46</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13903,7 +13947,7 @@
         <v>288</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13914,7 +13958,7 @@
         <v>289</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13925,7 +13969,7 @@
         <v>290</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13936,7 +13980,7 @@
         <v>291</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13947,7 +13991,7 @@
         <v>292</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13958,7 +14002,7 @@
         <v>293</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13969,12 +14013,12 @@
         <v>512</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="26" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="B51" s="26"/>
       <c r="C51" s="26"/>
@@ -13984,7 +14028,7 @@
     </row>
     <row r="52" customFormat="false" ht="92.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="27" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="B52" s="27"/>
       <c r="C52" s="27"/>
@@ -14012,10 +14056,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B65" activeCellId="0" sqref="B65"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A50" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A66" activeCellId="0" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14028,402 +14072,410 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="22" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="22" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="22" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="22" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="22" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="22" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="22" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="22" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="22" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="22" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="22" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="22" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="22" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="22" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="22" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="22" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="22" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="22" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="22" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="22" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="22" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="22" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="22" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="22" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="22" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="22" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="22" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="22" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="22" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="22" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="22" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="22" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="22" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="22" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="22" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="22" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="22" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="28" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="22" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="22" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="22" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="22" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="22" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="22" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="22" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="22" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="22" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="22" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="22" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="22" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="22" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="22" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="22" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="22" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="22" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="22" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="22" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="22" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="22" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="22" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="22" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="22" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="22" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="22" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>912</v>
+        <v>915</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="22" t="s">
+        <v>916</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>917</v>
       </c>
     </row>
   </sheetData>

--- a/CCGX-Modbus-TCP-register-list.xlsx
+++ b/CCGX-Modbus-TCP-register-list.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2637" uniqueCount="918">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2639" uniqueCount="921">
   <si>
     <t xml:space="preserve">NOTE: Use unit-id 100 for the com.victronenergy.system data, for more information see FAQ.</t>
   </si>
@@ -2289,24 +2289,27 @@
     <t xml:space="preserve">Manual Start</t>
   </si>
   <si>
+    <t xml:space="preserve">/Generator0/ManualStart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0=Stop generator; 1=Start generator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Condition that started the generator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Generator0/RunningByConditionCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0=Stopped;1=Manual;2=TestRun;3=LossOfComms;4=Soc;5=AcLoad;6=BatteryCurrent;7=BatteryVoltage;8=InverterTemperatur;9=InverterOverload;10=StopOnAc1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Runtime in seconds</t>
+  </si>
+  <si>
     <t xml:space="preserve">/Generator0/Runtime</t>
   </si>
   <si>
-    <t xml:space="preserve">0=Stop generator; 1=Start generator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Condition that started the generator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Generator0/RunningByConditionCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0=Stopped;1=Manual;2=TestRun;3=LossOfComms;4=Soc;5=AcLoad;6=BatteryCurrent;7=BatteryVoltage;8=InverterTemperatur;9=InverterOverload;10=StopOnAc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Runtime in seconds</t>
-  </si>
-  <si>
     <t xml:space="preserve">com.victronenergy.meteo</t>
   </si>
   <si>
@@ -2776,6 +2779,12 @@
   </si>
   <si>
     <t xml:space="preserve">Added GPS Altitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rev 26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corrected Dbus path for generator ManualStart</t>
   </si>
 </sst>
 </file>
@@ -3129,9 +3138,9 @@
   <dimension ref="A1:N345"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A321" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="G339" activeCellId="0" sqref="G339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13331,7 +13340,7 @@
         <v>750</v>
       </c>
       <c r="G341" s="1" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
       <c r="H341" s="1" t="s">
         <v>17</v>
@@ -13342,10 +13351,10 @@
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B342" s="22" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C342" s="1" t="n">
         <v>3600</v>
@@ -13357,21 +13366,21 @@
         <v>10</v>
       </c>
       <c r="F342" s="3" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="G342" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="I342" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B343" s="22" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C343" s="1" t="n">
         <v>3601</v>
@@ -13383,10 +13392,10 @@
         <v>10</v>
       </c>
       <c r="F343" s="3" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="G343" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="I343" s="1" t="s">
         <v>627</v>
@@ -13394,10 +13403,10 @@
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B344" s="22" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C344" s="1" t="n">
         <v>3602</v>
@@ -13409,10 +13418,10 @@
         <v>10</v>
       </c>
       <c r="F344" s="3" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="G344" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="I344" s="1" t="s">
         <v>278</v>
@@ -13420,10 +13429,10 @@
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B345" s="22" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C345" s="1" t="n">
         <v>3603</v>
@@ -13435,10 +13444,10 @@
         <v>10</v>
       </c>
       <c r="F345" s="3" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="G345" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="I345" s="1" t="s">
         <v>278</v>
@@ -13479,13 +13488,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="24" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13496,7 +13505,7 @@
         <v>257</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13507,7 +13516,7 @@
         <v>256</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13518,7 +13527,7 @@
         <v>258</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13529,7 +13538,7 @@
         <v>260</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13540,7 +13549,7 @@
         <v>261</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13551,7 +13560,7 @@
         <v>275</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13562,7 +13571,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13573,7 +13582,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13584,7 +13593,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13595,7 +13604,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13606,7 +13615,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13617,7 +13626,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13628,7 +13637,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13639,7 +13648,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13650,7 +13659,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13661,7 +13670,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13672,7 +13681,7 @@
         <v>10</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13683,7 +13692,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13694,7 +13703,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13705,7 +13714,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13716,7 +13725,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13727,7 +13736,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13738,7 +13747,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13749,7 +13758,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13760,7 +13769,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13771,7 +13780,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13782,7 +13791,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13793,7 +13802,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13804,7 +13813,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13815,7 +13824,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13826,7 +13835,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13837,7 +13846,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13848,7 +13857,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13859,7 +13868,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13870,7 +13879,7 @@
         <v>40</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13881,7 +13890,7 @@
         <v>41</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13892,7 +13901,7 @@
         <v>42</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13903,7 +13912,7 @@
         <v>43</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13914,7 +13923,7 @@
         <v>44</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13925,7 +13934,7 @@
         <v>45</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13936,7 +13945,7 @@
         <v>46</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13947,7 +13956,7 @@
         <v>288</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13958,7 +13967,7 @@
         <v>289</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13969,7 +13978,7 @@
         <v>290</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13980,7 +13989,7 @@
         <v>291</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13991,7 +14000,7 @@
         <v>292</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14002,7 +14011,7 @@
         <v>293</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14013,12 +14022,12 @@
         <v>512</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="26" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B51" s="26"/>
       <c r="C51" s="26"/>
@@ -14028,7 +14037,7 @@
     </row>
     <row r="52" customFormat="false" ht="92.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="27" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B52" s="27"/>
       <c r="C52" s="27"/>
@@ -14056,10 +14065,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A50" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A66" activeCellId="0" sqref="A66"/>
+      <selection pane="topLeft" activeCell="B67" activeCellId="0" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14072,410 +14081,418 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="22" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="22" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="22" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="22" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="22" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="22" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="22" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="22" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="22" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="22" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="22" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="22" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="22" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="22" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="22" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="22" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="22" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="22" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="22" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="22" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="22" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="22" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="22" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="22" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="22" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="22" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="22" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="22" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="22" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="22" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="22" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="22" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="22" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="22" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="22" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="22" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="22" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="28" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="22" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="22" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="22" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="22" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="22" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="22" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="22" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="22" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="22" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="22" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="22" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="22" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="22" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="22" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="22" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="22" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="22" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="22" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="22" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="22" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="22" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="22" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="22" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="22" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="22" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="22" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="22" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>917</v>
+        <v>918</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="22" t="s">
+        <v>919</v>
+      </c>
+      <c r="B67" s="22" t="s">
+        <v>920</v>
       </c>
     </row>
   </sheetData>

--- a/CCGX-Modbus-TCP-register-list.xlsx
+++ b/CCGX-Modbus-TCP-register-list.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2639" uniqueCount="921">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2645" uniqueCount="927">
   <si>
     <t xml:space="preserve">NOTE: Use unit-id 100 for the com.victronenergy.system data, for more information see FAQ.</t>
   </si>
@@ -2373,6 +2373,18 @@
     <t xml:space="preserve">EasySolar-II/Multiplus-II GX VE.Bus port (ttyS3)</t>
   </si>
   <si>
+    <t xml:space="preserve">Cerbo GX VE.Bus port (ttyS4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerbo GX VE.Direct port 1 (ttyS7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerbo GX VE.Direct port 2 (ttyS6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerbo GX VE.Direct port 3 (ttyS5)</t>
+  </si>
+  <si>
     <t xml:space="preserve">VE.Can device instance 0 and all registers listed as com.victronenergy.system</t>
   </si>
   <si>
@@ -2785,6 +2797,12 @@
   </si>
   <si>
     <t xml:space="preserve">Corrected Dbus path for generator ManualStart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rev 27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add mappings for Cerbo GX ports</t>
   </si>
 </sst>
 </file>
@@ -13472,17 +13490,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C49" activeCellId="0" sqref="C49"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A39" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="22" width="7.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="22" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="22" width="23.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="22" width="64.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="22" width="8.57"/>
   </cols>
   <sheetData>
@@ -13563,56 +13581,56 @@
         <v>782</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="22" t="n">
-        <v>100</v>
-      </c>
-      <c r="B8" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="22" t="s">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="25" t="n">
+        <v>227</v>
+      </c>
+      <c r="B8" s="25" t="n">
+        <v>276</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="22" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="25" t="n">
+        <v>226</v>
+      </c>
+      <c r="B9" s="25" t="n">
+        <v>279</v>
+      </c>
+      <c r="C9" s="25" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="22" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" s="22" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" s="22" t="s">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="25" t="n">
+        <v>224</v>
+      </c>
+      <c r="B10" s="25" t="n">
+        <v>278</v>
+      </c>
+      <c r="C10" s="25" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="22" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" s="22" t="n">
-        <v>3</v>
-      </c>
-      <c r="C11" s="22" t="s">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="25" t="n">
+        <v>223</v>
+      </c>
+      <c r="B11" s="25" t="n">
+        <v>277</v>
+      </c>
+      <c r="C11" s="25" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="22" t="n">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="B12" s="22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>787</v>
@@ -13620,10 +13638,10 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B13" s="22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>788</v>
@@ -13631,10 +13649,10 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="22" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B14" s="22" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>789</v>
@@ -13642,10 +13660,10 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="22" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B15" s="22" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>790</v>
@@ -13653,10 +13671,10 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="22" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B16" s="22" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>791</v>
@@ -13664,10 +13682,10 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="22" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B17" s="22" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>792</v>
@@ -13675,10 +13693,10 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="22" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B18" s="22" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>793</v>
@@ -13686,10 +13704,10 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="22" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B19" s="22" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>794</v>
@@ -13697,10 +13715,10 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="22" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B20" s="22" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>795</v>
@@ -13708,10 +13726,10 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="22" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B21" s="22" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>796</v>
@@ -13719,10 +13737,10 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="22" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B22" s="22" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C22" s="22" t="s">
         <v>797</v>
@@ -13730,10 +13748,10 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="22" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B23" s="22" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C23" s="22" t="s">
         <v>798</v>
@@ -13741,10 +13759,10 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="22" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B24" s="22" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C24" s="22" t="s">
         <v>799</v>
@@ -13752,10 +13770,10 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="22" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B25" s="22" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C25" s="22" t="s">
         <v>800</v>
@@ -13763,10 +13781,10 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="22" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B26" s="22" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C26" s="22" t="s">
         <v>801</v>
@@ -13774,10 +13792,10 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="22" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B27" s="22" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C27" s="22" t="s">
         <v>802</v>
@@ -13785,10 +13803,10 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="22" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B28" s="22" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C28" s="22" t="s">
         <v>803</v>
@@ -13796,10 +13814,10 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="22" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B29" s="22" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C29" s="22" t="s">
         <v>804</v>
@@ -13807,10 +13825,10 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="22" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B30" s="22" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C30" s="22" t="s">
         <v>805</v>
@@ -13818,10 +13836,10 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="22" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B31" s="22" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C31" s="22" t="s">
         <v>806</v>
@@ -13829,10 +13847,10 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="22" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B32" s="22" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C32" s="22" t="s">
         <v>807</v>
@@ -13840,10 +13858,10 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="22" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B33" s="22" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C33" s="22" t="s">
         <v>808</v>
@@ -13851,10 +13869,10 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="22" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B34" s="22" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C34" s="22" t="s">
         <v>809</v>
@@ -13862,10 +13880,10 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="22" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B35" s="22" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C35" s="22" t="s">
         <v>810</v>
@@ -13873,10 +13891,10 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="22" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B36" s="22" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C36" s="22" t="s">
         <v>811</v>
@@ -13884,10 +13902,10 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="22" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B37" s="22" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C37" s="22" t="s">
         <v>812</v>
@@ -13895,10 +13913,10 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="22" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B38" s="22" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C38" s="22" t="s">
         <v>813</v>
@@ -13906,10 +13924,10 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="22" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B39" s="22" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C39" s="22" t="s">
         <v>814</v>
@@ -13917,10 +13935,10 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="22" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B40" s="22" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C40" s="22" t="s">
         <v>815</v>
@@ -13928,10 +13946,10 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="22" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B41" s="22" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C41" s="22" t="s">
         <v>816</v>
@@ -13939,10 +13957,10 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="22" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B42" s="22" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C42" s="22" t="s">
         <v>817</v>
@@ -13950,10 +13968,10 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="22" t="n">
-        <v>239</v>
+        <v>43</v>
       </c>
       <c r="B43" s="22" t="n">
-        <v>288</v>
+        <v>43</v>
       </c>
       <c r="C43" s="22" t="s">
         <v>818</v>
@@ -13961,10 +13979,10 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="22" t="n">
-        <v>238</v>
+        <v>44</v>
       </c>
       <c r="B44" s="22" t="n">
-        <v>289</v>
+        <v>44</v>
       </c>
       <c r="C44" s="22" t="s">
         <v>819</v>
@@ -13972,10 +13990,10 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="22" t="n">
-        <v>237</v>
+        <v>45</v>
       </c>
       <c r="B45" s="22" t="n">
-        <v>290</v>
+        <v>45</v>
       </c>
       <c r="C45" s="22" t="s">
         <v>820</v>
@@ -13983,10 +14001,10 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="22" t="n">
-        <v>236</v>
+        <v>46</v>
       </c>
       <c r="B46" s="22" t="n">
-        <v>291</v>
+        <v>46</v>
       </c>
       <c r="C46" s="22" t="s">
         <v>821</v>
@@ -13994,10 +14012,10 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="22" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B47" s="22" t="n">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C47" s="22" t="s">
         <v>822</v>
@@ -14005,10 +14023,10 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="22" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B48" s="22" t="n">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C48" s="22" t="s">
         <v>823</v>
@@ -14016,39 +14034,83 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="22" t="n">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="B49" s="22" t="n">
-        <v>512</v>
+        <v>290</v>
       </c>
       <c r="C49" s="22" t="s">
         <v>824</v>
       </c>
     </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="22" t="n">
+        <v>236</v>
+      </c>
+      <c r="B50" s="22" t="n">
+        <v>291</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>825</v>
+      </c>
+    </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="26" t="s">
-        <v>825</v>
-      </c>
-      <c r="B51" s="26"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-    </row>
-    <row r="52" customFormat="false" ht="92.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="27" t="s">
+      <c r="A51" s="22" t="n">
+        <v>235</v>
+      </c>
+      <c r="B51" s="22" t="n">
+        <v>292</v>
+      </c>
+      <c r="C51" s="22" t="s">
         <v>826</v>
       </c>
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="22" t="n">
+        <v>233</v>
+      </c>
+      <c r="B52" s="22" t="n">
+        <v>293</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="22" t="n">
+        <v>225</v>
+      </c>
+      <c r="B53" s="22" t="n">
+        <v>512</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="26" t="s">
+        <v>829</v>
+      </c>
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+    </row>
+    <row r="56" customFormat="false" ht="92.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="27" t="s">
+        <v>830</v>
+      </c>
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="A56:F56"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -14065,10 +14127,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A50" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B67" activeCellId="0" sqref="B67"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A62" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B69" activeCellId="0" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14081,418 +14143,426 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="22" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="22" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="22" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="22" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="22" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="22" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="22" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="22" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="22" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="22" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="22" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="22" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="22" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="22" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="22" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="22" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="22" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="22" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="22" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="22" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="22" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="22" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="22" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="22" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="22" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="22" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="22" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="22" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="22" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="22" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="22" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="22" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="22" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="22" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="22" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="22" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="22" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="28" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="22" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="22" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="22" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="22" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="22" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="22" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="22" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="22" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="22" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="22" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="22" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="22" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="22" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="22" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="22" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="22" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="22" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="22" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="22" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="22" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="22" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="22" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="22" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="22" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="22" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="22" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="22" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="22" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="B67" s="22" t="s">
-        <v>920</v>
+        <v>924</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="22" t="s">
+        <v>925</v>
+      </c>
+      <c r="B68" s="22" t="s">
+        <v>926</v>
       </c>
     </row>
   </sheetData>

--- a/CCGX-Modbus-TCP-register-list.xlsx
+++ b/CCGX-Modbus-TCP-register-list.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2645" uniqueCount="927">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2649" uniqueCount="931">
   <si>
     <t xml:space="preserve">NOTE: Use unit-id 100 for the com.victronenergy.system data, for more information see FAQ.</t>
   </si>
@@ -2370,6 +2370,12 @@
     <t xml:space="preserve">Venus GX VE.Bus port (ttyO5)</t>
   </si>
   <si>
+    <t xml:space="preserve">EasySolar-II/Multiplus-II GX VE.Direct port (ttyS1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EasySolar-II/Multiplus-II GX VE.Direct port (ttyS2)</t>
+  </si>
+  <si>
     <t xml:space="preserve">EasySolar-II/Multiplus-II GX VE.Bus port (ttyS3)</t>
   </si>
   <si>
@@ -2803,6 +2809,12 @@
   </si>
   <si>
     <t xml:space="preserve">Add mappings for Cerbo GX ports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rev 28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added mapping for EasySolar-II/Multiplus-II GX VE.Direct ports</t>
   </si>
 </sst>
 </file>
@@ -13490,10 +13502,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A39" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13572,10 +13584,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="25" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B7" s="25" t="n">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>782</v>
@@ -13583,10 +13595,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="25" t="n">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B8" s="25" t="n">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>783</v>
@@ -13594,10 +13606,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="25" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B9" s="25" t="n">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>784</v>
@@ -13605,10 +13617,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="25" t="n">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B10" s="25" t="n">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C10" s="25" t="s">
         <v>785</v>
@@ -13616,43 +13628,43 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="25" t="n">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B11" s="25" t="n">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="22" t="n">
-        <v>100</v>
-      </c>
-      <c r="B12" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="22" t="s">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="25" t="n">
+        <v>224</v>
+      </c>
+      <c r="B12" s="25" t="n">
+        <v>278</v>
+      </c>
+      <c r="C12" s="25" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" s="22" t="s">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="25" t="n">
+        <v>223</v>
+      </c>
+      <c r="B13" s="25" t="n">
+        <v>277</v>
+      </c>
+      <c r="C13" s="25" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="22" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="B14" s="22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>789</v>
@@ -13660,10 +13672,10 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B15" s="22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>790</v>
@@ -13671,10 +13683,10 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B16" s="22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>791</v>
@@ -13682,10 +13694,10 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B17" s="22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>792</v>
@@ -13693,10 +13705,10 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B18" s="22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>793</v>
@@ -13704,10 +13716,10 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="22" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B19" s="22" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>794</v>
@@ -13715,10 +13727,10 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="22" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B20" s="22" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>795</v>
@@ -13726,10 +13738,10 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="22" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B21" s="22" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>796</v>
@@ -13737,10 +13749,10 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="22" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B22" s="22" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C22" s="22" t="s">
         <v>797</v>
@@ -13748,10 +13760,10 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="22" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B23" s="22" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C23" s="22" t="s">
         <v>798</v>
@@ -13759,10 +13771,10 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="22" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B24" s="22" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C24" s="22" t="s">
         <v>799</v>
@@ -13770,10 +13782,10 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="22" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B25" s="22" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C25" s="22" t="s">
         <v>800</v>
@@ -13781,10 +13793,10 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="22" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B26" s="22" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C26" s="22" t="s">
         <v>801</v>
@@ -13792,10 +13804,10 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="22" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B27" s="22" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C27" s="22" t="s">
         <v>802</v>
@@ -13803,10 +13815,10 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B28" s="22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C28" s="22" t="s">
         <v>803</v>
@@ -13814,10 +13826,10 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="22" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B29" s="22" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C29" s="22" t="s">
         <v>804</v>
@@ -13825,10 +13837,10 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="22" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B30" s="22" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C30" s="22" t="s">
         <v>805</v>
@@ -13836,10 +13848,10 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="22" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B31" s="22" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C31" s="22" t="s">
         <v>806</v>
@@ -13847,10 +13859,10 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="22" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B32" s="22" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C32" s="22" t="s">
         <v>807</v>
@@ -13858,10 +13870,10 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="22" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B33" s="22" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C33" s="22" t="s">
         <v>808</v>
@@ -13869,10 +13881,10 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="22" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B34" s="22" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C34" s="22" t="s">
         <v>809</v>
@@ -13880,10 +13892,10 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="22" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B35" s="22" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C35" s="22" t="s">
         <v>810</v>
@@ -13891,10 +13903,10 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="22" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B36" s="22" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C36" s="22" t="s">
         <v>811</v>
@@ -13902,10 +13914,10 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="22" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B37" s="22" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C37" s="22" t="s">
         <v>812</v>
@@ -13913,10 +13925,10 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="22" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B38" s="22" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C38" s="22" t="s">
         <v>813</v>
@@ -13924,10 +13936,10 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="22" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B39" s="22" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C39" s="22" t="s">
         <v>814</v>
@@ -13935,10 +13947,10 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="22" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B40" s="22" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C40" s="22" t="s">
         <v>815</v>
@@ -13946,10 +13958,10 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="22" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B41" s="22" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C41" s="22" t="s">
         <v>816</v>
@@ -13957,10 +13969,10 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="22" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B42" s="22" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C42" s="22" t="s">
         <v>817</v>
@@ -13968,10 +13980,10 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="22" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B43" s="22" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C43" s="22" t="s">
         <v>818</v>
@@ -13979,10 +13991,10 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="22" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B44" s="22" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C44" s="22" t="s">
         <v>819</v>
@@ -13990,10 +14002,10 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="22" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B45" s="22" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C45" s="22" t="s">
         <v>820</v>
@@ -14001,10 +14013,10 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="22" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B46" s="22" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C46" s="22" t="s">
         <v>821</v>
@@ -14012,10 +14024,10 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="22" t="n">
-        <v>239</v>
+        <v>45</v>
       </c>
       <c r="B47" s="22" t="n">
-        <v>288</v>
+        <v>45</v>
       </c>
       <c r="C47" s="22" t="s">
         <v>822</v>
@@ -14023,10 +14035,10 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="22" t="n">
-        <v>238</v>
+        <v>46</v>
       </c>
       <c r="B48" s="22" t="n">
-        <v>289</v>
+        <v>46</v>
       </c>
       <c r="C48" s="22" t="s">
         <v>823</v>
@@ -14034,10 +14046,10 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="22" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B49" s="22" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C49" s="22" t="s">
         <v>824</v>
@@ -14045,10 +14057,10 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="22" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B50" s="22" t="n">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C50" s="22" t="s">
         <v>825</v>
@@ -14056,10 +14068,10 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="22" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B51" s="22" t="n">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C51" s="22" t="s">
         <v>826</v>
@@ -14067,10 +14079,10 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="22" t="n">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B52" s="22" t="n">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C52" s="22" t="s">
         <v>827</v>
@@ -14078,39 +14090,61 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="22" t="n">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="B53" s="22" t="n">
-        <v>512</v>
+        <v>292</v>
       </c>
       <c r="C53" s="22" t="s">
         <v>828</v>
       </c>
     </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="22" t="n">
+        <v>233</v>
+      </c>
+      <c r="B54" s="22" t="n">
+        <v>293</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>829</v>
+      </c>
+    </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="26" t="s">
-        <v>829</v>
-      </c>
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-    </row>
-    <row r="56" customFormat="false" ht="92.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="27" t="s">
+      <c r="A55" s="22" t="n">
+        <v>225</v>
+      </c>
+      <c r="B55" s="22" t="n">
+        <v>512</v>
+      </c>
+      <c r="C55" s="22" t="s">
         <v>830</v>
       </c>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="26" t="s">
+        <v>831</v>
+      </c>
+      <c r="B57" s="26"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+    </row>
+    <row r="58" customFormat="false" ht="92.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="27" t="s">
+        <v>832</v>
+      </c>
+      <c r="B58" s="27"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A58:F58"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -14127,10 +14161,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A62" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B69" activeCellId="0" sqref="B69"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14143,426 +14177,434 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="22" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="22" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="22" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="22" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="22" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="22" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="22" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="22" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="22" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="22" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="22" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="22" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="22" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="22" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="22" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="22" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="22" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="22" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="22" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="22" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="22" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="22" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="22" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="22" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="22" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="22" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="22" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="22" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="22" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="22" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="22" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="22" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="22" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="22" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="22" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="22" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="22" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="28" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="22" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="22" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="22" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="22" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="22" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="22" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="22" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="22" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="22" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="22" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="22" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="22" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="22" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="22" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="22" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="22" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="22" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="22" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="22" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="22" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="22" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="22" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="22" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="22" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="22" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="22" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="22" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="22" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="B67" s="22" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="22" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>926</v>
+        <v>928</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="22" t="s">
+        <v>929</v>
+      </c>
+      <c r="B69" s="22" t="s">
+        <v>930</v>
       </c>
     </row>
   </sheetData>

--- a/CCGX-Modbus-TCP-register-list.xlsx
+++ b/CCGX-Modbus-TCP-register-list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Field list" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2649" uniqueCount="931">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2654" uniqueCount="936">
   <si>
     <t xml:space="preserve">NOTE: Use unit-id 100 for the com.victronenergy.system data, for more information see FAQ.</t>
   </si>
@@ -2361,10 +2361,10 @@
     <t xml:space="preserve">CCGX VE.Direct 1 port (ttyO0)</t>
   </si>
   <si>
-    <t xml:space="preserve">CCGX VE.Direct 2 port, Venus GX VE.Direct 1 port (ttyO2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Venus GX VE.Direct 2 port (ttyO4)</t>
+    <t xml:space="preserve">CCGX VE.Direct port 2, Venus GX VE.Direct port 1, Octo GX port 1 (ttyO2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venus GX VE.Direct port 2, Octo GX port 2 (ttyO4)</t>
   </si>
   <si>
     <t xml:space="preserve">Venus GX VE.Bus port (ttyO5)</t>
@@ -2499,19 +2499,28 @@
     <t xml:space="preserve">VE.Direct via USB (ttyUSB0)</t>
   </si>
   <si>
-    <t xml:space="preserve">VE.Direct via USB (ttyUSB1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VE.Direct via USB (ttyUSB2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VE.Direct via USB (ttyUSB3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VE.Direct via USB (ttyUSB4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VE.Direct via USB (ttyUSB5)</t>
+    <t xml:space="preserve">VE.Direct via USB, Octo GX VE.Direct 3 (ttyUSB1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VE.Direct via USB, Octo GX VE.Direct 4 (ttyUSB2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VE.Direct via USB, Octo GX VE.Direct 5 (ttyUSB3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VE.Direct via USB, Octo GX VE.Direct 6 (ttyUSB4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VE.Direct via USB, Octo GX VE.Direct 7 (ttyUSB5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VE.Direct via USB, Octo GX VE.Direct 8 (ttyUSB6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VE.Direct via USB, Octo GX VE.Direct 9 (ttyUSB7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VE.Direct via USB, Octo GX VE.Direct 10 (ttyUSB8)</t>
   </si>
   <si>
     <t xml:space="preserve">CAN-bus BMS</t>
@@ -2815,6 +2824,12 @@
   </si>
   <si>
     <t xml:space="preserve">Added mapping for EasySolar-II/Multiplus-II GX VE.Direct ports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added mappings for up to 9 USB-connected VE.Direct devices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added Octo-GX mappings</t>
   </si>
 </sst>
 </file>
@@ -3167,10 +3182,10 @@
   </sheetPr>
   <dimension ref="A1:N345"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A321" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G339" activeCellId="0" sqref="G339"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13502,10 +13517,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14055,7 +14070,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="22" t="n">
         <v>238</v>
       </c>
@@ -14066,7 +14081,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="22" t="n">
         <v>237</v>
       </c>
@@ -14077,7 +14092,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="22" t="n">
         <v>236</v>
       </c>
@@ -14088,7 +14103,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="22" t="n">
         <v>235</v>
       </c>
@@ -14099,7 +14114,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="22" t="n">
         <v>233</v>
       </c>
@@ -14110,41 +14125,76 @@
         <v>829</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="22" t="n">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="B55" s="22" t="n">
-        <v>512</v>
+        <v>294</v>
       </c>
       <c r="C55" s="22" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="26" t="s">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="22" t="n">
+        <v>231</v>
+      </c>
+      <c r="B56" s="22" t="n">
+        <v>295</v>
+      </c>
+      <c r="C56" s="22" t="s">
         <v>831</v>
       </c>
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
-    </row>
-    <row r="58" customFormat="false" ht="92.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="27" t="s">
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="22" t="n">
+        <v>234</v>
+      </c>
+      <c r="B57" s="22" t="n">
+        <v>296</v>
+      </c>
+      <c r="C57" s="22" t="s">
         <v>832</v>
       </c>
-      <c r="B58" s="27"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-    </row>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="22" t="n">
+        <v>225</v>
+      </c>
+      <c r="B58" s="22" t="n">
+        <v>512</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="26" t="s">
+        <v>834</v>
+      </c>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+    </row>
+    <row r="61" customFormat="false" ht="92.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="27" t="s">
+        <v>835</v>
+      </c>
+      <c r="B61" s="27"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="27"/>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A61:F61"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -14161,9 +14211,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A45" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -14177,434 +14227,444 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="22" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="22" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="22" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="22" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="22" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="22" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="22" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="22" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="22" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="22" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="22" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="22" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="22" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="22" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="22" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="22" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="22" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="22" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="22" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="22" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="22" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="22" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="22" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="22" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="22" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="22" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="22" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="22" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="22" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="22" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="22" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="22" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="22" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="22" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="22" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="22" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="22" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="28" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="22" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="22" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="22" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="22" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="22" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="22" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="22" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="22" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="22" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="22" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="22" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="22" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="22" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="22" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="22" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="22" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="22" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="22" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="22" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="22" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="22" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="22" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="22" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="22" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="22" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="22" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="22" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="22" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="B67" s="22" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="22" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="22" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>930</v>
+        <v>933</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="22" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="22" t="s">
+        <v>935</v>
       </c>
     </row>
   </sheetData>

--- a/CCGX-Modbus-TCP-register-list.xlsx
+++ b/CCGX-Modbus-TCP-register-list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Field list" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2654" uniqueCount="936">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2656" uniqueCount="938">
   <si>
     <t xml:space="preserve">NOTE: Use unit-id 100 for the com.victronenergy.system data, for more information see FAQ.</t>
   </si>
@@ -396,489 +396,489 @@
     <t xml:space="preserve">System value etc. AND: Positive: power flowing from the Multi to the dc system. Negative: the other way around.</t>
   </si>
   <si>
+    <t xml:space="preserve">com.victronenergy.vebus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input voltage phase 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Ac/ActiveIn/L1/V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V AC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input voltage phase 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Ac/ActiveIn/L2/V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input voltage phase 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Ac/ActiveIn/L3/V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input current phase 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Ac/ActiveIn/L1/I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A AC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Positive: current flowing from mains to Multi. Negative: current flowing from Multi to mains.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input current phase 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Ac/ActiveIn/L2/I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input current phase 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Ac/ActiveIn/L3/I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input frequency 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-326.68 to 326.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Ac/ActiveIn/L1/F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input frequency 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Ac/ActiveIn/L2/F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input frequency 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Ac/ActiveIn/L3/F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input power 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-326680 to 326680</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Ac/ActiveIn/L1/P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VA or Watts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sign meaning equal to Input current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input power 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Ac/ActiveIn/L2/P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input power 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Ac/ActiveIn/L3/P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sign meaning eaqual to Input current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Output voltage phase 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Ac/Out/L1/V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Output voltage phase 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Ac/Out/L2/V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Output voltage phase 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Ac/Out/L3/V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Output current phase 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Ac/Out/L1/I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postive: current flowing from Multi to the load. Negative: current flowing from load to the Multi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Output current phase 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Ac/Out/L2/I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Output current phase 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Ac/Out/L3/I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Output frequency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Ac/Out/L1/F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Active input current limit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Ac/ActiveIn/CurrentLimit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">See Venus-OS manual for limitations, for example when VE.Bus BMS or DMC is installed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Output power 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Ac/Out/L1/P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sign meaning equal to Output current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Output power 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Ac/Out/L2/P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Output power 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Ac/Out/L3/P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battery voltage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 to 653.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Dc/0/Voltage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battery current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Dc/0/Current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Positive: current flowing from the Multi to the dc system. Negative: the other way around.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phase count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Ac/NumberOfPhases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Active input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Ac/ActiveIn/ActiveInput</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0=AC Input 1;1=AC Input 2;240=Disconnected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VE.Bus state of charge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Soc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VE.Bus state</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0=Off;1=Low Power;2=Fault;3=Bulk;4=Absorption;5=Float;6=Storage;7=Equalize;8=Passthru;9=Inverting;10=Power assist;11=Power supply;252=Bulk protection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VE.Bus Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/VebusError</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0=No error;1=VE.Bus Error 1: Device is switched off because one of the other phases in the system has switched off;2=VE.Bus Error 2: New and old types MK2 are mixed in the system;3=VE.Bus Error 3: Not all- or more than- the expected devices were found in the system;4=VE.Bus Error 4: No other device whatsoever detected;5=VE.Bus Error 5: Overvoltage on AC-out;6=VE.Bus Error 6: Error in DDC Program;7=VE.Bus BMS connected- which requires an Assistant- but no assistant found;10=VE.Bus Error 10: System time synchronisation problem occurred;14=VE.Bus Error 14: Device cannot transmit data;16=VE.Bus Error 16: Dongle missing;17=VE.Bus Error 17: One of the devices assumed master status because the original master failed;18=VE.Bus Error 18: AC Overvoltage on the output of a slave has occurred while already switched off;22=VE.Bus Error 22: This device cannot function as slave;24=VE.Bus Error 24: Switch-over system protection initiated;25=VE.Bus Error 25: Firmware incompatibility. The firmware of one of the connected device is not sufficiently up to date to operate in conjunction with this device;26=VE.Bus Error 26: Internal error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switch Position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1=Charger Only;2=Inverter Only;3=On;4=Off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature alarm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Alarms/HighTemperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0=Ok;1=Warning;2=Alarm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low battery alarm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Alarms/LowBattery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overload alarm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Alarms/Overload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESS power setpoint phase 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Hub4/L1/AcPowerSetpoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESS Mode 3 - Instructs the multi to charge/discharge with giving power. Negative = discharge. Used by the control loop in grid-parallel systems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESS disable charge flag phase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Hub4/DisableCharge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0=Charge allowed;1=Charge disabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESS Mode 3 - Enables/Disables charge (0=enabled, 1=disabled). Note that power setpoint will yield to this setting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESS disable feedback flag phase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Hub4/DisableFeedIn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0=Feed in allowed;1=Feed in disabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESS Mode 3 - Enables/Disables feedback (0=enabled, 1=disabled). Note that power setpoint will yield to this setting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESS power setpoint phase 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Hub4/L2/AcPowerSetpoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESS power setpoint phase 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Hub4/L3/AcPowerSetpoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperatur sensor alarm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Alarms/TemperatureSensor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voltage sensor alarm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Alarms/VoltageSensor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature alarm L1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Alarms/L1/HighTemperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low battery alarm L1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Alarms/L1/LowBattery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overload alarm L1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Alarms/L1/Overload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ripple alarm L1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Alarms/L1/Ripple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature alarm L2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Alarms/L2/HighTemperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low battery alarm L2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Alarms/L2/LowBattery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overload alarm L2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Alarms/L2/Overload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ripple alarm L2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Alarms/L2/Ripple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature alarm L3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Alarms/L3/HighTemperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low battery alarm L3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Alarms/L3/LowBattery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overload alarm L3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Alarms/L3/Overload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ripple alarm L3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Alarms/L3/Ripple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disable PV inverter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/PvInverter/Disable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0=PV enabled;1=PV disabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disable PV inverter on AC out (using frequency shifting). Only works when vebus device is in inverter mode. Needs ESS or PV inverter assistant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VE.Bus BMS allows battery to be charged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Bms/AllowToCharge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0=No;1=Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VE.Bus BMS allows the battery to be charged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VE.Bus BMS allows battery to be discharged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Bms/AllowToDischarge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VE.Bus BMS allows the battery to be discharged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VE.Bus BMS is expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Bms/BmsExpected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presence of VE.Bus BMS is expected based on vebus settings (presence of ESS or BMS assistant)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VE.Bus BMS error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Bms/Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battery temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Dc/0/Temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Degrees celsius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VE.Bus Reset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/SystemReset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0=No action; 1=VE.Bus reset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phase rotation warning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Alarms/PhaseRotation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0=Ok;1=Warning</t>
+  </si>
+  <si>
     <t xml:space="preserve">Grid lost alarm</t>
   </si>
   <si>
-    <t xml:space="preserve">/Ac/Alarms/GridLost</t>
+    <t xml:space="preserve">/Alarms/GridLost</t>
   </si>
   <si>
     <t xml:space="preserve">0=Ok;2=Alarm</t>
   </si>
   <si>
-    <t xml:space="preserve">com.victronenergy.vebus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Input voltage phase 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Ac/ActiveIn/L1/V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V AC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Input voltage phase 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Ac/ActiveIn/L2/V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Input voltage phase 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Ac/ActiveIn/L3/V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Input current phase 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Ac/ActiveIn/L1/I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A AC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Positive: current flowing from mains to Multi. Negative: current flowing from Multi to mains.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Input current phase 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Ac/ActiveIn/L2/I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Input current phase 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Ac/ActiveIn/L3/I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Input frequency 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-326.68 to 326.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Ac/ActiveIn/L1/F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Input frequency 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Ac/ActiveIn/L2/F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Input frequency 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Ac/ActiveIn/L3/F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Input power 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-326680 to 326680</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Ac/ActiveIn/L1/P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VA or Watts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sign meaning equal to Input current</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Input power 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Ac/ActiveIn/L2/P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Input power 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Ac/ActiveIn/L3/P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sign meaning eaqual to Input current</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Output voltage phase 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Ac/Out/L1/V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Output voltage phase 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Ac/Out/L2/V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Output voltage phase 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Ac/Out/L3/V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Output current phase 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Ac/Out/L1/I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postive: current flowing from Multi to the load. Negative: current flowing from load to the Multi.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Output current phase 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Ac/Out/L2/I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Output current phase 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Ac/Out/L3/I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Output frequency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Ac/Out/L1/F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Active input current limit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Ac/ActiveIn/CurrentLimit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">See Venus-OS manual for limitations, for example when VE.Bus BMS or DMC is installed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Output power 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Ac/Out/L1/P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sign meaning equal to Output current</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Output power 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Ac/Out/L2/P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Output power 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Ac/Out/L3/P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Battery voltage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 to 653.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Dc/0/Voltage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Battery current</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Dc/0/Current</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Positive: current flowing from the Multi to the dc system. Negative: the other way around.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phase count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Ac/NumberOfPhases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Active input</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Ac/ActiveIn/ActiveInput</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0=AC Input 1;1=AC Input 2;240=Disconnected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VE.Bus state of charge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Soc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VE.Bus state</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/State</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0=Off;1=Low Power;2=Fault;3=Bulk;4=Absorption;5=Float;6=Storage;7=Equalize;8=Passthru;9=Inverting;10=Power assist;11=Power supply;252=Bulk protection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VE.Bus Error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/VebusError</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0=No error;1=VE.Bus Error 1: Device is switched off because one of the other phases in the system has switched off;2=VE.Bus Error 2: New and old types MK2 are mixed in the system;3=VE.Bus Error 3: Not all- or more than- the expected devices were found in the system;4=VE.Bus Error 4: No other device whatsoever detected;5=VE.Bus Error 5: Overvoltage on AC-out;6=VE.Bus Error 6: Error in DDC Program;7=VE.Bus BMS connected- which requires an Assistant- but no assistant found;10=VE.Bus Error 10: System time synchronisation problem occurred;14=VE.Bus Error 14: Device cannot transmit data;16=VE.Bus Error 16: Dongle missing;17=VE.Bus Error 17: One of the devices assumed master status because the original master failed;18=VE.Bus Error 18: AC Overvoltage on the output of a slave has occurred while already switched off;22=VE.Bus Error 22: This device cannot function as slave;24=VE.Bus Error 24: Switch-over system protection initiated;25=VE.Bus Error 25: Firmware incompatibility. The firmware of one of the connected device is not sufficiently up to date to operate in conjunction with this device;26=VE.Bus Error 26: Internal error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switch Position</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1=Charger Only;2=Inverter Only;3=On;4=Off</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperature alarm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Alarms/HighTemperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0=Ok;1=Warning;2=Alarm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low battery alarm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Alarms/LowBattery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overload alarm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Alarms/Overload</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESS power setpoint phase 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Hub4/L1/AcPowerSetpoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESS Mode 3 - Instructs the multi to charge/discharge with giving power. Negative = discharge. Used by the control loop in grid-parallel systems.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESS disable charge flag phase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Hub4/DisableCharge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0=Charge allowed;1=Charge disabled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESS Mode 3 - Enables/Disables charge (0=enabled, 1=disabled). Note that power setpoint will yield to this setting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESS disable feedback flag phase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Hub4/DisableFeedIn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0=Feed in allowed;1=Feed in disabled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESS Mode 3 - Enables/Disables feedback (0=enabled, 1=disabled). Note that power setpoint will yield to this setting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESS power setpoint phase 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Hub4/L2/AcPowerSetpoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESS power setpoint phase 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Hub4/L3/AcPowerSetpoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperatur sensor alarm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Alarms/TemperatureSensor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Voltage sensor alarm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Alarms/VoltageSensor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperature alarm L1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Alarms/L1/HighTemperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low battery alarm L1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Alarms/L1/LowBattery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overload alarm L1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Alarms/L1/Overload</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ripple alarm L1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Alarms/L1/Ripple</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperature alarm L2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Alarms/L2/HighTemperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low battery alarm L2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Alarms/L2/LowBattery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overload alarm L2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Alarms/L2/Overload</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ripple alarm L2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Alarms/L2/Ripple</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperature alarm L3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Alarms/L3/HighTemperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low battery alarm L3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Alarms/L3/LowBattery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overload alarm L3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Alarms/L3/Overload</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ripple alarm L3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Alarms/L3/Ripple</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disable PV inverter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/PvInverter/Disable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0=PV enabled;1=PV disabled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disable PV inverter on AC out (using frequency shifting). Only works when vebus device is in inverter mode. Needs ESS or PV inverter assistant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VE.Bus BMS allows battery to be charged</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Bms/AllowToCharge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0=No;1=Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VE.Bus BMS allows the battery to be charged</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VE.Bus BMS allows battery to be discharged</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Bms/AllowToDischarge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VE.Bus BMS allows the battery to be discharged</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VE.Bus BMS is expected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Bms/BmsExpected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Presence of VE.Bus BMS is expected based on vebus settings (presence of ESS or BMS assistant)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VE.Bus BMS error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Bms/Error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Battery temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Dc/0/Temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Degrees celsius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VE.Bus Reset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/SystemReset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0=No action; 1=VE.Bus reset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phase rotation warning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Alarms/PhaseRotation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0=Ok;1=Warning</t>
-  </si>
-  <si>
     <t xml:space="preserve">com.victronenergy.battery</t>
   </si>
   <si>
@@ -2830,6 +2830,12 @@
   </si>
   <si>
     <t xml:space="preserve">Added Octo-GX mappings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rev 29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GridLost alarm moved to the vebus service</t>
   </si>
 </sst>
 </file>
@@ -3182,10 +3188,10 @@
   </sheetPr>
   <dimension ref="A1:N345"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A278" activeCellId="0" sqref="A278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4369,44 +4375,44 @@
         <v>123</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>830</v>
+        <v>3</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>20</v>
@@ -4424,18 +4430,18 @@
         <v>17</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>20</v>
@@ -4447,53 +4453,56 @@
         <v>79</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E41" s="1" t="n">
         <v>10</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G41" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H41" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>130</v>
+      <c r="J41" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>59</v>
@@ -4505,27 +4514,27 @@
         <v>84</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>59</v>
@@ -4537,36 +4546,36 @@
         <v>84</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E44" s="1" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>142</v>
@@ -4575,21 +4584,18 @@
         <v>17</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>59</v>
@@ -4598,7 +4604,7 @@
         <v>100</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>145</v>
@@ -4607,18 +4613,18 @@
         <v>17</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>59</v>
@@ -4627,36 +4633,36 @@
         <v>100</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E47" s="1" t="n">
-        <v>100</v>
+        <v>0.1</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>150</v>
@@ -4665,18 +4671,21 @@
         <v>17</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>59</v>
@@ -4685,30 +4694,30 @@
         <v>0.1</v>
       </c>
       <c r="F48" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J48" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>59</v>
@@ -4717,39 +4726,39 @@
         <v>0.1</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G49" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J49" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>158</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E50" s="1" t="n">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>152</v>
+        <v>79</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>159</v>
@@ -4758,21 +4767,18 @@
         <v>17</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>20</v>
@@ -4784,24 +4790,24 @@
         <v>79</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>20</v>
@@ -4813,53 +4819,56 @@
         <v>79</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E53" s="1" t="n">
         <v>10</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G53" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J53" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>167</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>59</v>
@@ -4877,21 +4886,21 @@
         <v>17</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>59</v>
@@ -4903,120 +4912,120 @@
         <v>84</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E56" s="1" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E57" s="1" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="G57" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I57" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="H57" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>146</v>
+      <c r="J57" s="21" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E58" s="1" t="n">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>84</v>
+        <v>149</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="J58" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="J58" s="1" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>180</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>59</v>
@@ -5025,7 +5034,7 @@
         <v>0.1</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>181</v>
@@ -5034,21 +5043,21 @@
         <v>17</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>59</v>
@@ -5057,39 +5066,39 @@
         <v>0.1</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C61" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E61" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F61" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="C61" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E61" s="1" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>186</v>
@@ -5098,59 +5107,59 @@
         <v>17</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>182</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>187</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E62" s="1" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F62" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G62" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="H62" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J62" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>190</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E63" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>191</v>
@@ -5159,21 +5168,18 @@
         <v>17</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J63" s="1" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>193</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>20</v>
@@ -5196,71 +5202,71 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>196</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E65" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>197</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>198</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C66" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E66" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G66" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C66" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E66" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G66" s="1" t="s">
+      <c r="H66" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I66" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>201</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>20</v>
@@ -5283,13 +5289,13 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>204</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>20</v>
@@ -5304,21 +5310,24 @@
         <v>205</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>206</v>
       </c>
+      <c r="J68" s="21" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>207</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>20</v>
@@ -5333,24 +5342,21 @@
         <v>208</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="J69" s="21" t="s">
-        <v>179</v>
-      </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>210</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>20</v>
@@ -5368,18 +5374,18 @@
         <v>17</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>20</v>
@@ -5391,62 +5397,65 @@
         <v>29</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C72" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E72" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G72" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C72" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E72" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G72" s="1" t="s">
+      <c r="H72" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J72" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>217</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E73" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>218</v>
@@ -5455,21 +5464,21 @@
         <v>23</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>31</v>
+        <v>219</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>20</v>
@@ -5481,59 +5490,59 @@
         <v>29</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E75" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>226</v>
+        <v>31</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>59</v>
@@ -5545,7 +5554,7 @@
         <v>60</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>23</v>
@@ -5554,50 +5563,47 @@
         <v>31</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C77" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E77" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G77" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C77" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E77" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="H77" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>20</v>
@@ -5609,24 +5615,24 @@
         <v>29</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>20</v>
@@ -5638,24 +5644,24 @@
         <v>29</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>20</v>
@@ -5667,24 +5673,24 @@
         <v>29</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>20</v>
@@ -5696,24 +5702,24 @@
         <v>29</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>20</v>
@@ -5725,24 +5731,24 @@
         <v>29</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>20</v>
@@ -5754,24 +5760,24 @@
         <v>29</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>20</v>
@@ -5783,24 +5789,24 @@
         <v>29</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>20</v>
@@ -5812,24 +5818,24 @@
         <v>29</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>20</v>
@@ -5841,24 +5847,24 @@
         <v>29</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>20</v>
@@ -5870,24 +5876,24 @@
         <v>29</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>20</v>
@@ -5899,24 +5905,24 @@
         <v>29</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>20</v>
@@ -5928,24 +5934,24 @@
         <v>29</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>20</v>
@@ -5957,24 +5963,24 @@
         <v>29</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>20</v>
@@ -5986,24 +5992,27 @@
         <v>29</v>
       </c>
       <c r="G91" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I91" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="H91" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>212</v>
+      <c r="J91" s="1" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>20</v>
@@ -6015,27 +6024,27 @@
         <v>29</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>20</v>
@@ -6047,13 +6056,13 @@
         <v>29</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>267</v>
@@ -6061,13 +6070,13 @@
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>268</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>20</v>
@@ -6085,7 +6094,7 @@
         <v>17</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>270</v>
@@ -6093,13 +6102,13 @@
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>271</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>20</v>
@@ -6117,65 +6126,62 @@
         <v>17</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J95" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B96" s="1" t="s">
+      <c r="C96" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E96" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G96" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C96" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E96" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G96" s="1" t="s">
+      <c r="H96" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I96" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B97" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B97" s="22" t="s">
         <v>276</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E97" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>277</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>278</v>
@@ -6183,13 +6189,13 @@
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B98" s="22" t="s">
         <v>279</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>20</v>
@@ -6204,7 +6210,7 @@
         <v>280</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I98" s="1" t="s">
         <v>281</v>
@@ -6212,13 +6218,13 @@
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B99" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>282</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>63</v>
+        <v>830</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>20</v>
@@ -6244,7 +6250,7 @@
         <v>285</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C100" s="1" t="n">
         <v>259</v>
@@ -6256,10 +6262,10 @@
         <v>100</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>17</v>
@@ -6285,7 +6291,7 @@
         <v>100</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>287</v>
@@ -6317,7 +6323,7 @@
         <v>84</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>17</v>
@@ -6334,7 +6340,7 @@
         <v>285</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C103" s="1" t="n">
         <v>262</v>
@@ -6349,13 +6355,13 @@
         <v>84</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>289</v>
@@ -6378,7 +6384,7 @@
         <v>100</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>291</v>
@@ -6407,7 +6413,7 @@
         <v>100</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>293</v>
@@ -6471,7 +6477,7 @@
         <v>79</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>17</v>
@@ -6706,7 +6712,7 @@
         <v>29</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>17</v>
@@ -7020,7 +7026,7 @@
         <v>17</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>327</v>
@@ -7052,7 +7058,7 @@
         <v>17</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>327</v>
@@ -7107,7 +7113,7 @@
         <v>100</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>341</v>
@@ -7139,7 +7145,7 @@
         <v>100</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>343</v>
@@ -7212,7 +7218,7 @@
         <v>17</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>327</v>
@@ -7244,7 +7250,7 @@
         <v>17</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>327</v>
@@ -7276,7 +7282,7 @@
         <v>17</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>327</v>
@@ -7308,7 +7314,7 @@
         <v>17</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>327</v>
@@ -7340,7 +7346,7 @@
         <v>17</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>327</v>
@@ -7363,7 +7369,7 @@
         <v>100</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>358</v>
@@ -7395,7 +7401,7 @@
         <v>100</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G137" s="1" t="s">
         <v>360</v>
@@ -7436,7 +7442,7 @@
         <v>17</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>319</v>
@@ -7468,7 +7474,7 @@
         <v>17</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>319</v>
@@ -7491,7 +7497,7 @@
         <v>100</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>366</v>
@@ -7523,7 +7529,7 @@
         <v>100</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G141" s="1" t="s">
         <v>368</v>
@@ -7953,7 +7959,7 @@
         <v>17</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7982,7 +7988,7 @@
         <v>17</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8193,7 +8199,7 @@
         <v>419</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C164" s="1" t="n">
         <v>771</v>
@@ -8205,10 +8211,10 @@
         <v>100</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H164" s="1" t="s">
         <v>17</v>
@@ -8222,7 +8228,7 @@
         <v>419</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C165" s="1" t="n">
         <v>772</v>
@@ -8237,7 +8243,7 @@
         <v>84</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H165" s="1" t="s">
         <v>17</v>
@@ -8251,7 +8257,7 @@
         <v>419</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C166" s="1" t="n">
         <v>773</v>
@@ -8266,13 +8272,13 @@
         <v>84</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H166" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>420</v>
@@ -8298,7 +8304,7 @@
         <v>29</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H167" s="1" t="s">
         <v>23</v>
@@ -8330,7 +8336,7 @@
         <v>29</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H168" s="1" t="s">
         <v>17</v>
@@ -8356,7 +8362,7 @@
         <v>100</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G169" s="1" t="s">
         <v>426</v>
@@ -8891,7 +8897,7 @@
         <v>17</v>
       </c>
       <c r="I186" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8920,7 +8926,7 @@
         <v>17</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8969,7 +8975,7 @@
         <v>100</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G189" s="1" t="s">
         <v>473</v>
@@ -9010,7 +9016,7 @@
         <v>17</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9039,7 +9045,7 @@
         <v>17</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9088,7 +9094,7 @@
         <v>100</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G193" s="1" t="s">
         <v>482</v>
@@ -9129,7 +9135,7 @@
         <v>17</v>
       </c>
       <c r="I194" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9158,7 +9164,7 @@
         <v>17</v>
       </c>
       <c r="I195" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9207,7 +9213,7 @@
         <v>100</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G197" s="1" t="s">
         <v>491</v>
@@ -9358,7 +9364,7 @@
         <v>29</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H202" s="1" t="s">
         <v>17</v>
@@ -9480,7 +9486,7 @@
         <v>17</v>
       </c>
       <c r="I206" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9509,7 +9515,7 @@
         <v>17</v>
       </c>
       <c r="I207" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9538,7 +9544,7 @@
         <v>17</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9567,7 +9573,7 @@
         <v>17</v>
       </c>
       <c r="I209" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9587,7 +9593,7 @@
         <v>100</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G210" s="1" t="s">
         <v>518</v>
@@ -9616,7 +9622,7 @@
         <v>100</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G211" s="1" t="s">
         <v>520</v>
@@ -9654,7 +9660,7 @@
         <v>17</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9799,7 +9805,7 @@
         <v>17</v>
       </c>
       <c r="I217" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9828,7 +9834,7 @@
         <v>17</v>
       </c>
       <c r="I218" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9877,7 +9883,7 @@
         <v>100</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G220" s="1" t="s">
         <v>538</v>
@@ -9906,7 +9912,7 @@
         <v>100</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G221" s="1" t="s">
         <v>540</v>
@@ -9973,7 +9979,7 @@
         <v>17</v>
       </c>
       <c r="I223" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9993,10 +9999,10 @@
         <v>100</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H224" s="1" t="s">
         <v>17</v>
@@ -10025,7 +10031,7 @@
         <v>84</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H225" s="1" t="s">
         <v>17</v>
@@ -10092,7 +10098,7 @@
         <v>17</v>
       </c>
       <c r="I227" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10112,10 +10118,10 @@
         <v>100</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H228" s="1" t="s">
         <v>17</v>
@@ -10144,7 +10150,7 @@
         <v>84</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H229" s="1" t="s">
         <v>17</v>
@@ -10173,13 +10179,13 @@
         <v>84</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H230" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10199,7 +10205,7 @@
         <v>100</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G231" s="1" t="s">
         <v>287</v>
@@ -10257,7 +10263,7 @@
         <v>100</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G233" s="1" t="s">
         <v>562</v>
@@ -10324,7 +10330,7 @@
         <v>17</v>
       </c>
       <c r="I235" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10382,7 +10388,7 @@
         <v>23</v>
       </c>
       <c r="I237" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10405,7 +10411,7 @@
         <v>29</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H238" s="1" t="s">
         <v>23</v>
@@ -10434,7 +10440,7 @@
         <v>29</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H239" s="1" t="s">
         <v>17</v>
@@ -10663,7 +10669,7 @@
         <v>100</v>
       </c>
       <c r="F247" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G247" s="1" t="s">
         <v>473</v>
@@ -10692,7 +10698,7 @@
         <v>100</v>
       </c>
       <c r="F248" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G248" s="1" t="s">
         <v>482</v>
@@ -10721,7 +10727,7 @@
         <v>100</v>
       </c>
       <c r="F249" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G249" s="1" t="s">
         <v>491</v>
@@ -10750,7 +10756,7 @@
         <v>100</v>
       </c>
       <c r="F250" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G250" s="1" t="s">
         <v>582</v>
@@ -10779,7 +10785,7 @@
         <v>100</v>
       </c>
       <c r="F251" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G251" s="1" t="s">
         <v>584</v>
@@ -10808,7 +10814,7 @@
         <v>100</v>
       </c>
       <c r="F252" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G252" s="1" t="s">
         <v>586</v>
@@ -10872,7 +10878,7 @@
         <v>17</v>
       </c>
       <c r="I254" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10901,7 +10907,7 @@
         <v>17</v>
       </c>
       <c r="I255" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10930,7 +10936,7 @@
         <v>17</v>
       </c>
       <c r="I256" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10959,7 +10965,7 @@
         <v>17</v>
       </c>
       <c r="I257" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10988,7 +10994,7 @@
         <v>17</v>
       </c>
       <c r="I258" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11017,7 +11023,7 @@
         <v>17</v>
       </c>
       <c r="I259" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11461,7 +11467,7 @@
         <v>100</v>
       </c>
       <c r="F274" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G274" s="1" t="s">
         <v>622</v>
@@ -11493,7 +11499,7 @@
         <v>100</v>
       </c>
       <c r="F275" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G275" s="1" t="s">
         <v>626</v>
@@ -11872,13 +11878,13 @@
         <v>665</v>
       </c>
       <c r="G288" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H288" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I288" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11901,13 +11907,13 @@
         <v>667</v>
       </c>
       <c r="G289" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H289" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I289" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11915,7 +11921,7 @@
         <v>663</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C290" s="1" t="n">
         <v>3105</v>
@@ -11930,7 +11936,7 @@
         <v>668</v>
       </c>
       <c r="G290" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H290" s="1" t="s">
         <v>17</v>
@@ -11959,7 +11965,7 @@
         <v>669</v>
       </c>
       <c r="G291" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H291" s="1" t="s">
         <v>17</v>
@@ -12118,7 +12124,7 @@
         <v>663</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C297" s="1" t="n">
         <v>3116</v>
@@ -12133,7 +12139,7 @@
         <v>669</v>
       </c>
       <c r="G297" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H297" s="1" t="s">
         <v>17</v>
@@ -12217,7 +12223,7 @@
         <v>669</v>
       </c>
       <c r="G300" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H300" s="1" t="s">
         <v>23</v>
@@ -12272,7 +12278,7 @@
         <v>669</v>
       </c>
       <c r="G302" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H302" s="1" t="s">
         <v>17</v>
@@ -12307,7 +12313,7 @@
         <v>17</v>
       </c>
       <c r="I303" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12336,7 +12342,7 @@
         <v>17</v>
       </c>
       <c r="I304" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12365,7 +12371,7 @@
         <v>17</v>
       </c>
       <c r="I305" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12394,7 +12400,7 @@
         <v>17</v>
       </c>
       <c r="I306" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12423,7 +12429,7 @@
         <v>17</v>
       </c>
       <c r="I307" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12452,7 +12458,7 @@
         <v>17</v>
       </c>
       <c r="I308" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12568,7 +12574,7 @@
         <v>17</v>
       </c>
       <c r="I312" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12597,7 +12603,7 @@
         <v>17</v>
       </c>
       <c r="I313" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12626,7 +12632,7 @@
         <v>17</v>
       </c>
       <c r="I314" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12855,7 +12861,7 @@
         <v>17</v>
       </c>
       <c r="I322" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12884,7 +12890,7 @@
         <v>17</v>
       </c>
       <c r="I323" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12913,7 +12919,7 @@
         <v>17</v>
       </c>
       <c r="I324" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13017,7 +13023,7 @@
         <v>100</v>
       </c>
       <c r="F328" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G328" s="1" t="s">
         <v>730</v>
@@ -13043,7 +13049,7 @@
         <v>100</v>
       </c>
       <c r="F329" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G329" s="1" t="s">
         <v>732</v>
@@ -13098,7 +13104,7 @@
         <v>100</v>
       </c>
       <c r="F331" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G331" s="1" t="s">
         <v>737</v>
@@ -13107,7 +13113,7 @@
         <v>17</v>
       </c>
       <c r="I331" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13240,7 +13246,7 @@
         <v>21</v>
       </c>
       <c r="G336" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H336" s="1" t="s">
         <v>17</v>
@@ -13469,7 +13475,7 @@
         <v>771</v>
       </c>
       <c r="I344" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13495,7 +13501,7 @@
         <v>773</v>
       </c>
       <c r="I345" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -14211,10 +14217,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A45" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A72" activeCellId="0" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14667,6 +14673,14 @@
         <v>935</v>
       </c>
     </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="22" t="s">
+        <v>936</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>937</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/CCGX-Modbus-TCP-register-list.xlsx
+++ b/CCGX-Modbus-TCP-register-list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Field list" sheetId="1" state="visible" r:id="rId2"/>
@@ -3188,10 +3188,10 @@
   </sheetPr>
   <dimension ref="A1:N345"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A278" activeCellId="0" sqref="A278"/>
+      <selection pane="bottomLeft" activeCell="C99" activeCellId="0" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6224,7 +6224,7 @@
         <v>282</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>830</v>
+        <v>64</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>20</v>
@@ -14219,7 +14219,7 @@
   </sheetPr>
   <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A72" activeCellId="0" sqref="A72"/>
     </sheetView>
   </sheetViews>

--- a/CCGX-Modbus-TCP-register-list.xlsx
+++ b/CCGX-Modbus-TCP-register-list.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2726" uniqueCount="971">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2727" uniqueCount="972">
   <si>
     <t xml:space="preserve">NOTE: Use unit-id 100 for the com.victronenergy.system data, for more information see FAQ.</t>
   </si>
@@ -861,7 +861,10 @@
     <t xml:space="preserve">/SystemReset</t>
   </si>
   <si>
-    <t xml:space="preserve">0=No action; 1=VE.Bus reset</t>
+    <t xml:space="preserve">1=VE.Bus reset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any write action will cause a reset</t>
   </si>
   <si>
     <t xml:space="preserve">Phase rotation warning</t>
@@ -6285,13 +6288,16 @@
       <c r="I97" s="1" t="s">
         <v>279</v>
       </c>
+      <c r="J97" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B98" s="22" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C98" s="1" t="n">
         <v>63</v>
@@ -6306,13 +6312,13 @@
         <v>277</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6320,7 +6326,7 @@
         <v>124</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C99" s="1" t="n">
         <v>64</v>
@@ -6335,13 +6341,13 @@
         <v>277</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6349,7 +6355,7 @@
         <v>124</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C100" s="1" t="n">
         <v>65</v>
@@ -6364,13 +6370,13 @@
         <v>277</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6378,7 +6384,7 @@
         <v>124</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C101" s="1" t="n">
         <v>66</v>
@@ -6390,10 +6396,10 @@
         <v>0.01</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>23</v>
@@ -6407,7 +6413,7 @@
         <v>124</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C102" s="1" t="n">
         <v>67</v>
@@ -6419,10 +6425,10 @@
         <v>0.01</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>23</v>
@@ -6436,7 +6442,7 @@
         <v>124</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C103" s="1" t="n">
         <v>68</v>
@@ -6448,10 +6454,10 @@
         <v>0.01</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>23</v>
@@ -6462,7 +6468,7 @@
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>184</v>
@@ -6491,10 +6497,10 @@
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C105" s="1" t="n">
         <v>260</v>
@@ -6509,7 +6515,7 @@
         <v>185</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>17</v>
@@ -6520,10 +6526,10 @@
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C106" s="1" t="n">
         <v>261</v>
@@ -6552,7 +6558,7 @@
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>273</v>
@@ -6579,15 +6585,15 @@
         <v>275</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C108" s="1" t="n">
         <v>263</v>
@@ -6602,7 +6608,7 @@
         <v>185</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>17</v>
@@ -6613,10 +6619,10 @@
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C109" s="1" t="n">
         <v>264</v>
@@ -6631,7 +6637,7 @@
         <v>185</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>17</v>
@@ -6642,10 +6648,10 @@
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C110" s="1" t="n">
         <v>265</v>
@@ -6660,7 +6666,7 @@
         <v>99</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>17</v>
@@ -6669,15 +6675,15 @@
         <v>101</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C111" s="1" t="n">
         <v>266</v>
@@ -6703,10 +6709,10 @@
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C112" s="1" t="n">
         <v>267</v>
@@ -6721,24 +6727,24 @@
         <v>29</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C113" s="1" t="n">
         <v>268</v>
@@ -6753,21 +6759,21 @@
         <v>29</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C114" s="1" t="n">
         <v>269</v>
@@ -6782,21 +6788,21 @@
         <v>29</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C115" s="1" t="n">
         <v>270</v>
@@ -6811,21 +6817,21 @@
         <v>29</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C116" s="1" t="n">
         <v>271</v>
@@ -6840,21 +6846,21 @@
         <v>29</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C117" s="1" t="n">
         <v>272</v>
@@ -6869,21 +6875,21 @@
         <v>29</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C118" s="1" t="n">
         <v>273</v>
@@ -6898,21 +6904,21 @@
         <v>29</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C119" s="1" t="n">
         <v>274</v>
@@ -6933,15 +6939,15 @@
         <v>17</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C120" s="1" t="n">
         <v>275</v>
@@ -6956,21 +6962,21 @@
         <v>29</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C121" s="1" t="n">
         <v>276</v>
@@ -6985,24 +6991,24 @@
         <v>29</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C122" s="1" t="n">
         <v>277</v>
@@ -7017,24 +7023,24 @@
         <v>29</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C123" s="1" t="n">
         <v>278</v>
@@ -7049,21 +7055,21 @@
         <v>29</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C124" s="1" t="n">
         <v>279</v>
@@ -7078,21 +7084,21 @@
         <v>29</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C125" s="1" t="n">
         <v>280</v>
@@ -7116,15 +7122,15 @@
         <v>24</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C126" s="1" t="n">
         <v>281</v>
@@ -7139,7 +7145,7 @@
         <v>99</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>17</v>
@@ -7148,15 +7154,15 @@
         <v>101</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C127" s="1" t="n">
         <v>282</v>
@@ -7171,7 +7177,7 @@
         <v>99</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>17</v>
@@ -7180,15 +7186,15 @@
         <v>101</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C128" s="1" t="n">
         <v>283</v>
@@ -7203,7 +7209,7 @@
         <v>99</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>17</v>
@@ -7212,15 +7218,15 @@
         <v>101</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C129" s="1" t="n">
         <v>284</v>
@@ -7235,7 +7241,7 @@
         <v>29</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H129" s="1" t="s">
         <v>17</v>
@@ -7244,15 +7250,15 @@
         <v>192</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C130" s="1" t="n">
         <v>285</v>
@@ -7267,7 +7273,7 @@
         <v>29</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>17</v>
@@ -7276,15 +7282,15 @@
         <v>192</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C131" s="1" t="n">
         <v>286</v>
@@ -7299,7 +7305,7 @@
         <v>99</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H131" s="1" t="s">
         <v>17</v>
@@ -7308,15 +7314,15 @@
         <v>101</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C132" s="1" t="n">
         <v>287</v>
@@ -7331,7 +7337,7 @@
         <v>185</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H132" s="1" t="s">
         <v>17</v>
@@ -7340,15 +7346,15 @@
         <v>81</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C133" s="1" t="n">
         <v>288</v>
@@ -7363,7 +7369,7 @@
         <v>185</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>17</v>
@@ -7372,15 +7378,15 @@
         <v>81</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C134" s="1" t="n">
         <v>289</v>
@@ -7395,24 +7401,24 @@
         <v>103</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H134" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C135" s="1" t="n">
         <v>290</v>
@@ -7427,7 +7433,7 @@
         <v>29</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>17</v>
@@ -7436,15 +7442,15 @@
         <v>192</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C136" s="1" t="n">
         <v>291</v>
@@ -7459,7 +7465,7 @@
         <v>29</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>17</v>
@@ -7468,15 +7474,15 @@
         <v>192</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C137" s="1" t="n">
         <v>292</v>
@@ -7491,7 +7497,7 @@
         <v>29</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>17</v>
@@ -7500,15 +7506,15 @@
         <v>192</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C138" s="1" t="n">
         <v>293</v>
@@ -7523,7 +7529,7 @@
         <v>29</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>17</v>
@@ -7532,15 +7538,15 @@
         <v>192</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C139" s="1" t="n">
         <v>294</v>
@@ -7555,7 +7561,7 @@
         <v>29</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H139" s="1" t="s">
         <v>17</v>
@@ -7564,15 +7570,15 @@
         <v>192</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C140" s="1" t="n">
         <v>295</v>
@@ -7587,7 +7593,7 @@
         <v>185</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H140" s="1" t="s">
         <v>17</v>
@@ -7596,15 +7602,15 @@
         <v>81</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C141" s="1" t="n">
         <v>296</v>
@@ -7619,7 +7625,7 @@
         <v>185</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>17</v>
@@ -7628,15 +7634,15 @@
         <v>81</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C142" s="1" t="n">
         <v>297</v>
@@ -7651,7 +7657,7 @@
         <v>29</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H142" s="1" t="s">
         <v>17</v>
@@ -7660,15 +7666,15 @@
         <v>192</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C143" s="1" t="n">
         <v>298</v>
@@ -7683,7 +7689,7 @@
         <v>29</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>17</v>
@@ -7692,15 +7698,15 @@
         <v>192</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C144" s="1" t="n">
         <v>299</v>
@@ -7715,7 +7721,7 @@
         <v>185</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>17</v>
@@ -7724,15 +7730,15 @@
         <v>81</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C145" s="1" t="n">
         <v>300</v>
@@ -7747,7 +7753,7 @@
         <v>185</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H145" s="1" t="s">
         <v>17</v>
@@ -7756,15 +7762,15 @@
         <v>81</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C146" s="1" t="n">
         <v>301</v>
@@ -7779,24 +7785,24 @@
         <v>79</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C147" s="1" t="n">
         <v>302</v>
@@ -7811,24 +7817,24 @@
         <v>79</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H147" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C148" s="1" t="n">
         <v>303</v>
@@ -7843,24 +7849,24 @@
         <v>103</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H148" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C149" s="1" t="n">
         <v>304</v>
@@ -7875,7 +7881,7 @@
         <v>79</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H149" s="1" t="s">
         <v>17</v>
@@ -7884,15 +7890,15 @@
         <v>93</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C150" s="1" t="n">
         <v>305</v>
@@ -7907,7 +7913,7 @@
         <v>79</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H150" s="1" t="s">
         <v>17</v>
@@ -7916,15 +7922,15 @@
         <v>81</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C151" s="1" t="n">
         <v>306</v>
@@ -7939,7 +7945,7 @@
         <v>79</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H151" s="1" t="s">
         <v>17</v>
@@ -7948,15 +7954,15 @@
         <v>81</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C152" s="1" t="n">
         <v>307</v>
@@ -7971,7 +7977,7 @@
         <v>79</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>17</v>
@@ -7980,15 +7986,15 @@
         <v>86</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C153" s="1" t="n">
         <v>308</v>
@@ -8003,7 +8009,7 @@
         <v>79</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H153" s="1" t="s">
         <v>17</v>
@@ -8012,15 +8018,15 @@
         <v>86</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C154" s="1" t="n">
         <v>309</v>
@@ -8035,7 +8041,7 @@
         <v>79</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H154" s="1" t="s">
         <v>17</v>
@@ -8046,25 +8052,25 @@
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C155" s="1" t="n">
         <v>310</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E155" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H155" s="1" t="s">
         <v>17</v>
@@ -8072,25 +8078,25 @@
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C156" s="1" t="n">
         <v>312</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E156" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>17</v>
@@ -8098,25 +8104,25 @@
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C157" s="1" t="n">
         <v>314</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E157" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H157" s="1" t="s">
         <v>17</v>
@@ -8124,25 +8130,25 @@
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C158" s="1" t="n">
         <v>316</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E158" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H158" s="1" t="s">
         <v>17</v>
@@ -8150,10 +8156,10 @@
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C159" s="1" t="n">
         <v>318</v>
@@ -8168,7 +8174,7 @@
         <v>84</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H159" s="1" t="s">
         <v>17</v>
@@ -8179,10 +8185,10 @@
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C160" s="1" t="n">
         <v>319</v>
@@ -8197,7 +8203,7 @@
         <v>84</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>17</v>
@@ -8208,10 +8214,10 @@
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C161" s="1" t="n">
         <v>320</v>
@@ -8226,21 +8232,21 @@
         <v>29</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H161" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C162" s="1" t="n">
         <v>321</v>
@@ -8255,21 +8261,21 @@
         <v>29</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H162" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C163" s="1" t="n">
         <v>322</v>
@@ -8284,21 +8290,21 @@
         <v>29</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H163" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C164" s="1" t="n">
         <v>323</v>
@@ -8313,21 +8319,21 @@
         <v>29</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H164" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C165" s="1" t="n">
         <v>324</v>
@@ -8342,21 +8348,21 @@
         <v>29</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H165" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C166" s="1" t="n">
         <v>325</v>
@@ -8371,21 +8377,21 @@
         <v>29</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H166" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C167" s="1" t="n">
         <v>326</v>
@@ -8400,18 +8406,18 @@
         <v>29</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H167" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>184</v>
@@ -8440,7 +8446,7 @@
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>187</v>
@@ -8469,7 +8475,7 @@
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>273</v>
@@ -8496,15 +8502,15 @@
         <v>275</v>
       </c>
       <c r="J170" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C171" s="1" t="n">
         <v>774</v>
@@ -8525,18 +8531,18 @@
         <v>23</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C172" s="1" t="n">
         <v>775</v>
@@ -8557,15 +8563,15 @@
         <v>17</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C173" s="1" t="n">
         <v>776</v>
@@ -8580,7 +8586,7 @@
         <v>185</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H173" s="1" t="s">
         <v>17</v>
@@ -8589,15 +8595,15 @@
         <v>81</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C174" s="1" t="n">
         <v>777</v>
@@ -8612,7 +8618,7 @@
         <v>84</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H174" s="1" t="s">
         <v>17</v>
@@ -8621,15 +8627,15 @@
         <v>86</v>
       </c>
       <c r="J174" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C175" s="1" t="n">
         <v>778</v>
@@ -8644,21 +8650,21 @@
         <v>29</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H175" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C176" s="1" t="n">
         <v>779</v>
@@ -8673,21 +8679,21 @@
         <v>79</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H176" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C177" s="1" t="n">
         <v>780</v>
@@ -8713,7 +8719,7 @@
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C178" s="1" t="n">
         <v>781</v>
@@ -8728,24 +8734,24 @@
         <v>29</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H178" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="J178" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C179" s="1" t="n">
         <v>782</v>
@@ -8760,21 +8766,21 @@
         <v>29</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H179" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C180" s="1" t="n">
         <v>783</v>
@@ -8789,21 +8795,21 @@
         <v>29</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H180" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C181" s="1" t="n">
         <v>784</v>
@@ -8818,24 +8824,24 @@
         <v>79</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H181" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="J181" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C182" s="1" t="n">
         <v>785</v>
@@ -8850,7 +8856,7 @@
         <v>29</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H182" s="1" t="s">
         <v>17</v>
@@ -8859,15 +8865,15 @@
         <v>31</v>
       </c>
       <c r="J182" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C183" s="1" t="n">
         <v>786</v>
@@ -8882,24 +8888,24 @@
         <v>79</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H183" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="J183" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C184" s="1" t="n">
         <v>787</v>
@@ -8914,7 +8920,7 @@
         <v>29</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H184" s="1" t="s">
         <v>17</v>
@@ -8923,15 +8929,15 @@
         <v>31</v>
       </c>
       <c r="J184" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C185" s="1" t="n">
         <v>788</v>
@@ -8946,21 +8952,21 @@
         <v>29</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H185" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C186" s="1" t="n">
         <v>789</v>
@@ -8975,7 +8981,7 @@
         <v>79</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H186" s="1" t="s">
         <v>17</v>
@@ -8990,10 +8996,10 @@
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C187" s="1" t="n">
         <v>790</v>
@@ -9008,16 +9014,16 @@
         <v>79</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H187" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="K187" s="19"/>
       <c r="L187" s="20"/>
@@ -9026,10 +9032,10 @@
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C188" s="1" t="n">
         <v>791</v>
@@ -9044,13 +9050,13 @@
         <v>29</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H188" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="K188" s="19"/>
       <c r="L188" s="20"/>
@@ -9059,10 +9065,10 @@
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C189" s="1" t="n">
         <v>1026</v>
@@ -9077,21 +9083,21 @@
         <v>29</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H189" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C190" s="1" t="n">
         <v>1027</v>
@@ -9106,7 +9112,7 @@
         <v>79</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H190" s="1" t="s">
         <v>17</v>
@@ -9117,10 +9123,10 @@
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C191" s="1" t="n">
         <v>1028</v>
@@ -9135,7 +9141,7 @@
         <v>84</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H191" s="1" t="s">
         <v>17</v>
@@ -9146,10 +9152,10 @@
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C192" s="1" t="n">
         <v>1029</v>
@@ -9164,7 +9170,7 @@
         <v>29</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H192" s="1" t="s">
         <v>17</v>
@@ -9175,10 +9181,10 @@
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C193" s="1" t="n">
         <v>1030</v>
@@ -9193,24 +9199,24 @@
         <v>185</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H193" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I193" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="J193" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C194" s="1" t="n">
         <v>1031</v>
@@ -9225,7 +9231,7 @@
         <v>79</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H194" s="1" t="s">
         <v>17</v>
@@ -9236,10 +9242,10 @@
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C195" s="1" t="n">
         <v>1032</v>
@@ -9254,7 +9260,7 @@
         <v>84</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H195" s="1" t="s">
         <v>17</v>
@@ -9265,10 +9271,10 @@
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C196" s="1" t="n">
         <v>1033</v>
@@ -9283,7 +9289,7 @@
         <v>29</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H196" s="1" t="s">
         <v>17</v>
@@ -9294,10 +9300,10 @@
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C197" s="1" t="n">
         <v>1034</v>
@@ -9312,24 +9318,24 @@
         <v>185</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H197" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="J197" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C198" s="1" t="n">
         <v>1035</v>
@@ -9344,7 +9350,7 @@
         <v>79</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H198" s="1" t="s">
         <v>17</v>
@@ -9355,10 +9361,10 @@
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C199" s="1" t="n">
         <v>1036</v>
@@ -9373,7 +9379,7 @@
         <v>84</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H199" s="1" t="s">
         <v>17</v>
@@ -9384,10 +9390,10 @@
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C200" s="1" t="n">
         <v>1037</v>
@@ -9402,7 +9408,7 @@
         <v>29</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H200" s="1" t="s">
         <v>17</v>
@@ -9413,10 +9419,10 @@
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C201" s="1" t="n">
         <v>1038</v>
@@ -9431,36 +9437,36 @@
         <v>185</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H201" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I201" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="J201" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C202" s="1" t="n">
         <v>1039</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E202" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G202" s="1" t="s">
         <v>16</v>
@@ -9469,102 +9475,102 @@
         <v>17</v>
       </c>
       <c r="J202" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C203" s="1" t="n">
         <v>1046</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E203" s="1" t="n">
         <v>100</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H203" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I203" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C204" s="1" t="n">
         <v>1048</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E204" s="1" t="n">
         <v>100</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H204" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I204" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C205" s="1" t="n">
         <v>1050</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E205" s="1" t="n">
         <v>100</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H205" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I205" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C206" s="1" t="n">
         <v>1282</v>
@@ -9585,15 +9591,15 @@
         <v>17</v>
       </c>
       <c r="I206" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C207" s="1" t="n">
         <v>1283</v>
@@ -9608,21 +9614,21 @@
         <v>29</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H207" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I207" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C208" s="1" t="n">
         <v>1284</v>
@@ -9637,21 +9643,21 @@
         <v>29</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H208" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C209" s="1" t="n">
         <v>1285</v>
@@ -9666,21 +9672,21 @@
         <v>29</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H209" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I209" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C210" s="1" t="n">
         <v>1286</v>
@@ -9695,7 +9701,7 @@
         <v>29</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H210" s="1" t="s">
         <v>17</v>
@@ -9706,10 +9712,10 @@
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C211" s="1" t="n">
         <v>1287</v>
@@ -9724,7 +9730,7 @@
         <v>29</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H211" s="1" t="s">
         <v>17</v>
@@ -9735,10 +9741,10 @@
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C212" s="1" t="n">
         <v>1288</v>
@@ -9753,7 +9759,7 @@
         <v>29</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H212" s="1" t="s">
         <v>17</v>
@@ -9764,10 +9770,10 @@
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C213" s="1" t="n">
         <v>1289</v>
@@ -9782,7 +9788,7 @@
         <v>29</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H213" s="1" t="s">
         <v>17</v>
@@ -9793,10 +9799,10 @@
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C214" s="1" t="n">
         <v>1290</v>
@@ -9811,7 +9817,7 @@
         <v>185</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H214" s="1" t="s">
         <v>17</v>
@@ -9822,10 +9828,10 @@
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C215" s="1" t="n">
         <v>1291</v>
@@ -9840,7 +9846,7 @@
         <v>185</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H215" s="1" t="s">
         <v>17</v>
@@ -9851,10 +9857,10 @@
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C216" s="1" t="n">
         <v>1292</v>
@@ -9869,7 +9875,7 @@
         <v>29</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H216" s="1" t="s">
         <v>17</v>
@@ -9880,10 +9886,10 @@
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C217" s="1" t="n">
         <v>1293</v>
@@ -9898,21 +9904,21 @@
         <v>29</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H217" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I217" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C218" s="1" t="n">
         <v>1294</v>
@@ -9927,21 +9933,21 @@
         <v>29</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H218" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I218" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C219" s="1" t="n">
         <v>1295</v>
@@ -9956,21 +9962,21 @@
         <v>29</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H219" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I219" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C220" s="1" t="n">
         <v>1296</v>
@@ -9985,21 +9991,21 @@
         <v>29</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H220" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I220" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C221" s="1" t="n">
         <v>1297</v>
@@ -10014,7 +10020,7 @@
         <v>29</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H221" s="1" t="s">
         <v>17</v>
@@ -10025,10 +10031,10 @@
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C222" s="1" t="n">
         <v>1298</v>
@@ -10043,7 +10049,7 @@
         <v>29</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H222" s="1" t="s">
         <v>17</v>
@@ -10054,10 +10060,10 @@
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C223" s="1" t="n">
         <v>1299</v>
@@ -10072,21 +10078,21 @@
         <v>29</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H223" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I223" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C224" s="1" t="n">
         <v>1300</v>
@@ -10101,7 +10107,7 @@
         <v>185</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H224" s="1" t="s">
         <v>17</v>
@@ -10112,10 +10118,10 @@
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C225" s="1" t="n">
         <v>1301</v>
@@ -10130,7 +10136,7 @@
         <v>185</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H225" s="1" t="s">
         <v>17</v>
@@ -10141,10 +10147,10 @@
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C226" s="1" t="n">
         <v>2048</v>
@@ -10159,21 +10165,21 @@
         <v>60</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H226" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I226" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C227" s="1" t="n">
         <v>2049</v>
@@ -10188,7 +10194,7 @@
         <v>84</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H227" s="1" t="s">
         <v>17</v>
@@ -10199,10 +10205,10 @@
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C228" s="1" t="n">
         <v>2050</v>
@@ -10228,10 +10234,10 @@
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C229" s="1" t="n">
         <v>2051</v>
@@ -10257,10 +10263,10 @@
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C230" s="1" t="n">
         <v>2052</v>
@@ -10275,7 +10281,7 @@
         <v>84</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H230" s="1" t="s">
         <v>17</v>
@@ -10284,15 +10290,15 @@
         <v>31</v>
       </c>
       <c r="J230" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C231" s="1" t="n">
         <v>2053</v>
@@ -10307,7 +10313,7 @@
         <v>84</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H231" s="1" t="s">
         <v>17</v>
@@ -10318,10 +10324,10 @@
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C232" s="1" t="n">
         <v>2307</v>
@@ -10347,10 +10353,10 @@
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C233" s="1" t="n">
         <v>2308</v>
@@ -10376,10 +10382,10 @@
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C234" s="1" t="n">
         <v>2309</v>
@@ -10405,10 +10411,10 @@
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C235" s="1" t="n">
         <v>2310</v>
@@ -10423,7 +10429,7 @@
         <v>185</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H235" s="1" t="s">
         <v>17</v>
@@ -10434,10 +10440,10 @@
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C236" s="1" t="n">
         <v>2311</v>
@@ -10452,7 +10458,7 @@
         <v>84</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H236" s="1" t="s">
         <v>17</v>
@@ -10463,10 +10469,10 @@
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C237" s="1" t="n">
         <v>2312</v>
@@ -10481,7 +10487,7 @@
         <v>185</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H237" s="1" t="s">
         <v>17</v>
@@ -10492,10 +10498,10 @@
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C238" s="1" t="n">
         <v>2313</v>
@@ -10510,7 +10516,7 @@
         <v>84</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H238" s="1" t="s">
         <v>17</v>
@@ -10521,10 +10527,10 @@
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C239" s="1" t="n">
         <v>2314</v>
@@ -10539,7 +10545,7 @@
         <v>84</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H239" s="1" t="s">
         <v>17</v>
@@ -10550,10 +10556,10 @@
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C240" s="1" t="n">
         <v>2315</v>
@@ -10568,21 +10574,21 @@
         <v>29</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H240" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I240" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C241" s="1" t="n">
         <v>2316</v>
@@ -10597,7 +10603,7 @@
         <v>84</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H241" s="1" t="s">
         <v>23</v>
@@ -10608,10 +10614,10 @@
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C242" s="1" t="n">
         <v>2317</v>
@@ -10632,15 +10638,15 @@
         <v>23</v>
       </c>
       <c r="I242" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C243" s="1" t="n">
         <v>2318</v>
@@ -10661,15 +10667,15 @@
         <v>17</v>
       </c>
       <c r="I243" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C244" s="1" t="n">
         <v>2319</v>
@@ -10684,21 +10690,21 @@
         <v>29</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H244" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I244" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C245" s="1" t="n">
         <v>2320</v>
@@ -10724,10 +10730,10 @@
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C246" s="1" t="n">
         <v>2321</v>
@@ -10742,21 +10748,21 @@
         <v>29</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H246" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I246" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C247" s="1" t="n">
         <v>2322</v>
@@ -10771,21 +10777,21 @@
         <v>29</v>
       </c>
       <c r="G247" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H247" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I247" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C248" s="1" t="n">
         <v>2600</v>
@@ -10800,7 +10806,7 @@
         <v>60</v>
       </c>
       <c r="G248" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H248" s="1" t="s">
         <v>17</v>
@@ -10811,10 +10817,10 @@
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C249" s="1" t="n">
         <v>2601</v>
@@ -10829,7 +10835,7 @@
         <v>60</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H249" s="1" t="s">
         <v>17</v>
@@ -10840,10 +10846,10 @@
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C250" s="1" t="n">
         <v>2602</v>
@@ -10858,7 +10864,7 @@
         <v>60</v>
       </c>
       <c r="G250" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H250" s="1" t="s">
         <v>17</v>
@@ -10869,10 +10875,10 @@
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C251" s="1" t="n">
         <v>2603</v>
@@ -10887,21 +10893,21 @@
         <v>185</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H251" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I251" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C252" s="1" t="n">
         <v>2604</v>
@@ -10916,21 +10922,21 @@
         <v>185</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H252" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I252" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C253" s="1" t="n">
         <v>2605</v>
@@ -10945,21 +10951,21 @@
         <v>185</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H253" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I253" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C254" s="1" t="n">
         <v>2606</v>
@@ -10974,21 +10980,21 @@
         <v>185</v>
       </c>
       <c r="G254" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H254" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I254" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C255" s="1" t="n">
         <v>2607</v>
@@ -11003,21 +11009,21 @@
         <v>185</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H255" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I255" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C256" s="1" t="n">
         <v>2608</v>
@@ -11032,30 +11038,30 @@
         <v>185</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H256" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I256" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C257" s="1" t="n">
         <v>2609</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F257" s="3" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="G257" s="1" t="s">
         <v>16</v>
@@ -11064,15 +11070,15 @@
         <v>17</v>
       </c>
       <c r="J257" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C258" s="1" t="n">
         <v>2616</v>
@@ -11087,7 +11093,7 @@
         <v>79</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H258" s="1" t="s">
         <v>17</v>
@@ -11098,10 +11104,10 @@
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C259" s="1" t="n">
         <v>2617</v>
@@ -11116,7 +11122,7 @@
         <v>84</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H259" s="1" t="s">
         <v>17</v>
@@ -11127,10 +11133,10 @@
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C260" s="1" t="n">
         <v>2618</v>
@@ -11145,7 +11151,7 @@
         <v>79</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H260" s="1" t="s">
         <v>17</v>
@@ -11156,10 +11162,10 @@
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C261" s="1" t="n">
         <v>2619</v>
@@ -11174,7 +11180,7 @@
         <v>84</v>
       </c>
       <c r="G261" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H261" s="1" t="s">
         <v>17</v>
@@ -11185,10 +11191,10 @@
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C262" s="1" t="n">
         <v>2620</v>
@@ -11203,7 +11209,7 @@
         <v>79</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H262" s="1" t="s">
         <v>17</v>
@@ -11214,10 +11220,10 @@
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C263" s="1" t="n">
         <v>2621</v>
@@ -11232,7 +11238,7 @@
         <v>84</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H263" s="1" t="s">
         <v>17</v>
@@ -11243,184 +11249,184 @@
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C264" s="1" t="n">
         <v>2622</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E264" s="1" t="n">
         <v>100</v>
       </c>
       <c r="F264" s="3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H264" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I264" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C265" s="1" t="n">
         <v>2624</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E265" s="1" t="n">
         <v>100</v>
       </c>
       <c r="F265" s="3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G265" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H265" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I265" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C266" s="1" t="n">
         <v>2626</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E266" s="1" t="n">
         <v>100</v>
       </c>
       <c r="F266" s="3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G266" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H266" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I266" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C267" s="1" t="n">
         <v>2628</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E267" s="1" t="n">
         <v>100</v>
       </c>
       <c r="F267" s="3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G267" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H267" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I267" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C268" s="1" t="n">
         <v>2630</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E268" s="1" t="n">
         <v>100</v>
       </c>
       <c r="F268" s="3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G268" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H268" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I268" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C269" s="1" t="n">
         <v>2632</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E269" s="1" t="n">
         <v>100</v>
       </c>
       <c r="F269" s="3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G269" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H269" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I269" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C270" s="1" t="n">
         <v>2700</v>
@@ -11435,7 +11441,7 @@
         <v>60</v>
       </c>
       <c r="G270" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H270" s="1" t="s">
         <v>23</v>
@@ -11444,15 +11450,15 @@
         <v>31</v>
       </c>
       <c r="J270" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C271" s="1" t="n">
         <v>2701</v>
@@ -11467,7 +11473,7 @@
         <v>91</v>
       </c>
       <c r="G271" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H271" s="1" t="s">
         <v>23</v>
@@ -11476,15 +11482,15 @@
         <v>93</v>
       </c>
       <c r="J271" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C272" s="1" t="n">
         <v>2702</v>
@@ -11499,7 +11505,7 @@
         <v>91</v>
       </c>
       <c r="G272" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H272" s="1" t="s">
         <v>23</v>
@@ -11508,15 +11514,15 @@
         <v>93</v>
       </c>
       <c r="J272" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C273" s="1" t="n">
         <v>2703</v>
@@ -11528,10 +11534,10 @@
         <v>0.01</v>
       </c>
       <c r="F273" s="3" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G273" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H273" s="1" t="s">
         <v>23</v>
@@ -11540,15 +11546,15 @@
         <v>31</v>
       </c>
       <c r="J273" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C274" s="1" t="n">
         <v>2704</v>
@@ -11560,10 +11566,10 @@
         <v>0.1</v>
       </c>
       <c r="F274" s="3" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="G274" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H274" s="1" t="s">
         <v>23</v>
@@ -11572,15 +11578,15 @@
         <v>31</v>
       </c>
       <c r="J274" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C275" s="1" t="n">
         <v>2705</v>
@@ -11595,7 +11601,7 @@
         <v>60</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H275" s="1" t="s">
         <v>23</v>
@@ -11604,15 +11610,15 @@
         <v>86</v>
       </c>
       <c r="J275" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C276" s="1" t="n">
         <v>2706</v>
@@ -11624,10 +11630,10 @@
         <v>0.01</v>
       </c>
       <c r="F276" s="3" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H276" s="1" t="s">
         <v>23</v>
@@ -11636,15 +11642,15 @@
         <v>31</v>
       </c>
       <c r="J276" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C277" s="1" t="n">
         <v>2707</v>
@@ -11656,24 +11662,24 @@
         <v>1</v>
       </c>
       <c r="G277" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H277" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I277" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="J277" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C278" s="1" t="n">
         <v>2708</v>
@@ -11685,24 +11691,24 @@
         <v>1</v>
       </c>
       <c r="G278" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H278" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I278" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="J278" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C279" s="1" t="n">
         <v>2709</v>
@@ -11714,82 +11720,82 @@
         <v>1</v>
       </c>
       <c r="G279" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H279" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I279" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="J279" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C280" s="1" t="n">
         <v>2800</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E280" s="1" t="n">
         <v>10000000</v>
       </c>
       <c r="F280" s="3" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="G280" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H280" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I280" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C281" s="1" t="n">
         <v>2802</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E281" s="1" t="n">
         <v>10000000</v>
       </c>
       <c r="F281" s="3" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="G281" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H281" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I281" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C282" s="1" t="n">
         <v>2804</v>
@@ -11804,24 +11810,24 @@
         <v>185</v>
       </c>
       <c r="G282" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H282" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I282" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="J282" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C283" s="1" t="n">
         <v>2805</v>
@@ -11836,24 +11842,24 @@
         <v>185</v>
       </c>
       <c r="G283" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H283" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I283" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="J283" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C284" s="1" t="n">
         <v>2806</v>
@@ -11868,21 +11874,21 @@
         <v>29</v>
       </c>
       <c r="G284" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H284" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J284" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C285" s="1" t="n">
         <v>2807</v>
@@ -11897,7 +11903,7 @@
         <v>29</v>
       </c>
       <c r="G285" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H285" s="1" t="s">
         <v>17</v>
@@ -11905,39 +11911,39 @@
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C286" s="1" t="n">
         <v>2808</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E286" s="1" t="n">
         <v>10</v>
       </c>
       <c r="F286" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="G286" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H286" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I286" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C287" s="1" t="n">
         <v>2900</v>
@@ -11949,24 +11955,24 @@
         <v>1</v>
       </c>
       <c r="G287" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H287" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I287" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="J287" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C288" s="1" t="n">
         <v>2901</v>
@@ -11978,7 +11984,7 @@
         <v>10</v>
       </c>
       <c r="G288" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H288" s="1" t="s">
         <v>23</v>
@@ -11987,15 +11993,15 @@
         <v>93</v>
       </c>
       <c r="J288" s="21" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="21" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C289" s="1" t="n">
         <v>2902</v>
@@ -12010,22 +12016,22 @@
         <v>29</v>
       </c>
       <c r="G289" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H289" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I289" s="22" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="J289" s="21"/>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C290" s="1" t="n">
         <v>3000</v>
@@ -12040,7 +12046,7 @@
         <v>29</v>
       </c>
       <c r="G290" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H290" s="1" t="s">
         <v>17</v>
@@ -12049,39 +12055,39 @@
     </row>
     <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C291" s="1" t="n">
         <v>3001</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E291" s="1" t="n">
         <v>10000</v>
       </c>
       <c r="F291" s="3" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="G291" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H291" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I291" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C292" s="1" t="n">
         <v>3003</v>
@@ -12096,21 +12102,21 @@
         <v>29</v>
       </c>
       <c r="G292" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H292" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I292" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C293" s="1" t="n">
         <v>3004</v>
@@ -12125,7 +12131,7 @@
         <v>79</v>
       </c>
       <c r="G293" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H293" s="1" t="s">
         <v>17</v>
@@ -12136,39 +12142,39 @@
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C294" s="1" t="n">
         <v>3005</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E294" s="1" t="n">
         <v>10000</v>
       </c>
       <c r="F294" s="3" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="G294" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H294" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I294" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C295" s="1" t="n">
         <v>3007</v>
@@ -12183,21 +12189,21 @@
         <v>29</v>
       </c>
       <c r="G295" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H295" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I295" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C296" s="1" t="n">
         <v>3100</v>
@@ -12209,7 +12215,7 @@
         <v>10</v>
       </c>
       <c r="F296" s="3" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="G296" s="1" t="s">
         <v>165</v>
@@ -12223,10 +12229,10 @@
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C297" s="1" t="n">
         <v>3101</v>
@@ -12238,7 +12244,7 @@
         <v>10</v>
       </c>
       <c r="F297" s="3" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="G297" s="1" t="s">
         <v>159</v>
@@ -12252,7 +12258,7 @@
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>184</v>
@@ -12267,7 +12273,7 @@
         <v>100</v>
       </c>
       <c r="F298" s="3" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="G298" s="1" t="s">
         <v>186</v>
@@ -12281,10 +12287,10 @@
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C299" s="1" t="n">
         <v>3110</v>
@@ -12296,7 +12302,7 @@
         <v>1</v>
       </c>
       <c r="F299" s="3" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="G299" s="1" t="s">
         <v>208</v>
@@ -12305,15 +12311,15 @@
         <v>17</v>
       </c>
       <c r="I299" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C300" s="1" t="n">
         <v>3111</v>
@@ -12325,24 +12331,24 @@
         <v>1</v>
       </c>
       <c r="F300" s="3" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="G300" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H300" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I300" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C301" s="1" t="n">
         <v>3112</v>
@@ -12354,24 +12360,24 @@
         <v>1</v>
       </c>
       <c r="F301" s="3" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="G301" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H301" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I301" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C302" s="1" t="n">
         <v>3113</v>
@@ -12383,24 +12389,24 @@
         <v>1</v>
       </c>
       <c r="F302" s="3" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="G302" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H302" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I302" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C303" s="1" t="n">
         <v>3114</v>
@@ -12412,24 +12418,24 @@
         <v>1</v>
       </c>
       <c r="F303" s="3" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="G303" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H303" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I303" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C304" s="1" t="n">
         <v>3115</v>
@@ -12441,21 +12447,21 @@
         <v>1</v>
       </c>
       <c r="F304" s="3" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="G304" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H304" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I304" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>212</v>
@@ -12470,7 +12476,7 @@
         <v>1</v>
       </c>
       <c r="F305" s="3" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="G305" s="1" t="s">
         <v>213</v>
@@ -12479,15 +12485,15 @@
         <v>17</v>
       </c>
       <c r="I305" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C306" s="1" t="n">
         <v>3117</v>
@@ -12499,24 +12505,24 @@
         <v>1</v>
       </c>
       <c r="F306" s="3" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="G306" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H306" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I306" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C307" s="1" t="n">
         <v>3125</v>
@@ -12528,10 +12534,10 @@
         <v>1</v>
       </c>
       <c r="F307" s="3" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="G307" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H307" s="1" t="s">
         <v>17</v>
@@ -12539,10 +12545,10 @@
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C308" s="1" t="n">
         <v>3126</v>
@@ -12554,7 +12560,7 @@
         <v>1</v>
       </c>
       <c r="F308" s="3" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="G308" s="1" t="s">
         <v>205</v>
@@ -12563,15 +12569,15 @@
         <v>23</v>
       </c>
       <c r="I308" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C309" s="1" t="n">
         <v>3127</v>
@@ -12583,10 +12589,10 @@
         <v>1</v>
       </c>
       <c r="F309" s="3" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="G309" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H309" s="1" t="s">
         <v>17</v>
@@ -12594,10 +12600,10 @@
     </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C310" s="1" t="n">
         <v>3128</v>
@@ -12609,7 +12615,7 @@
         <v>1</v>
       </c>
       <c r="F310" s="3" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="G310" s="1" t="s">
         <v>199</v>
@@ -12618,15 +12624,15 @@
         <v>17</v>
       </c>
       <c r="I310" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C311" s="1" t="n">
         <v>3200</v>
@@ -12638,10 +12644,10 @@
         <v>10</v>
       </c>
       <c r="F311" s="3" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="G311" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H311" s="1" t="s">
         <v>17</v>
@@ -12652,10 +12658,10 @@
     </row>
     <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C312" s="1" t="n">
         <v>3201</v>
@@ -12667,10 +12673,10 @@
         <v>10</v>
       </c>
       <c r="F312" s="3" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="G312" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H312" s="1" t="s">
         <v>17</v>
@@ -12681,10 +12687,10 @@
     </row>
     <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C313" s="1" t="n">
         <v>3202</v>
@@ -12696,10 +12702,10 @@
         <v>10</v>
       </c>
       <c r="F313" s="3" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="G313" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H313" s="1" t="s">
         <v>17</v>
@@ -12710,10 +12716,10 @@
     </row>
     <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C314" s="1" t="n">
         <v>3203</v>
@@ -12725,10 +12731,10 @@
         <v>10</v>
       </c>
       <c r="F314" s="3" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="G314" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H314" s="1" t="s">
         <v>17</v>
@@ -12739,10 +12745,10 @@
     </row>
     <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C315" s="1" t="n">
         <v>3204</v>
@@ -12754,10 +12760,10 @@
         <v>10</v>
       </c>
       <c r="F315" s="3" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="G315" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H315" s="1" t="s">
         <v>17</v>
@@ -12768,10 +12774,10 @@
     </row>
     <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C316" s="1" t="n">
         <v>3205</v>
@@ -12783,10 +12789,10 @@
         <v>10</v>
       </c>
       <c r="F316" s="3" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="G316" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H316" s="1" t="s">
         <v>17</v>
@@ -12797,10 +12803,10 @@
     </row>
     <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C317" s="1" t="n">
         <v>3206</v>
@@ -12812,10 +12818,10 @@
         <v>1</v>
       </c>
       <c r="F317" s="3" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G317" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H317" s="1" t="s">
         <v>17</v>
@@ -12826,10 +12832,10 @@
     </row>
     <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C318" s="1" t="n">
         <v>3207</v>
@@ -12841,10 +12847,10 @@
         <v>1</v>
       </c>
       <c r="F318" s="3" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G318" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H318" s="1" t="s">
         <v>17</v>
@@ -12855,10 +12861,10 @@
     </row>
     <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C319" s="1" t="n">
         <v>3208</v>
@@ -12870,10 +12876,10 @@
         <v>1</v>
       </c>
       <c r="F319" s="3" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G319" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H319" s="1" t="s">
         <v>17</v>
@@ -12884,10 +12890,10 @@
     </row>
     <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C320" s="1" t="n">
         <v>3209</v>
@@ -12899,10 +12905,10 @@
         <v>100</v>
       </c>
       <c r="F320" s="3" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="G320" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H320" s="1" t="s">
         <v>17</v>
@@ -12913,10 +12919,10 @@
     </row>
     <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C321" s="1" t="n">
         <v>3210</v>
@@ -12928,10 +12934,10 @@
         <v>100</v>
       </c>
       <c r="F321" s="3" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="G321" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H321" s="1" t="s">
         <v>17</v>
@@ -12942,10 +12948,10 @@
     </row>
     <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C322" s="1" t="n">
         <v>3211</v>
@@ -12957,10 +12963,10 @@
         <v>100</v>
       </c>
       <c r="F322" s="3" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="G322" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H322" s="1" t="s">
         <v>17</v>
@@ -12971,10 +12977,10 @@
     </row>
     <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C323" s="1" t="n">
         <v>3212</v>
@@ -12986,10 +12992,10 @@
         <v>1</v>
       </c>
       <c r="F323" s="3" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="G323" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H323" s="1" t="s">
         <v>17</v>
@@ -12997,10 +13003,10 @@
     </row>
     <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C324" s="1" t="n">
         <v>3213</v>
@@ -13012,24 +13018,24 @@
         <v>1</v>
       </c>
       <c r="F324" s="3" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="G324" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H324" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I324" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C325" s="1" t="n">
         <v>3214</v>
@@ -13041,24 +13047,24 @@
         <v>1</v>
       </c>
       <c r="F325" s="3" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="G325" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H325" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I325" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C326" s="1" t="n">
         <v>3215</v>
@@ -13070,24 +13076,24 @@
         <v>1</v>
       </c>
       <c r="F326" s="3" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="G326" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H326" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I326" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C327" s="1" t="n">
         <v>3216</v>
@@ -13099,10 +13105,10 @@
         <v>1</v>
       </c>
       <c r="F327" s="3" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="G327" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H327" s="1" t="s">
         <v>17</v>
@@ -13113,10 +13119,10 @@
     </row>
     <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C328" s="1" t="n">
         <v>3217</v>
@@ -13128,24 +13134,24 @@
         <v>1</v>
       </c>
       <c r="F328" s="3" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="G328" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H328" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I328" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C329" s="1" t="n">
         <v>3218</v>
@@ -13157,10 +13163,10 @@
         <v>0.01</v>
       </c>
       <c r="F329" s="3" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G329" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H329" s="1" t="s">
         <v>17</v>
@@ -13171,10 +13177,10 @@
     </row>
     <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C330" s="1" t="n">
         <v>3219</v>
@@ -13186,10 +13192,10 @@
         <v>10</v>
       </c>
       <c r="F330" s="3" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="G330" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H330" s="1" t="s">
         <v>17</v>
@@ -13200,10 +13206,10 @@
     </row>
     <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C331" s="1" t="n">
         <v>3220</v>
@@ -13215,10 +13221,10 @@
         <v>10</v>
       </c>
       <c r="F331" s="3" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="G331" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H331" s="1" t="s">
         <v>17</v>
@@ -13229,10 +13235,10 @@
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C332" s="1" t="n">
         <v>3221</v>
@@ -13244,10 +13250,10 @@
         <v>10</v>
       </c>
       <c r="F332" s="3" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="G332" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H332" s="1" t="s">
         <v>17</v>
@@ -13258,10 +13264,10 @@
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C333" s="1" t="n">
         <v>3222</v>
@@ -13273,10 +13279,10 @@
         <v>100</v>
       </c>
       <c r="F333" s="3" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="G333" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H333" s="1" t="s">
         <v>17</v>
@@ -13287,10 +13293,10 @@
     </row>
     <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C334" s="1" t="n">
         <v>3223</v>
@@ -13302,24 +13308,24 @@
         <v>1</v>
       </c>
       <c r="F334" s="3" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="G334" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H334" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I334" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C335" s="1" t="n">
         <v>3300</v>
@@ -13334,7 +13340,7 @@
         <v>29</v>
       </c>
       <c r="G335" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H335" s="1" t="s">
         <v>17</v>
@@ -13342,10 +13348,10 @@
     </row>
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C336" s="1" t="n">
         <v>3301</v>
@@ -13360,7 +13366,7 @@
         <v>185</v>
       </c>
       <c r="G336" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H336" s="1" t="s">
         <v>17</v>
@@ -13368,10 +13374,10 @@
     </row>
     <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C337" s="1" t="n">
         <v>3302</v>
@@ -13386,7 +13392,7 @@
         <v>141</v>
       </c>
       <c r="G337" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H337" s="1" t="s">
         <v>17</v>
@@ -13394,10 +13400,10 @@
     </row>
     <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C338" s="1" t="n">
         <v>3303</v>
@@ -13412,21 +13418,21 @@
         <v>29</v>
       </c>
       <c r="G338" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H338" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I338" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C339" s="1" t="n">
         <v>3304</v>
@@ -13441,7 +13447,7 @@
         <v>141</v>
       </c>
       <c r="G339" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H339" s="1" t="s">
         <v>17</v>
@@ -13452,10 +13458,10 @@
     </row>
     <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C340" s="1" t="n">
         <v>3305</v>
@@ -13470,65 +13476,65 @@
         <v>29</v>
       </c>
       <c r="G340" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H340" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I340" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C341" s="1" t="n">
         <v>3400</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E341" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F341" s="3" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="G341" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H341" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I341" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C342" s="1" t="n">
         <v>3402</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E342" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F342" s="3" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="G342" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H342" s="1" t="s">
         <v>17</v>
@@ -13536,25 +13542,25 @@
     </row>
     <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C343" s="1" t="n">
         <v>3420</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E343" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F343" s="3" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="G343" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H343" s="1" t="s">
         <v>17</v>
@@ -13562,10 +13568,10 @@
     </row>
     <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C344" s="1" t="n">
         <v>3422</v>
@@ -13586,15 +13592,15 @@
         <v>17</v>
       </c>
       <c r="I344" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C345" s="1" t="n">
         <v>3423</v>
@@ -13606,21 +13612,21 @@
         <v>1</v>
       </c>
       <c r="F345" s="3" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="G345" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H345" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I345" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B346" s="1" t="s">
         <v>5</v>
@@ -13638,21 +13644,21 @@
         <v>277</v>
       </c>
       <c r="G346" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H346" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I346" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C347" s="1" t="n">
         <v>3500</v>
@@ -13667,21 +13673,21 @@
         <v>21</v>
       </c>
       <c r="G347" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H347" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I347" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C348" s="1" t="n">
         <v>3501</v>
@@ -13696,21 +13702,21 @@
         <v>277</v>
       </c>
       <c r="G348" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H348" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I348" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C349" s="1" t="n">
         <v>3502</v>
@@ -13725,50 +13731,50 @@
         <v>277</v>
       </c>
       <c r="G349" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H349" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I349" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C350" s="1" t="n">
         <v>3504</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E350" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F350" s="3" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="G350" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H350" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I350" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B351" s="22" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C351" s="1" t="n">
         <v>3600</v>
@@ -13780,21 +13786,21 @@
         <v>10</v>
       </c>
       <c r="F351" s="3" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="G351" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="I351" s="1" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B352" s="22" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C352" s="1" t="n">
         <v>3601</v>
@@ -13806,21 +13812,21 @@
         <v>10</v>
       </c>
       <c r="F352" s="3" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="G352" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="I352" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B353" s="22" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C353" s="1" t="n">
         <v>3602</v>
@@ -13832,10 +13838,10 @@
         <v>10</v>
       </c>
       <c r="F353" s="3" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="G353" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="I353" s="1" t="s">
         <v>275</v>
@@ -13843,10 +13849,10 @@
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B354" s="22" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C354" s="1" t="n">
         <v>3603</v>
@@ -13858,10 +13864,10 @@
         <v>10</v>
       </c>
       <c r="F354" s="3" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="G354" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="I354" s="1" t="s">
         <v>275</v>
@@ -13902,13 +13908,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="24" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13919,7 +13925,7 @@
         <v>257</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13930,7 +13936,7 @@
         <v>256</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13941,7 +13947,7 @@
         <v>258</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13952,7 +13958,7 @@
         <v>260</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13963,7 +13969,7 @@
         <v>261</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13974,7 +13980,7 @@
         <v>273</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13985,7 +13991,7 @@
         <v>274</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13996,7 +14002,7 @@
         <v>275</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14007,7 +14013,7 @@
         <v>276</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14018,7 +14024,7 @@
         <v>279</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14029,7 +14035,7 @@
         <v>278</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14040,7 +14046,7 @@
         <v>277</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14051,7 +14057,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14062,7 +14068,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14073,7 +14079,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14084,7 +14090,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14095,7 +14101,7 @@
         <v>4</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14106,7 +14112,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14117,7 +14123,7 @@
         <v>6</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14128,7 +14134,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14139,7 +14145,7 @@
         <v>8</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14150,7 +14156,7 @@
         <v>9</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14161,7 +14167,7 @@
         <v>10</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14172,7 +14178,7 @@
         <v>11</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14183,7 +14189,7 @@
         <v>12</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14194,7 +14200,7 @@
         <v>20</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14205,7 +14211,7 @@
         <v>21</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14216,7 +14222,7 @@
         <v>22</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14227,7 +14233,7 @@
         <v>23</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14238,7 +14244,7 @@
         <v>24</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14249,7 +14255,7 @@
         <v>25</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14260,7 +14266,7 @@
         <v>26</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14271,7 +14277,7 @@
         <v>27</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14282,7 +14288,7 @@
         <v>28</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14293,7 +14299,7 @@
         <v>29</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14304,7 +14310,7 @@
         <v>30</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14315,7 +14321,7 @@
         <v>31</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14326,7 +14332,7 @@
         <v>32</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14337,7 +14343,7 @@
         <v>33</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14348,7 +14354,7 @@
         <v>34</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14359,7 +14365,7 @@
         <v>40</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14370,7 +14376,7 @@
         <v>41</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14381,7 +14387,7 @@
         <v>42</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14392,7 +14398,7 @@
         <v>43</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14403,7 +14409,7 @@
         <v>44</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14414,7 +14420,7 @@
         <v>45</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14425,7 +14431,7 @@
         <v>46</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14436,7 +14442,7 @@
         <v>288</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14447,7 +14453,7 @@
         <v>289</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14458,7 +14464,7 @@
         <v>290</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14469,7 +14475,7 @@
         <v>291</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14480,7 +14486,7 @@
         <v>292</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14491,7 +14497,7 @@
         <v>293</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14502,7 +14508,7 @@
         <v>294</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14513,7 +14519,7 @@
         <v>295</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14524,7 +14530,7 @@
         <v>296</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14535,12 +14541,12 @@
         <v>512</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="26" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B60" s="26"/>
       <c r="C60" s="26"/>
@@ -14550,7 +14556,7 @@
     </row>
     <row r="61" customFormat="false" ht="92.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="27" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B61" s="27"/>
       <c r="C61" s="27"/>
@@ -14596,480 +14602,480 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="22" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="22" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="22" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="22" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="22" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="22" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="22" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="22" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="22" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="22" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="22" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="22" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="22" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="22" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="22" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="22" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="22" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="22" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="22" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="22" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="22" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="22" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="22" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="22" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="22" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="22" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="22" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="22" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="22" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="22" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="22" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="22" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="22" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="22" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="22" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="22" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="22" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="28" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="22" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="22" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="22" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="22" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="22" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="22" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="22" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="22" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="22" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="22" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="22" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="22" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="22" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="22" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="22" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="22" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="22" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="22" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="22" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="22" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="22" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="22" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="22" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="22" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="22" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="22" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="22" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="22" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B67" s="22" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="22" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="22" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="22" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="22" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="22" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="22" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="22" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="22" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="22" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="22" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
   </sheetData>

--- a/CCGX-Modbus-TCP-register-list.xlsx
+++ b/CCGX-Modbus-TCP-register-list.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2727" uniqueCount="972">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2753" uniqueCount="981">
   <si>
     <t xml:space="preserve">NOTE: Use unit-id 100 for the com.victronenergy.system data, for more information see FAQ.</t>
   </si>
@@ -2392,6 +2392,33 @@
   </si>
   <si>
     <t xml:space="preserve">/Generator0/Runtime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generator start/stop state</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Generator0/State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0=Stopped;1=Running;10=Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generator remote error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Generator0/Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0=No Error;1=Remote disabled;2=Remote fault</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only used for FisherPanda gensets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generator not detected at AC input alarm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Generator0/Alarms/NoGeneratorAtAcIn</t>
   </si>
   <si>
     <t xml:space="preserve">com.victronenergy.meteo</t>
@@ -3288,12 +3315,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N354"/>
+  <dimension ref="A1:N357"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A329" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A353" activeCellId="0" sqref="A353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13771,105 +13798,207 @@
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="B351" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="B351" s="22" t="s">
+      <c r="C351" s="1" t="n">
+        <v>3506</v>
+      </c>
+      <c r="D351" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E351" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F351" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="G351" s="1" t="s">
         <v>791</v>
       </c>
-      <c r="C351" s="1" t="n">
-        <v>3600</v>
-      </c>
-      <c r="D351" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E351" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="F351" s="3" t="s">
+      <c r="H351" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I351" s="1" t="s">
         <v>792</v>
-      </c>
-      <c r="G351" s="1" t="s">
-        <v>793</v>
-      </c>
-      <c r="I351" s="1" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="B352" s="22" t="s">
+        <v>781</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="C352" s="1" t="n">
+        <v>3507</v>
+      </c>
+      <c r="D352" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E352" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F352" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="G352" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="H352" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I352" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="C352" s="1" t="n">
-        <v>3601</v>
-      </c>
-      <c r="D352" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E352" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="F352" s="3" t="s">
-        <v>792</v>
-      </c>
-      <c r="G352" s="1" t="s">
+      <c r="J352" s="1" t="s">
         <v>796</v>
-      </c>
-      <c r="I352" s="1" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="B353" s="22" t="s">
+        <v>781</v>
+      </c>
+      <c r="B353" s="1" t="s">
         <v>797</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>3602</v>
+        <v>3508</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E353" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F353" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="G353" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="G353" s="1" t="s">
-        <v>799</v>
+      <c r="H353" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="I353" s="1" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="1" t="s">
-        <v>790</v>
+        <v>799</v>
       </c>
       <c r="B354" s="22" t="s">
         <v>800</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>3603</v>
+        <v>3600</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E354" s="1" t="n">
         <v>10</v>
       </c>
       <c r="F354" s="3" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="G354" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="H354" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I354" s="1" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="B355" s="22" t="s">
+        <v>804</v>
+      </c>
+      <c r="C355" s="1" t="n">
+        <v>3601</v>
+      </c>
+      <c r="D355" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E355" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F355" s="3" t="s">
         <v>801</v>
       </c>
-      <c r="I354" s="1" t="s">
+      <c r="G355" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="H355" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I355" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="B356" s="22" t="s">
+        <v>806</v>
+      </c>
+      <c r="C356" s="1" t="n">
+        <v>3602</v>
+      </c>
+      <c r="D356" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E356" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F356" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="G356" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="H356" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I356" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="B357" s="22" t="s">
+        <v>809</v>
+      </c>
+      <c r="C357" s="1" t="n">
+        <v>3603</v>
+      </c>
+      <c r="D357" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E357" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F357" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="G357" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="H357" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I357" s="1" t="s">
         <v>275</v>
       </c>
     </row>
@@ -13908,13 +14037,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="24" t="s">
-        <v>802</v>
+        <v>811</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>803</v>
+        <v>812</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>804</v>
+        <v>813</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13925,7 +14054,7 @@
         <v>257</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>805</v>
+        <v>814</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13936,7 +14065,7 @@
         <v>256</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>806</v>
+        <v>815</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13947,7 +14076,7 @@
         <v>258</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>807</v>
+        <v>816</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13958,7 +14087,7 @@
         <v>260</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>808</v>
+        <v>817</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13969,7 +14098,7 @@
         <v>261</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>809</v>
+        <v>818</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13980,7 +14109,7 @@
         <v>273</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>810</v>
+        <v>819</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13991,7 +14120,7 @@
         <v>274</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>811</v>
+        <v>820</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14002,7 +14131,7 @@
         <v>275</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>812</v>
+        <v>821</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14013,7 +14142,7 @@
         <v>276</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>813</v>
+        <v>822</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14024,7 +14153,7 @@
         <v>279</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>814</v>
+        <v>823</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14035,7 +14164,7 @@
         <v>278</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>815</v>
+        <v>824</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14046,7 +14175,7 @@
         <v>277</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>816</v>
+        <v>825</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14057,7 +14186,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>817</v>
+        <v>826</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14068,7 +14197,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>818</v>
+        <v>827</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14079,7 +14208,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>819</v>
+        <v>828</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14090,7 +14219,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>820</v>
+        <v>829</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14101,7 +14230,7 @@
         <v>4</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>821</v>
+        <v>830</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14112,7 +14241,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14123,7 +14252,7 @@
         <v>6</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>823</v>
+        <v>832</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14134,7 +14263,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>824</v>
+        <v>833</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14145,7 +14274,7 @@
         <v>8</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>825</v>
+        <v>834</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14156,7 +14285,7 @@
         <v>9</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>826</v>
+        <v>835</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14167,7 +14296,7 @@
         <v>10</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>827</v>
+        <v>836</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14178,7 +14307,7 @@
         <v>11</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>828</v>
+        <v>837</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14189,7 +14318,7 @@
         <v>12</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>829</v>
+        <v>838</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14200,7 +14329,7 @@
         <v>20</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14211,7 +14340,7 @@
         <v>21</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>831</v>
+        <v>840</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14222,7 +14351,7 @@
         <v>22</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>832</v>
+        <v>841</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14233,7 +14362,7 @@
         <v>23</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>833</v>
+        <v>842</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14244,7 +14373,7 @@
         <v>24</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>834</v>
+        <v>843</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14255,7 +14384,7 @@
         <v>25</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>835</v>
+        <v>844</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14266,7 +14395,7 @@
         <v>26</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>836</v>
+        <v>845</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14277,7 +14406,7 @@
         <v>27</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>837</v>
+        <v>846</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14288,7 +14417,7 @@
         <v>28</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>838</v>
+        <v>847</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14299,7 +14428,7 @@
         <v>29</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>839</v>
+        <v>848</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14310,7 +14439,7 @@
         <v>30</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>840</v>
+        <v>849</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14321,7 +14450,7 @@
         <v>31</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>841</v>
+        <v>850</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14332,7 +14461,7 @@
         <v>32</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>842</v>
+        <v>851</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14343,7 +14472,7 @@
         <v>33</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>843</v>
+        <v>852</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14354,7 +14483,7 @@
         <v>34</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>844</v>
+        <v>853</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14365,7 +14494,7 @@
         <v>40</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>845</v>
+        <v>854</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14376,7 +14505,7 @@
         <v>41</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>846</v>
+        <v>855</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14387,7 +14516,7 @@
         <v>42</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>847</v>
+        <v>856</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14398,7 +14527,7 @@
         <v>43</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>848</v>
+        <v>857</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14409,7 +14538,7 @@
         <v>44</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>849</v>
+        <v>858</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14420,7 +14549,7 @@
         <v>45</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>850</v>
+        <v>859</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14431,7 +14560,7 @@
         <v>46</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>851</v>
+        <v>860</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14442,7 +14571,7 @@
         <v>288</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>852</v>
+        <v>861</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14453,7 +14582,7 @@
         <v>289</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>853</v>
+        <v>862</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14464,7 +14593,7 @@
         <v>290</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>854</v>
+        <v>863</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14475,7 +14604,7 @@
         <v>291</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>855</v>
+        <v>864</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14486,7 +14615,7 @@
         <v>292</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>856</v>
+        <v>865</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14497,7 +14626,7 @@
         <v>293</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>857</v>
+        <v>866</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14508,7 +14637,7 @@
         <v>294</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>858</v>
+        <v>867</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14519,7 +14648,7 @@
         <v>295</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>859</v>
+        <v>868</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14530,7 +14659,7 @@
         <v>296</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>860</v>
+        <v>869</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14541,12 +14670,12 @@
         <v>512</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>861</v>
+        <v>870</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="26" t="s">
-        <v>862</v>
+        <v>871</v>
       </c>
       <c r="B60" s="26"/>
       <c r="C60" s="26"/>
@@ -14556,7 +14685,7 @@
     </row>
     <row r="61" customFormat="false" ht="92.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="27" t="s">
-        <v>863</v>
+        <v>872</v>
       </c>
       <c r="B61" s="27"/>
       <c r="C61" s="27"/>
@@ -14602,480 +14731,480 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="22" t="s">
-        <v>864</v>
+        <v>873</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>865</v>
+        <v>874</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="22" t="s">
-        <v>866</v>
+        <v>875</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>867</v>
+        <v>876</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="s">
-        <v>868</v>
+        <v>877</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>869</v>
+        <v>878</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="22" t="s">
-        <v>870</v>
+        <v>879</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>871</v>
+        <v>880</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="22" t="s">
-        <v>872</v>
+        <v>881</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="22" t="s">
-        <v>873</v>
+        <v>882</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="22" t="s">
-        <v>874</v>
+        <v>883</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="22" t="s">
-        <v>875</v>
+        <v>884</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="22" t="s">
-        <v>876</v>
+        <v>885</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>877</v>
+        <v>886</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="22" t="s">
-        <v>878</v>
+        <v>887</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="22" t="s">
-        <v>879</v>
+        <v>888</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="22" t="s">
-        <v>880</v>
+        <v>889</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>881</v>
+        <v>890</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="22" t="s">
-        <v>882</v>
+        <v>891</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="22" t="s">
-        <v>883</v>
+        <v>892</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="22" t="s">
-        <v>884</v>
+        <v>893</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="22" t="s">
-        <v>885</v>
+        <v>894</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="22" t="s">
-        <v>886</v>
+        <v>895</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="22" t="s">
-        <v>887</v>
+        <v>896</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>888</v>
+        <v>897</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="22" t="s">
-        <v>889</v>
+        <v>898</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>890</v>
+        <v>899</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="22" t="s">
-        <v>891</v>
+        <v>900</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="22" t="s">
-        <v>892</v>
+        <v>901</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="22" t="s">
-        <v>893</v>
+        <v>902</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>894</v>
+        <v>903</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="22" t="s">
-        <v>895</v>
+        <v>904</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="22" t="s">
-        <v>896</v>
+        <v>905</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="22" t="s">
-        <v>897</v>
+        <v>906</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="22" t="s">
-        <v>898</v>
+        <v>907</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="22" t="s">
-        <v>899</v>
+        <v>908</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="22" t="s">
-        <v>900</v>
+        <v>909</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="22" t="s">
-        <v>901</v>
+        <v>910</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="22" t="s">
-        <v>902</v>
+        <v>911</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="22" t="s">
-        <v>904</v>
+        <v>913</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="22" t="s">
-        <v>905</v>
+        <v>914</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="22" t="s">
-        <v>906</v>
+        <v>915</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>907</v>
+        <v>916</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="22" t="s">
-        <v>908</v>
+        <v>917</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="22" t="s">
-        <v>909</v>
+        <v>918</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="22" t="s">
-        <v>910</v>
+        <v>919</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="22" t="s">
-        <v>911</v>
+        <v>920</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="22" t="s">
-        <v>912</v>
+        <v>921</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="28" t="s">
-        <v>913</v>
+        <v>922</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="22" t="s">
-        <v>914</v>
+        <v>923</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>915</v>
+        <v>924</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="22" t="s">
-        <v>916</v>
+        <v>925</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>917</v>
+        <v>926</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="22" t="s">
-        <v>918</v>
+        <v>927</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="22" t="s">
-        <v>919</v>
+        <v>928</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="22" t="s">
-        <v>920</v>
+        <v>929</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>921</v>
+        <v>930</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="22" t="s">
-        <v>922</v>
+        <v>931</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="22" t="s">
-        <v>923</v>
+        <v>932</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="22" t="s">
-        <v>924</v>
+        <v>933</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>925</v>
+        <v>934</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="22" t="s">
-        <v>926</v>
+        <v>935</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>927</v>
+        <v>936</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="22" t="s">
-        <v>928</v>
+        <v>937</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="22" t="s">
-        <v>929</v>
+        <v>938</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>930</v>
+        <v>939</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="22" t="s">
-        <v>931</v>
+        <v>940</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="22" t="s">
-        <v>932</v>
+        <v>941</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="22" t="s">
-        <v>933</v>
+        <v>942</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="22" t="s">
-        <v>934</v>
+        <v>943</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="22" t="s">
-        <v>935</v>
+        <v>944</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>936</v>
+        <v>945</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="22" t="s">
-        <v>937</v>
+        <v>946</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>938</v>
+        <v>947</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="22" t="s">
-        <v>939</v>
+        <v>948</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="22" t="s">
-        <v>940</v>
+        <v>949</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="22" t="s">
-        <v>941</v>
+        <v>950</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>942</v>
+        <v>951</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="22" t="s">
-        <v>943</v>
+        <v>952</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="22" t="s">
-        <v>944</v>
+        <v>953</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>945</v>
+        <v>954</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="22" t="s">
-        <v>946</v>
+        <v>955</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>947</v>
+        <v>956</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="22" t="s">
-        <v>948</v>
+        <v>957</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>949</v>
+        <v>958</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="22" t="s">
-        <v>950</v>
+        <v>959</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>951</v>
+        <v>960</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="22" t="s">
-        <v>952</v>
+        <v>961</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>953</v>
+        <v>962</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="22" t="s">
-        <v>954</v>
+        <v>963</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>955</v>
+        <v>964</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="22" t="s">
-        <v>956</v>
+        <v>965</v>
       </c>
       <c r="B67" s="22" t="s">
-        <v>957</v>
+        <v>966</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="22" t="s">
-        <v>958</v>
+        <v>967</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>959</v>
+        <v>968</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="22" t="s">
-        <v>960</v>
+        <v>969</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>961</v>
+        <v>970</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="22" t="s">
-        <v>962</v>
+        <v>971</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="22" t="s">
-        <v>963</v>
+        <v>972</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="22" t="s">
-        <v>964</v>
+        <v>973</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>965</v>
+        <v>974</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="22" t="s">
-        <v>966</v>
+        <v>975</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="22" t="s">
-        <v>967</v>
+        <v>976</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>968</v>
+        <v>977</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="22" t="s">
-        <v>969</v>
+        <v>978</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="22" t="s">
-        <v>970</v>
+        <v>979</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="22" t="s">
-        <v>971</v>
+        <v>980</v>
       </c>
     </row>
   </sheetData>

--- a/CCGX-Modbus-TCP-register-list.xlsx
+++ b/CCGX-Modbus-TCP-register-list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Field list" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2753" uniqueCount="981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2755" uniqueCount="983">
   <si>
     <t xml:space="preserve">NOTE: Use unit-id 100 for the com.victronenergy.system data, for more information see FAQ.</t>
   </si>
@@ -2965,6 +2965,12 @@
   </si>
   <si>
     <t xml:space="preserve">Added 32-bit register for generator runtime.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rev 31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added additional registers for generator start/stop</t>
   </si>
 </sst>
 </file>
@@ -3317,10 +3323,10 @@
   </sheetPr>
   <dimension ref="A1:N357"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A329" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A353" activeCellId="0" sqref="A353"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14715,10 +14721,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B79" activeCellId="0" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15207,6 +15213,14 @@
         <v>980</v>
       </c>
     </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="B78" s="22" t="s">
+        <v>982</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/CCGX-Modbus-TCP-register-list.xlsx
+++ b/CCGX-Modbus-TCP-register-list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Field list" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2755" uniqueCount="983">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2755" uniqueCount="976">
   <si>
     <t xml:space="preserve">NOTE: Use unit-id 100 for the com.victronenergy.system data, for more information see FAQ.</t>
   </si>
@@ -111,7 +111,7 @@
     <t xml:space="preserve">PV - AC-coupled on output L1</t>
   </si>
   <si>
-    <t xml:space="preserve">0 to 65336</t>
+    <t xml:space="preserve">0 to 65536</t>
   </si>
   <si>
     <t xml:space="preserve">/Ac/PvOnOutput/L1/Power</t>
@@ -204,7 +204,7 @@
     <t xml:space="preserve">int16</t>
   </si>
   <si>
-    <t xml:space="preserve">-32668 to 32668</t>
+    <t xml:space="preserve">-32768 to 32767</t>
   </si>
   <si>
     <t xml:space="preserve">/Ac/Grid/L1/Power</t>
@@ -249,7 +249,7 @@
     <t xml:space="preserve">Active input source</t>
   </si>
   <si>
-    <t xml:space="preserve">0 to 32668</t>
+    <t xml:space="preserve">0 to 32768</t>
   </si>
   <si>
     <t xml:space="preserve">/Ac/ActiveIn/Source</t>
@@ -261,7 +261,7 @@
     <t xml:space="preserve">Battery Voltage (System)</t>
   </si>
   <si>
-    <t xml:space="preserve">0 to 6533.6</t>
+    <t xml:space="preserve">0 to 6553.5</t>
   </si>
   <si>
     <t xml:space="preserve">/Dc/Battery/Voltage</t>
@@ -276,7 +276,7 @@
     <t xml:space="preserve">Battery Current (System)</t>
   </si>
   <si>
-    <t xml:space="preserve">-3266.8 to 3266.8</t>
+    <t xml:space="preserve">-3276.8 to 3276.7</t>
   </si>
   <si>
     <t xml:space="preserve">/Dc/Battery/Current</t>
@@ -321,7 +321,7 @@
     <t xml:space="preserve">Battery Consumed Amphours (System)</t>
   </si>
   <si>
-    <t xml:space="preserve">0 to -6533.6</t>
+    <t xml:space="preserve">0 to -6553.6</t>
   </si>
   <si>
     <t xml:space="preserve">/Dc/Battery/ConsumedAmphours</t>
@@ -333,7 +333,7 @@
     <t xml:space="preserve">Battery Time to Go (System)</t>
   </si>
   <si>
-    <t xml:space="preserve">0 to 6533600</t>
+    <t xml:space="preserve">0 to 6553600</t>
   </si>
   <si>
     <t xml:space="preserve">/Dc/Battery/TimeToGo</t>
@@ -447,7 +447,7 @@
     <t xml:space="preserve">Input frequency 1</t>
   </si>
   <si>
-    <t xml:space="preserve">-326.68 to 326.68</t>
+    <t xml:space="preserve">-327.68 to 327.67</t>
   </si>
   <si>
     <t xml:space="preserve">/Ac/ActiveIn/L1/F</t>
@@ -471,7 +471,7 @@
     <t xml:space="preserve">Input power 1</t>
   </si>
   <si>
-    <t xml:space="preserve">-326680 to 326680</t>
+    <t xml:space="preserve">-327680 to 327670</t>
   </si>
   <si>
     <t xml:space="preserve">/Ac/ActiveIn/L1/P</t>
@@ -579,7 +579,7 @@
     <t xml:space="preserve">Battery voltage</t>
   </si>
   <si>
-    <t xml:space="preserve">0 to 653.36</t>
+    <t xml:space="preserve">0 to 655.35</t>
   </si>
   <si>
     <t xml:space="preserve">/Dc/0/Voltage</t>
@@ -855,9 +855,6 @@
     <t xml:space="preserve">VE.Bus Reset</t>
   </si>
   <si>
-    <t xml:space="preserve">0 to 65535</t>
-  </si>
-  <si>
     <t xml:space="preserve">/SystemReset</t>
   </si>
   <si>
@@ -897,9 +894,6 @@
     <t xml:space="preserve">Maximum overvoltage feed-in power L1</t>
   </si>
   <si>
-    <t xml:space="preserve">0 to 6553500</t>
-  </si>
-  <si>
     <t xml:space="preserve">/Hub4/L1/MaxFeedInPower</t>
   </si>
   <si>
@@ -954,6 +948,9 @@
     <t xml:space="preserve">State of charge</t>
   </si>
   <si>
+    <t xml:space="preserve">0 to 6553.6</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alarm</t>
   </si>
   <si>
@@ -1854,7 +1851,7 @@
     <t xml:space="preserve">/Settings/Cgwacs/AcPowerSetPoint</t>
   </si>
   <si>
-    <t xml:space="preserve">ESS Mode 2 - Setpoint for the ESS control-loop in the CCGX. The control-loop will increase/decrease the Multi charge/discharge power to get the grid L1 reading at J224this setpoint</t>
+    <t xml:space="preserve">ESS Mode 2 - Setpoint for the ESS control-loop in the CCGX. The control-loop will increase/decrease the Multi charge/discharge power to get the grid reading to this setpoint</t>
   </si>
   <si>
     <t xml:space="preserve">ESS max charge current (fractional)</t>
@@ -1875,16 +1872,16 @@
     <t xml:space="preserve">ESS Mode 2 - Max discharge current for ESS control-loop. The control-loop will use this value to limit the multi power setpoint. Currently a value &lt; 50% will disable discharge completely. &gt;=50% allows. Consider using 2704 instead.</t>
   </si>
   <si>
-    <t xml:space="preserve">-3266800 to 3266800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESS Mode 2 – Same as 2700, but with a different scale factor. Meant for values larger than 65kW.</t>
+    <t xml:space="preserve">-3276800 to 3276700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESS Mode 2 – Same as 2700, but with a different scale factor. Meant for values larger than +-32kW.</t>
   </si>
   <si>
     <t xml:space="preserve">ESS max discharge current</t>
   </si>
   <si>
-    <t xml:space="preserve">0 to 655350</t>
+    <t xml:space="preserve">0 to 655360</t>
   </si>
   <si>
     <t xml:space="preserve">/Settings/Cgwacs/MaxDischargePower</t>
@@ -1905,9 +1902,6 @@
     <t xml:space="preserve">Maximum System Grid Feed In</t>
   </si>
   <si>
-    <t xml:space="preserve">-3276800 to 3276700</t>
-  </si>
-  <si>
     <t xml:space="preserve">/Settings/Cgwacs/MaxFeedInPower</t>
   </si>
   <si>
@@ -2112,15 +2106,9 @@
     <t xml:space="preserve">Output voltage</t>
   </si>
   <si>
-    <t xml:space="preserve">0 to 6553.6</t>
-  </si>
-  <si>
     <t xml:space="preserve">0 to 655.36</t>
   </si>
   <si>
-    <t xml:space="preserve">0 to 65536</t>
-  </si>
-  <si>
     <t xml:space="preserve">0=No alarm;1=Warning;2=Alarm</t>
   </si>
   <si>
@@ -2256,9 +2244,6 @@
     <t xml:space="preserve">Engine operating hours</t>
   </si>
   <si>
-    <t xml:space="preserve">0 to 6553600</t>
-  </si>
-  <si>
     <t xml:space="preserve">/Engine/OperatingHours</t>
   </si>
   <si>
@@ -2427,9 +2412,6 @@
     <t xml:space="preserve">Solar irradiance</t>
   </si>
   <si>
-    <t xml:space="preserve">0 to 6553.5</t>
-  </si>
-  <si>
     <t xml:space="preserve">/Irradiance</t>
   </si>
   <si>
@@ -2443,9 +2425,6 @@
   </si>
   <si>
     <t xml:space="preserve">Cell temperature of sensor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-3276.8 to 3276.7</t>
   </si>
   <si>
     <t xml:space="preserve">/CellTemperature</t>
@@ -3323,10 +3302,10 @@
   </sheetPr>
   <dimension ref="A1:N357"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A241" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A274" activeCellId="0" sqref="A274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4260,7 +4239,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>12</v>
       </c>
@@ -6310,19 +6289,19 @@
         <v>1</v>
       </c>
       <c r="F97" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G97" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I97" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="J97" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6330,7 +6309,7 @@
         <v>124</v>
       </c>
       <c r="B98" s="22" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C98" s="1" t="n">
         <v>63</v>
@@ -6342,16 +6321,16 @@
         <v>1</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>277</v>
+        <v>29</v>
       </c>
       <c r="G98" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I98" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6359,7 +6338,7 @@
         <v>124</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C99" s="1" t="n">
         <v>64</v>
@@ -6371,16 +6350,16 @@
         <v>1</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>277</v>
+        <v>29</v>
       </c>
       <c r="G99" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I99" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6388,7 +6367,7 @@
         <v>124</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C100" s="1" t="n">
         <v>65</v>
@@ -6400,16 +6379,16 @@
         <v>1</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>277</v>
+        <v>29</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6417,7 +6396,7 @@
         <v>124</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C101" s="1" t="n">
         <v>66</v>
@@ -6429,10 +6408,10 @@
         <v>0.01</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>291</v>
+        <v>103</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>23</v>
@@ -6446,7 +6425,7 @@
         <v>124</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C102" s="1" t="n">
         <v>67</v>
@@ -6458,10 +6437,10 @@
         <v>0.01</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>291</v>
+        <v>103</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>23</v>
@@ -6475,7 +6454,7 @@
         <v>124</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C103" s="1" t="n">
         <v>68</v>
@@ -6487,10 +6466,10 @@
         <v>0.01</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>291</v>
+        <v>103</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>23</v>
@@ -6501,7 +6480,7 @@
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>184</v>
@@ -6530,10 +6509,10 @@
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C105" s="1" t="n">
         <v>260</v>
@@ -6548,7 +6527,7 @@
         <v>185</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>17</v>
@@ -6559,10 +6538,10 @@
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C106" s="1" t="n">
         <v>261</v>
@@ -6591,7 +6570,7 @@
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>273</v>
@@ -6618,15 +6597,15 @@
         <v>275</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C108" s="1" t="n">
         <v>263</v>
@@ -6641,7 +6620,7 @@
         <v>185</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>17</v>
@@ -6652,10 +6631,10 @@
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C109" s="1" t="n">
         <v>264</v>
@@ -6670,7 +6649,7 @@
         <v>185</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>17</v>
@@ -6681,10 +6660,10 @@
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C110" s="1" t="n">
         <v>265</v>
@@ -6699,7 +6678,7 @@
         <v>99</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>17</v>
@@ -6708,15 +6687,15 @@
         <v>101</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C111" s="1" t="n">
         <v>266</v>
@@ -6728,7 +6707,7 @@
         <v>10</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>79</v>
+        <v>308</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>197</v>
@@ -6742,10 +6721,10 @@
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C112" s="1" t="n">
         <v>267</v>
@@ -6760,24 +6739,24 @@
         <v>29</v>
       </c>
       <c r="G112" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I112" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="H112" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I112" s="1" t="s">
+      <c r="J112" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="J112" s="1" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C113" s="1" t="n">
         <v>268</v>
@@ -6792,21 +6771,21 @@
         <v>29</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C114" s="1" t="n">
         <v>269</v>
@@ -6821,21 +6800,21 @@
         <v>29</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C115" s="1" t="n">
         <v>270</v>
@@ -6850,21 +6829,21 @@
         <v>29</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C116" s="1" t="n">
         <v>271</v>
@@ -6879,21 +6858,21 @@
         <v>29</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C117" s="1" t="n">
         <v>272</v>
@@ -6908,21 +6887,21 @@
         <v>29</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C118" s="1" t="n">
         <v>273</v>
@@ -6937,21 +6916,21 @@
         <v>29</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C119" s="1" t="n">
         <v>274</v>
@@ -6972,15 +6951,15 @@
         <v>17</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C120" s="1" t="n">
         <v>275</v>
@@ -6995,21 +6974,21 @@
         <v>29</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C121" s="1" t="n">
         <v>276</v>
@@ -7024,24 +7003,24 @@
         <v>29</v>
       </c>
       <c r="G121" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J121" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="H121" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I121" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="J121" s="1" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C122" s="1" t="n">
         <v>277</v>
@@ -7056,24 +7035,24 @@
         <v>29</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C123" s="1" t="n">
         <v>278</v>
@@ -7088,21 +7067,21 @@
         <v>29</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C124" s="1" t="n">
         <v>279</v>
@@ -7117,21 +7096,21 @@
         <v>29</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C125" s="1" t="n">
         <v>280</v>
@@ -7155,15 +7134,15 @@
         <v>24</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C126" s="1" t="n">
         <v>281</v>
@@ -7178,7 +7157,7 @@
         <v>99</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>17</v>
@@ -7187,15 +7166,15 @@
         <v>101</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C127" s="1" t="n">
         <v>282</v>
@@ -7210,7 +7189,7 @@
         <v>99</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>17</v>
@@ -7219,15 +7198,15 @@
         <v>101</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C128" s="1" t="n">
         <v>283</v>
@@ -7242,7 +7221,7 @@
         <v>99</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>17</v>
@@ -7251,15 +7230,15 @@
         <v>101</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C129" s="1" t="n">
         <v>284</v>
@@ -7274,7 +7253,7 @@
         <v>29</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H129" s="1" t="s">
         <v>17</v>
@@ -7283,15 +7262,15 @@
         <v>192</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C130" s="1" t="n">
         <v>285</v>
@@ -7306,7 +7285,7 @@
         <v>29</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>17</v>
@@ -7315,15 +7294,15 @@
         <v>192</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C131" s="1" t="n">
         <v>286</v>
@@ -7338,7 +7317,7 @@
         <v>99</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H131" s="1" t="s">
         <v>17</v>
@@ -7347,15 +7326,15 @@
         <v>101</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C132" s="1" t="n">
         <v>287</v>
@@ -7370,7 +7349,7 @@
         <v>185</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H132" s="1" t="s">
         <v>17</v>
@@ -7379,15 +7358,15 @@
         <v>81</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C133" s="1" t="n">
         <v>288</v>
@@ -7402,7 +7381,7 @@
         <v>185</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>17</v>
@@ -7411,15 +7390,15 @@
         <v>81</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C134" s="1" t="n">
         <v>289</v>
@@ -7434,24 +7413,24 @@
         <v>103</v>
       </c>
       <c r="G134" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I134" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="H134" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I134" s="1" t="s">
-        <v>358</v>
-      </c>
       <c r="J134" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C135" s="1" t="n">
         <v>290</v>
@@ -7466,7 +7445,7 @@
         <v>29</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>17</v>
@@ -7475,15 +7454,15 @@
         <v>192</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C136" s="1" t="n">
         <v>291</v>
@@ -7498,7 +7477,7 @@
         <v>29</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>17</v>
@@ -7507,15 +7486,15 @@
         <v>192</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C137" s="1" t="n">
         <v>292</v>
@@ -7530,7 +7509,7 @@
         <v>29</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>17</v>
@@ -7539,15 +7518,15 @@
         <v>192</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C138" s="1" t="n">
         <v>293</v>
@@ -7562,7 +7541,7 @@
         <v>29</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>17</v>
@@ -7571,15 +7550,15 @@
         <v>192</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C139" s="1" t="n">
         <v>294</v>
@@ -7594,7 +7573,7 @@
         <v>29</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H139" s="1" t="s">
         <v>17</v>
@@ -7603,15 +7582,15 @@
         <v>192</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C140" s="1" t="n">
         <v>295</v>
@@ -7626,7 +7605,7 @@
         <v>185</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H140" s="1" t="s">
         <v>17</v>
@@ -7635,15 +7614,15 @@
         <v>81</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C141" s="1" t="n">
         <v>296</v>
@@ -7658,7 +7637,7 @@
         <v>185</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>17</v>
@@ -7667,15 +7646,15 @@
         <v>81</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C142" s="1" t="n">
         <v>297</v>
@@ -7690,7 +7669,7 @@
         <v>29</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H142" s="1" t="s">
         <v>17</v>
@@ -7699,15 +7678,15 @@
         <v>192</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C143" s="1" t="n">
         <v>298</v>
@@ -7722,7 +7701,7 @@
         <v>29</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>17</v>
@@ -7731,15 +7710,15 @@
         <v>192</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C144" s="1" t="n">
         <v>299</v>
@@ -7754,7 +7733,7 @@
         <v>185</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>17</v>
@@ -7763,15 +7742,15 @@
         <v>81</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C145" s="1" t="n">
         <v>300</v>
@@ -7786,7 +7765,7 @@
         <v>185</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H145" s="1" t="s">
         <v>17</v>
@@ -7795,15 +7774,15 @@
         <v>81</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C146" s="1" t="n">
         <v>301</v>
@@ -7818,24 +7797,24 @@
         <v>79</v>
       </c>
       <c r="G146" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I146" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="H146" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I146" s="1" t="s">
-        <v>383</v>
-      </c>
       <c r="J146" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C147" s="1" t="n">
         <v>302</v>
@@ -7850,24 +7829,24 @@
         <v>79</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H147" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C148" s="1" t="n">
         <v>303</v>
@@ -7882,24 +7861,24 @@
         <v>103</v>
       </c>
       <c r="G148" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="J148" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="H148" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I148" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="J148" s="1" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C149" s="1" t="n">
         <v>304</v>
@@ -7914,7 +7893,7 @@
         <v>79</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H149" s="1" t="s">
         <v>17</v>
@@ -7923,15 +7902,15 @@
         <v>93</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C150" s="1" t="n">
         <v>305</v>
@@ -7946,7 +7925,7 @@
         <v>79</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H150" s="1" t="s">
         <v>17</v>
@@ -7955,15 +7934,15 @@
         <v>81</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C151" s="1" t="n">
         <v>306</v>
@@ -7978,7 +7957,7 @@
         <v>79</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H151" s="1" t="s">
         <v>17</v>
@@ -7987,15 +7966,15 @@
         <v>81</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C152" s="1" t="n">
         <v>307</v>
@@ -8010,7 +7989,7 @@
         <v>79</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>17</v>
@@ -8019,15 +7998,15 @@
         <v>86</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C153" s="1" t="n">
         <v>308</v>
@@ -8042,7 +8021,7 @@
         <v>79</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H153" s="1" t="s">
         <v>17</v>
@@ -8051,15 +8030,15 @@
         <v>86</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C154" s="1" t="n">
         <v>309</v>
@@ -8074,7 +8053,7 @@
         <v>79</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H154" s="1" t="s">
         <v>17</v>
@@ -8085,25 +8064,25 @@
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C155" s="1" t="n">
         <v>310</v>
       </c>
       <c r="D155" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E155" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F155" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="E155" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F155" s="3" t="s">
+      <c r="G155" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="G155" s="1" t="s">
-        <v>405</v>
       </c>
       <c r="H155" s="1" t="s">
         <v>17</v>
@@ -8111,25 +8090,25 @@
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C156" s="1" t="n">
         <v>312</v>
       </c>
       <c r="D156" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E156" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F156" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="E156" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F156" s="3" t="s">
-        <v>404</v>
-      </c>
       <c r="G156" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>17</v>
@@ -8137,25 +8116,25 @@
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C157" s="1" t="n">
         <v>314</v>
       </c>
       <c r="D157" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E157" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F157" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="E157" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F157" s="3" t="s">
-        <v>404</v>
-      </c>
       <c r="G157" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H157" s="1" t="s">
         <v>17</v>
@@ -8163,25 +8142,25 @@
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C158" s="1" t="n">
         <v>316</v>
       </c>
       <c r="D158" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E158" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F158" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="E158" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F158" s="3" t="s">
-        <v>404</v>
-      </c>
       <c r="G158" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H158" s="1" t="s">
         <v>17</v>
@@ -8189,10 +8168,10 @@
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C159" s="1" t="n">
         <v>318</v>
@@ -8207,7 +8186,7 @@
         <v>84</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H159" s="1" t="s">
         <v>17</v>
@@ -8218,10 +8197,10 @@
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C160" s="1" t="n">
         <v>319</v>
@@ -8236,7 +8215,7 @@
         <v>84</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>17</v>
@@ -8247,10 +8226,10 @@
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C161" s="1" t="n">
         <v>320</v>
@@ -8265,21 +8244,21 @@
         <v>29</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H161" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C162" s="1" t="n">
         <v>321</v>
@@ -8294,21 +8273,21 @@
         <v>29</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H162" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C163" s="1" t="n">
         <v>322</v>
@@ -8323,21 +8302,21 @@
         <v>29</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H163" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C164" s="1" t="n">
         <v>323</v>
@@ -8352,21 +8331,21 @@
         <v>29</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H164" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C165" s="1" t="n">
         <v>324</v>
@@ -8381,21 +8360,21 @@
         <v>29</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H165" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C166" s="1" t="n">
         <v>325</v>
@@ -8410,21 +8389,21 @@
         <v>29</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H166" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C167" s="1" t="n">
         <v>326</v>
@@ -8439,18 +8418,18 @@
         <v>29</v>
       </c>
       <c r="G167" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I167" s="1" t="s">
         <v>429</v>
-      </c>
-      <c r="H167" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I167" s="1" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>184</v>
@@ -8479,7 +8458,7 @@
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>187</v>
@@ -8508,7 +8487,7 @@
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>273</v>
@@ -8535,15 +8514,15 @@
         <v>275</v>
       </c>
       <c r="J170" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C171" s="1" t="n">
         <v>774</v>
@@ -8564,18 +8543,18 @@
         <v>23</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C172" s="1" t="n">
         <v>775</v>
@@ -8596,15 +8575,15 @@
         <v>17</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C173" s="1" t="n">
         <v>776</v>
@@ -8619,7 +8598,7 @@
         <v>185</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H173" s="1" t="s">
         <v>17</v>
@@ -8628,15 +8607,15 @@
         <v>81</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C174" s="1" t="n">
         <v>777</v>
@@ -8651,7 +8630,7 @@
         <v>84</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H174" s="1" t="s">
         <v>17</v>
@@ -8660,15 +8639,15 @@
         <v>86</v>
       </c>
       <c r="J174" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C175" s="1" t="n">
         <v>778</v>
@@ -8683,21 +8662,21 @@
         <v>29</v>
       </c>
       <c r="G175" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I175" s="1" t="s">
         <v>443</v>
-      </c>
-      <c r="H175" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I175" s="1" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C176" s="1" t="n">
         <v>779</v>
@@ -8712,21 +8691,21 @@
         <v>79</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H176" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C177" s="1" t="n">
         <v>780</v>
@@ -8752,7 +8731,7 @@
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C178" s="1" t="n">
         <v>781</v>
@@ -8767,24 +8746,24 @@
         <v>29</v>
       </c>
       <c r="G178" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="H178" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I178" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="H178" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I178" s="1" t="s">
-        <v>312</v>
-      </c>
       <c r="J178" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C179" s="1" t="n">
         <v>782</v>
@@ -8799,21 +8778,21 @@
         <v>29</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H179" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C180" s="1" t="n">
         <v>783</v>
@@ -8828,21 +8807,21 @@
         <v>29</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H180" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C181" s="1" t="n">
         <v>784</v>
@@ -8857,24 +8836,24 @@
         <v>79</v>
       </c>
       <c r="G181" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="H181" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I181" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="J181" s="1" t="s">
         <v>452</v>
-      </c>
-      <c r="H181" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I181" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="J181" s="1" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C182" s="1" t="n">
         <v>785</v>
@@ -8889,7 +8868,7 @@
         <v>29</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H182" s="1" t="s">
         <v>17</v>
@@ -8898,15 +8877,15 @@
         <v>31</v>
       </c>
       <c r="J182" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C183" s="1" t="n">
         <v>786</v>
@@ -8921,24 +8900,24 @@
         <v>79</v>
       </c>
       <c r="G183" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="H183" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I183" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="J183" s="1" t="s">
         <v>458</v>
-      </c>
-      <c r="H183" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I183" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="J183" s="1" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C184" s="1" t="n">
         <v>787</v>
@@ -8953,7 +8932,7 @@
         <v>29</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H184" s="1" t="s">
         <v>17</v>
@@ -8962,15 +8941,15 @@
         <v>31</v>
       </c>
       <c r="J184" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C185" s="1" t="n">
         <v>788</v>
@@ -8985,21 +8964,21 @@
         <v>29</v>
       </c>
       <c r="G185" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="H185" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I185" s="1" t="s">
         <v>464</v>
-      </c>
-      <c r="H185" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I185" s="1" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C186" s="1" t="n">
         <v>789</v>
@@ -9014,7 +8993,7 @@
         <v>79</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H186" s="1" t="s">
         <v>17</v>
@@ -9029,10 +9008,10 @@
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C187" s="1" t="n">
         <v>790</v>
@@ -9047,16 +9026,16 @@
         <v>79</v>
       </c>
       <c r="G187" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="H187" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I187" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="J187" s="1" t="s">
         <v>469</v>
-      </c>
-      <c r="H187" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I187" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="J187" s="1" t="s">
-        <v>470</v>
       </c>
       <c r="K187" s="19"/>
       <c r="L187" s="20"/>
@@ -9065,10 +9044,10 @@
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C188" s="1" t="n">
         <v>791</v>
@@ -9083,13 +9062,13 @@
         <v>29</v>
       </c>
       <c r="G188" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="H188" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I188" s="1" t="s">
         <v>472</v>
-      </c>
-      <c r="H188" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I188" s="1" t="s">
-        <v>473</v>
       </c>
       <c r="K188" s="19"/>
       <c r="L188" s="20"/>
@@ -9098,10 +9077,10 @@
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B189" s="1" t="s">
         <v>474</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>475</v>
       </c>
       <c r="C189" s="1" t="n">
         <v>1026</v>
@@ -9116,21 +9095,21 @@
         <v>29</v>
       </c>
       <c r="G189" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="H189" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I189" s="1" t="s">
         <v>476</v>
-      </c>
-      <c r="H189" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I189" s="1" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C190" s="1" t="n">
         <v>1027</v>
@@ -9145,7 +9124,7 @@
         <v>79</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H190" s="1" t="s">
         <v>17</v>
@@ -9156,10 +9135,10 @@
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C191" s="1" t="n">
         <v>1028</v>
@@ -9174,7 +9153,7 @@
         <v>84</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H191" s="1" t="s">
         <v>17</v>
@@ -9185,10 +9164,10 @@
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C192" s="1" t="n">
         <v>1029</v>
@@ -9203,7 +9182,7 @@
         <v>29</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H192" s="1" t="s">
         <v>17</v>
@@ -9214,10 +9193,10 @@
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C193" s="1" t="n">
         <v>1030</v>
@@ -9232,24 +9211,24 @@
         <v>185</v>
       </c>
       <c r="G193" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="H193" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I193" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="J193" s="1" t="s">
         <v>485</v>
-      </c>
-      <c r="H193" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I193" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="J193" s="1" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C194" s="1" t="n">
         <v>1031</v>
@@ -9264,7 +9243,7 @@
         <v>79</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H194" s="1" t="s">
         <v>17</v>
@@ -9275,10 +9254,10 @@
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C195" s="1" t="n">
         <v>1032</v>
@@ -9293,7 +9272,7 @@
         <v>84</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H195" s="1" t="s">
         <v>17</v>
@@ -9304,10 +9283,10 @@
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C196" s="1" t="n">
         <v>1033</v>
@@ -9322,7 +9301,7 @@
         <v>29</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H196" s="1" t="s">
         <v>17</v>
@@ -9333,10 +9312,10 @@
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C197" s="1" t="n">
         <v>1034</v>
@@ -9351,24 +9330,24 @@
         <v>185</v>
       </c>
       <c r="G197" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="H197" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I197" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="J197" s="1" t="s">
         <v>494</v>
-      </c>
-      <c r="H197" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I197" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="J197" s="1" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C198" s="1" t="n">
         <v>1035</v>
@@ -9383,7 +9362,7 @@
         <v>79</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H198" s="1" t="s">
         <v>17</v>
@@ -9394,10 +9373,10 @@
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C199" s="1" t="n">
         <v>1036</v>
@@ -9412,7 +9391,7 @@
         <v>84</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H199" s="1" t="s">
         <v>17</v>
@@ -9423,10 +9402,10 @@
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C200" s="1" t="n">
         <v>1037</v>
@@ -9441,7 +9420,7 @@
         <v>29</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H200" s="1" t="s">
         <v>17</v>
@@ -9452,10 +9431,10 @@
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C201" s="1" t="n">
         <v>1038</v>
@@ -9470,36 +9449,36 @@
         <v>185</v>
       </c>
       <c r="G201" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="H201" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I201" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="J201" s="1" t="s">
         <v>503</v>
-      </c>
-      <c r="H201" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I201" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="J201" s="1" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C202" s="1" t="n">
         <v>1039</v>
       </c>
       <c r="D202" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="E202" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F202" s="3" t="s">
         <v>506</v>
-      </c>
-      <c r="E202" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F202" s="3" t="s">
-        <v>507</v>
       </c>
       <c r="G202" s="1" t="s">
         <v>16</v>
@@ -9508,102 +9487,102 @@
         <v>17</v>
       </c>
       <c r="J202" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C203" s="1" t="n">
         <v>1046</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E203" s="1" t="n">
         <v>100</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H203" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I203" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C204" s="1" t="n">
         <v>1048</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E204" s="1" t="n">
         <v>100</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H204" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I204" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C205" s="1" t="n">
         <v>1050</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E205" s="1" t="n">
         <v>100</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H205" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I205" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C206" s="1" t="n">
         <v>1282</v>
@@ -9624,15 +9603,15 @@
         <v>17</v>
       </c>
       <c r="I206" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C207" s="1" t="n">
         <v>1283</v>
@@ -9647,21 +9626,21 @@
         <v>29</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H207" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I207" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C208" s="1" t="n">
         <v>1284</v>
@@ -9676,21 +9655,21 @@
         <v>29</v>
       </c>
       <c r="G208" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="H208" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I208" s="1" t="s">
         <v>516</v>
-      </c>
-      <c r="H208" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I208" s="1" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C209" s="1" t="n">
         <v>1285</v>
@@ -9705,21 +9684,21 @@
         <v>29</v>
       </c>
       <c r="G209" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="H209" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I209" s="1" t="s">
         <v>519</v>
-      </c>
-      <c r="H209" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I209" s="1" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C210" s="1" t="n">
         <v>1286</v>
@@ -9734,7 +9713,7 @@
         <v>29</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H210" s="1" t="s">
         <v>17</v>
@@ -9745,10 +9724,10 @@
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C211" s="1" t="n">
         <v>1287</v>
@@ -9763,7 +9742,7 @@
         <v>29</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H211" s="1" t="s">
         <v>17</v>
@@ -9774,10 +9753,10 @@
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C212" s="1" t="n">
         <v>1288</v>
@@ -9792,7 +9771,7 @@
         <v>29</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H212" s="1" t="s">
         <v>17</v>
@@ -9803,10 +9782,10 @@
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C213" s="1" t="n">
         <v>1289</v>
@@ -9821,7 +9800,7 @@
         <v>29</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H213" s="1" t="s">
         <v>17</v>
@@ -9832,10 +9811,10 @@
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C214" s="1" t="n">
         <v>1290</v>
@@ -9850,7 +9829,7 @@
         <v>185</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H214" s="1" t="s">
         <v>17</v>
@@ -9861,10 +9840,10 @@
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C215" s="1" t="n">
         <v>1291</v>
@@ -9879,7 +9858,7 @@
         <v>185</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H215" s="1" t="s">
         <v>17</v>
@@ -9890,10 +9869,10 @@
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C216" s="1" t="n">
         <v>1292</v>
@@ -9908,7 +9887,7 @@
         <v>29</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H216" s="1" t="s">
         <v>17</v>
@@ -9919,10 +9898,10 @@
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C217" s="1" t="n">
         <v>1293</v>
@@ -9937,21 +9916,21 @@
         <v>29</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H217" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I217" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C218" s="1" t="n">
         <v>1294</v>
@@ -9966,21 +9945,21 @@
         <v>29</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H218" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I218" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C219" s="1" t="n">
         <v>1295</v>
@@ -9995,21 +9974,21 @@
         <v>29</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H219" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I219" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C220" s="1" t="n">
         <v>1296</v>
@@ -10024,21 +10003,21 @@
         <v>29</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H220" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I220" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C221" s="1" t="n">
         <v>1297</v>
@@ -10053,7 +10032,7 @@
         <v>29</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H221" s="1" t="s">
         <v>17</v>
@@ -10064,10 +10043,10 @@
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C222" s="1" t="n">
         <v>1298</v>
@@ -10082,7 +10061,7 @@
         <v>29</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H222" s="1" t="s">
         <v>17</v>
@@ -10093,10 +10072,10 @@
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C223" s="1" t="n">
         <v>1299</v>
@@ -10111,21 +10090,21 @@
         <v>29</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H223" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I223" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C224" s="1" t="n">
         <v>1300</v>
@@ -10140,7 +10119,7 @@
         <v>185</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H224" s="1" t="s">
         <v>17</v>
@@ -10149,12 +10128,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C225" s="1" t="n">
         <v>1301</v>
@@ -10169,7 +10148,7 @@
         <v>185</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H225" s="1" t="s">
         <v>17</v>
@@ -10180,10 +10159,10 @@
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B226" s="1" t="s">
         <v>553</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>554</v>
       </c>
       <c r="C226" s="1" t="n">
         <v>2048</v>
@@ -10198,21 +10177,21 @@
         <v>60</v>
       </c>
       <c r="G226" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="H226" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I226" s="1" t="s">
         <v>555</v>
-      </c>
-      <c r="H226" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I226" s="1" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C227" s="1" t="n">
         <v>2049</v>
@@ -10227,7 +10206,7 @@
         <v>84</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H227" s="1" t="s">
         <v>17</v>
@@ -10238,10 +10217,10 @@
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C228" s="1" t="n">
         <v>2050</v>
@@ -10267,10 +10246,10 @@
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C229" s="1" t="n">
         <v>2051</v>
@@ -10296,10 +10275,10 @@
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C230" s="1" t="n">
         <v>2052</v>
@@ -10314,7 +10293,7 @@
         <v>84</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H230" s="1" t="s">
         <v>17</v>
@@ -10323,15 +10302,15 @@
         <v>31</v>
       </c>
       <c r="J230" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C231" s="1" t="n">
         <v>2053</v>
@@ -10346,7 +10325,7 @@
         <v>84</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H231" s="1" t="s">
         <v>17</v>
@@ -10355,12 +10334,12 @@
         <v>275</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B232" s="1" t="s">
         <v>566</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>567</v>
       </c>
       <c r="C232" s="1" t="n">
         <v>2307</v>
@@ -10386,10 +10365,10 @@
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C233" s="1" t="n">
         <v>2308</v>
@@ -10415,10 +10394,10 @@
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C234" s="1" t="n">
         <v>2309</v>
@@ -10442,12 +10421,12 @@
         <v>275</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C235" s="1" t="n">
         <v>2310</v>
@@ -10462,7 +10441,7 @@
         <v>185</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H235" s="1" t="s">
         <v>17</v>
@@ -10473,10 +10452,10 @@
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C236" s="1" t="n">
         <v>2311</v>
@@ -10491,7 +10470,7 @@
         <v>84</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H236" s="1" t="s">
         <v>17</v>
@@ -10500,12 +10479,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C237" s="1" t="n">
         <v>2312</v>
@@ -10520,7 +10499,7 @@
         <v>185</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H237" s="1" t="s">
         <v>17</v>
@@ -10531,10 +10510,10 @@
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C238" s="1" t="n">
         <v>2313</v>
@@ -10549,7 +10528,7 @@
         <v>84</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H238" s="1" t="s">
         <v>17</v>
@@ -10560,10 +10539,10 @@
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C239" s="1" t="n">
         <v>2314</v>
@@ -10578,7 +10557,7 @@
         <v>84</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H239" s="1" t="s">
         <v>17</v>
@@ -10589,10 +10568,10 @@
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C240" s="1" t="n">
         <v>2315</v>
@@ -10607,21 +10586,21 @@
         <v>29</v>
       </c>
       <c r="G240" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="H240" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I240" s="1" t="s">
         <v>580</v>
-      </c>
-      <c r="H240" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I240" s="1" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C241" s="1" t="n">
         <v>2316</v>
@@ -10636,7 +10615,7 @@
         <v>84</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H241" s="1" t="s">
         <v>23</v>
@@ -10647,10 +10626,10 @@
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C242" s="1" t="n">
         <v>2317</v>
@@ -10671,15 +10650,15 @@
         <v>23</v>
       </c>
       <c r="I242" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C243" s="1" t="n">
         <v>2318</v>
@@ -10700,15 +10679,15 @@
         <v>17</v>
       </c>
       <c r="I243" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C244" s="1" t="n">
         <v>2319</v>
@@ -10723,21 +10702,21 @@
         <v>29</v>
       </c>
       <c r="G244" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="H244" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I244" s="1" t="s">
         <v>464</v>
-      </c>
-      <c r="H244" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I244" s="1" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C245" s="1" t="n">
         <v>2320</v>
@@ -10763,10 +10742,10 @@
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C246" s="1" t="n">
         <v>2321</v>
@@ -10781,21 +10760,21 @@
         <v>29</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H246" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I246" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C247" s="1" t="n">
         <v>2322</v>
@@ -10810,21 +10789,21 @@
         <v>29</v>
       </c>
       <c r="G247" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H247" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I247" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B248" s="1" t="s">
         <v>586</v>
-      </c>
-      <c r="B248" s="1" t="s">
-        <v>587</v>
       </c>
       <c r="C248" s="1" t="n">
         <v>2600</v>
@@ -10839,7 +10818,7 @@
         <v>60</v>
       </c>
       <c r="G248" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H248" s="1" t="s">
         <v>17</v>
@@ -10850,10 +10829,10 @@
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C249" s="1" t="n">
         <v>2601</v>
@@ -10868,7 +10847,7 @@
         <v>60</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H249" s="1" t="s">
         <v>17</v>
@@ -10879,10 +10858,10 @@
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C250" s="1" t="n">
         <v>2602</v>
@@ -10897,7 +10876,7 @@
         <v>60</v>
       </c>
       <c r="G250" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H250" s="1" t="s">
         <v>17</v>
@@ -10906,12 +10885,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C251" s="1" t="n">
         <v>2603</v>
@@ -10926,21 +10905,21 @@
         <v>185</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H251" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I251" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C252" s="1" t="n">
         <v>2604</v>
@@ -10955,21 +10934,21 @@
         <v>185</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H252" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I252" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C253" s="1" t="n">
         <v>2605</v>
@@ -10984,21 +10963,21 @@
         <v>185</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H253" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I253" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C254" s="1" t="n">
         <v>2606</v>
@@ -11013,21 +10992,21 @@
         <v>185</v>
       </c>
       <c r="G254" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="H254" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I254" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B255" s="1" t="s">
         <v>594</v>
-      </c>
-      <c r="H254" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I254" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="B255" s="1" t="s">
-        <v>595</v>
       </c>
       <c r="C255" s="1" t="n">
         <v>2607</v>
@@ -11042,21 +11021,21 @@
         <v>185</v>
       </c>
       <c r="G255" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="H255" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I255" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B256" s="1" t="s">
         <v>596</v>
-      </c>
-      <c r="H255" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I255" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="B256" s="1" t="s">
-        <v>597</v>
       </c>
       <c r="C256" s="1" t="n">
         <v>2608</v>
@@ -11071,30 +11050,30 @@
         <v>185</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H256" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I256" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C257" s="1" t="n">
         <v>2609</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F257" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G257" s="1" t="s">
         <v>16</v>
@@ -11103,15 +11082,15 @@
         <v>17</v>
       </c>
       <c r="J257" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C258" s="1" t="n">
         <v>2616</v>
@@ -11126,7 +11105,7 @@
         <v>79</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H258" s="1" t="s">
         <v>17</v>
@@ -11137,10 +11116,10 @@
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C259" s="1" t="n">
         <v>2617</v>
@@ -11155,7 +11134,7 @@
         <v>84</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H259" s="1" t="s">
         <v>17</v>
@@ -11166,10 +11145,10 @@
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C260" s="1" t="n">
         <v>2618</v>
@@ -11184,7 +11163,7 @@
         <v>79</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H260" s="1" t="s">
         <v>17</v>
@@ -11195,10 +11174,10 @@
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C261" s="1" t="n">
         <v>2619</v>
@@ -11213,7 +11192,7 @@
         <v>84</v>
       </c>
       <c r="G261" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H261" s="1" t="s">
         <v>17</v>
@@ -11224,10 +11203,10 @@
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C262" s="1" t="n">
         <v>2620</v>
@@ -11242,7 +11221,7 @@
         <v>79</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H262" s="1" t="s">
         <v>17</v>
@@ -11253,10 +11232,10 @@
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C263" s="1" t="n">
         <v>2621</v>
@@ -11271,7 +11250,7 @@
         <v>84</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H263" s="1" t="s">
         <v>17</v>
@@ -11282,184 +11261,184 @@
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C264" s="1" t="n">
         <v>2622</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E264" s="1" t="n">
         <v>100</v>
       </c>
       <c r="F264" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H264" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I264" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C265" s="1" t="n">
         <v>2624</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E265" s="1" t="n">
         <v>100</v>
       </c>
       <c r="F265" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G265" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H265" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I265" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C266" s="1" t="n">
         <v>2626</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E266" s="1" t="n">
         <v>100</v>
       </c>
       <c r="F266" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G266" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H266" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I266" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C267" s="1" t="n">
         <v>2628</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E267" s="1" t="n">
         <v>100</v>
       </c>
       <c r="F267" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G267" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H267" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I267" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C268" s="1" t="n">
         <v>2630</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E268" s="1" t="n">
         <v>100</v>
       </c>
       <c r="F268" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G268" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H268" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I268" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C269" s="1" t="n">
         <v>2632</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E269" s="1" t="n">
         <v>100</v>
       </c>
       <c r="F269" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G269" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H269" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I269" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B270" s="1" t="s">
         <v>607</v>
-      </c>
-      <c r="B270" s="1" t="s">
-        <v>608</v>
       </c>
       <c r="C270" s="1" t="n">
         <v>2700</v>
@@ -11474,7 +11453,7 @@
         <v>60</v>
       </c>
       <c r="G270" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H270" s="1" t="s">
         <v>23</v>
@@ -11483,15 +11462,15 @@
         <v>31</v>
       </c>
       <c r="J270" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C271" s="1" t="n">
         <v>2701</v>
@@ -11506,7 +11485,7 @@
         <v>91</v>
       </c>
       <c r="G271" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H271" s="1" t="s">
         <v>23</v>
@@ -11515,15 +11494,15 @@
         <v>93</v>
       </c>
       <c r="J271" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C272" s="1" t="n">
         <v>2702</v>
@@ -11538,7 +11517,7 @@
         <v>91</v>
       </c>
       <c r="G272" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H272" s="1" t="s">
         <v>23</v>
@@ -11547,15 +11526,15 @@
         <v>93</v>
       </c>
       <c r="J272" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B273" s="1" t="s">
         <v>607</v>
-      </c>
-      <c r="B273" s="1" t="s">
-        <v>608</v>
       </c>
       <c r="C273" s="1" t="n">
         <v>2703</v>
@@ -11567,10 +11546,10 @@
         <v>0.01</v>
       </c>
       <c r="F273" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="G273" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H273" s="1" t="s">
         <v>23</v>
@@ -11579,15 +11558,15 @@
         <v>31</v>
       </c>
       <c r="J273" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C274" s="1" t="n">
         <v>2704</v>
@@ -11599,10 +11578,10 @@
         <v>0.1</v>
       </c>
       <c r="F274" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="G274" s="1" t="s">
         <v>620</v>
-      </c>
-      <c r="G274" s="1" t="s">
-        <v>621</v>
       </c>
       <c r="H274" s="1" t="s">
         <v>23</v>
@@ -11611,15 +11590,15 @@
         <v>31</v>
       </c>
       <c r="J274" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C275" s="1" t="n">
         <v>2705</v>
@@ -11634,7 +11613,7 @@
         <v>60</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H275" s="1" t="s">
         <v>23</v>
@@ -11643,15 +11622,15 @@
         <v>86</v>
       </c>
       <c r="J275" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C276" s="1" t="n">
         <v>2706</v>
@@ -11663,10 +11642,10 @@
         <v>0.01</v>
       </c>
       <c r="F276" s="3" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="H276" s="1" t="s">
         <v>23</v>
@@ -11675,15 +11654,15 @@
         <v>31</v>
       </c>
       <c r="J276" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C277" s="1" t="n">
         <v>2707</v>
@@ -11695,24 +11674,24 @@
         <v>1</v>
       </c>
       <c r="G277" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="H277" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I277" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="J277" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C278" s="1" t="n">
         <v>2708</v>
@@ -11724,24 +11703,24 @@
         <v>1</v>
       </c>
       <c r="G278" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="H278" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I278" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="J278" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C279" s="1" t="n">
         <v>2709</v>
@@ -11753,82 +11732,82 @@
         <v>1</v>
       </c>
       <c r="G279" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="H279" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I279" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="J279" s="1" t="s">
         <v>640</v>
-      </c>
-      <c r="H279" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I279" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="J279" s="1" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C280" s="1" t="n">
         <v>2800</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E280" s="1" t="n">
         <v>10000000</v>
       </c>
       <c r="F280" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="G280" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="H280" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I280" s="1" t="s">
         <v>645</v>
-      </c>
-      <c r="G280" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="H280" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I280" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C281" s="1" t="n">
         <v>2802</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E281" s="1" t="n">
         <v>10000000</v>
       </c>
       <c r="F281" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="G281" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="H281" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I281" s="1" t="s">
         <v>645</v>
-      </c>
-      <c r="G281" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="H281" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I281" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C282" s="1" t="n">
         <v>2804</v>
@@ -11843,24 +11822,24 @@
         <v>185</v>
       </c>
       <c r="G282" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="H282" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I282" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="J282" s="1" t="s">
         <v>651</v>
-      </c>
-      <c r="H282" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I282" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="J282" s="1" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C283" s="1" t="n">
         <v>2805</v>
@@ -11875,24 +11854,24 @@
         <v>185</v>
       </c>
       <c r="G283" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="H283" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I283" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="J283" s="1" t="s">
         <v>655</v>
-      </c>
-      <c r="H283" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I283" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="J283" s="1" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C284" s="1" t="n">
         <v>2806</v>
@@ -11907,21 +11886,21 @@
         <v>29</v>
       </c>
       <c r="G284" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H284" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J284" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C285" s="1" t="n">
         <v>2807</v>
@@ -11936,7 +11915,7 @@
         <v>29</v>
       </c>
       <c r="G285" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="H285" s="1" t="s">
         <v>17</v>
@@ -11944,39 +11923,39 @@
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C286" s="1" t="n">
         <v>2808</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E286" s="1" t="n">
         <v>10</v>
       </c>
       <c r="F286" s="3" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G286" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="H286" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I286" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C287" s="1" t="n">
         <v>2900</v>
@@ -11988,24 +11967,24 @@
         <v>1</v>
       </c>
       <c r="G287" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="H287" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I287" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="J287" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C288" s="1" t="n">
         <v>2901</v>
@@ -12017,7 +11996,7 @@
         <v>10</v>
       </c>
       <c r="G288" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="H288" s="1" t="s">
         <v>23</v>
@@ -12026,15 +12005,15 @@
         <v>93</v>
       </c>
       <c r="J288" s="21" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="21" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C289" s="1" t="n">
         <v>2902</v>
@@ -12049,22 +12028,22 @@
         <v>29</v>
       </c>
       <c r="G289" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="H289" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I289" s="22" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="J289" s="21"/>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C290" s="1" t="n">
         <v>3000</v>
@@ -12079,7 +12058,7 @@
         <v>29</v>
       </c>
       <c r="G290" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H290" s="1" t="s">
         <v>17</v>
@@ -12088,39 +12067,39 @@
     </row>
     <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C291" s="1" t="n">
         <v>3001</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E291" s="1" t="n">
         <v>10000</v>
       </c>
       <c r="F291" s="3" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="G291" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H291" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I291" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C292" s="1" t="n">
         <v>3003</v>
@@ -12135,21 +12114,21 @@
         <v>29</v>
       </c>
       <c r="G292" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="H292" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I292" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C293" s="1" t="n">
         <v>3004</v>
@@ -12164,7 +12143,7 @@
         <v>79</v>
       </c>
       <c r="G293" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="H293" s="1" t="s">
         <v>17</v>
@@ -12175,39 +12154,39 @@
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C294" s="1" t="n">
         <v>3005</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E294" s="1" t="n">
         <v>10000</v>
       </c>
       <c r="F294" s="3" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="G294" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="H294" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I294" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C295" s="1" t="n">
         <v>3007</v>
@@ -12222,21 +12201,21 @@
         <v>29</v>
       </c>
       <c r="G295" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="H295" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I295" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C296" s="1" t="n">
         <v>3100</v>
@@ -12248,7 +12227,7 @@
         <v>10</v>
       </c>
       <c r="F296" s="3" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="G296" s="1" t="s">
         <v>165</v>
@@ -12262,10 +12241,10 @@
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C297" s="1" t="n">
         <v>3101</v>
@@ -12277,7 +12256,7 @@
         <v>10</v>
       </c>
       <c r="F297" s="3" t="s">
-        <v>696</v>
+        <v>308</v>
       </c>
       <c r="G297" s="1" t="s">
         <v>159</v>
@@ -12291,7 +12270,7 @@
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>184</v>
@@ -12306,7 +12285,7 @@
         <v>100</v>
       </c>
       <c r="F298" s="3" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="G298" s="1" t="s">
         <v>186</v>
@@ -12320,10 +12299,10 @@
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C299" s="1" t="n">
         <v>3110</v>
@@ -12335,7 +12314,7 @@
         <v>1</v>
       </c>
       <c r="F299" s="3" t="s">
-        <v>698</v>
+        <v>29</v>
       </c>
       <c r="G299" s="1" t="s">
         <v>208</v>
@@ -12344,15 +12323,15 @@
         <v>17</v>
       </c>
       <c r="I299" s="1" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="C300" s="1" t="n">
         <v>3111</v>
@@ -12364,24 +12343,24 @@
         <v>1</v>
       </c>
       <c r="F300" s="3" t="s">
-        <v>698</v>
+        <v>29</v>
       </c>
       <c r="G300" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H300" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I300" s="1" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="C301" s="1" t="n">
         <v>3112</v>
@@ -12393,24 +12372,24 @@
         <v>1</v>
       </c>
       <c r="F301" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G301" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="G301" s="1" t="s">
-        <v>702</v>
-      </c>
       <c r="H301" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I301" s="1" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C302" s="1" t="n">
         <v>3113</v>
@@ -12422,24 +12401,24 @@
         <v>1</v>
       </c>
       <c r="F302" s="3" t="s">
-        <v>698</v>
+        <v>29</v>
       </c>
       <c r="G302" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H302" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I302" s="1" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="C303" s="1" t="n">
         <v>3114</v>
@@ -12451,24 +12430,24 @@
         <v>1</v>
       </c>
       <c r="F303" s="3" t="s">
-        <v>698</v>
+        <v>29</v>
       </c>
       <c r="G303" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H303" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I303" s="1" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="C304" s="1" t="n">
         <v>3115</v>
@@ -12480,21 +12459,21 @@
         <v>1</v>
       </c>
       <c r="F304" s="3" t="s">
-        <v>698</v>
+        <v>29</v>
       </c>
       <c r="G304" s="1" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="H304" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I304" s="1" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>212</v>
@@ -12509,7 +12488,7 @@
         <v>1</v>
       </c>
       <c r="F305" s="3" t="s">
-        <v>698</v>
+        <v>29</v>
       </c>
       <c r="G305" s="1" t="s">
         <v>213</v>
@@ -12518,15 +12497,15 @@
         <v>17</v>
       </c>
       <c r="I305" s="1" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="C306" s="1" t="n">
         <v>3117</v>
@@ -12538,24 +12517,24 @@
         <v>1</v>
       </c>
       <c r="F306" s="3" t="s">
-        <v>698</v>
+        <v>29</v>
       </c>
       <c r="G306" s="1" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="H306" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I306" s="1" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="C307" s="1" t="n">
         <v>3125</v>
@@ -12567,10 +12546,10 @@
         <v>1</v>
       </c>
       <c r="F307" s="3" t="s">
-        <v>698</v>
+        <v>29</v>
       </c>
       <c r="G307" s="1" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="H307" s="1" t="s">
         <v>17</v>
@@ -12578,10 +12557,10 @@
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C308" s="1" t="n">
         <v>3126</v>
@@ -12593,7 +12572,7 @@
         <v>1</v>
       </c>
       <c r="F308" s="3" t="s">
-        <v>698</v>
+        <v>29</v>
       </c>
       <c r="G308" s="1" t="s">
         <v>205</v>
@@ -12602,15 +12581,15 @@
         <v>23</v>
       </c>
       <c r="I308" s="1" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="C309" s="1" t="n">
         <v>3127</v>
@@ -12622,10 +12601,10 @@
         <v>1</v>
       </c>
       <c r="F309" s="3" t="s">
-        <v>698</v>
+        <v>29</v>
       </c>
       <c r="G309" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H309" s="1" t="s">
         <v>17</v>
@@ -12633,10 +12612,10 @@
     </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C310" s="1" t="n">
         <v>3128</v>
@@ -12648,7 +12627,7 @@
         <v>1</v>
       </c>
       <c r="F310" s="3" t="s">
-        <v>698</v>
+        <v>29</v>
       </c>
       <c r="G310" s="1" t="s">
         <v>199</v>
@@ -12657,15 +12636,15 @@
         <v>17</v>
       </c>
       <c r="I310" s="1" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="C311" s="1" t="n">
         <v>3200</v>
@@ -12677,10 +12656,10 @@
         <v>10</v>
       </c>
       <c r="F311" s="3" t="s">
-        <v>696</v>
+        <v>308</v>
       </c>
       <c r="G311" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H311" s="1" t="s">
         <v>17</v>
@@ -12691,10 +12670,10 @@
     </row>
     <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="1" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C312" s="1" t="n">
         <v>3201</v>
@@ -12706,10 +12685,10 @@
         <v>10</v>
       </c>
       <c r="F312" s="3" t="s">
-        <v>696</v>
+        <v>308</v>
       </c>
       <c r="G312" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H312" s="1" t="s">
         <v>17</v>
@@ -12720,10 +12699,10 @@
     </row>
     <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="1" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C313" s="1" t="n">
         <v>3202</v>
@@ -12735,10 +12714,10 @@
         <v>10</v>
       </c>
       <c r="F313" s="3" t="s">
-        <v>696</v>
+        <v>308</v>
       </c>
       <c r="G313" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H313" s="1" t="s">
         <v>17</v>
@@ -12749,10 +12728,10 @@
     </row>
     <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="B314" s="1" t="s">
         <v>715</v>
-      </c>
-      <c r="B314" s="1" t="s">
-        <v>719</v>
       </c>
       <c r="C314" s="1" t="n">
         <v>3203</v>
@@ -12764,10 +12743,10 @@
         <v>10</v>
       </c>
       <c r="F314" s="3" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="G314" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H314" s="1" t="s">
         <v>17</v>
@@ -12778,10 +12757,10 @@
     </row>
     <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="1" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="C315" s="1" t="n">
         <v>3204</v>
@@ -12793,10 +12772,10 @@
         <v>10</v>
       </c>
       <c r="F315" s="3" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="G315" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H315" s="1" t="s">
         <v>17</v>
@@ -12807,10 +12786,10 @@
     </row>
     <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="1" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="C316" s="1" t="n">
         <v>3205</v>
@@ -12822,10 +12801,10 @@
         <v>10</v>
       </c>
       <c r="F316" s="3" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="G316" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H316" s="1" t="s">
         <v>17</v>
@@ -12836,10 +12815,10 @@
     </row>
     <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="1" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C317" s="1" t="n">
         <v>3206</v>
@@ -12851,10 +12830,10 @@
         <v>1</v>
       </c>
       <c r="F317" s="3" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="G317" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H317" s="1" t="s">
         <v>17</v>
@@ -12865,10 +12844,10 @@
     </row>
     <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="C318" s="1" t="n">
         <v>3207</v>
@@ -12880,10 +12859,10 @@
         <v>1</v>
       </c>
       <c r="F318" s="3" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="G318" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H318" s="1" t="s">
         <v>17</v>
@@ -12894,10 +12873,10 @@
     </row>
     <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="C319" s="1" t="n">
         <v>3208</v>
@@ -12909,10 +12888,10 @@
         <v>1</v>
       </c>
       <c r="F319" s="3" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="G319" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H319" s="1" t="s">
         <v>17</v>
@@ -12923,10 +12902,10 @@
     </row>
     <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C320" s="1" t="n">
         <v>3209</v>
@@ -12938,10 +12917,10 @@
         <v>100</v>
       </c>
       <c r="F320" s="3" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="G320" s="1" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="H320" s="1" t="s">
         <v>17</v>
@@ -12952,10 +12931,10 @@
     </row>
     <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="C321" s="1" t="n">
         <v>3210</v>
@@ -12967,10 +12946,10 @@
         <v>100</v>
       </c>
       <c r="F321" s="3" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="G321" s="1" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="H321" s="1" t="s">
         <v>17</v>
@@ -12981,10 +12960,10 @@
     </row>
     <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="C322" s="1" t="n">
         <v>3211</v>
@@ -12996,10 +12975,10 @@
         <v>100</v>
       </c>
       <c r="F322" s="3" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="G322" s="1" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="H322" s="1" t="s">
         <v>17</v>
@@ -13010,10 +12989,10 @@
     </row>
     <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="C323" s="1" t="n">
         <v>3212</v>
@@ -13025,10 +13004,10 @@
         <v>1</v>
       </c>
       <c r="F323" s="3" t="s">
-        <v>698</v>
+        <v>29</v>
       </c>
       <c r="G323" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H323" s="1" t="s">
         <v>17</v>
@@ -13036,10 +13015,10 @@
     </row>
     <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="C324" s="1" t="n">
         <v>3213</v>
@@ -13051,24 +13030,24 @@
         <v>1</v>
       </c>
       <c r="F324" s="3" t="s">
-        <v>698</v>
+        <v>29</v>
       </c>
       <c r="G324" s="1" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="H324" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I324" s="1" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C325" s="1" t="n">
         <v>3214</v>
@@ -13080,24 +13059,24 @@
         <v>1</v>
       </c>
       <c r="F325" s="3" t="s">
-        <v>698</v>
+        <v>29</v>
       </c>
       <c r="G325" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H325" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I325" s="1" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="1" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="C326" s="1" t="n">
         <v>3215</v>
@@ -13109,24 +13088,24 @@
         <v>1</v>
       </c>
       <c r="F326" s="3" t="s">
-        <v>698</v>
+        <v>29</v>
       </c>
       <c r="G326" s="1" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="H326" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I326" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C327" s="1" t="n">
         <v>3216</v>
@@ -13138,10 +13117,10 @@
         <v>1</v>
       </c>
       <c r="F327" s="3" t="s">
-        <v>698</v>
+        <v>29</v>
       </c>
       <c r="G327" s="1" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="H327" s="1" t="s">
         <v>17</v>
@@ -13152,10 +13131,10 @@
     </row>
     <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="C328" s="1" t="n">
         <v>3217</v>
@@ -13167,24 +13146,24 @@
         <v>1</v>
       </c>
       <c r="F328" s="3" t="s">
-        <v>698</v>
+        <v>29</v>
       </c>
       <c r="G328" s="1" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="H328" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I328" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="C329" s="1" t="n">
         <v>3218</v>
@@ -13196,10 +13175,10 @@
         <v>0.01</v>
       </c>
       <c r="F329" s="3" t="s">
-        <v>744</v>
+        <v>103</v>
       </c>
       <c r="G329" s="1" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="H329" s="1" t="s">
         <v>17</v>
@@ -13210,10 +13189,10 @@
     </row>
     <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="C330" s="1" t="n">
         <v>3219</v>
@@ -13225,10 +13204,10 @@
         <v>10</v>
       </c>
       <c r="F330" s="3" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="G330" s="1" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="H330" s="1" t="s">
         <v>17</v>
@@ -13239,10 +13218,10 @@
     </row>
     <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="C331" s="1" t="n">
         <v>3220</v>
@@ -13254,10 +13233,10 @@
         <v>10</v>
       </c>
       <c r="F331" s="3" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="G331" s="1" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="H331" s="1" t="s">
         <v>17</v>
@@ -13268,10 +13247,10 @@
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="C332" s="1" t="n">
         <v>3221</v>
@@ -13283,10 +13262,10 @@
         <v>10</v>
       </c>
       <c r="F332" s="3" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="G332" s="1" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="H332" s="1" t="s">
         <v>17</v>
@@ -13297,10 +13276,10 @@
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="C333" s="1" t="n">
         <v>3222</v>
@@ -13312,10 +13291,10 @@
         <v>100</v>
       </c>
       <c r="F333" s="3" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="G333" s="1" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="H333" s="1" t="s">
         <v>17</v>
@@ -13326,10 +13305,10 @@
     </row>
     <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="C334" s="1" t="n">
         <v>3223</v>
@@ -13341,24 +13320,24 @@
         <v>1</v>
       </c>
       <c r="F334" s="3" t="s">
-        <v>698</v>
+        <v>29</v>
       </c>
       <c r="G334" s="1" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="H334" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I334" s="1" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C335" s="1" t="n">
         <v>3300</v>
@@ -13373,7 +13352,7 @@
         <v>29</v>
       </c>
       <c r="G335" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H335" s="1" t="s">
         <v>17</v>
@@ -13381,10 +13360,10 @@
     </row>
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="C336" s="1" t="n">
         <v>3301</v>
@@ -13399,7 +13378,7 @@
         <v>185</v>
       </c>
       <c r="G336" s="1" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="H336" s="1" t="s">
         <v>17</v>
@@ -13407,10 +13386,10 @@
     </row>
     <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="C337" s="1" t="n">
         <v>3302</v>
@@ -13425,7 +13404,7 @@
         <v>141</v>
       </c>
       <c r="G337" s="1" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="H337" s="1" t="s">
         <v>17</v>
@@ -13433,10 +13412,10 @@
     </row>
     <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="B338" s="1" t="s">
         <v>757</v>
-      </c>
-      <c r="B338" s="1" t="s">
-        <v>762</v>
       </c>
       <c r="C338" s="1" t="n">
         <v>3303</v>
@@ -13451,21 +13430,21 @@
         <v>29</v>
       </c>
       <c r="G338" s="1" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="H338" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I338" s="1" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="C339" s="1" t="n">
         <v>3304</v>
@@ -13480,7 +13459,7 @@
         <v>141</v>
       </c>
       <c r="G339" s="1" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="H339" s="1" t="s">
         <v>17</v>
@@ -13491,10 +13470,10 @@
     </row>
     <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="C340" s="1" t="n">
         <v>3305</v>
@@ -13509,65 +13488,65 @@
         <v>29</v>
       </c>
       <c r="G340" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="H340" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I340" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="C341" s="1" t="n">
         <v>3400</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E341" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F341" s="3" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="G341" s="1" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="H341" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I341" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="C342" s="1" t="n">
         <v>3402</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E342" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F342" s="3" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="G342" s="1" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="H342" s="1" t="s">
         <v>17</v>
@@ -13575,25 +13554,25 @@
     </row>
     <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="C343" s="1" t="n">
         <v>3420</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E343" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F343" s="3" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="G343" s="1" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="H343" s="1" t="s">
         <v>17</v>
@@ -13601,10 +13580,10 @@
     </row>
     <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C344" s="1" t="n">
         <v>3422</v>
@@ -13625,15 +13604,15 @@
         <v>17</v>
       </c>
       <c r="I344" s="1" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C345" s="1" t="n">
         <v>3423</v>
@@ -13645,21 +13624,21 @@
         <v>1</v>
       </c>
       <c r="F345" s="3" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="G345" s="1" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="H345" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I345" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="B346" s="1" t="s">
         <v>5</v>
@@ -13674,24 +13653,24 @@
         <v>1</v>
       </c>
       <c r="F346" s="3" t="s">
-        <v>277</v>
+        <v>29</v>
       </c>
       <c r="G346" s="1" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="H346" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I346" s="1" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="C347" s="1" t="n">
         <v>3500</v>
@@ -13706,21 +13685,21 @@
         <v>21</v>
       </c>
       <c r="G347" s="1" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="H347" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I347" s="1" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="C348" s="1" t="n">
         <v>3501</v>
@@ -13732,24 +13711,24 @@
         <v>1</v>
       </c>
       <c r="F348" s="3" t="s">
-        <v>277</v>
+        <v>29</v>
       </c>
       <c r="G348" s="1" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="H348" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I348" s="1" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="C349" s="1" t="n">
         <v>3502</v>
@@ -13761,53 +13740,53 @@
         <v>1</v>
       </c>
       <c r="F349" s="3" t="s">
-        <v>277</v>
+        <v>29</v>
       </c>
       <c r="G349" s="1" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="H349" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I349" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="C350" s="1" t="n">
         <v>3504</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E350" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F350" s="3" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="G350" s="1" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="H350" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I350" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="C351" s="1" t="n">
         <v>3506</v>
@@ -13819,24 +13798,24 @@
         <v>1</v>
       </c>
       <c r="F351" s="3" t="s">
-        <v>277</v>
+        <v>29</v>
       </c>
       <c r="G351" s="1" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="H351" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I351" s="1" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="C352" s="1" t="n">
         <v>3507</v>
@@ -13848,27 +13827,27 @@
         <v>1</v>
       </c>
       <c r="F352" s="3" t="s">
-        <v>277</v>
+        <v>29</v>
       </c>
       <c r="G352" s="1" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="H352" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I352" s="1" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="J352" s="1" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="C353" s="1" t="n">
         <v>3508</v>
@@ -13880,24 +13859,24 @@
         <v>1</v>
       </c>
       <c r="F353" s="3" t="s">
-        <v>277</v>
+        <v>29</v>
       </c>
       <c r="G353" s="1" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="H353" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I353" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="1" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="B354" s="22" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="C354" s="1" t="n">
         <v>3600</v>
@@ -13909,24 +13888,24 @@
         <v>10</v>
       </c>
       <c r="F354" s="3" t="s">
-        <v>801</v>
+        <v>79</v>
       </c>
       <c r="G354" s="1" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="H354" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I354" s="1" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="1" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="B355" s="22" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="C355" s="1" t="n">
         <v>3601</v>
@@ -13938,24 +13917,24 @@
         <v>10</v>
       </c>
       <c r="F355" s="3" t="s">
-        <v>801</v>
+        <v>79</v>
       </c>
       <c r="G355" s="1" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="H355" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I355" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="1" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="B356" s="22" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="C356" s="1" t="n">
         <v>3602</v>
@@ -13967,10 +13946,10 @@
         <v>10</v>
       </c>
       <c r="F356" s="3" t="s">
-        <v>807</v>
+        <v>84</v>
       </c>
       <c r="G356" s="1" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="H356" s="1" t="s">
         <v>17</v>
@@ -13981,10 +13960,10 @@
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="B357" s="22" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="C357" s="1" t="n">
         <v>3603</v>
@@ -13996,10 +13975,10 @@
         <v>10</v>
       </c>
       <c r="F357" s="3" t="s">
-        <v>807</v>
+        <v>84</v>
       </c>
       <c r="G357" s="1" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="H357" s="1" t="s">
         <v>17</v>
@@ -14043,13 +14022,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="24" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14060,7 +14039,7 @@
         <v>257</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14071,7 +14050,7 @@
         <v>256</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14082,7 +14061,7 @@
         <v>258</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14093,7 +14072,7 @@
         <v>260</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14104,7 +14083,7 @@
         <v>261</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14115,7 +14094,7 @@
         <v>273</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14126,7 +14105,7 @@
         <v>274</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14137,7 +14116,7 @@
         <v>275</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14148,7 +14127,7 @@
         <v>276</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14159,7 +14138,7 @@
         <v>279</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14170,7 +14149,7 @@
         <v>278</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14181,7 +14160,7 @@
         <v>277</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14192,7 +14171,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14203,7 +14182,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14214,7 +14193,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14225,7 +14204,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14236,7 +14215,7 @@
         <v>4</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14247,7 +14226,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14258,7 +14237,7 @@
         <v>6</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14269,7 +14248,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14280,7 +14259,7 @@
         <v>8</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14291,7 +14270,7 @@
         <v>9</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14302,7 +14281,7 @@
         <v>10</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14313,7 +14292,7 @@
         <v>11</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14324,7 +14303,7 @@
         <v>12</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14335,7 +14314,7 @@
         <v>20</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14346,7 +14325,7 @@
         <v>21</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14357,7 +14336,7 @@
         <v>22</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14368,7 +14347,7 @@
         <v>23</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14379,7 +14358,7 @@
         <v>24</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14390,7 +14369,7 @@
         <v>25</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14401,7 +14380,7 @@
         <v>26</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14412,7 +14391,7 @@
         <v>27</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14423,7 +14402,7 @@
         <v>28</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14434,7 +14413,7 @@
         <v>29</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14445,7 +14424,7 @@
         <v>30</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14456,7 +14435,7 @@
         <v>31</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14467,7 +14446,7 @@
         <v>32</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14478,7 +14457,7 @@
         <v>33</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14489,7 +14468,7 @@
         <v>34</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14500,7 +14479,7 @@
         <v>40</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14511,7 +14490,7 @@
         <v>41</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14522,7 +14501,7 @@
         <v>42</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14533,7 +14512,7 @@
         <v>43</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14544,7 +14523,7 @@
         <v>44</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14555,7 +14534,7 @@
         <v>45</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14566,7 +14545,7 @@
         <v>46</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14577,7 +14556,7 @@
         <v>288</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14588,7 +14567,7 @@
         <v>289</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14599,7 +14578,7 @@
         <v>290</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14610,7 +14589,7 @@
         <v>291</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14621,7 +14600,7 @@
         <v>292</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14632,7 +14611,7 @@
         <v>293</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14643,7 +14622,7 @@
         <v>294</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14654,7 +14633,7 @@
         <v>295</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14665,7 +14644,7 @@
         <v>296</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14676,12 +14655,12 @@
         <v>512</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="26" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="B60" s="26"/>
       <c r="C60" s="26"/>
@@ -14691,7 +14670,7 @@
     </row>
     <row r="61" customFormat="false" ht="92.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="27" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="B61" s="27"/>
       <c r="C61" s="27"/>
@@ -14723,7 +14702,7 @@
   </sheetPr>
   <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B79" activeCellId="0" sqref="B79"/>
     </sheetView>
   </sheetViews>
@@ -14737,488 +14716,488 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="22" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="22" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="22" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="22" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="22" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="22" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="22" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="22" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="22" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="22" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="22" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="22" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="22" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="22" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="22" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="22" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="22" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="22" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="22" t="s">
-        <v>900</v>
+        <v>893</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="22" t="s">
-        <v>901</v>
+        <v>894</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="22" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="22" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="22" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="22" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="22" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="22" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="22" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="22" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="22" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="22" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="22" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="22" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="22" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="22" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="22" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="22" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="22" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="28" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="22" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="22" t="s">
-        <v>925</v>
+        <v>918</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="22" t="s">
-        <v>927</v>
+        <v>920</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="22" t="s">
-        <v>928</v>
+        <v>921</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="22" t="s">
-        <v>929</v>
+        <v>922</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="22" t="s">
-        <v>931</v>
+        <v>924</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="22" t="s">
-        <v>932</v>
+        <v>925</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="22" t="s">
-        <v>933</v>
+        <v>926</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="22" t="s">
-        <v>935</v>
+        <v>928</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>936</v>
+        <v>929</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="22" t="s">
-        <v>937</v>
+        <v>930</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="22" t="s">
-        <v>938</v>
+        <v>931</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>939</v>
+        <v>932</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="22" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="22" t="s">
-        <v>941</v>
+        <v>934</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="22" t="s">
-        <v>942</v>
+        <v>935</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="22" t="s">
-        <v>943</v>
+        <v>936</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="22" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>945</v>
+        <v>938</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="22" t="s">
-        <v>946</v>
+        <v>939</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>947</v>
+        <v>940</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="22" t="s">
-        <v>948</v>
+        <v>941</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="22" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="22" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>951</v>
+        <v>944</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="22" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="22" t="s">
-        <v>953</v>
+        <v>946</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>954</v>
+        <v>947</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="22" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>956</v>
+        <v>949</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="22" t="s">
-        <v>957</v>
+        <v>950</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="22" t="s">
-        <v>959</v>
+        <v>952</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="22" t="s">
-        <v>961</v>
+        <v>954</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>962</v>
+        <v>955</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="22" t="s">
-        <v>963</v>
+        <v>956</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="22" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="B67" s="22" t="s">
-        <v>966</v>
+        <v>959</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="22" t="s">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>968</v>
+        <v>961</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="22" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="22" t="s">
-        <v>971</v>
+        <v>964</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="22" t="s">
-        <v>972</v>
+        <v>965</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="22" t="s">
-        <v>973</v>
+        <v>966</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>974</v>
+        <v>967</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="22" t="s">
-        <v>975</v>
+        <v>968</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="22" t="s">
-        <v>976</v>
+        <v>969</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>977</v>
+        <v>970</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="22" t="s">
-        <v>978</v>
+        <v>971</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="22" t="s">
-        <v>979</v>
+        <v>972</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="22" t="s">
-        <v>980</v>
+        <v>973</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="22" t="s">
-        <v>981</v>
+        <v>974</v>
       </c>
       <c r="B78" s="22" t="s">
-        <v>982</v>
+        <v>975</v>
       </c>
     </row>
   </sheetData>

--- a/CCGX-Modbus-TCP-register-list.xlsx
+++ b/CCGX-Modbus-TCP-register-list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Field list" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2755" uniqueCount="976">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2757" uniqueCount="978">
   <si>
     <t xml:space="preserve">NOTE: Use unit-id 100 for the com.victronenergy.system data, for more information see FAQ.</t>
   </si>
@@ -2950,6 +2950,12 @@
   </si>
   <si>
     <t xml:space="preserve">Added additional registers for generator start/stop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rev 32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corrected the allowed ranges for many of the registers</t>
   </si>
 </sst>
 </file>
@@ -3302,7 +3308,7 @@
   </sheetPr>
   <dimension ref="A1:N357"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A241" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A274" activeCellId="0" sqref="A274"/>
@@ -14700,10 +14706,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C78"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B79" activeCellId="0" sqref="B79"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B80" activeCellId="0" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15200,6 +15206,14 @@
         <v>975</v>
       </c>
     </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="22" t="s">
+        <v>976</v>
+      </c>
+      <c r="B79" s="22" t="s">
+        <v>977</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/CCGX-Modbus-TCP-register-list.xlsx
+++ b/CCGX-Modbus-TCP-register-list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Field list" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2757" uniqueCount="978">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2927" uniqueCount="1029">
   <si>
     <t xml:space="preserve">NOTE: Use unit-id 100 for the com.victronenergy.system data, for more information see FAQ.</t>
   </si>
@@ -1443,6 +1443,153 @@
     <t xml:space="preserve">0=Off;1=Voltage/current limited;2=MPPT active;255=Not available</t>
   </si>
   <si>
+    <t xml:space="preserve">PV voltage for tracker 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Pv/0/V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PV voltage for tracker 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Pv/1/V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PV voltage for tracker 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Pv/2/V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PV voltage for tracker 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Pv/3/V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PV current for tracker 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Pv/0/I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PV current for tracker 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Pv/1/I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PV current for tracker 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Pv/2/I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PV current for tracker 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Pv/3/I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yield today for tracker 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/History/Daily/0/Pv/0/Yield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yield today for tracker 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/History/Daily/0/Pv/1/Yield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yield today for tracker 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/History/Daily/0/Pv/2/Yield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yield today for tracker 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/History/Daily/0/Pv/3/Yield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yield yesterday for tracker 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/History/Daily/1/Pv/0/Yield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yield yesterday for tracker 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/History/Daily/1/Pv/1/Yield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yield yesterday for tracker 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/History/Daily/1/Pv/2/Yield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yield yesterday for tracker 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/History/Daily/1/Pv/3/Yield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum charge power today for tracker 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 to 65535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/History/Daily/0/Pv/0/MaxPower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum charge power today for tracker 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/History/Daily/0/Pv/1/MaxPower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum charge power today for tracker 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/History/Daily/0/Pv/2/MaxPower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum charge power today for tracker 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/History/Daily/0/Pv/3/MaxPower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum charge power yesterday tracker 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/History/Daily/1/Pv/0/MaxPower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum charge power yesterday tracker 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/History/Daily/1/Pv/1/MaxPower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum charge power yesterday tracker 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/History/Daily/1/Pv/2/MaxPower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum charge power yesterday tracker 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/History/Daily/1/Pv/3/MaxPower</t>
+  </si>
+  <si>
     <t xml:space="preserve">com.victronenergy.pvinverter</t>
   </si>
   <si>
@@ -2956,6 +3103,12 @@
   </si>
   <si>
     <t xml:space="preserve">Corrected the allowed ranges for many of the registers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rev 33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added registers for MPPTs with multiple trackers</t>
   </si>
 </sst>
 </file>
@@ -3230,13 +3383,13 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -3302,30 +3455,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N357"/>
+  <dimension ref="A1:N381"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A241" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A274" activeCellId="0" sqref="A274"/>
+      <selection pane="bottomLeft" activeCell="C195" activeCellId="0" sqref="C195"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="37.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="8.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="26.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="26.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="8.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="70.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="1" width="9"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="1" width="9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9081,192 +9234,213 @@
       <c r="M188" s="20"/>
       <c r="N188" s="20"/>
     </row>
-    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B189" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="C189" s="1" t="n">
+        <v>3700</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E189" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G189" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C189" s="1" t="n">
-        <v>1026</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E189" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F189" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G189" s="1" t="s">
+      <c r="H189" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I189" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K189" s="19"/>
+      <c r="L189" s="20"/>
+  